--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-08.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-08.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2942"/>
+  <dimension ref="A1:H2918"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82209,10 +82209,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2572" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2572" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2573">
@@ -82247,10 +82245,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2573" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2573" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2574">
@@ -82277,10 +82273,8 @@
       </c>
       <c r="F2574" t="inlineStr"/>
       <c r="G2574" t="inlineStr"/>
-      <c r="H2574" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2574" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2575">
@@ -82315,10 +82309,8 @@
           <t>7.0K</t>
         </is>
       </c>
-      <c r="H2575" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2575" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2576">
@@ -82349,10 +82341,8 @@
           <t>2.876M</t>
         </is>
       </c>
-      <c r="H2576" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2576" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2577">
@@ -82387,10 +82377,8 @@
           <t>6.2%</t>
         </is>
       </c>
-      <c r="H2577" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2577" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2578">
@@ -82413,10 +82401,8 @@
       <c r="E2578" t="inlineStr"/>
       <c r="F2578" t="inlineStr"/>
       <c r="G2578" t="inlineStr"/>
-      <c r="H2578" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2578" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2579">
@@ -82443,10 +82429,8 @@
       </c>
       <c r="F2579" t="inlineStr"/>
       <c r="G2579" t="inlineStr"/>
-      <c r="H2579" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2579" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2580">
@@ -82473,10 +82457,8 @@
       </c>
       <c r="F2580" t="inlineStr"/>
       <c r="G2580" t="inlineStr"/>
-      <c r="H2580" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2580" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2581">
@@ -82503,10 +82485,8 @@
       </c>
       <c r="F2581" t="inlineStr"/>
       <c r="G2581" t="inlineStr"/>
-      <c r="H2581" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2581" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2582">
@@ -82533,10 +82513,8 @@
       </c>
       <c r="F2582" t="inlineStr"/>
       <c r="G2582" t="inlineStr"/>
-      <c r="H2582" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2582" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2583">
@@ -82563,10 +82541,8 @@
       </c>
       <c r="F2583" t="inlineStr"/>
       <c r="G2583" t="inlineStr"/>
-      <c r="H2583" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2583" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2584">
@@ -82593,10 +82569,8 @@
       </c>
       <c r="F2584" t="inlineStr"/>
       <c r="G2584" t="inlineStr"/>
-      <c r="H2584" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2584" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2585">
@@ -82623,10 +82597,8 @@
       </c>
       <c r="F2585" t="inlineStr"/>
       <c r="G2585" t="inlineStr"/>
-      <c r="H2585" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2585" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2586">
@@ -82653,10 +82625,8 @@
       </c>
       <c r="F2586" t="inlineStr"/>
       <c r="G2586" t="inlineStr"/>
-      <c r="H2586" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2586" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2587">
@@ -82683,10 +82653,8 @@
       </c>
       <c r="F2587" t="inlineStr"/>
       <c r="G2587" t="inlineStr"/>
-      <c r="H2587" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2587" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2588">
@@ -82713,10 +82681,8 @@
       </c>
       <c r="F2588" t="inlineStr"/>
       <c r="G2588" t="inlineStr"/>
-      <c r="H2588" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2588" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2589">
@@ -82743,10 +82709,8 @@
       </c>
       <c r="F2589" t="inlineStr"/>
       <c r="G2589" t="inlineStr"/>
-      <c r="H2589" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2589" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2590">
@@ -82773,10 +82737,8 @@
       </c>
       <c r="F2590" t="inlineStr"/>
       <c r="G2590" t="inlineStr"/>
-      <c r="H2590" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2590" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2591">
@@ -82807,10 +82769,8 @@
           <t>€5.0B</t>
         </is>
       </c>
-      <c r="H2591" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2591" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2592">
@@ -82841,10 +82801,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2592" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2592" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2593">
@@ -82875,10 +82833,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2593" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2593" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2594">
@@ -82909,10 +82865,8 @@
           <t>INR-9700.0B</t>
         </is>
       </c>
-      <c r="H2594" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2594" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2595">
@@ -82943,10 +82897,8 @@
           <t>77.9%</t>
         </is>
       </c>
-      <c r="H2595" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2595" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2596">
@@ -82981,10 +82933,8 @@
           <t>BRL-75.0B</t>
         </is>
       </c>
-      <c r="H2596" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2596" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2597">
@@ -83011,10 +82961,8 @@
       </c>
       <c r="F2597" t="inlineStr"/>
       <c r="G2597" t="inlineStr"/>
-      <c r="H2597" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2597" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2598">
@@ -83041,10 +82989,8 @@
       </c>
       <c r="F2598" t="inlineStr"/>
       <c r="G2598" t="inlineStr"/>
-      <c r="H2598" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2598" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2599">
@@ -83071,10 +83017,8 @@
       </c>
       <c r="F2599" t="inlineStr"/>
       <c r="G2599" t="inlineStr"/>
-      <c r="H2599" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2599" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2600">
@@ -83105,10 +83049,8 @@
           <t>4.8%</t>
         </is>
       </c>
-      <c r="H2600" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2600" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2601">
@@ -83143,10 +83085,8 @@
           <t>6.1%</t>
         </is>
       </c>
-      <c r="H2601" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2601" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2602">
@@ -83177,10 +83117,8 @@
           <t>ZAR 27.0B</t>
         </is>
       </c>
-      <c r="H2602" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2602" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2603">
@@ -83215,10 +83153,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H2603" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2603" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2604">
@@ -83253,10 +83189,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2604" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2604" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2605">
@@ -83291,10 +83225,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H2605" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2605" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2606">
@@ -83329,10 +83261,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2606" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2606" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2607">
@@ -83367,10 +83297,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H2607" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2607" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2608">
@@ -83401,10 +83329,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2608" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2608" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2609">
@@ -83439,10 +83365,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2609" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2609" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2610">
@@ -83477,10 +83401,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2610" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2610" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2611">
@@ -83515,10 +83437,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2611" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2611" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2612">
@@ -83549,10 +83469,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2612" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2612" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2613">
@@ -83583,10 +83501,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2613" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2613" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2614">
@@ -83621,10 +83537,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2614" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2614" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2615">
@@ -83647,10 +83561,8 @@
       <c r="E2615" t="inlineStr"/>
       <c r="F2615" t="inlineStr"/>
       <c r="G2615" t="inlineStr"/>
-      <c r="H2615" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2615" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2616">
@@ -83685,10 +83597,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2616" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2616" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2617">
@@ -83723,10 +83633,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H2617" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2617" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2618">
@@ -83761,10 +83669,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H2618" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2618" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2619">
@@ -83799,10 +83705,8 @@
           <t>37.2</t>
         </is>
       </c>
-      <c r="H2619" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2619" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2620">
@@ -83833,10 +83737,8 @@
           <t>C$-1.9B</t>
         </is>
       </c>
-      <c r="H2620" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2620" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2621">
@@ -83863,10 +83765,8 @@
       </c>
       <c r="F2621" t="inlineStr"/>
       <c r="G2621" t="inlineStr"/>
-      <c r="H2621" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2621" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2622">
@@ -83893,10 +83793,8 @@
       </c>
       <c r="F2622" t="inlineStr"/>
       <c r="G2622" t="inlineStr"/>
-      <c r="H2622" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2622" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2623">
@@ -83927,10 +83825,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2623" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2623" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2624">
@@ -83961,10 +83857,8 @@
           <t>$0.9B</t>
         </is>
       </c>
-      <c r="H2624" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2624" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2625">
@@ -83995,10 +83889,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H2625" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2625" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2626">
@@ -84025,10 +83917,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2626" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2626" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2627">
@@ -84055,10 +83945,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2627" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2627" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2628">
@@ -84085,10 +83973,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H2628" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2628" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2629">
@@ -84115,10 +84001,8 @@
           <t>-4.0%</t>
         </is>
       </c>
-      <c r="H2629" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2629" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2630">
@@ -84145,10 +84029,8 @@
           <t>20.7%</t>
         </is>
       </c>
-      <c r="H2630" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2630" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2631">
@@ -84189,10 +84071,8 @@
       </c>
       <c r="F2632" t="inlineStr"/>
       <c r="G2632" t="inlineStr"/>
-      <c r="H2632" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2632" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2633">
@@ -84223,10 +84103,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H2633" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2633" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2634">
@@ -84257,10 +84135,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H2634" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2634" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2635">
@@ -84291,10 +84167,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2635" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2635" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2636">
@@ -84317,10 +84191,8 @@
       <c r="E2636" t="inlineStr"/>
       <c r="F2636" t="inlineStr"/>
       <c r="G2636" t="inlineStr"/>
-      <c r="H2636" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2636" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2637">
@@ -84351,10 +84223,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H2637" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2637" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2638">
@@ -84385,10 +84255,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2638" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2638" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2639">
@@ -84415,10 +84283,8 @@
       </c>
       <c r="F2639" t="inlineStr"/>
       <c r="G2639" t="inlineStr"/>
-      <c r="H2639" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2639" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2640">
@@ -84445,10 +84311,8 @@
       </c>
       <c r="F2640" t="inlineStr"/>
       <c r="G2640" t="inlineStr"/>
-      <c r="H2640" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2640" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2641">
@@ -84479,10 +84343,8 @@
           <t>51.6</t>
         </is>
       </c>
-      <c r="H2641" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2641" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2642">
@@ -84517,10 +84379,8 @@
           <t>48.8</t>
         </is>
       </c>
-      <c r="H2642" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2642" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2643">
@@ -84551,10 +84411,8 @@
           <t>49.5</t>
         </is>
       </c>
-      <c r="H2643" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2643" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2644">
@@ -84589,10 +84447,8 @@
           <t>50.5</t>
         </is>
       </c>
-      <c r="H2644" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2644" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2645">
@@ -84623,10 +84479,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H2645" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2645" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2646">
@@ -84657,10 +84511,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H2646" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2646" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2647">
@@ -84691,10 +84543,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2647" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2647" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2648">
@@ -84725,10 +84575,8 @@
           <t>18.0%</t>
         </is>
       </c>
-      <c r="H2648" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2648" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2649">
@@ -84777,10 +84625,8 @@
           <t>58</t>
         </is>
       </c>
-      <c r="H2650" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2650" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2651">
@@ -84807,10 +84653,8 @@
       </c>
       <c r="F2651" t="inlineStr"/>
       <c r="G2651" t="inlineStr"/>
-      <c r="H2651" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2651" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2652">
@@ -84837,10 +84681,8 @@
       </c>
       <c r="F2652" t="inlineStr"/>
       <c r="G2652" t="inlineStr"/>
-      <c r="H2652" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2652" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2653">
@@ -84867,10 +84709,8 @@
       </c>
       <c r="F2653" t="inlineStr"/>
       <c r="G2653" t="inlineStr"/>
-      <c r="H2653" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2653" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2654">
@@ -84901,10 +84741,8 @@
         </is>
       </c>
       <c r="G2654" t="inlineStr"/>
-      <c r="H2654" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2654" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2655">
@@ -84935,10 +84773,8 @@
         </is>
       </c>
       <c r="G2655" t="inlineStr"/>
-      <c r="H2655" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2655" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2656">
@@ -84965,10 +84801,8 @@
       </c>
       <c r="F2656" t="inlineStr"/>
       <c r="G2656" t="inlineStr"/>
-      <c r="H2656" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2656" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2657">
@@ -84995,10 +84829,8 @@
       </c>
       <c r="F2657" t="inlineStr"/>
       <c r="G2657" t="inlineStr"/>
-      <c r="H2657" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2657" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2658">
@@ -85025,10 +84857,8 @@
       </c>
       <c r="F2658" t="inlineStr"/>
       <c r="G2658" t="inlineStr"/>
-      <c r="H2658" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2658" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2659">
@@ -85055,10 +84885,8 @@
       </c>
       <c r="F2659" t="inlineStr"/>
       <c r="G2659" t="inlineStr"/>
-      <c r="H2659" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2659" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2660">
@@ -85085,10 +84913,8 @@
       </c>
       <c r="F2660" t="inlineStr"/>
       <c r="G2660" t="inlineStr"/>
-      <c r="H2660" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2660" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2661">
@@ -85115,10 +84941,8 @@
       </c>
       <c r="F2661" t="inlineStr"/>
       <c r="G2661" t="inlineStr"/>
-      <c r="H2661" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2661" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2662">
@@ -85145,10 +84969,8 @@
       </c>
       <c r="F2662" t="inlineStr"/>
       <c r="G2662" t="inlineStr"/>
-      <c r="H2662" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2662" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2663">
@@ -85183,10 +85005,8 @@
           <t>45.3</t>
         </is>
       </c>
-      <c r="H2663" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2663" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2664">
@@ -85221,10 +85041,8 @@
           <t>44.1</t>
         </is>
       </c>
-      <c r="H2664" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2664" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2665">
@@ -85259,10 +85077,8 @@
           <t>46.1</t>
         </is>
       </c>
-      <c r="H2665" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2665" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2666">
@@ -85293,10 +85109,8 @@
           <t>47</t>
         </is>
       </c>
-      <c r="H2666" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2666" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2667">
@@ -85331,10 +85145,8 @@
           <t>48.2</t>
         </is>
       </c>
-      <c r="H2667" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2667" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2668">
@@ -85361,10 +85173,8 @@
       </c>
       <c r="F2668" t="inlineStr"/>
       <c r="G2668" t="inlineStr"/>
-      <c r="H2668" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2668" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2669">
@@ -85391,10 +85201,8 @@
       </c>
       <c r="F2669" t="inlineStr"/>
       <c r="G2669" t="inlineStr"/>
-      <c r="H2669" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2669" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2670">
@@ -85421,10 +85229,8 @@
       </c>
       <c r="F2670" t="inlineStr"/>
       <c r="G2670" t="inlineStr"/>
-      <c r="H2670" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2670" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2671">
@@ -85451,10 +85257,8 @@
       </c>
       <c r="F2671" t="inlineStr"/>
       <c r="G2671" t="inlineStr"/>
-      <c r="H2671" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2671" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2672">
@@ -85481,10 +85285,8 @@
       </c>
       <c r="F2672" t="inlineStr"/>
       <c r="G2672" t="inlineStr"/>
-      <c r="H2672" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2672" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2673">
@@ -85511,10 +85313,8 @@
       </c>
       <c r="F2673" t="inlineStr"/>
       <c r="G2673" t="inlineStr"/>
-      <c r="H2673" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2673" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2674">
@@ -85541,10 +85341,8 @@
       </c>
       <c r="F2674" t="inlineStr"/>
       <c r="G2674" t="inlineStr"/>
-      <c r="H2674" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2674" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2675">
@@ -85571,10 +85369,8 @@
       </c>
       <c r="F2675" t="inlineStr"/>
       <c r="G2675" t="inlineStr"/>
-      <c r="H2675" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2675" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2676">
@@ -85605,10 +85401,8 @@
           <t>$ 230B</t>
         </is>
       </c>
-      <c r="H2676" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2676" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2677">
@@ -85639,10 +85433,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H2677" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2677" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2678">
@@ -85673,10 +85465,8 @@
           <t>51.4</t>
         </is>
       </c>
-      <c r="H2678" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2678" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2679">
@@ -85703,10 +85493,8 @@
       </c>
       <c r="F2679" t="inlineStr"/>
       <c r="G2679" t="inlineStr"/>
-      <c r="H2679" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2679" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2680">
@@ -85733,10 +85521,8 @@
       </c>
       <c r="F2680" t="inlineStr"/>
       <c r="G2680" t="inlineStr"/>
-      <c r="H2680" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2680" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2681">
@@ -85763,10 +85549,8 @@
       </c>
       <c r="F2681" t="inlineStr"/>
       <c r="G2681" t="inlineStr"/>
-      <c r="H2681" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2681" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2682">
@@ -85797,10 +85581,8 @@
           <t>52.3</t>
         </is>
       </c>
-      <c r="H2682" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2682" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2683">
@@ -85835,10 +85617,8 @@
           <t>50.1</t>
         </is>
       </c>
-      <c r="H2683" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2683" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2684">
@@ -85869,10 +85649,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H2684" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2684" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2685">
@@ -85903,10 +85681,8 @@
           <t>47</t>
         </is>
       </c>
-      <c r="H2685" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2685" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2686">
@@ -85937,10 +85713,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2686" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2686" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2687">
@@ -85971,10 +85745,8 @@
           <t>52.8</t>
         </is>
       </c>
-      <c r="H2687" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2687" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2688">
@@ -86005,10 +85777,8 @@
           <t>53</t>
         </is>
       </c>
-      <c r="H2688" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2688" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2689">
@@ -86035,10 +85805,8 @@
       </c>
       <c r="F2689" t="inlineStr"/>
       <c r="G2689" t="inlineStr"/>
-      <c r="H2689" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2689" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2690">
@@ -86065,10 +85833,8 @@
       </c>
       <c r="F2690" t="inlineStr"/>
       <c r="G2690" t="inlineStr"/>
-      <c r="H2690" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2690" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2691">
@@ -86091,10 +85857,8 @@
       <c r="E2691" t="inlineStr"/>
       <c r="F2691" t="inlineStr"/>
       <c r="G2691" t="inlineStr"/>
-      <c r="H2691" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2691" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2692">
@@ -86117,10 +85881,8 @@
       <c r="E2692" t="inlineStr"/>
       <c r="F2692" t="inlineStr"/>
       <c r="G2692" t="inlineStr"/>
-      <c r="H2692" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2692" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2693">
@@ -86147,10 +85909,8 @@
       </c>
       <c r="F2693" t="inlineStr"/>
       <c r="G2693" t="inlineStr"/>
-      <c r="H2693" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2693" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2694">
@@ -86177,10 +85937,8 @@
       </c>
       <c r="F2694" t="inlineStr"/>
       <c r="G2694" t="inlineStr"/>
-      <c r="H2694" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2694" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2695">
@@ -86211,10 +85969,8 @@
           <t>58</t>
         </is>
       </c>
-      <c r="H2695" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2695" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2696">
@@ -86233,10 +85989,8 @@
       <c r="E2696" t="inlineStr"/>
       <c r="F2696" t="inlineStr"/>
       <c r="G2696" t="inlineStr"/>
-      <c r="H2696" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2696" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2697">
@@ -86263,10 +86017,8 @@
           <t>43.0K</t>
         </is>
       </c>
-      <c r="H2697" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2697" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2698">
@@ -86307,10 +86059,8 @@
       </c>
       <c r="F2699" t="inlineStr"/>
       <c r="G2699" t="inlineStr"/>
-      <c r="H2699" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2699" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2700">
@@ -86337,10 +86087,8 @@
       </c>
       <c r="F2700" t="inlineStr"/>
       <c r="G2700" t="inlineStr"/>
-      <c r="H2700" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2700" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2701">
@@ -86367,10 +86115,8 @@
       </c>
       <c r="F2701" t="inlineStr"/>
       <c r="G2701" t="inlineStr"/>
-      <c r="H2701" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2701" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2702">
@@ -86397,10 +86143,8 @@
       </c>
       <c r="F2702" t="inlineStr"/>
       <c r="G2702" t="inlineStr"/>
-      <c r="H2702" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2702" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2703">
@@ -86431,10 +86175,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2703" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2703" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2704">
@@ -86461,10 +86203,8 @@
       </c>
       <c r="F2704" t="inlineStr"/>
       <c r="G2704" t="inlineStr"/>
-      <c r="H2704" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2704" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2705">
@@ -86487,10 +86227,8 @@
       <c r="E2705" t="inlineStr"/>
       <c r="F2705" t="inlineStr"/>
       <c r="G2705" t="inlineStr"/>
-      <c r="H2705" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2705" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2706">
@@ -86521,10 +86259,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2706" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2706" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2707">
@@ -86555,10 +86291,8 @@
           <t>8.2%</t>
         </is>
       </c>
-      <c r="H2707" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2707" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2708">
@@ -86589,10 +86323,8 @@
           <t>50.8</t>
         </is>
       </c>
-      <c r="H2708" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2708" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2709">
@@ -86619,10 +86351,8 @@
       </c>
       <c r="F2709" t="inlineStr"/>
       <c r="G2709" t="inlineStr"/>
-      <c r="H2709" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2709" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2710">
@@ -86653,10 +86383,8 @@
           <t>49.7</t>
         </is>
       </c>
-      <c r="H2710" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2710" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2711">
@@ -86687,10 +86415,8 @@
           <t>7.8M</t>
         </is>
       </c>
-      <c r="H2711" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2711" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2712">
@@ -86721,10 +86447,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H2712" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2712" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2713">
@@ -86755,10 +86479,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2713" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2713" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2714">
@@ -86789,10 +86511,8 @@
           <t>3.1M</t>
         </is>
       </c>
-      <c r="H2714" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2714" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2715">
@@ -86823,10 +86543,8 @@
           <t>52.3</t>
         </is>
       </c>
-      <c r="H2715" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2715" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2716">
@@ -86849,10 +86567,8 @@
       <c r="E2716" t="inlineStr"/>
       <c r="F2716" t="inlineStr"/>
       <c r="G2716" t="inlineStr"/>
-      <c r="H2716" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2716" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2717">
@@ -86875,10 +86591,8 @@
       <c r="E2717" t="inlineStr"/>
       <c r="F2717" t="inlineStr"/>
       <c r="G2717" t="inlineStr"/>
-      <c r="H2717" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2717" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2718">
@@ -86905,10 +86619,8 @@
       </c>
       <c r="F2718" t="inlineStr"/>
       <c r="G2718" t="inlineStr"/>
-      <c r="H2718" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2718" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2719">
@@ -86935,10 +86647,8 @@
       </c>
       <c r="F2719" t="inlineStr"/>
       <c r="G2719" t="inlineStr"/>
-      <c r="H2719" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2719" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2720">
@@ -86969,10 +86679,8 @@
           <t>50.4</t>
         </is>
       </c>
-      <c r="H2720" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2720" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2721">
@@ -87003,10 +86711,8 @@
           <t>50.3</t>
         </is>
       </c>
-      <c r="H2721" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2721" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2722">
@@ -87033,10 +86739,8 @@
       </c>
       <c r="F2722" t="inlineStr"/>
       <c r="G2722" t="inlineStr"/>
-      <c r="H2722" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2722" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2723">
@@ -87063,10 +86767,8 @@
       </c>
       <c r="F2723" t="inlineStr"/>
       <c r="G2723" t="inlineStr"/>
-      <c r="H2723" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2723" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2724">
@@ -87097,10 +86799,8 @@
           <t>2.1%</t>
         </is>
       </c>
-      <c r="H2724" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2724" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2725">
@@ -87127,10 +86827,8 @@
       </c>
       <c r="F2725" t="inlineStr"/>
       <c r="G2725" t="inlineStr"/>
-      <c r="H2725" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2725" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2726">
@@ -87165,10 +86863,8 @@
           <t>52.7</t>
         </is>
       </c>
-      <c r="H2726" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2726" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2727">
@@ -87199,10 +86895,8 @@
           <t>51.1</t>
         </is>
       </c>
-      <c r="H2727" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2727" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2728">
@@ -87229,10 +86923,8 @@
       </c>
       <c r="F2728" t="inlineStr"/>
       <c r="G2728" t="inlineStr"/>
-      <c r="H2728" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2728" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2729">
@@ -87263,10 +86955,8 @@
           <t>51.8</t>
         </is>
       </c>
-      <c r="H2729" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2729" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2730">
@@ -87297,10 +86987,8 @@
           <t>51.1</t>
         </is>
       </c>
-      <c r="H2730" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2730" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2731">
@@ -87331,10 +87019,8 @@
           <t>5.2%</t>
         </is>
       </c>
-      <c r="H2731" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2731" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2732">
@@ -87365,10 +87051,8 @@
           <t>5.2%</t>
         </is>
       </c>
-      <c r="H2732" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2732" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2733">
@@ -87399,10 +87083,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2733" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2733" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2734">
@@ -87421,10 +87103,8 @@
       <c r="E2734" t="inlineStr"/>
       <c r="F2734" t="inlineStr"/>
       <c r="G2734" t="inlineStr"/>
-      <c r="H2734" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2734" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2735">
@@ -87443,10 +87123,8 @@
       <c r="E2735" t="inlineStr"/>
       <c r="F2735" t="inlineStr"/>
       <c r="G2735" t="inlineStr"/>
-      <c r="H2735" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2735" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2736">
@@ -87465,10 +87143,8 @@
       <c r="E2736" t="inlineStr"/>
       <c r="F2736" t="inlineStr"/>
       <c r="G2736" t="inlineStr"/>
-      <c r="H2736" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2736" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2737">
@@ -87491,10 +87167,8 @@
       </c>
       <c r="F2737" t="inlineStr"/>
       <c r="G2737" t="inlineStr"/>
-      <c r="H2737" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2737" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2738">
@@ -87543,10 +87217,8 @@
           <t>57.9</t>
         </is>
       </c>
-      <c r="H2739" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2739" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2740">
@@ -87581,10 +87253,8 @@
           <t>56.8</t>
         </is>
       </c>
-      <c r="H2740" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2740" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2741">
@@ -87615,10 +87285,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2741" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2741" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2742">
@@ -87649,10 +87317,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H2742" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2742" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2743">
@@ -87679,10 +87345,8 @@
       </c>
       <c r="F2743" t="inlineStr"/>
       <c r="G2743" t="inlineStr"/>
-      <c r="H2743" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2743" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2744">
@@ -87709,10 +87373,8 @@
       </c>
       <c r="F2744" t="inlineStr"/>
       <c r="G2744" t="inlineStr"/>
-      <c r="H2744" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2744" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2745">
@@ -87739,10 +87401,8 @@
       </c>
       <c r="F2745" t="inlineStr"/>
       <c r="G2745" t="inlineStr"/>
-      <c r="H2745" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2745" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2746">
@@ -87773,10 +87433,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2746" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2746" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2747">
@@ -87803,10 +87461,8 @@
       </c>
       <c r="F2747" t="inlineStr"/>
       <c r="G2747" t="inlineStr"/>
-      <c r="H2747" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2747" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2748">
@@ -87833,10 +87489,8 @@
       </c>
       <c r="F2748" t="inlineStr"/>
       <c r="G2748" t="inlineStr"/>
-      <c r="H2748" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2748" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2749">
@@ -87863,10 +87517,8 @@
       </c>
       <c r="F2749" t="inlineStr"/>
       <c r="G2749" t="inlineStr"/>
-      <c r="H2749" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2749" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2750">
@@ -87893,10 +87545,8 @@
       </c>
       <c r="F2750" t="inlineStr"/>
       <c r="G2750" t="inlineStr"/>
-      <c r="H2750" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2750" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2751">
@@ -87931,10 +87581,8 @@
           <t>48.9</t>
         </is>
       </c>
-      <c r="H2751" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2751" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2752">
@@ -87969,10 +87617,8 @@
           <t>48.3</t>
         </is>
       </c>
-      <c r="H2752" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2752" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2753">
@@ -88007,10 +87653,8 @@
           <t>50.1</t>
         </is>
       </c>
-      <c r="H2753" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2753" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2754">
@@ -88045,10 +87689,8 @@
           <t>52.5</t>
         </is>
       </c>
-      <c r="H2754" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2754" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2755">
@@ -88083,10 +87725,8 @@
           <t>50.2</t>
         </is>
       </c>
-      <c r="H2755" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2755" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2756">
@@ -88121,10 +87761,8 @@
           <t>51.4</t>
         </is>
       </c>
-      <c r="H2756" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2756" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2757">
@@ -88155,10 +87793,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2757" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2757" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2758">
@@ -88189,10 +87825,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H2758" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2758" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2759">
@@ -88223,10 +87857,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H2759" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2759" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2760">
@@ -88261,10 +87893,8 @@
           <t>51.2</t>
         </is>
       </c>
-      <c r="H2760" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2760" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2761">
@@ -88299,10 +87929,8 @@
           <t>50.9</t>
         </is>
       </c>
-      <c r="H2761" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2761" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2762">
@@ -88333,10 +87961,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2762" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2762" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2763">
@@ -88367,10 +87993,8 @@
           <t>1%</t>
         </is>
       </c>
-      <c r="H2763" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2763" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2764">
@@ -88397,10 +88021,8 @@
       </c>
       <c r="F2764" t="inlineStr"/>
       <c r="G2764" t="inlineStr"/>
-      <c r="H2764" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2764" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2765">
@@ -88427,10 +88049,8 @@
       </c>
       <c r="F2765" t="inlineStr"/>
       <c r="G2765" t="inlineStr"/>
-      <c r="H2765" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2765" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2766">
@@ -88457,10 +88077,8 @@
       </c>
       <c r="F2766" t="inlineStr"/>
       <c r="G2766" t="inlineStr"/>
-      <c r="H2766" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2766" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2767">
@@ -88487,10 +88105,8 @@
       </c>
       <c r="F2767" t="inlineStr"/>
       <c r="G2767" t="inlineStr"/>
-      <c r="H2767" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2767" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2768">
@@ -88521,10 +88137,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2768" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2768" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2769">
@@ -88555,10 +88169,8 @@
           <t>3.7%</t>
         </is>
       </c>
-      <c r="H2769" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2769" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2770">
@@ -88589,10 +88201,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2770" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2770" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2771">
@@ -88623,10 +88233,8 @@
           <t>-1.4%</t>
         </is>
       </c>
-      <c r="H2771" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2771" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2772">
@@ -88653,10 +88261,8 @@
       </c>
       <c r="F2772" t="inlineStr"/>
       <c r="G2772" t="inlineStr"/>
-      <c r="H2772" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2772" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2773">
@@ -88683,10 +88289,8 @@
       </c>
       <c r="F2773" t="inlineStr"/>
       <c r="G2773" t="inlineStr"/>
-      <c r="H2773" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2773" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2774">
@@ -88713,10 +88317,8 @@
       </c>
       <c r="F2774" t="inlineStr"/>
       <c r="G2774" t="inlineStr"/>
-      <c r="H2774" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2774" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2775">
@@ -88743,10 +88345,8 @@
       </c>
       <c r="F2775" t="inlineStr"/>
       <c r="G2775" t="inlineStr"/>
-      <c r="H2775" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2775" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2776">
@@ -88773,10 +88373,8 @@
       </c>
       <c r="F2776" t="inlineStr"/>
       <c r="G2776" t="inlineStr"/>
-      <c r="H2776" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2776" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2777">
@@ -88807,10 +88405,8 @@
           <t>50.2</t>
         </is>
       </c>
-      <c r="H2777" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2777" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2778">
@@ -88841,10 +88437,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="H2778" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2778" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2779">
@@ -88875,10 +88469,8 @@
           <t>115.0K</t>
         </is>
       </c>
-      <c r="H2779" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2779" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2780">
@@ -88909,10 +88501,8 @@
           <t>C$ -1.3B</t>
         </is>
       </c>
-      <c r="H2780" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2780" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2781">
@@ -88943,10 +88533,8 @@
           <t>C$ 65.8B</t>
         </is>
       </c>
-      <c r="H2781" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2781" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2782">
@@ -88977,10 +88565,8 @@
           <t>C$ 64.5B</t>
         </is>
       </c>
-      <c r="H2782" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2782" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2783">
@@ -89011,10 +88597,8 @@
           <t>$ -103.0B</t>
         </is>
       </c>
-      <c r="H2783" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2783" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2784">
@@ -89045,10 +88629,8 @@
           <t>$ 260B</t>
         </is>
       </c>
-      <c r="H2784" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2784" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2785">
@@ -89079,10 +88661,8 @@
           <t>$ 363.0B</t>
         </is>
       </c>
-      <c r="H2785" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2785" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2786">
@@ -89105,10 +88685,8 @@
       <c r="E2786" t="inlineStr"/>
       <c r="F2786" t="inlineStr"/>
       <c r="G2786" t="inlineStr"/>
-      <c r="H2786" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2786" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2787">
@@ -89139,10 +88717,8 @@
           <t>49.5</t>
         </is>
       </c>
-      <c r="H2787" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2787" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2788">
@@ -89173,10 +88749,8 @@
           <t>49</t>
         </is>
       </c>
-      <c r="H2788" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2788" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2789">
@@ -89211,10 +88785,8 @@
           <t>52.4</t>
         </is>
       </c>
-      <c r="H2789" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2789" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2790">
@@ -89249,10 +88821,8 @@
           <t>52.8</t>
         </is>
       </c>
-      <c r="H2790" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2790" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2791">
@@ -89283,10 +88853,8 @@
           <t>54</t>
         </is>
       </c>
-      <c r="H2791" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2791" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2792">
@@ -89317,10 +88885,8 @@
           <t>58.1</t>
         </is>
       </c>
-      <c r="H2792" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2792" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2793">
@@ -89351,10 +88917,8 @@
           <t>51.3</t>
         </is>
       </c>
-      <c r="H2793" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2793" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2794">
@@ -89385,10 +88949,8 @@
           <t>54.1</t>
         </is>
       </c>
-      <c r="H2794" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2794" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2795">
@@ -89419,10 +88981,8 @@
           <t>64.8</t>
         </is>
       </c>
-      <c r="H2795" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2795" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2796">
@@ -89449,10 +89009,8 @@
       </c>
       <c r="F2796" t="inlineStr"/>
       <c r="G2796" t="inlineStr"/>
-      <c r="H2796" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2796" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2797">
@@ -89479,10 +89037,8 @@
       </c>
       <c r="F2797" t="inlineStr"/>
       <c r="G2797" t="inlineStr"/>
-      <c r="H2797" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2797" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2798">
@@ -89509,10 +89065,8 @@
       </c>
       <c r="F2798" t="inlineStr"/>
       <c r="G2798" t="inlineStr"/>
-      <c r="H2798" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2798" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2799">
@@ -89539,10 +89093,8 @@
       </c>
       <c r="F2799" t="inlineStr"/>
       <c r="G2799" t="inlineStr"/>
-      <c r="H2799" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2799" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2800">
@@ -89569,10 +89121,8 @@
       </c>
       <c r="F2800" t="inlineStr"/>
       <c r="G2800" t="inlineStr"/>
-      <c r="H2800" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2800" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2801">
@@ -89599,10 +89149,8 @@
       </c>
       <c r="F2801" t="inlineStr"/>
       <c r="G2801" t="inlineStr"/>
-      <c r="H2801" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2801" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2802">
@@ -89629,10 +89177,8 @@
       </c>
       <c r="F2802" t="inlineStr"/>
       <c r="G2802" t="inlineStr"/>
-      <c r="H2802" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2802" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2803">
@@ -89659,10 +89205,8 @@
       </c>
       <c r="F2803" t="inlineStr"/>
       <c r="G2803" t="inlineStr"/>
-      <c r="H2803" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2803" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2804">
@@ -89689,10 +89233,8 @@
       </c>
       <c r="F2804" t="inlineStr"/>
       <c r="G2804" t="inlineStr"/>
-      <c r="H2804" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2804" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2805">
@@ -89723,10 +89265,8 @@
           <t>2.40%</t>
         </is>
       </c>
-      <c r="H2805" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2805" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2806">
@@ -89753,10 +89293,8 @@
       </c>
       <c r="F2806" t="inlineStr"/>
       <c r="G2806" t="inlineStr"/>
-      <c r="H2806" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2806" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2807">
@@ -89783,10 +89321,8 @@
       </c>
       <c r="F2807" t="inlineStr"/>
       <c r="G2807" t="inlineStr"/>
-      <c r="H2807" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2807" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2808">
@@ -89817,10 +89353,8 @@
           <t>3.8%</t>
         </is>
       </c>
-      <c r="H2808" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2808" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2809">
@@ -89847,10 +89381,8 @@
       </c>
       <c r="F2809" t="inlineStr"/>
       <c r="G2809" t="inlineStr"/>
-      <c r="H2809" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2809" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2810">
@@ -89881,10 +89413,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H2810" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2810" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2811">
@@ -89911,10 +89441,8 @@
       </c>
       <c r="F2811" t="inlineStr"/>
       <c r="G2811" t="inlineStr"/>
-      <c r="H2811" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2811" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2812">
@@ -89941,10 +89469,8 @@
       </c>
       <c r="F2812" t="inlineStr"/>
       <c r="G2812" t="inlineStr"/>
-      <c r="H2812" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2812" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2813">
@@ -89967,10 +89493,8 @@
       <c r="E2813" t="inlineStr"/>
       <c r="F2813" t="inlineStr"/>
       <c r="G2813" t="inlineStr"/>
-      <c r="H2813" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2813" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2814">
@@ -90001,10 +89525,8 @@
           <t>-15</t>
         </is>
       </c>
-      <c r="H2814" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2814" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2815">
@@ -90035,10 +89557,8 @@
           <t>-25</t>
         </is>
       </c>
-      <c r="H2815" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2815" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2816">
@@ -90069,10 +89589,8 @@
           <t>-13</t>
         </is>
       </c>
-      <c r="H2816" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2816" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2817">
@@ -90103,10 +89621,8 @@
           <t>$ 8.1B</t>
         </is>
       </c>
-      <c r="H2817" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2817" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2818">
@@ -90133,10 +89649,8 @@
       </c>
       <c r="F2818" t="inlineStr"/>
       <c r="G2818" t="inlineStr"/>
-      <c r="H2818" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2818" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2819">
@@ -90159,10 +89673,8 @@
       <c r="E2819" t="inlineStr"/>
       <c r="F2819" t="inlineStr"/>
       <c r="G2819" t="inlineStr"/>
-      <c r="H2819" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2819" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2820">
@@ -90185,10 +89697,8 @@
       <c r="E2820" t="inlineStr"/>
       <c r="F2820" t="inlineStr"/>
       <c r="G2820" t="inlineStr"/>
-      <c r="H2820" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2820" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2821">
@@ -90219,10 +89729,8 @@
           <t>A$ 3.2B</t>
         </is>
       </c>
-      <c r="H2821" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2821" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2822">
@@ -90249,10 +89757,8 @@
       </c>
       <c r="F2822" t="inlineStr"/>
       <c r="G2822" t="inlineStr"/>
-      <c r="H2822" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2822" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2823">
@@ -90279,10 +89785,8 @@
       </c>
       <c r="F2823" t="inlineStr"/>
       <c r="G2823" t="inlineStr"/>
-      <c r="H2823" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2823" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2824">
@@ -90309,10 +89813,8 @@
       </c>
       <c r="F2824" t="inlineStr"/>
       <c r="G2824" t="inlineStr"/>
-      <c r="H2824" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2824" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2825">
@@ -90339,10 +89841,8 @@
       </c>
       <c r="F2825" t="inlineStr"/>
       <c r="G2825" t="inlineStr"/>
-      <c r="H2825" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2825" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2826">
@@ -90365,10 +89865,8 @@
       </c>
       <c r="F2826" t="inlineStr"/>
       <c r="G2826" t="inlineStr"/>
-      <c r="H2826" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2826" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2827">
@@ -90413,10 +89911,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2828" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2828" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2829">
@@ -90443,10 +89939,8 @@
       </c>
       <c r="F2829" t="inlineStr"/>
       <c r="G2829" t="inlineStr"/>
-      <c r="H2829" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2829" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2830">
@@ -90473,10 +89967,8 @@
       </c>
       <c r="F2830" t="inlineStr"/>
       <c r="G2830" t="inlineStr"/>
-      <c r="H2830" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2830" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2831">
@@ -90503,10 +89995,8 @@
       </c>
       <c r="F2831" t="inlineStr"/>
       <c r="G2831" t="inlineStr"/>
-      <c r="H2831" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2831" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2832">
@@ -90533,10 +90023,8 @@
       </c>
       <c r="F2832" t="inlineStr"/>
       <c r="G2832" t="inlineStr"/>
-      <c r="H2832" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2832" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2833">
@@ -90567,10 +90055,8 @@
           <t>53.5</t>
         </is>
       </c>
-      <c r="H2833" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2833" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2834">
@@ -90601,10 +90087,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2834" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2834" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2835">
@@ -90635,10 +90119,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H2835" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2835" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2836">
@@ -90661,10 +90143,8 @@
       <c r="E2836" t="inlineStr"/>
       <c r="F2836" t="inlineStr"/>
       <c r="G2836" t="inlineStr"/>
-      <c r="H2836" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2836" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2837">
@@ -90687,10 +90167,8 @@
       <c r="E2837" t="inlineStr"/>
       <c r="F2837" t="inlineStr"/>
       <c r="G2837" t="inlineStr"/>
-      <c r="H2837" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2837" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2838">
@@ -90721,10 +90199,8 @@
           <t>46.5</t>
         </is>
       </c>
-      <c r="H2838" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2838" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2839">
@@ -90759,10 +90235,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H2839" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2839" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2840">
@@ -90785,10 +90259,8 @@
       <c r="E2840" t="inlineStr"/>
       <c r="F2840" t="inlineStr"/>
       <c r="G2840" t="inlineStr"/>
-      <c r="H2840" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2840" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2841">
@@ -90811,10 +90283,8 @@
       <c r="E2841" t="inlineStr"/>
       <c r="F2841" t="inlineStr"/>
       <c r="G2841" t="inlineStr"/>
-      <c r="H2841" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2841" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2842">
@@ -90837,10 +90307,8 @@
       <c r="E2842" t="inlineStr"/>
       <c r="F2842" t="inlineStr"/>
       <c r="G2842" t="inlineStr"/>
-      <c r="H2842" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2842" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2843">
@@ -90863,10 +90331,8 @@
       <c r="E2843" t="inlineStr"/>
       <c r="F2843" t="inlineStr"/>
       <c r="G2843" t="inlineStr"/>
-      <c r="H2843" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2843" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2844">
@@ -90889,10 +90355,8 @@
       <c r="E2844" t="inlineStr"/>
       <c r="F2844" t="inlineStr"/>
       <c r="G2844" t="inlineStr"/>
-      <c r="H2844" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2844" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2845">
@@ -90923,10 +90387,8 @@
           <t>45K</t>
         </is>
       </c>
-      <c r="H2845" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2845" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2846">
@@ -90949,10 +90411,8 @@
       <c r="E2846" t="inlineStr"/>
       <c r="F2846" t="inlineStr"/>
       <c r="G2846" t="inlineStr"/>
-      <c r="H2846" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2846" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2847">
@@ -90983,10 +90443,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2847" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2847" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2848">
@@ -91017,10 +90475,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2848" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2848" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2849">
@@ -91043,10 +90499,8 @@
       <c r="E2849" t="inlineStr"/>
       <c r="F2849" t="inlineStr"/>
       <c r="G2849" t="inlineStr"/>
-      <c r="H2849" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2849" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2850">
@@ -91069,10 +90523,8 @@
       <c r="E2850" t="inlineStr"/>
       <c r="F2850" t="inlineStr"/>
       <c r="G2850" t="inlineStr"/>
-      <c r="H2850" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2850" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2851">
@@ -91103,10 +90555,8 @@
           <t>54.2</t>
         </is>
       </c>
-      <c r="H2851" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2851" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2852">
@@ -91129,10 +90579,8 @@
       <c r="E2852" t="inlineStr"/>
       <c r="F2852" t="inlineStr"/>
       <c r="G2852" t="inlineStr"/>
-      <c r="H2852" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2852" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2853">
@@ -91155,10 +90603,8 @@
       <c r="E2853" t="inlineStr"/>
       <c r="F2853" t="inlineStr"/>
       <c r="G2853" t="inlineStr"/>
-      <c r="H2853" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2853" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2854">
@@ -91181,10 +90627,8 @@
       <c r="E2854" t="inlineStr"/>
       <c r="F2854" t="inlineStr"/>
       <c r="G2854" t="inlineStr"/>
-      <c r="H2854" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2854" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2855">
@@ -91211,10 +90655,8 @@
       </c>
       <c r="F2855" t="inlineStr"/>
       <c r="G2855" t="inlineStr"/>
-      <c r="H2855" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2855" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2856">
@@ -91237,10 +90679,8 @@
       <c r="E2856" t="inlineStr"/>
       <c r="F2856" t="inlineStr"/>
       <c r="G2856" t="inlineStr"/>
-      <c r="H2856" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2856" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2857">
@@ -91263,10 +90703,8 @@
       <c r="E2857" t="inlineStr"/>
       <c r="F2857" t="inlineStr"/>
       <c r="G2857" t="inlineStr"/>
-      <c r="H2857" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2857" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2858">
@@ -91297,10 +90735,8 @@
           <t>9.75%</t>
         </is>
       </c>
-      <c r="H2858" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2858" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2859">
@@ -91323,10 +90759,8 @@
       <c r="E2859" t="inlineStr"/>
       <c r="F2859" t="inlineStr"/>
       <c r="G2859" t="inlineStr"/>
-      <c r="H2859" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2859" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2860">
@@ -91349,10 +90783,8 @@
       <c r="E2860" t="inlineStr"/>
       <c r="F2860" t="inlineStr"/>
       <c r="G2860" t="inlineStr"/>
-      <c r="H2860" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2860" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2861">
@@ -91379,10 +90811,8 @@
       </c>
       <c r="F2861" t="inlineStr"/>
       <c r="G2861" t="inlineStr"/>
-      <c r="H2861" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2861" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2862">
@@ -91413,10 +90843,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H2862" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2862" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2863">
@@ -91443,10 +90871,8 @@
       </c>
       <c r="F2863" t="inlineStr"/>
       <c r="G2863" t="inlineStr"/>
-      <c r="H2863" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2863" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2864">
@@ -91469,10 +90895,8 @@
       <c r="E2864" t="inlineStr"/>
       <c r="F2864" t="inlineStr"/>
       <c r="G2864" t="inlineStr"/>
-      <c r="H2864" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2864" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2865">
@@ -91499,10 +90923,8 @@
       </c>
       <c r="F2865" t="inlineStr"/>
       <c r="G2865" t="inlineStr"/>
-      <c r="H2865" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2865" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2866">
@@ -91529,10 +90951,8 @@
       </c>
       <c r="F2866" t="inlineStr"/>
       <c r="G2866" t="inlineStr"/>
-      <c r="H2866" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2866" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2867">
@@ -91555,10 +90975,8 @@
       </c>
       <c r="F2867" t="inlineStr"/>
       <c r="G2867" t="inlineStr"/>
-      <c r="H2867" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2867" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2868">
@@ -91581,10 +90999,8 @@
       </c>
       <c r="F2868" t="inlineStr"/>
       <c r="G2868" t="inlineStr"/>
-      <c r="H2868" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2868" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2869">
@@ -91603,10 +91019,8 @@
       <c r="E2869" t="inlineStr"/>
       <c r="F2869" t="inlineStr"/>
       <c r="G2869" t="inlineStr"/>
-      <c r="H2869" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2869" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2870">
@@ -91625,10 +91039,8 @@
       <c r="E2870" t="inlineStr"/>
       <c r="F2870" t="inlineStr"/>
       <c r="G2870" t="inlineStr"/>
-      <c r="H2870" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2870" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2871">
@@ -91647,10 +91059,8 @@
       <c r="E2871" t="inlineStr"/>
       <c r="F2871" t="inlineStr"/>
       <c r="G2871" t="inlineStr"/>
-      <c r="H2871" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2871" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2872">
@@ -91673,10 +91083,8 @@
       </c>
       <c r="F2872" t="inlineStr"/>
       <c r="G2872" t="inlineStr"/>
-      <c r="H2872" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2872" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2873">
@@ -91695,82 +91103,104 @@
       <c r="E2873" t="inlineStr"/>
       <c r="F2873" t="inlineStr"/>
       <c r="G2873" t="inlineStr"/>
-      <c r="H2873" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2873" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2874">
       <c r="A2874" t="inlineStr">
         <is>
-          <t>Friday February 07 2025</t>
-        </is>
-      </c>
-      <c r="B2874" t="inlineStr"/>
-      <c r="C2874" t="inlineStr"/>
+          <t>07:00 AM</t>
+        </is>
+      </c>
+      <c r="B2874" t="inlineStr">
+        <is>
+          <t>MX</t>
+        </is>
+      </c>
+      <c r="C2874" t="inlineStr">
+        <is>
+          <t>Inflation Rate MoMJAN</t>
+        </is>
+      </c>
       <c r="D2874" t="inlineStr"/>
-      <c r="E2874" t="inlineStr"/>
+      <c r="E2874" t="inlineStr">
+        <is>
+          <t>0.38%</t>
+        </is>
+      </c>
       <c r="F2874" t="inlineStr"/>
-      <c r="G2874" t="inlineStr"/>
-      <c r="H2874" t="inlineStr"/>
+      <c r="G2874" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
+      <c r="H2874" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2875">
       <c r="A2875" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2875" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2875" t="inlineStr">
         <is>
-          <t>Coincident Index PrelDEC</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2875" t="inlineStr"/>
       <c r="E2875" t="inlineStr">
         <is>
-          <t>115.4</t>
+          <t>4.21%</t>
         </is>
       </c>
       <c r="F2875" t="inlineStr"/>
-      <c r="G2875" t="inlineStr"/>
+      <c r="G2875" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
       <c r="H2875" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2876">
       <c r="A2876" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2876" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2876" t="inlineStr">
         <is>
-          <t>Leading Economic Index PrelDEC</t>
+          <t>Core Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2876" t="inlineStr"/>
       <c r="E2876" t="inlineStr">
         <is>
-          <t>107.5</t>
+          <t>0.51%</t>
         </is>
       </c>
       <c r="F2876" t="inlineStr"/>
       <c r="G2876" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H2876" t="inlineStr">
@@ -91782,29 +91212,29 @@
     <row r="2877">
       <c r="A2877" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2877" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2877" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Core Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2877" t="inlineStr"/>
       <c r="E2877" t="inlineStr">
         <is>
-          <t>$65.46B</t>
+          <t>3.65%</t>
         </is>
       </c>
       <c r="F2877" t="inlineStr"/>
       <c r="G2877" t="inlineStr">
         <is>
-          <t>$65.0B</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H2877" t="inlineStr">
@@ -91816,163 +91246,167 @@
     <row r="2878">
       <c r="A2878" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2878" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2878" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Car Production MoMJAN</t>
         </is>
       </c>
       <c r="D2878" t="inlineStr"/>
       <c r="E2878" t="inlineStr">
         <is>
-          <t>€19.7B</t>
+          <t>-19.5%</t>
         </is>
       </c>
       <c r="F2878" t="inlineStr"/>
       <c r="G2878" t="inlineStr">
         <is>
-          <t>€ 22B</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="H2878" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2879">
       <c r="A2879" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2879" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2879" t="inlineStr">
         <is>
-          <t>Exports MoMDEC</t>
+          <t>New Car Registrations MoMJAN</t>
         </is>
       </c>
       <c r="D2879" t="inlineStr"/>
       <c r="E2879" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F2879" t="inlineStr"/>
       <c r="G2879" t="inlineStr">
         <is>
-          <t>130%</t>
+          <t>-1.5%</t>
         </is>
       </c>
       <c r="H2879" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2880">
       <c r="A2880" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2880" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2880" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2880" t="inlineStr"/>
       <c r="E2880" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>6.7%</t>
         </is>
       </c>
       <c r="F2880" t="inlineStr"/>
       <c r="G2880" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>6.8%</t>
         </is>
       </c>
       <c r="H2880" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2881">
       <c r="A2881" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2881" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2881" t="inlineStr">
         <is>
-          <t>Imports MoMDEC</t>
+          <t>Employment ChangeJAN</t>
         </is>
       </c>
       <c r="D2881" t="inlineStr"/>
       <c r="E2881" t="inlineStr">
         <is>
-          <t>-3.3%</t>
+          <t>90.9K</t>
         </is>
       </c>
       <c r="F2881" t="inlineStr"/>
       <c r="G2881" t="inlineStr">
         <is>
-          <t>108%</t>
+          <t>5K</t>
         </is>
       </c>
       <c r="H2881" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2882">
       <c r="A2882" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2882" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2882" t="inlineStr">
         <is>
-          <t>Halifax House Price Index MoMJAN</t>
+          <t>Full Time Employment ChgJAN</t>
         </is>
       </c>
       <c r="D2882" t="inlineStr"/>
       <c r="E2882" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>57.5K</t>
         </is>
       </c>
       <c r="F2882" t="inlineStr"/>
-      <c r="G2882" t="inlineStr"/>
+      <c r="G2882" t="inlineStr">
+        <is>
+          <t>-3K</t>
+        </is>
+      </c>
       <c r="H2882" t="inlineStr">
         <is>
           <t>2</t>
@@ -91982,27 +91416,31 @@
     <row r="2883">
       <c r="A2883" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2883" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2883" t="inlineStr">
         <is>
-          <t>Halifax House Price Index YoYJAN</t>
+          <t>Part Time Employment ChgJAN</t>
         </is>
       </c>
       <c r="D2883" t="inlineStr"/>
       <c r="E2883" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>33.5K</t>
         </is>
       </c>
       <c r="F2883" t="inlineStr"/>
-      <c r="G2883" t="inlineStr"/>
+      <c r="G2883" t="inlineStr">
+        <is>
+          <t>8K</t>
+        </is>
+      </c>
       <c r="H2883" t="inlineStr">
         <is>
           <t>2</t>
@@ -92012,23 +91450,31 @@
     <row r="2884">
       <c r="A2884" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2884" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2884" t="inlineStr">
         <is>
-          <t>Inflation Report</t>
+          <t>Participation RateJAN</t>
         </is>
       </c>
       <c r="D2884" t="inlineStr"/>
-      <c r="E2884" t="inlineStr"/>
+      <c r="E2884" t="inlineStr">
+        <is>
+          <t>65.1%</t>
+        </is>
+      </c>
       <c r="F2884" t="inlineStr"/>
-      <c r="G2884" t="inlineStr"/>
+      <c r="G2884" t="inlineStr">
+        <is>
+          <t>65.0%</t>
+        </is>
+      </c>
       <c r="H2884" t="inlineStr">
         <is>
           <t>2</t>
@@ -92038,229 +91484,233 @@
     <row r="2885">
       <c r="A2885" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2885" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2885" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Average Hourly Wages YoYJAN</t>
         </is>
       </c>
       <c r="D2885" t="inlineStr"/>
       <c r="E2885" t="inlineStr">
         <is>
-          <t>€-7.1B</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="F2885" t="inlineStr"/>
       <c r="G2885" t="inlineStr">
         <is>
-          <t>€ -7.2B</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H2885" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2886">
       <c r="A2886" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2886" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2886" t="inlineStr">
         <is>
-          <t>Current AccountDEC</t>
+          <t>Non Farm PayrollsJAN</t>
         </is>
       </c>
       <c r="D2886" t="inlineStr"/>
       <c r="E2886" t="inlineStr">
         <is>
-          <t>€-1.7B</t>
+          <t>256K</t>
         </is>
       </c>
       <c r="F2886" t="inlineStr"/>
       <c r="G2886" t="inlineStr">
         <is>
-          <t>€ -2.5B</t>
+          <t>205K</t>
         </is>
       </c>
       <c r="H2886" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2887">
       <c r="A2887" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2887" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2887" t="inlineStr">
         <is>
-          <t>ExportsDEC</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2887" t="inlineStr"/>
       <c r="E2887" t="inlineStr">
         <is>
-          <t>€50.101B</t>
+          <t>4.1%</t>
         </is>
       </c>
       <c r="F2887" t="inlineStr"/>
       <c r="G2887" t="inlineStr">
         <is>
-          <t>€ 49.7B</t>
+          <t>4.1%</t>
         </is>
       </c>
       <c r="H2887" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2888">
       <c r="A2888" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2888" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2888" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Average Hourly Earnings MoMJAN</t>
         </is>
       </c>
       <c r="D2888" t="inlineStr"/>
       <c r="E2888" t="inlineStr">
         <is>
-          <t>€275.078B</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F2888" t="inlineStr"/>
-      <c r="G2888" t="inlineStr"/>
+      <c r="G2888" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2888" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2889">
       <c r="A2889" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2889" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2889" t="inlineStr">
         <is>
-          <t>ImportsDEC</t>
+          <t>Average Hourly Earnings YoY</t>
         </is>
       </c>
       <c r="D2889" t="inlineStr"/>
       <c r="E2889" t="inlineStr">
         <is>
-          <t>€57.186B</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="F2889" t="inlineStr"/>
       <c r="G2889" t="inlineStr">
         <is>
-          <t>€ 56.9B</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="H2889" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2890">
       <c r="A2890" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2890" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2890" t="inlineStr">
         <is>
-          <t>Private Non Farm Payrolls QoQ PrelQ4</t>
+          <t>Participation RateJAN</t>
         </is>
       </c>
       <c r="D2890" t="inlineStr"/>
       <c r="E2890" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>62.5%</t>
         </is>
       </c>
       <c r="F2890" t="inlineStr"/>
       <c r="G2890" t="inlineStr">
         <is>
-          <t>20200%</t>
+          <t>62.5%</t>
         </is>
       </c>
       <c r="H2890" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2891">
       <c r="A2891" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2891" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2891" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Average Weekly HoursJAN</t>
         </is>
       </c>
       <c r="D2891" t="inlineStr"/>
       <c r="E2891" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>34.3</t>
         </is>
       </c>
       <c r="F2891" t="inlineStr"/>
       <c r="G2891" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>34.3</t>
         </is>
       </c>
       <c r="H2891" t="inlineStr">
@@ -92272,27 +91722,31 @@
     <row r="2892">
       <c r="A2892" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2892" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2892" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Government PayrollsJAN</t>
         </is>
       </c>
       <c r="D2892" t="inlineStr"/>
       <c r="E2892" t="inlineStr">
         <is>
-          <t>S$506.7B</t>
+          <t>33K</t>
         </is>
       </c>
       <c r="F2892" t="inlineStr"/>
-      <c r="G2892" t="inlineStr"/>
+      <c r="G2892" t="inlineStr">
+        <is>
+          <t>25K</t>
+        </is>
+      </c>
       <c r="H2892" t="inlineStr">
         <is>
           <t>3</t>
@@ -92302,27 +91756,31 @@
     <row r="2893">
       <c r="A2893" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2893" t="inlineStr">
         <is>
-          <t>WL</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2893" t="inlineStr">
         <is>
-          <t>FAO Food Price IndexJAN</t>
+          <t>Manufacturing PayrollsJAN</t>
         </is>
       </c>
       <c r="D2893" t="inlineStr"/>
       <c r="E2893" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>-13K</t>
         </is>
       </c>
       <c r="F2893" t="inlineStr"/>
-      <c r="G2893" t="inlineStr"/>
+      <c r="G2893" t="inlineStr">
+        <is>
+          <t>-5K</t>
+        </is>
+      </c>
       <c r="H2893" t="inlineStr">
         <is>
           <t>3</t>
@@ -92332,27 +91790,31 @@
     <row r="2894">
       <c r="A2894" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2894" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2894" t="inlineStr">
         <is>
-          <t>BBA Mortgage RateJAN</t>
+          <t>Nonfarm Payrolls PrivateJAN</t>
         </is>
       </c>
       <c r="D2894" t="inlineStr"/>
       <c r="E2894" t="inlineStr">
         <is>
-          <t>7.50%</t>
+          <t>223K</t>
         </is>
       </c>
       <c r="F2894" t="inlineStr"/>
-      <c r="G2894" t="inlineStr"/>
+      <c r="G2894" t="inlineStr">
+        <is>
+          <t>180K</t>
+        </is>
+      </c>
       <c r="H2894" t="inlineStr">
         <is>
           <t>3</t>
@@ -92362,23 +91824,31 @@
     <row r="2895">
       <c r="A2895" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2895" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2895" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/31</t>
+          <t>U-6 Unemployment Rate</t>
         </is>
       </c>
       <c r="D2895" t="inlineStr"/>
-      <c r="E2895" t="inlineStr"/>
+      <c r="E2895" t="inlineStr">
+        <is>
+          <t>7.5%</t>
+        </is>
+      </c>
       <c r="F2895" t="inlineStr"/>
-      <c r="G2895" t="inlineStr"/>
+      <c r="G2895" t="inlineStr">
+        <is>
+          <t>7.5%</t>
+        </is>
+      </c>
       <c r="H2895" t="inlineStr">
         <is>
           <t>3</t>
@@ -92388,165 +91858,149 @@
     <row r="2896">
       <c r="A2896" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>08:45 AM</t>
         </is>
       </c>
       <c r="B2896" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2896" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2896" t="inlineStr"/>
-      <c r="E2896" t="inlineStr">
-        <is>
-          <t>0.52%</t>
-        </is>
-      </c>
+      <c r="E2896" t="inlineStr"/>
       <c r="F2896" t="inlineStr"/>
-      <c r="G2896" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2896" t="inlineStr"/>
       <c r="H2896" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2897">
       <c r="A2897" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2897" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2897" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Treasury Cash BalanceJAN</t>
         </is>
       </c>
       <c r="D2897" t="inlineStr"/>
       <c r="E2897" t="inlineStr">
         <is>
-          <t>4.83%</t>
+          <t>TRY-323.9B</t>
         </is>
       </c>
       <c r="F2897" t="inlineStr"/>
-      <c r="G2897" t="inlineStr">
-        <is>
-          <t>4.7%</t>
-        </is>
-      </c>
+      <c r="G2897" t="inlineStr"/>
       <c r="H2897" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2898">
       <c r="A2898" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2898" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2898" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Full Year GDP Growth2025</t>
         </is>
       </c>
       <c r="D2898" t="inlineStr"/>
-      <c r="E2898" t="inlineStr">
-        <is>
-          <t>0.38%</t>
-        </is>
-      </c>
+      <c r="E2898" t="inlineStr"/>
       <c r="F2898" t="inlineStr"/>
       <c r="G2898" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H2898" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2899">
       <c r="A2899" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2899" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2899" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Michigan Consumer Sentiment PrelFEB</t>
         </is>
       </c>
       <c r="D2899" t="inlineStr"/>
       <c r="E2899" t="inlineStr">
         <is>
-          <t>4.21%</t>
+          <t>71.1</t>
         </is>
       </c>
       <c r="F2899" t="inlineStr"/>
       <c r="G2899" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>72</t>
         </is>
       </c>
       <c r="H2899" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2900">
       <c r="A2900" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2900" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2900" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMJAN</t>
+          <t>Michigan 5 Year Inflation Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2900" t="inlineStr"/>
       <c r="E2900" t="inlineStr">
         <is>
-          <t>0.51%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="F2900" t="inlineStr"/>
       <c r="G2900" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H2900" t="inlineStr">
@@ -92558,29 +92012,29 @@
     <row r="2901">
       <c r="A2901" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2901" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2901" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJAN</t>
+          <t>Michigan Consumer Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2901" t="inlineStr"/>
       <c r="E2901" t="inlineStr">
         <is>
-          <t>3.65%</t>
+          <t>69.3</t>
         </is>
       </c>
       <c r="F2901" t="inlineStr"/>
       <c r="G2901" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>69.5</t>
         </is>
       </c>
       <c r="H2901" t="inlineStr">
@@ -92592,29 +92046,29 @@
     <row r="2902">
       <c r="A2902" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2902" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2902" t="inlineStr">
         <is>
-          <t>Car Production MoMJAN</t>
+          <t>Michigan Current Conditions PrelFEB</t>
         </is>
       </c>
       <c r="D2902" t="inlineStr"/>
       <c r="E2902" t="inlineStr">
         <is>
-          <t>-19.5%</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F2902" t="inlineStr"/>
       <c r="G2902" t="inlineStr">
         <is>
-          <t>-5.0%</t>
+          <t>74.3</t>
         </is>
       </c>
       <c r="H2902" t="inlineStr">
@@ -92626,29 +92080,29 @@
     <row r="2903">
       <c r="A2903" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2903" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2903" t="inlineStr">
         <is>
-          <t>New Car Registrations MoMJAN</t>
+          <t>Michigan Inflation Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2903" t="inlineStr"/>
       <c r="E2903" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="F2903" t="inlineStr"/>
       <c r="G2903" t="inlineStr">
         <is>
-          <t>-1.5%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H2903" t="inlineStr">
@@ -92660,63 +92114,67 @@
     <row r="2904">
       <c r="A2904" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2904" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2904" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>Wholesale Inventories MoMDEC</t>
         </is>
       </c>
       <c r="D2904" t="inlineStr"/>
       <c r="E2904" t="inlineStr">
         <is>
-          <t>6.7%</t>
-        </is>
-      </c>
-      <c r="F2904" t="inlineStr"/>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="F2904" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
       <c r="G2904" t="inlineStr">
         <is>
-          <t>6.8%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H2904" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2905">
       <c r="A2905" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B2905" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2905" t="inlineStr">
         <is>
-          <t>Employment ChangeJAN</t>
+          <t>Balance of TradeJAN</t>
         </is>
       </c>
       <c r="D2905" t="inlineStr"/>
       <c r="E2905" t="inlineStr">
         <is>
-          <t>90.9K</t>
+          <t>$4.8B</t>
         </is>
       </c>
       <c r="F2905" t="inlineStr"/>
       <c r="G2905" t="inlineStr">
         <is>
-          <t>5K</t>
+          <t>$4.1B</t>
         </is>
       </c>
       <c r="H2905" t="inlineStr">
@@ -92728,131 +92186,115 @@
     <row r="2906">
       <c r="A2906" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B2906" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2906" t="inlineStr">
         <is>
-          <t>Full Time Employment ChgJAN</t>
+          <t>Baker Hughes Oil Rig CountFEB/07</t>
         </is>
       </c>
       <c r="D2906" t="inlineStr"/>
-      <c r="E2906" t="inlineStr">
-        <is>
-          <t>57.5K</t>
-        </is>
-      </c>
+      <c r="E2906" t="inlineStr"/>
       <c r="F2906" t="inlineStr"/>
-      <c r="G2906" t="inlineStr">
-        <is>
-          <t>-3K</t>
-        </is>
-      </c>
+      <c r="G2906" t="inlineStr"/>
       <c r="H2906" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2907">
       <c r="A2907" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B2907" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2907" t="inlineStr">
         <is>
-          <t>Part Time Employment ChgJAN</t>
+          <t>Baker Hughes Total Rigs CountFEB/07</t>
         </is>
       </c>
       <c r="D2907" t="inlineStr"/>
-      <c r="E2907" t="inlineStr">
-        <is>
-          <t>33.5K</t>
-        </is>
-      </c>
+      <c r="E2907" t="inlineStr"/>
       <c r="F2907" t="inlineStr"/>
-      <c r="G2907" t="inlineStr">
-        <is>
-          <t>8K</t>
-        </is>
-      </c>
+      <c r="G2907" t="inlineStr"/>
       <c r="H2907" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2908">
       <c r="A2908" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B2908" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C2908" t="inlineStr">
         <is>
-          <t>Participation RateJAN</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2908" t="inlineStr"/>
       <c r="E2908" t="inlineStr">
         <is>
-          <t>65.1%</t>
+          <t>-1.7%</t>
         </is>
       </c>
       <c r="F2908" t="inlineStr"/>
       <c r="G2908" t="inlineStr">
         <is>
-          <t>65.0%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H2908" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2909">
       <c r="A2909" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2909" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2909" t="inlineStr">
         <is>
-          <t>Average Hourly Wages YoYJAN</t>
+          <t>Consumer Credit ChangeDEC</t>
         </is>
       </c>
       <c r="D2909" t="inlineStr"/>
       <c r="E2909" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>$-7.49B</t>
         </is>
       </c>
       <c r="F2909" t="inlineStr"/>
       <c r="G2909" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>$ 18B</t>
         </is>
       </c>
       <c r="H2909" t="inlineStr">
@@ -92862,113 +92304,89 @@
       </c>
     </row>
     <row r="2910">
-      <c r="A2910" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2910" t="inlineStr"/>
       <c r="B2910" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2910" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsJAN</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2910" t="inlineStr"/>
       <c r="E2910" t="inlineStr">
         <is>
-          <t>256K</t>
+          <t>$3.202T</t>
         </is>
       </c>
       <c r="F2910" t="inlineStr"/>
       <c r="G2910" t="inlineStr">
         <is>
-          <t>205K</t>
+          <t>$3.3T</t>
         </is>
       </c>
       <c r="H2910" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2911">
-      <c r="A2911" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2911" t="inlineStr"/>
       <c r="B2911" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2911" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>SACCI Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2911" t="inlineStr"/>
-      <c r="E2911" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
+      <c r="E2911" t="inlineStr"/>
       <c r="F2911" t="inlineStr"/>
-      <c r="G2911" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
+      <c r="G2911" t="inlineStr"/>
       <c r="H2911" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2912">
-      <c r="A2912" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2912" t="inlineStr"/>
       <c r="B2912" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2912" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings MoMJAN</t>
+          <t>SACCI Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D2912" t="inlineStr"/>
       <c r="E2912" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>118.1</t>
         </is>
       </c>
       <c r="F2912" t="inlineStr"/>
       <c r="G2912" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>116</t>
         </is>
       </c>
       <c r="H2912" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2913">
-      <c r="A2913" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2913" t="inlineStr"/>
       <c r="B2913" t="inlineStr">
         <is>
           <t>US</t>
@@ -92976,33 +92394,25 @@
       </c>
       <c r="C2913" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoY</t>
+          <t>Used Car Prices MoMJAN</t>
         </is>
       </c>
       <c r="D2913" t="inlineStr"/>
       <c r="E2913" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F2913" t="inlineStr"/>
-      <c r="G2913" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
+      <c r="G2913" t="inlineStr"/>
       <c r="H2913" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2914">
-      <c r="A2914" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2914" t="inlineStr"/>
       <c r="B2914" t="inlineStr">
         <is>
           <t>US</t>
@@ -93010,890 +92420,134 @@
       </c>
       <c r="C2914" t="inlineStr">
         <is>
-          <t>Participation RateJAN</t>
+          <t>Used Car Prices YoYJAN</t>
         </is>
       </c>
       <c r="D2914" t="inlineStr"/>
       <c r="E2914" t="inlineStr">
         <is>
-          <t>62.5%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2914" t="inlineStr"/>
-      <c r="G2914" t="inlineStr">
-        <is>
-          <t>62.5%</t>
-        </is>
-      </c>
+      <c r="G2914" t="inlineStr"/>
       <c r="H2914" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2915">
       <c r="A2915" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B2915" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2915" t="inlineStr">
-        <is>
-          <t>Average Weekly HoursJAN</t>
-        </is>
-      </c>
+          <t>Saturday February 08 2025</t>
+        </is>
+      </c>
+      <c r="B2915" t="inlineStr"/>
+      <c r="C2915" t="inlineStr"/>
       <c r="D2915" t="inlineStr"/>
-      <c r="E2915" t="inlineStr">
-        <is>
-          <t>34.3</t>
-        </is>
-      </c>
+      <c r="E2915" t="inlineStr"/>
       <c r="F2915" t="inlineStr"/>
-      <c r="G2915" t="inlineStr">
-        <is>
-          <t>34.3</t>
-        </is>
-      </c>
-      <c r="H2915" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G2915" t="inlineStr"/>
+      <c r="H2915" t="inlineStr"/>
     </row>
     <row r="2916">
       <c r="A2916" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2916" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2916" t="inlineStr">
         <is>
-          <t>Government PayrollsJAN</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2916" t="inlineStr"/>
       <c r="E2916" t="inlineStr">
         <is>
-          <t>33K</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2916" t="inlineStr"/>
       <c r="G2916" t="inlineStr">
         <is>
-          <t>25K</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="H2916" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2917">
       <c r="A2917" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2917" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2917" t="inlineStr">
         <is>
-          <t>Manufacturing PayrollsJAN</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2917" t="inlineStr"/>
       <c r="E2917" t="inlineStr">
         <is>
-          <t>-13K</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="F2917" t="inlineStr"/>
       <c r="G2917" t="inlineStr">
         <is>
-          <t>-5K</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H2917" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2918">
       <c r="A2918" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2918" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2918" t="inlineStr">
         <is>
-          <t>Nonfarm Payrolls PrivateJAN</t>
+          <t>PPI YoYJAN</t>
         </is>
       </c>
       <c r="D2918" t="inlineStr"/>
       <c r="E2918" t="inlineStr">
         <is>
-          <t>223K</t>
+          <t>-2.3%</t>
         </is>
       </c>
       <c r="F2918" t="inlineStr"/>
       <c r="G2918" t="inlineStr">
         <is>
-          <t>180K</t>
+          <t>-2.4%</t>
         </is>
       </c>
       <c r="H2918" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2919">
-      <c r="A2919" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B2919" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2919" t="inlineStr">
-        <is>
-          <t>U-6 Unemployment Rate</t>
-        </is>
-      </c>
-      <c r="D2919" t="inlineStr"/>
-      <c r="E2919" t="inlineStr">
-        <is>
-          <t>7.5%</t>
-        </is>
-      </c>
-      <c r="F2919" t="inlineStr"/>
-      <c r="G2919" t="inlineStr">
-        <is>
-          <t>7.5%</t>
-        </is>
-      </c>
-      <c r="H2919" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2920">
-      <c r="A2920" t="inlineStr">
-        <is>
-          <t>08:45 AM</t>
-        </is>
-      </c>
-      <c r="B2920" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2920" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN</t>
-        </is>
-      </c>
-      <c r="D2920" t="inlineStr"/>
-      <c r="E2920" t="inlineStr"/>
-      <c r="F2920" t="inlineStr"/>
-      <c r="G2920" t="inlineStr"/>
-      <c r="H2920" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2921">
-      <c r="A2921" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2921" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2921" t="inlineStr">
-        <is>
-          <t>Treasury Cash BalanceJAN</t>
-        </is>
-      </c>
-      <c r="D2921" t="inlineStr"/>
-      <c r="E2921" t="inlineStr">
-        <is>
-          <t>TRY-323.9B</t>
-        </is>
-      </c>
-      <c r="F2921" t="inlineStr"/>
-      <c r="G2921" t="inlineStr"/>
-      <c r="H2921" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2922">
-      <c r="A2922" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2922" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2922" t="inlineStr">
-        <is>
-          <t>Full Year GDP Growth2025</t>
-        </is>
-      </c>
-      <c r="D2922" t="inlineStr"/>
-      <c r="E2922" t="inlineStr"/>
-      <c r="F2922" t="inlineStr"/>
-      <c r="G2922" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="H2922" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2923">
-      <c r="A2923" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2923" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2923" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2923" t="inlineStr"/>
-      <c r="E2923" t="inlineStr">
-        <is>
-          <t>71.1</t>
-        </is>
-      </c>
-      <c r="F2923" t="inlineStr"/>
-      <c r="G2923" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="H2923" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2924">
-      <c r="A2924" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2924" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2924" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2924" t="inlineStr"/>
-      <c r="E2924" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="F2924" t="inlineStr"/>
-      <c r="G2924" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="H2924" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2925">
-      <c r="A2925" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2925" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2925" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2925" t="inlineStr"/>
-      <c r="E2925" t="inlineStr">
-        <is>
-          <t>69.3</t>
-        </is>
-      </c>
-      <c r="F2925" t="inlineStr"/>
-      <c r="G2925" t="inlineStr">
-        <is>
-          <t>69.5</t>
-        </is>
-      </c>
-      <c r="H2925" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2926">
-      <c r="A2926" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2926" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2926" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2926" t="inlineStr"/>
-      <c r="E2926" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="F2926" t="inlineStr"/>
-      <c r="G2926" t="inlineStr">
-        <is>
-          <t>74.3</t>
-        </is>
-      </c>
-      <c r="H2926" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2927">
-      <c r="A2927" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2927" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2927" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2927" t="inlineStr"/>
-      <c r="E2927" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F2927" t="inlineStr"/>
-      <c r="G2927" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="H2927" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2928">
-      <c r="A2928" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2928" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2928" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2928" t="inlineStr"/>
-      <c r="E2928" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F2928" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="G2928" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="H2928" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2929">
-      <c r="A2929" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B2929" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2929" t="inlineStr">
-        <is>
-          <t>Balance of TradeJAN</t>
-        </is>
-      </c>
-      <c r="D2929" t="inlineStr"/>
-      <c r="E2929" t="inlineStr">
-        <is>
-          <t>$4.8B</t>
-        </is>
-      </c>
-      <c r="F2929" t="inlineStr"/>
-      <c r="G2929" t="inlineStr">
-        <is>
-          <t>$4.1B</t>
-        </is>
-      </c>
-      <c r="H2929" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2930">
-      <c r="A2930" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B2930" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2930" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountFEB/07</t>
-        </is>
-      </c>
-      <c r="D2930" t="inlineStr"/>
-      <c r="E2930" t="inlineStr"/>
-      <c r="F2930" t="inlineStr"/>
-      <c r="G2930" t="inlineStr"/>
-      <c r="H2930" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2931">
-      <c r="A2931" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B2931" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2931" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountFEB/07</t>
-        </is>
-      </c>
-      <c r="D2931" t="inlineStr"/>
-      <c r="E2931" t="inlineStr"/>
-      <c r="F2931" t="inlineStr"/>
-      <c r="G2931" t="inlineStr"/>
-      <c r="H2931" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2932">
-      <c r="A2932" t="inlineStr">
-        <is>
-          <t>02:00 PM</t>
-        </is>
-      </c>
-      <c r="B2932" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C2932" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2932" t="inlineStr"/>
-      <c r="E2932" t="inlineStr">
-        <is>
-          <t>-1.7%</t>
-        </is>
-      </c>
-      <c r="F2932" t="inlineStr"/>
-      <c r="G2932" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="H2932" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2933">
-      <c r="A2933" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B2933" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2933" t="inlineStr">
-        <is>
-          <t>Consumer Credit ChangeDEC</t>
-        </is>
-      </c>
-      <c r="D2933" t="inlineStr"/>
-      <c r="E2933" t="inlineStr">
-        <is>
-          <t>$-7.49B</t>
-        </is>
-      </c>
-      <c r="F2933" t="inlineStr"/>
-      <c r="G2933" t="inlineStr">
-        <is>
-          <t>$ 18B</t>
-        </is>
-      </c>
-      <c r="H2933" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2934">
-      <c r="A2934" t="inlineStr"/>
-      <c r="B2934" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2934" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN</t>
-        </is>
-      </c>
-      <c r="D2934" t="inlineStr"/>
-      <c r="E2934" t="inlineStr">
-        <is>
-          <t>$3.202T</t>
-        </is>
-      </c>
-      <c r="F2934" t="inlineStr"/>
-      <c r="G2934" t="inlineStr">
-        <is>
-          <t>$3.3T</t>
-        </is>
-      </c>
-      <c r="H2934" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2935">
-      <c r="A2935" t="inlineStr"/>
-      <c r="B2935" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C2935" t="inlineStr">
-        <is>
-          <t>SACCI Business ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D2935" t="inlineStr"/>
-      <c r="E2935" t="inlineStr"/>
-      <c r="F2935" t="inlineStr"/>
-      <c r="G2935" t="inlineStr"/>
-      <c r="H2935" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2936">
-      <c r="A2936" t="inlineStr"/>
-      <c r="B2936" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C2936" t="inlineStr">
-        <is>
-          <t>SACCI Business ConfidenceDEC</t>
-        </is>
-      </c>
-      <c r="D2936" t="inlineStr"/>
-      <c r="E2936" t="inlineStr">
-        <is>
-          <t>118.1</t>
-        </is>
-      </c>
-      <c r="F2936" t="inlineStr"/>
-      <c r="G2936" t="inlineStr">
-        <is>
-          <t>116</t>
-        </is>
-      </c>
-      <c r="H2936" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2937">
-      <c r="A2937" t="inlineStr"/>
-      <c r="B2937" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2937" t="inlineStr">
-        <is>
-          <t>Used Car Prices MoMJAN</t>
-        </is>
-      </c>
-      <c r="D2937" t="inlineStr"/>
-      <c r="E2937" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F2937" t="inlineStr"/>
-      <c r="G2937" t="inlineStr"/>
-      <c r="H2937" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2938">
-      <c r="A2938" t="inlineStr"/>
-      <c r="B2938" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2938" t="inlineStr">
-        <is>
-          <t>Used Car Prices YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2938" t="inlineStr"/>
-      <c r="E2938" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F2938" t="inlineStr"/>
-      <c r="G2938" t="inlineStr"/>
-      <c r="H2938" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2939">
-      <c r="A2939" t="inlineStr">
-        <is>
-          <t>Saturday February 08 2025</t>
-        </is>
-      </c>
-      <c r="B2939" t="inlineStr"/>
-      <c r="C2939" t="inlineStr"/>
-      <c r="D2939" t="inlineStr"/>
-      <c r="E2939" t="inlineStr"/>
-      <c r="F2939" t="inlineStr"/>
-      <c r="G2939" t="inlineStr"/>
-      <c r="H2939" t="inlineStr"/>
-    </row>
-    <row r="2940">
-      <c r="A2940" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2940" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2940" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2940" t="inlineStr"/>
-      <c r="E2940" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F2940" t="inlineStr"/>
-      <c r="G2940" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="H2940" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2941">
-      <c r="A2941" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2941" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2941" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMJAN</t>
-        </is>
-      </c>
-      <c r="D2941" t="inlineStr"/>
-      <c r="E2941" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="F2941" t="inlineStr"/>
-      <c r="G2941" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H2941" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2942">
-      <c r="A2942" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2942" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2942" t="inlineStr">
-        <is>
-          <t>PPI YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2942" t="inlineStr"/>
-      <c r="E2942" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
-      <c r="F2942" t="inlineStr"/>
-      <c r="G2942" t="inlineStr">
-        <is>
-          <t>-2.4%</t>
-        </is>
-      </c>
-      <c r="H2942" t="inlineStr">
         <is>
           <t>2</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-08.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-08.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2921"/>
+  <dimension ref="A1:H2897"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84603,10 +84603,8 @@
       </c>
       <c r="F2649" t="inlineStr"/>
       <c r="G2649" t="inlineStr"/>
-      <c r="H2649" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2649" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2650">
@@ -84633,10 +84631,8 @@
       </c>
       <c r="F2650" t="inlineStr"/>
       <c r="G2650" t="inlineStr"/>
-      <c r="H2650" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2650" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2651">
@@ -84663,10 +84659,8 @@
       </c>
       <c r="F2651" t="inlineStr"/>
       <c r="G2651" t="inlineStr"/>
-      <c r="H2651" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2651" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2652">
@@ -84693,10 +84687,8 @@
       </c>
       <c r="F2652" t="inlineStr"/>
       <c r="G2652" t="inlineStr"/>
-      <c r="H2652" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2652" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2653">
@@ -84723,10 +84715,8 @@
       </c>
       <c r="F2653" t="inlineStr"/>
       <c r="G2653" t="inlineStr"/>
-      <c r="H2653" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2653" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2654">
@@ -84753,10 +84743,8 @@
       </c>
       <c r="F2654" t="inlineStr"/>
       <c r="G2654" t="inlineStr"/>
-      <c r="H2654" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2654" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2655">
@@ -84787,10 +84775,8 @@
           <t>$ 230B</t>
         </is>
       </c>
-      <c r="H2655" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2655" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2656">
@@ -84821,10 +84807,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H2656" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2656" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2657">
@@ -84855,10 +84839,8 @@
           <t>51.4</t>
         </is>
       </c>
-      <c r="H2657" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2657" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2658">
@@ -84885,10 +84867,8 @@
       </c>
       <c r="F2658" t="inlineStr"/>
       <c r="G2658" t="inlineStr"/>
-      <c r="H2658" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2658" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2659">
@@ -84915,10 +84895,8 @@
       </c>
       <c r="F2659" t="inlineStr"/>
       <c r="G2659" t="inlineStr"/>
-      <c r="H2659" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2659" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2660">
@@ -84945,10 +84923,8 @@
       </c>
       <c r="F2660" t="inlineStr"/>
       <c r="G2660" t="inlineStr"/>
-      <c r="H2660" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2660" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2661">
@@ -84979,10 +84955,8 @@
           <t>52.3</t>
         </is>
       </c>
-      <c r="H2661" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2661" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2662">
@@ -85017,10 +84991,8 @@
           <t>50.1</t>
         </is>
       </c>
-      <c r="H2662" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2662" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2663">
@@ -85051,10 +85023,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H2663" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2663" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2664">
@@ -85085,10 +85055,8 @@
           <t>47</t>
         </is>
       </c>
-      <c r="H2664" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2664" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2665">
@@ -85119,10 +85087,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2665" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2665" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2666">
@@ -85153,10 +85119,8 @@
           <t>52.8</t>
         </is>
       </c>
-      <c r="H2666" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2666" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2667">
@@ -85187,10 +85151,8 @@
           <t>53</t>
         </is>
       </c>
-      <c r="H2667" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2667" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2668">
@@ -85217,10 +85179,8 @@
       </c>
       <c r="F2668" t="inlineStr"/>
       <c r="G2668" t="inlineStr"/>
-      <c r="H2668" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2668" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2669">
@@ -85247,10 +85207,8 @@
       </c>
       <c r="F2669" t="inlineStr"/>
       <c r="G2669" t="inlineStr"/>
-      <c r="H2669" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2669" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2670">
@@ -85273,10 +85231,8 @@
       <c r="E2670" t="inlineStr"/>
       <c r="F2670" t="inlineStr"/>
       <c r="G2670" t="inlineStr"/>
-      <c r="H2670" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2670" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2671">
@@ -85299,10 +85255,8 @@
       <c r="E2671" t="inlineStr"/>
       <c r="F2671" t="inlineStr"/>
       <c r="G2671" t="inlineStr"/>
-      <c r="H2671" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2671" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2672">
@@ -85329,10 +85283,8 @@
       </c>
       <c r="F2672" t="inlineStr"/>
       <c r="G2672" t="inlineStr"/>
-      <c r="H2672" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2672" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2673">
@@ -85359,10 +85311,8 @@
       </c>
       <c r="F2673" t="inlineStr"/>
       <c r="G2673" t="inlineStr"/>
-      <c r="H2673" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2673" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2674">
@@ -85393,10 +85343,8 @@
           <t>58</t>
         </is>
       </c>
-      <c r="H2674" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2674" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2675">
@@ -85415,10 +85363,8 @@
       <c r="E2675" t="inlineStr"/>
       <c r="F2675" t="inlineStr"/>
       <c r="G2675" t="inlineStr"/>
-      <c r="H2675" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2675" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2676">
@@ -85445,10 +85391,8 @@
           <t>43.0K</t>
         </is>
       </c>
-      <c r="H2676" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2676" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2677">
@@ -85489,10 +85433,8 @@
       </c>
       <c r="F2678" t="inlineStr"/>
       <c r="G2678" t="inlineStr"/>
-      <c r="H2678" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2678" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2679">
@@ -85519,10 +85461,8 @@
       </c>
       <c r="F2679" t="inlineStr"/>
       <c r="G2679" t="inlineStr"/>
-      <c r="H2679" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2679" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2680">
@@ -85549,10 +85489,8 @@
       </c>
       <c r="F2680" t="inlineStr"/>
       <c r="G2680" t="inlineStr"/>
-      <c r="H2680" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2680" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2681">
@@ -85579,10 +85517,8 @@
       </c>
       <c r="F2681" t="inlineStr"/>
       <c r="G2681" t="inlineStr"/>
-      <c r="H2681" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2681" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2682">
@@ -85613,10 +85549,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2682" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2682" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2683">
@@ -85643,10 +85577,8 @@
       </c>
       <c r="F2683" t="inlineStr"/>
       <c r="G2683" t="inlineStr"/>
-      <c r="H2683" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2683" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2684">
@@ -85669,10 +85601,8 @@
       <c r="E2684" t="inlineStr"/>
       <c r="F2684" t="inlineStr"/>
       <c r="G2684" t="inlineStr"/>
-      <c r="H2684" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2684" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2685">
@@ -85703,10 +85633,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2685" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2685" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2686">
@@ -85737,10 +85665,8 @@
           <t>8.2%</t>
         </is>
       </c>
-      <c r="H2686" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2686" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2687">
@@ -85771,10 +85697,8 @@
           <t>50.8</t>
         </is>
       </c>
-      <c r="H2687" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2687" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2688">
@@ -85801,10 +85725,8 @@
       </c>
       <c r="F2688" t="inlineStr"/>
       <c r="G2688" t="inlineStr"/>
-      <c r="H2688" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2688" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2689">
@@ -85835,10 +85757,8 @@
           <t>49.7</t>
         </is>
       </c>
-      <c r="H2689" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2689" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2690">
@@ -85869,10 +85789,8 @@
           <t>7.8M</t>
         </is>
       </c>
-      <c r="H2690" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2690" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2691">
@@ -85903,10 +85821,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H2691" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2691" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2692">
@@ -85937,10 +85853,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2692" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2692" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2693">
@@ -85971,10 +85885,8 @@
           <t>3.1M</t>
         </is>
       </c>
-      <c r="H2693" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2693" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2694">
@@ -86005,10 +85917,8 @@
           <t>52.3</t>
         </is>
       </c>
-      <c r="H2694" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2694" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2695">
@@ -86031,10 +85941,8 @@
       <c r="E2695" t="inlineStr"/>
       <c r="F2695" t="inlineStr"/>
       <c r="G2695" t="inlineStr"/>
-      <c r="H2695" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2695" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2696">
@@ -86057,10 +85965,8 @@
       <c r="E2696" t="inlineStr"/>
       <c r="F2696" t="inlineStr"/>
       <c r="G2696" t="inlineStr"/>
-      <c r="H2696" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2696" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2697">
@@ -86087,10 +85993,8 @@
       </c>
       <c r="F2697" t="inlineStr"/>
       <c r="G2697" t="inlineStr"/>
-      <c r="H2697" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2697" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2698">
@@ -86117,10 +86021,8 @@
       </c>
       <c r="F2698" t="inlineStr"/>
       <c r="G2698" t="inlineStr"/>
-      <c r="H2698" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2698" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2699">
@@ -86151,10 +86053,8 @@
           <t>50.4</t>
         </is>
       </c>
-      <c r="H2699" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2699" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2700">
@@ -86185,10 +86085,8 @@
           <t>50.3</t>
         </is>
       </c>
-      <c r="H2700" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2700" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2701">
@@ -86215,10 +86113,8 @@
       </c>
       <c r="F2701" t="inlineStr"/>
       <c r="G2701" t="inlineStr"/>
-      <c r="H2701" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2701" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2702">
@@ -86245,10 +86141,8 @@
       </c>
       <c r="F2702" t="inlineStr"/>
       <c r="G2702" t="inlineStr"/>
-      <c r="H2702" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2702" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2703">
@@ -86279,10 +86173,8 @@
           <t>2.1%</t>
         </is>
       </c>
-      <c r="H2703" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2703" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2704">
@@ -86309,10 +86201,8 @@
       </c>
       <c r="F2704" t="inlineStr"/>
       <c r="G2704" t="inlineStr"/>
-      <c r="H2704" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2704" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2705">
@@ -86347,10 +86237,8 @@
           <t>52.7</t>
         </is>
       </c>
-      <c r="H2705" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2705" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2706">
@@ -86381,10 +86269,8 @@
           <t>51.1</t>
         </is>
       </c>
-      <c r="H2706" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2706" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2707">
@@ -86411,10 +86297,8 @@
       </c>
       <c r="F2707" t="inlineStr"/>
       <c r="G2707" t="inlineStr"/>
-      <c r="H2707" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2707" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2708">
@@ -86445,10 +86329,8 @@
           <t>51.8</t>
         </is>
       </c>
-      <c r="H2708" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2708" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2709">
@@ -86479,10 +86361,8 @@
           <t>51.1</t>
         </is>
       </c>
-      <c r="H2709" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2709" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2710">
@@ -86513,10 +86393,8 @@
           <t>5.2%</t>
         </is>
       </c>
-      <c r="H2710" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2710" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2711">
@@ -86547,10 +86425,8 @@
           <t>5.2%</t>
         </is>
       </c>
-      <c r="H2711" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2711" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2712">
@@ -86581,10 +86457,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2712" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2712" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2713">
@@ -86603,10 +86477,8 @@
       <c r="E2713" t="inlineStr"/>
       <c r="F2713" t="inlineStr"/>
       <c r="G2713" t="inlineStr"/>
-      <c r="H2713" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2713" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2714">
@@ -86625,10 +86497,8 @@
       <c r="E2714" t="inlineStr"/>
       <c r="F2714" t="inlineStr"/>
       <c r="G2714" t="inlineStr"/>
-      <c r="H2714" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2714" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2715">
@@ -86647,10 +86517,8 @@
       <c r="E2715" t="inlineStr"/>
       <c r="F2715" t="inlineStr"/>
       <c r="G2715" t="inlineStr"/>
-      <c r="H2715" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2715" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2716">
@@ -86673,10 +86541,8 @@
       </c>
       <c r="F2716" t="inlineStr"/>
       <c r="G2716" t="inlineStr"/>
-      <c r="H2716" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2716" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2717">
@@ -86725,10 +86591,8 @@
           <t>57.9</t>
         </is>
       </c>
-      <c r="H2718" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2718" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2719">
@@ -86763,10 +86627,8 @@
           <t>56.8</t>
         </is>
       </c>
-      <c r="H2719" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2719" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2720">
@@ -86797,10 +86659,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2720" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2720" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2721">
@@ -86831,10 +86691,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H2721" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2721" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2722">
@@ -86861,10 +86719,8 @@
       </c>
       <c r="F2722" t="inlineStr"/>
       <c r="G2722" t="inlineStr"/>
-      <c r="H2722" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2722" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2723">
@@ -86891,10 +86747,8 @@
       </c>
       <c r="F2723" t="inlineStr"/>
       <c r="G2723" t="inlineStr"/>
-      <c r="H2723" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2723" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2724">
@@ -86921,10 +86775,8 @@
       </c>
       <c r="F2724" t="inlineStr"/>
       <c r="G2724" t="inlineStr"/>
-      <c r="H2724" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2724" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2725">
@@ -86955,10 +86807,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2725" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2725" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2726">
@@ -86985,10 +86835,8 @@
       </c>
       <c r="F2726" t="inlineStr"/>
       <c r="G2726" t="inlineStr"/>
-      <c r="H2726" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2726" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2727">
@@ -87015,10 +86863,8 @@
       </c>
       <c r="F2727" t="inlineStr"/>
       <c r="G2727" t="inlineStr"/>
-      <c r="H2727" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2727" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2728">
@@ -87045,10 +86891,8 @@
       </c>
       <c r="F2728" t="inlineStr"/>
       <c r="G2728" t="inlineStr"/>
-      <c r="H2728" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2728" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2729">
@@ -87075,10 +86919,8 @@
       </c>
       <c r="F2729" t="inlineStr"/>
       <c r="G2729" t="inlineStr"/>
-      <c r="H2729" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2729" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2730">
@@ -87113,10 +86955,8 @@
           <t>48.9</t>
         </is>
       </c>
-      <c r="H2730" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2730" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2731">
@@ -87151,10 +86991,8 @@
           <t>48.3</t>
         </is>
       </c>
-      <c r="H2731" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2731" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2732">
@@ -87189,10 +87027,8 @@
           <t>50.1</t>
         </is>
       </c>
-      <c r="H2732" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2732" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2733">
@@ -87227,10 +87063,8 @@
           <t>52.5</t>
         </is>
       </c>
-      <c r="H2733" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2733" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2734">
@@ -87265,10 +87099,8 @@
           <t>50.2</t>
         </is>
       </c>
-      <c r="H2734" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2734" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2735">
@@ -87303,10 +87135,8 @@
           <t>51.4</t>
         </is>
       </c>
-      <c r="H2735" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2735" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2736">
@@ -87337,10 +87167,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2736" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2736" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2737">
@@ -87371,10 +87199,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H2737" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2737" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2738">
@@ -87405,10 +87231,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H2738" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2738" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2739">
@@ -87443,10 +87267,8 @@
           <t>51.2</t>
         </is>
       </c>
-      <c r="H2739" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2739" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2740">
@@ -87481,10 +87303,8 @@
           <t>50.9</t>
         </is>
       </c>
-      <c r="H2740" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2740" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2741">
@@ -87515,10 +87335,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2741" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2741" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2742">
@@ -87549,10 +87367,8 @@
           <t>1%</t>
         </is>
       </c>
-      <c r="H2742" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2742" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2743">
@@ -87579,10 +87395,8 @@
       </c>
       <c r="F2743" t="inlineStr"/>
       <c r="G2743" t="inlineStr"/>
-      <c r="H2743" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2743" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2744">
@@ -87609,10 +87423,8 @@
       </c>
       <c r="F2744" t="inlineStr"/>
       <c r="G2744" t="inlineStr"/>
-      <c r="H2744" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2744" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2745">
@@ -87639,10 +87451,8 @@
       </c>
       <c r="F2745" t="inlineStr"/>
       <c r="G2745" t="inlineStr"/>
-      <c r="H2745" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2745" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2746">
@@ -87669,10 +87479,8 @@
       </c>
       <c r="F2746" t="inlineStr"/>
       <c r="G2746" t="inlineStr"/>
-      <c r="H2746" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2746" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2747">
@@ -87703,10 +87511,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2747" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2747" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2748">
@@ -87737,10 +87543,8 @@
           <t>3.7%</t>
         </is>
       </c>
-      <c r="H2748" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2748" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2749">
@@ -87771,10 +87575,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2749" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2749" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2750">
@@ -87805,10 +87607,8 @@
           <t>-1.4%</t>
         </is>
       </c>
-      <c r="H2750" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2750" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2751">
@@ -87835,10 +87635,8 @@
       </c>
       <c r="F2751" t="inlineStr"/>
       <c r="G2751" t="inlineStr"/>
-      <c r="H2751" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2751" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2752">
@@ -87865,10 +87663,8 @@
       </c>
       <c r="F2752" t="inlineStr"/>
       <c r="G2752" t="inlineStr"/>
-      <c r="H2752" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2752" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2753">
@@ -87895,10 +87691,8 @@
       </c>
       <c r="F2753" t="inlineStr"/>
       <c r="G2753" t="inlineStr"/>
-      <c r="H2753" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2753" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2754">
@@ -87925,10 +87719,8 @@
       </c>
       <c r="F2754" t="inlineStr"/>
       <c r="G2754" t="inlineStr"/>
-      <c r="H2754" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2754" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2755">
@@ -87955,10 +87747,8 @@
       </c>
       <c r="F2755" t="inlineStr"/>
       <c r="G2755" t="inlineStr"/>
-      <c r="H2755" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2755" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2756">
@@ -87989,10 +87779,8 @@
           <t>50.2</t>
         </is>
       </c>
-      <c r="H2756" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2756" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2757">
@@ -88023,10 +87811,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="H2757" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2757" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2758">
@@ -88057,10 +87843,8 @@
           <t>115.0K</t>
         </is>
       </c>
-      <c r="H2758" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2758" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2759">
@@ -88091,10 +87875,8 @@
           <t>C$ -1.3B</t>
         </is>
       </c>
-      <c r="H2759" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2759" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2760">
@@ -88125,10 +87907,8 @@
           <t>C$ 65.8B</t>
         </is>
       </c>
-      <c r="H2760" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2760" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2761">
@@ -88159,10 +87939,8 @@
           <t>C$ 64.5B</t>
         </is>
       </c>
-      <c r="H2761" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2761" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2762">
@@ -88193,10 +87971,8 @@
           <t>$ -103.0B</t>
         </is>
       </c>
-      <c r="H2762" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2762" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2763">
@@ -88227,10 +88003,8 @@
           <t>$ 260B</t>
         </is>
       </c>
-      <c r="H2763" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2763" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2764">
@@ -88261,10 +88035,8 @@
           <t>$ 363.0B</t>
         </is>
       </c>
-      <c r="H2764" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2764" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2765">
@@ -88287,10 +88059,8 @@
       <c r="E2765" t="inlineStr"/>
       <c r="F2765" t="inlineStr"/>
       <c r="G2765" t="inlineStr"/>
-      <c r="H2765" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2765" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2766">
@@ -88321,10 +88091,8 @@
           <t>49.5</t>
         </is>
       </c>
-      <c r="H2766" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2766" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2767">
@@ -88355,10 +88123,8 @@
           <t>49</t>
         </is>
       </c>
-      <c r="H2767" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2767" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2768">
@@ -88393,10 +88159,8 @@
           <t>52.4</t>
         </is>
       </c>
-      <c r="H2768" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2768" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2769">
@@ -88431,10 +88195,8 @@
           <t>52.8</t>
         </is>
       </c>
-      <c r="H2769" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2769" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2770">
@@ -88465,10 +88227,8 @@
           <t>54</t>
         </is>
       </c>
-      <c r="H2770" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2770" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2771">
@@ -88499,10 +88259,8 @@
           <t>58.1</t>
         </is>
       </c>
-      <c r="H2771" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2771" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2772">
@@ -88533,10 +88291,8 @@
           <t>51.3</t>
         </is>
       </c>
-      <c r="H2772" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2772" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2773">
@@ -88567,10 +88323,8 @@
           <t>54.1</t>
         </is>
       </c>
-      <c r="H2773" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2773" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2774">
@@ -88601,10 +88355,8 @@
           <t>64.8</t>
         </is>
       </c>
-      <c r="H2774" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2774" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2775">
@@ -88631,10 +88383,8 @@
       </c>
       <c r="F2775" t="inlineStr"/>
       <c r="G2775" t="inlineStr"/>
-      <c r="H2775" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2775" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2776">
@@ -88661,10 +88411,8 @@
       </c>
       <c r="F2776" t="inlineStr"/>
       <c r="G2776" t="inlineStr"/>
-      <c r="H2776" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2776" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2777">
@@ -88691,10 +88439,8 @@
       </c>
       <c r="F2777" t="inlineStr"/>
       <c r="G2777" t="inlineStr"/>
-      <c r="H2777" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2777" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2778">
@@ -88721,10 +88467,8 @@
       </c>
       <c r="F2778" t="inlineStr"/>
       <c r="G2778" t="inlineStr"/>
-      <c r="H2778" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2778" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2779">
@@ -88751,10 +88495,8 @@
       </c>
       <c r="F2779" t="inlineStr"/>
       <c r="G2779" t="inlineStr"/>
-      <c r="H2779" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2779" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2780">
@@ -88781,10 +88523,8 @@
       </c>
       <c r="F2780" t="inlineStr"/>
       <c r="G2780" t="inlineStr"/>
-      <c r="H2780" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2780" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2781">
@@ -88811,10 +88551,8 @@
       </c>
       <c r="F2781" t="inlineStr"/>
       <c r="G2781" t="inlineStr"/>
-      <c r="H2781" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2781" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2782">
@@ -88841,10 +88579,8 @@
       </c>
       <c r="F2782" t="inlineStr"/>
       <c r="G2782" t="inlineStr"/>
-      <c r="H2782" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2782" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2783">
@@ -88871,10 +88607,8 @@
       </c>
       <c r="F2783" t="inlineStr"/>
       <c r="G2783" t="inlineStr"/>
-      <c r="H2783" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2783" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2784">
@@ -88905,10 +88639,8 @@
           <t>2.40%</t>
         </is>
       </c>
-      <c r="H2784" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2784" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2785">
@@ -88935,10 +88667,8 @@
       </c>
       <c r="F2785" t="inlineStr"/>
       <c r="G2785" t="inlineStr"/>
-      <c r="H2785" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2785" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2786">
@@ -88965,10 +88695,8 @@
       </c>
       <c r="F2786" t="inlineStr"/>
       <c r="G2786" t="inlineStr"/>
-      <c r="H2786" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2786" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2787">
@@ -88999,10 +88727,8 @@
           <t>3.8%</t>
         </is>
       </c>
-      <c r="H2787" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2787" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2788">
@@ -89029,10 +88755,8 @@
       </c>
       <c r="F2788" t="inlineStr"/>
       <c r="G2788" t="inlineStr"/>
-      <c r="H2788" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2788" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2789">
@@ -89063,10 +88787,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H2789" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2789" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2790">
@@ -89093,10 +88815,8 @@
       </c>
       <c r="F2790" t="inlineStr"/>
       <c r="G2790" t="inlineStr"/>
-      <c r="H2790" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2790" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2791">
@@ -89123,10 +88843,8 @@
       </c>
       <c r="F2791" t="inlineStr"/>
       <c r="G2791" t="inlineStr"/>
-      <c r="H2791" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2791" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2792">
@@ -89149,10 +88867,8 @@
       <c r="E2792" t="inlineStr"/>
       <c r="F2792" t="inlineStr"/>
       <c r="G2792" t="inlineStr"/>
-      <c r="H2792" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2792" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2793">
@@ -89183,10 +88899,8 @@
           <t>-15</t>
         </is>
       </c>
-      <c r="H2793" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2793" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2794">
@@ -89217,10 +88931,8 @@
           <t>-25</t>
         </is>
       </c>
-      <c r="H2794" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2794" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2795">
@@ -89251,10 +88963,8 @@
           <t>-13</t>
         </is>
       </c>
-      <c r="H2795" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2795" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2796">
@@ -89285,10 +88995,8 @@
           <t>$ 8.1B</t>
         </is>
       </c>
-      <c r="H2796" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2796" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2797">
@@ -89315,10 +89023,8 @@
       </c>
       <c r="F2797" t="inlineStr"/>
       <c r="G2797" t="inlineStr"/>
-      <c r="H2797" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2797" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2798">
@@ -89341,10 +89047,8 @@
       <c r="E2798" t="inlineStr"/>
       <c r="F2798" t="inlineStr"/>
       <c r="G2798" t="inlineStr"/>
-      <c r="H2798" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2798" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2799">
@@ -89367,10 +89071,8 @@
       <c r="E2799" t="inlineStr"/>
       <c r="F2799" t="inlineStr"/>
       <c r="G2799" t="inlineStr"/>
-      <c r="H2799" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2799" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2800">
@@ -89401,10 +89103,8 @@
           <t>A$ 3.2B</t>
         </is>
       </c>
-      <c r="H2800" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2800" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2801">
@@ -89431,10 +89131,8 @@
       </c>
       <c r="F2801" t="inlineStr"/>
       <c r="G2801" t="inlineStr"/>
-      <c r="H2801" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2801" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2802">
@@ -89461,10 +89159,8 @@
       </c>
       <c r="F2802" t="inlineStr"/>
       <c r="G2802" t="inlineStr"/>
-      <c r="H2802" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2802" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2803">
@@ -89491,10 +89187,8 @@
       </c>
       <c r="F2803" t="inlineStr"/>
       <c r="G2803" t="inlineStr"/>
-      <c r="H2803" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2803" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2804">
@@ -89521,10 +89215,8 @@
       </c>
       <c r="F2804" t="inlineStr"/>
       <c r="G2804" t="inlineStr"/>
-      <c r="H2804" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2804" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2805">
@@ -89547,10 +89239,8 @@
       </c>
       <c r="F2805" t="inlineStr"/>
       <c r="G2805" t="inlineStr"/>
-      <c r="H2805" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2805" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2806">
@@ -89595,10 +89285,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2807" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2807" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2808">
@@ -89625,10 +89313,8 @@
       </c>
       <c r="F2808" t="inlineStr"/>
       <c r="G2808" t="inlineStr"/>
-      <c r="H2808" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2808" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2809">
@@ -89655,10 +89341,8 @@
       </c>
       <c r="F2809" t="inlineStr"/>
       <c r="G2809" t="inlineStr"/>
-      <c r="H2809" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2809" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2810">
@@ -89685,10 +89369,8 @@
       </c>
       <c r="F2810" t="inlineStr"/>
       <c r="G2810" t="inlineStr"/>
-      <c r="H2810" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2810" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2811">
@@ -89715,10 +89397,8 @@
       </c>
       <c r="F2811" t="inlineStr"/>
       <c r="G2811" t="inlineStr"/>
-      <c r="H2811" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2811" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2812">
@@ -89749,10 +89429,8 @@
           <t>53.5</t>
         </is>
       </c>
-      <c r="H2812" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2812" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2813">
@@ -89783,10 +89461,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2813" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2813" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2814">
@@ -89817,10 +89493,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H2814" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2814" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2815">
@@ -89843,10 +89517,8 @@
       <c r="E2815" t="inlineStr"/>
       <c r="F2815" t="inlineStr"/>
       <c r="G2815" t="inlineStr"/>
-      <c r="H2815" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2815" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2816">
@@ -89869,10 +89541,8 @@
       <c r="E2816" t="inlineStr"/>
       <c r="F2816" t="inlineStr"/>
       <c r="G2816" t="inlineStr"/>
-      <c r="H2816" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2816" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2817">
@@ -89903,10 +89573,8 @@
           <t>46.5</t>
         </is>
       </c>
-      <c r="H2817" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2817" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2818">
@@ -89941,10 +89609,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H2818" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2818" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2819">
@@ -89967,10 +89633,8 @@
       <c r="E2819" t="inlineStr"/>
       <c r="F2819" t="inlineStr"/>
       <c r="G2819" t="inlineStr"/>
-      <c r="H2819" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2819" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2820">
@@ -89993,10 +89657,8 @@
       <c r="E2820" t="inlineStr"/>
       <c r="F2820" t="inlineStr"/>
       <c r="G2820" t="inlineStr"/>
-      <c r="H2820" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2820" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2821">
@@ -90019,10 +89681,8 @@
       <c r="E2821" t="inlineStr"/>
       <c r="F2821" t="inlineStr"/>
       <c r="G2821" t="inlineStr"/>
-      <c r="H2821" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2821" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2822">
@@ -90045,10 +89705,8 @@
       <c r="E2822" t="inlineStr"/>
       <c r="F2822" t="inlineStr"/>
       <c r="G2822" t="inlineStr"/>
-      <c r="H2822" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2822" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2823">
@@ -90071,10 +89729,8 @@
       <c r="E2823" t="inlineStr"/>
       <c r="F2823" t="inlineStr"/>
       <c r="G2823" t="inlineStr"/>
-      <c r="H2823" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2823" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2824">
@@ -90105,10 +89761,8 @@
           <t>45K</t>
         </is>
       </c>
-      <c r="H2824" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2824" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2825">
@@ -90131,10 +89785,8 @@
       <c r="E2825" t="inlineStr"/>
       <c r="F2825" t="inlineStr"/>
       <c r="G2825" t="inlineStr"/>
-      <c r="H2825" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2825" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2826">
@@ -90165,10 +89817,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2826" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2826" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2827">
@@ -90199,10 +89849,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2827" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2827" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2828">
@@ -90225,10 +89873,8 @@
       <c r="E2828" t="inlineStr"/>
       <c r="F2828" t="inlineStr"/>
       <c r="G2828" t="inlineStr"/>
-      <c r="H2828" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2828" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2829">
@@ -90251,10 +89897,8 @@
       <c r="E2829" t="inlineStr"/>
       <c r="F2829" t="inlineStr"/>
       <c r="G2829" t="inlineStr"/>
-      <c r="H2829" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2829" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2830">
@@ -90285,10 +89929,8 @@
           <t>54.2</t>
         </is>
       </c>
-      <c r="H2830" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2830" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2831">
@@ -90311,10 +89953,8 @@
       <c r="E2831" t="inlineStr"/>
       <c r="F2831" t="inlineStr"/>
       <c r="G2831" t="inlineStr"/>
-      <c r="H2831" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2831" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2832">
@@ -90337,10 +89977,8 @@
       <c r="E2832" t="inlineStr"/>
       <c r="F2832" t="inlineStr"/>
       <c r="G2832" t="inlineStr"/>
-      <c r="H2832" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2832" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2833">
@@ -90363,10 +90001,8 @@
       <c r="E2833" t="inlineStr"/>
       <c r="F2833" t="inlineStr"/>
       <c r="G2833" t="inlineStr"/>
-      <c r="H2833" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2833" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2834">
@@ -90393,10 +90029,8 @@
       </c>
       <c r="F2834" t="inlineStr"/>
       <c r="G2834" t="inlineStr"/>
-      <c r="H2834" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2834" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2835">
@@ -90419,10 +90053,8 @@
       <c r="E2835" t="inlineStr"/>
       <c r="F2835" t="inlineStr"/>
       <c r="G2835" t="inlineStr"/>
-      <c r="H2835" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2835" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2836">
@@ -90445,10 +90077,8 @@
       <c r="E2836" t="inlineStr"/>
       <c r="F2836" t="inlineStr"/>
       <c r="G2836" t="inlineStr"/>
-      <c r="H2836" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2836" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2837">
@@ -90479,10 +90109,8 @@
           <t>9.75%</t>
         </is>
       </c>
-      <c r="H2837" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2837" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2838">
@@ -90505,10 +90133,8 @@
       <c r="E2838" t="inlineStr"/>
       <c r="F2838" t="inlineStr"/>
       <c r="G2838" t="inlineStr"/>
-      <c r="H2838" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2838" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2839">
@@ -90531,10 +90157,8 @@
       <c r="E2839" t="inlineStr"/>
       <c r="F2839" t="inlineStr"/>
       <c r="G2839" t="inlineStr"/>
-      <c r="H2839" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2839" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2840">
@@ -90561,10 +90185,8 @@
       </c>
       <c r="F2840" t="inlineStr"/>
       <c r="G2840" t="inlineStr"/>
-      <c r="H2840" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2840" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2841">
@@ -90595,10 +90217,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H2841" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2841" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2842">
@@ -90625,10 +90245,8 @@
       </c>
       <c r="F2842" t="inlineStr"/>
       <c r="G2842" t="inlineStr"/>
-      <c r="H2842" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2842" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2843">
@@ -90651,10 +90269,8 @@
       <c r="E2843" t="inlineStr"/>
       <c r="F2843" t="inlineStr"/>
       <c r="G2843" t="inlineStr"/>
-      <c r="H2843" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2843" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2844">
@@ -90681,10 +90297,8 @@
       </c>
       <c r="F2844" t="inlineStr"/>
       <c r="G2844" t="inlineStr"/>
-      <c r="H2844" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2844" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2845">
@@ -90711,10 +90325,8 @@
       </c>
       <c r="F2845" t="inlineStr"/>
       <c r="G2845" t="inlineStr"/>
-      <c r="H2845" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2845" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2846">
@@ -90737,10 +90349,8 @@
       </c>
       <c r="F2846" t="inlineStr"/>
       <c r="G2846" t="inlineStr"/>
-      <c r="H2846" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2846" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2847">
@@ -90763,10 +90373,8 @@
       </c>
       <c r="F2847" t="inlineStr"/>
       <c r="G2847" t="inlineStr"/>
-      <c r="H2847" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2847" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2848">
@@ -90785,10 +90393,8 @@
       <c r="E2848" t="inlineStr"/>
       <c r="F2848" t="inlineStr"/>
       <c r="G2848" t="inlineStr"/>
-      <c r="H2848" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2848" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2849">
@@ -90807,10 +90413,8 @@
       <c r="E2849" t="inlineStr"/>
       <c r="F2849" t="inlineStr"/>
       <c r="G2849" t="inlineStr"/>
-      <c r="H2849" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2849" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2850">
@@ -90829,10 +90433,8 @@
       <c r="E2850" t="inlineStr"/>
       <c r="F2850" t="inlineStr"/>
       <c r="G2850" t="inlineStr"/>
-      <c r="H2850" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2850" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2851">
@@ -90855,10 +90457,8 @@
       </c>
       <c r="F2851" t="inlineStr"/>
       <c r="G2851" t="inlineStr"/>
-      <c r="H2851" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2851" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2852">
@@ -90877,82 +90477,104 @@
       <c r="E2852" t="inlineStr"/>
       <c r="F2852" t="inlineStr"/>
       <c r="G2852" t="inlineStr"/>
-      <c r="H2852" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2852" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2853">
       <c r="A2853" t="inlineStr">
         <is>
-          <t>Friday February 07 2025</t>
-        </is>
-      </c>
-      <c r="B2853" t="inlineStr"/>
-      <c r="C2853" t="inlineStr"/>
+          <t>07:00 AM</t>
+        </is>
+      </c>
+      <c r="B2853" t="inlineStr">
+        <is>
+          <t>MX</t>
+        </is>
+      </c>
+      <c r="C2853" t="inlineStr">
+        <is>
+          <t>Inflation Rate MoMJAN</t>
+        </is>
+      </c>
       <c r="D2853" t="inlineStr"/>
-      <c r="E2853" t="inlineStr"/>
+      <c r="E2853" t="inlineStr">
+        <is>
+          <t>0.38%</t>
+        </is>
+      </c>
       <c r="F2853" t="inlineStr"/>
-      <c r="G2853" t="inlineStr"/>
-      <c r="H2853" t="inlineStr"/>
+      <c r="G2853" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
+      <c r="H2853" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2854">
       <c r="A2854" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2854" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2854" t="inlineStr">
         <is>
-          <t>Coincident Index PrelDEC</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2854" t="inlineStr"/>
       <c r="E2854" t="inlineStr">
         <is>
-          <t>115.4</t>
+          <t>4.21%</t>
         </is>
       </c>
       <c r="F2854" t="inlineStr"/>
-      <c r="G2854" t="inlineStr"/>
+      <c r="G2854" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
       <c r="H2854" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2855">
       <c r="A2855" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2855" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2855" t="inlineStr">
         <is>
-          <t>Leading Economic Index PrelDEC</t>
+          <t>Core Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2855" t="inlineStr"/>
       <c r="E2855" t="inlineStr">
         <is>
-          <t>107.5</t>
+          <t>0.51%</t>
         </is>
       </c>
       <c r="F2855" t="inlineStr"/>
       <c r="G2855" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H2855" t="inlineStr">
@@ -90964,29 +90586,29 @@
     <row r="2856">
       <c r="A2856" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2856" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2856" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Core Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2856" t="inlineStr"/>
       <c r="E2856" t="inlineStr">
         <is>
-          <t>$65.46B</t>
+          <t>3.65%</t>
         </is>
       </c>
       <c r="F2856" t="inlineStr"/>
       <c r="G2856" t="inlineStr">
         <is>
-          <t>$65.0B</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H2856" t="inlineStr">
@@ -90998,163 +90620,167 @@
     <row r="2857">
       <c r="A2857" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2857" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2857" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Car Production MoMJAN</t>
         </is>
       </c>
       <c r="D2857" t="inlineStr"/>
       <c r="E2857" t="inlineStr">
         <is>
-          <t>€19.7B</t>
+          <t>-19.5%</t>
         </is>
       </c>
       <c r="F2857" t="inlineStr"/>
       <c r="G2857" t="inlineStr">
         <is>
-          <t>€ 22B</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="H2857" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2858">
       <c r="A2858" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2858" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2858" t="inlineStr">
         <is>
-          <t>Exports MoMDEC</t>
+          <t>New Car Registrations MoMJAN</t>
         </is>
       </c>
       <c r="D2858" t="inlineStr"/>
       <c r="E2858" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F2858" t="inlineStr"/>
       <c r="G2858" t="inlineStr">
         <is>
-          <t>130%</t>
+          <t>-1.5%</t>
         </is>
       </c>
       <c r="H2858" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2859">
       <c r="A2859" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2859" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2859" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2859" t="inlineStr"/>
       <c r="E2859" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>6.7%</t>
         </is>
       </c>
       <c r="F2859" t="inlineStr"/>
       <c r="G2859" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>6.8%</t>
         </is>
       </c>
       <c r="H2859" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2860">
       <c r="A2860" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2860" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2860" t="inlineStr">
         <is>
-          <t>Imports MoMDEC</t>
+          <t>Employment ChangeJAN</t>
         </is>
       </c>
       <c r="D2860" t="inlineStr"/>
       <c r="E2860" t="inlineStr">
         <is>
-          <t>-3.3%</t>
+          <t>90.9K</t>
         </is>
       </c>
       <c r="F2860" t="inlineStr"/>
       <c r="G2860" t="inlineStr">
         <is>
-          <t>108%</t>
+          <t>5K</t>
         </is>
       </c>
       <c r="H2860" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2861">
       <c r="A2861" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2861" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2861" t="inlineStr">
         <is>
-          <t>Halifax House Price Index MoMJAN</t>
+          <t>Full Time Employment ChgJAN</t>
         </is>
       </c>
       <c r="D2861" t="inlineStr"/>
       <c r="E2861" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>57.5K</t>
         </is>
       </c>
       <c r="F2861" t="inlineStr"/>
-      <c r="G2861" t="inlineStr"/>
+      <c r="G2861" t="inlineStr">
+        <is>
+          <t>-3K</t>
+        </is>
+      </c>
       <c r="H2861" t="inlineStr">
         <is>
           <t>2</t>
@@ -91164,27 +90790,31 @@
     <row r="2862">
       <c r="A2862" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2862" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2862" t="inlineStr">
         <is>
-          <t>Halifax House Price Index YoYJAN</t>
+          <t>Part Time Employment ChgJAN</t>
         </is>
       </c>
       <c r="D2862" t="inlineStr"/>
       <c r="E2862" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>33.5K</t>
         </is>
       </c>
       <c r="F2862" t="inlineStr"/>
-      <c r="G2862" t="inlineStr"/>
+      <c r="G2862" t="inlineStr">
+        <is>
+          <t>8K</t>
+        </is>
+      </c>
       <c r="H2862" t="inlineStr">
         <is>
           <t>2</t>
@@ -91194,23 +90824,31 @@
     <row r="2863">
       <c r="A2863" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2863" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2863" t="inlineStr">
         <is>
-          <t>Inflation Report</t>
+          <t>Participation RateJAN</t>
         </is>
       </c>
       <c r="D2863" t="inlineStr"/>
-      <c r="E2863" t="inlineStr"/>
+      <c r="E2863" t="inlineStr">
+        <is>
+          <t>65.1%</t>
+        </is>
+      </c>
       <c r="F2863" t="inlineStr"/>
-      <c r="G2863" t="inlineStr"/>
+      <c r="G2863" t="inlineStr">
+        <is>
+          <t>65.0%</t>
+        </is>
+      </c>
       <c r="H2863" t="inlineStr">
         <is>
           <t>2</t>
@@ -91220,229 +90858,233 @@
     <row r="2864">
       <c r="A2864" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2864" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2864" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Average Hourly Wages YoYJAN</t>
         </is>
       </c>
       <c r="D2864" t="inlineStr"/>
       <c r="E2864" t="inlineStr">
         <is>
-          <t>€-7.1B</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="F2864" t="inlineStr"/>
       <c r="G2864" t="inlineStr">
         <is>
-          <t>€ -7.2B</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H2864" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2865">
       <c r="A2865" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2865" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2865" t="inlineStr">
         <is>
-          <t>Current AccountDEC</t>
+          <t>Non Farm PayrollsJAN</t>
         </is>
       </c>
       <c r="D2865" t="inlineStr"/>
       <c r="E2865" t="inlineStr">
         <is>
-          <t>€-1.7B</t>
+          <t>256K</t>
         </is>
       </c>
       <c r="F2865" t="inlineStr"/>
       <c r="G2865" t="inlineStr">
         <is>
-          <t>€ -2.5B</t>
+          <t>205K</t>
         </is>
       </c>
       <c r="H2865" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2866">
       <c r="A2866" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2866" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2866" t="inlineStr">
         <is>
-          <t>ExportsDEC</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2866" t="inlineStr"/>
       <c r="E2866" t="inlineStr">
         <is>
-          <t>€50.101B</t>
+          <t>4.1%</t>
         </is>
       </c>
       <c r="F2866" t="inlineStr"/>
       <c r="G2866" t="inlineStr">
         <is>
-          <t>€ 49.7B</t>
+          <t>4.1%</t>
         </is>
       </c>
       <c r="H2866" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2867">
       <c r="A2867" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2867" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2867" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Average Hourly Earnings MoMJAN</t>
         </is>
       </c>
       <c r="D2867" t="inlineStr"/>
       <c r="E2867" t="inlineStr">
         <is>
-          <t>€275.078B</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F2867" t="inlineStr"/>
-      <c r="G2867" t="inlineStr"/>
+      <c r="G2867" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2867" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2868">
       <c r="A2868" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2868" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2868" t="inlineStr">
         <is>
-          <t>ImportsDEC</t>
+          <t>Average Hourly Earnings YoY</t>
         </is>
       </c>
       <c r="D2868" t="inlineStr"/>
       <c r="E2868" t="inlineStr">
         <is>
-          <t>€57.186B</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="F2868" t="inlineStr"/>
       <c r="G2868" t="inlineStr">
         <is>
-          <t>€ 56.9B</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="H2868" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2869">
       <c r="A2869" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2869" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2869" t="inlineStr">
         <is>
-          <t>Private Non Farm Payrolls QoQ PrelQ4</t>
+          <t>Participation RateJAN</t>
         </is>
       </c>
       <c r="D2869" t="inlineStr"/>
       <c r="E2869" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>62.5%</t>
         </is>
       </c>
       <c r="F2869" t="inlineStr"/>
       <c r="G2869" t="inlineStr">
         <is>
-          <t>20200%</t>
+          <t>62.5%</t>
         </is>
       </c>
       <c r="H2869" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2870">
       <c r="A2870" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2870" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2870" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Average Weekly HoursJAN</t>
         </is>
       </c>
       <c r="D2870" t="inlineStr"/>
       <c r="E2870" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>34.3</t>
         </is>
       </c>
       <c r="F2870" t="inlineStr"/>
       <c r="G2870" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>34.3</t>
         </is>
       </c>
       <c r="H2870" t="inlineStr">
@@ -91454,27 +91096,31 @@
     <row r="2871">
       <c r="A2871" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2871" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2871" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Government PayrollsJAN</t>
         </is>
       </c>
       <c r="D2871" t="inlineStr"/>
       <c r="E2871" t="inlineStr">
         <is>
-          <t>S$506.7B</t>
+          <t>33K</t>
         </is>
       </c>
       <c r="F2871" t="inlineStr"/>
-      <c r="G2871" t="inlineStr"/>
+      <c r="G2871" t="inlineStr">
+        <is>
+          <t>25K</t>
+        </is>
+      </c>
       <c r="H2871" t="inlineStr">
         <is>
           <t>3</t>
@@ -91484,27 +91130,31 @@
     <row r="2872">
       <c r="A2872" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2872" t="inlineStr">
         <is>
-          <t>WL</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2872" t="inlineStr">
         <is>
-          <t>FAO Food Price IndexJAN</t>
+          <t>Manufacturing PayrollsJAN</t>
         </is>
       </c>
       <c r="D2872" t="inlineStr"/>
       <c r="E2872" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>-13K</t>
         </is>
       </c>
       <c r="F2872" t="inlineStr"/>
-      <c r="G2872" t="inlineStr"/>
+      <c r="G2872" t="inlineStr">
+        <is>
+          <t>-5K</t>
+        </is>
+      </c>
       <c r="H2872" t="inlineStr">
         <is>
           <t>3</t>
@@ -91514,27 +91164,31 @@
     <row r="2873">
       <c r="A2873" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2873" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2873" t="inlineStr">
         <is>
-          <t>BBA Mortgage RateJAN</t>
+          <t>Nonfarm Payrolls PrivateJAN</t>
         </is>
       </c>
       <c r="D2873" t="inlineStr"/>
       <c r="E2873" t="inlineStr">
         <is>
-          <t>7.50%</t>
+          <t>223K</t>
         </is>
       </c>
       <c r="F2873" t="inlineStr"/>
-      <c r="G2873" t="inlineStr"/>
+      <c r="G2873" t="inlineStr">
+        <is>
+          <t>180K</t>
+        </is>
+      </c>
       <c r="H2873" t="inlineStr">
         <is>
           <t>3</t>
@@ -91544,23 +91198,31 @@
     <row r="2874">
       <c r="A2874" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2874" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2874" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/31</t>
+          <t>U-6 Unemployment Rate</t>
         </is>
       </c>
       <c r="D2874" t="inlineStr"/>
-      <c r="E2874" t="inlineStr"/>
+      <c r="E2874" t="inlineStr">
+        <is>
+          <t>7.5%</t>
+        </is>
+      </c>
       <c r="F2874" t="inlineStr"/>
-      <c r="G2874" t="inlineStr"/>
+      <c r="G2874" t="inlineStr">
+        <is>
+          <t>7.5%</t>
+        </is>
+      </c>
       <c r="H2874" t="inlineStr">
         <is>
           <t>3</t>
@@ -91570,165 +91232,149 @@
     <row r="2875">
       <c r="A2875" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>08:45 AM</t>
         </is>
       </c>
       <c r="B2875" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2875" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2875" t="inlineStr"/>
-      <c r="E2875" t="inlineStr">
-        <is>
-          <t>0.52%</t>
-        </is>
-      </c>
+      <c r="E2875" t="inlineStr"/>
       <c r="F2875" t="inlineStr"/>
-      <c r="G2875" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2875" t="inlineStr"/>
       <c r="H2875" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2876">
       <c r="A2876" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2876" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2876" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Treasury Cash BalanceJAN</t>
         </is>
       </c>
       <c r="D2876" t="inlineStr"/>
       <c r="E2876" t="inlineStr">
         <is>
-          <t>4.83%</t>
+          <t>TRY-323.9B</t>
         </is>
       </c>
       <c r="F2876" t="inlineStr"/>
-      <c r="G2876" t="inlineStr">
-        <is>
-          <t>4.7%</t>
-        </is>
-      </c>
+      <c r="G2876" t="inlineStr"/>
       <c r="H2876" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2877">
       <c r="A2877" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2877" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2877" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Full Year GDP Growth2025</t>
         </is>
       </c>
       <c r="D2877" t="inlineStr"/>
-      <c r="E2877" t="inlineStr">
-        <is>
-          <t>0.38%</t>
-        </is>
-      </c>
+      <c r="E2877" t="inlineStr"/>
       <c r="F2877" t="inlineStr"/>
       <c r="G2877" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H2877" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2878">
       <c r="A2878" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2878" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2878" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Michigan Consumer Sentiment PrelFEB</t>
         </is>
       </c>
       <c r="D2878" t="inlineStr"/>
       <c r="E2878" t="inlineStr">
         <is>
-          <t>4.21%</t>
+          <t>71.1</t>
         </is>
       </c>
       <c r="F2878" t="inlineStr"/>
       <c r="G2878" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>72</t>
         </is>
       </c>
       <c r="H2878" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2879">
       <c r="A2879" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2879" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2879" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMJAN</t>
+          <t>Michigan 5 Year Inflation Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2879" t="inlineStr"/>
       <c r="E2879" t="inlineStr">
         <is>
-          <t>0.51%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="F2879" t="inlineStr"/>
       <c r="G2879" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H2879" t="inlineStr">
@@ -91740,29 +91386,29 @@
     <row r="2880">
       <c r="A2880" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2880" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2880" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJAN</t>
+          <t>Michigan Consumer Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2880" t="inlineStr"/>
       <c r="E2880" t="inlineStr">
         <is>
-          <t>3.65%</t>
+          <t>69.3</t>
         </is>
       </c>
       <c r="F2880" t="inlineStr"/>
       <c r="G2880" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>69.5</t>
         </is>
       </c>
       <c r="H2880" t="inlineStr">
@@ -91774,29 +91420,29 @@
     <row r="2881">
       <c r="A2881" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2881" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2881" t="inlineStr">
         <is>
-          <t>Car Production MoMJAN</t>
+          <t>Michigan Current Conditions PrelFEB</t>
         </is>
       </c>
       <c r="D2881" t="inlineStr"/>
       <c r="E2881" t="inlineStr">
         <is>
-          <t>-19.5%</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F2881" t="inlineStr"/>
       <c r="G2881" t="inlineStr">
         <is>
-          <t>-5.0%</t>
+          <t>74.3</t>
         </is>
       </c>
       <c r="H2881" t="inlineStr">
@@ -91808,29 +91454,29 @@
     <row r="2882">
       <c r="A2882" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2882" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2882" t="inlineStr">
         <is>
-          <t>New Car Registrations MoMJAN</t>
+          <t>Michigan Inflation Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2882" t="inlineStr"/>
       <c r="E2882" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="F2882" t="inlineStr"/>
       <c r="G2882" t="inlineStr">
         <is>
-          <t>-1.5%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H2882" t="inlineStr">
@@ -91842,63 +91488,67 @@
     <row r="2883">
       <c r="A2883" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2883" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2883" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>Wholesale Inventories MoMDEC</t>
         </is>
       </c>
       <c r="D2883" t="inlineStr"/>
       <c r="E2883" t="inlineStr">
         <is>
-          <t>6.7%</t>
-        </is>
-      </c>
-      <c r="F2883" t="inlineStr"/>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="F2883" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
       <c r="G2883" t="inlineStr">
         <is>
-          <t>6.8%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H2883" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2884">
       <c r="A2884" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B2884" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2884" t="inlineStr">
         <is>
-          <t>Employment ChangeJAN</t>
+          <t>Balance of TradeJAN</t>
         </is>
       </c>
       <c r="D2884" t="inlineStr"/>
       <c r="E2884" t="inlineStr">
         <is>
-          <t>90.9K</t>
+          <t>$4.8B</t>
         </is>
       </c>
       <c r="F2884" t="inlineStr"/>
       <c r="G2884" t="inlineStr">
         <is>
-          <t>5K</t>
+          <t>$4.1B</t>
         </is>
       </c>
       <c r="H2884" t="inlineStr">
@@ -91910,131 +91560,115 @@
     <row r="2885">
       <c r="A2885" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B2885" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2885" t="inlineStr">
         <is>
-          <t>Full Time Employment ChgJAN</t>
+          <t>Baker Hughes Oil Rig CountFEB/07</t>
         </is>
       </c>
       <c r="D2885" t="inlineStr"/>
-      <c r="E2885" t="inlineStr">
-        <is>
-          <t>57.5K</t>
-        </is>
-      </c>
+      <c r="E2885" t="inlineStr"/>
       <c r="F2885" t="inlineStr"/>
-      <c r="G2885" t="inlineStr">
-        <is>
-          <t>-3K</t>
-        </is>
-      </c>
+      <c r="G2885" t="inlineStr"/>
       <c r="H2885" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2886">
       <c r="A2886" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B2886" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2886" t="inlineStr">
         <is>
-          <t>Part Time Employment ChgJAN</t>
+          <t>Baker Hughes Total Rigs CountFEB/07</t>
         </is>
       </c>
       <c r="D2886" t="inlineStr"/>
-      <c r="E2886" t="inlineStr">
-        <is>
-          <t>33.5K</t>
-        </is>
-      </c>
+      <c r="E2886" t="inlineStr"/>
       <c r="F2886" t="inlineStr"/>
-      <c r="G2886" t="inlineStr">
-        <is>
-          <t>8K</t>
-        </is>
-      </c>
+      <c r="G2886" t="inlineStr"/>
       <c r="H2886" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2887">
       <c r="A2887" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B2887" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C2887" t="inlineStr">
         <is>
-          <t>Participation RateJAN</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2887" t="inlineStr"/>
       <c r="E2887" t="inlineStr">
         <is>
-          <t>65.1%</t>
+          <t>-1.7%</t>
         </is>
       </c>
       <c r="F2887" t="inlineStr"/>
       <c r="G2887" t="inlineStr">
         <is>
-          <t>65.0%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H2887" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2888">
       <c r="A2888" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2888" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2888" t="inlineStr">
         <is>
-          <t>Average Hourly Wages YoYJAN</t>
+          <t>Consumer Credit ChangeDEC</t>
         </is>
       </c>
       <c r="D2888" t="inlineStr"/>
       <c r="E2888" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>$-7.49B</t>
         </is>
       </c>
       <c r="F2888" t="inlineStr"/>
       <c r="G2888" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>$ 18B</t>
         </is>
       </c>
       <c r="H2888" t="inlineStr">
@@ -92044,113 +91678,89 @@
       </c>
     </row>
     <row r="2889">
-      <c r="A2889" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2889" t="inlineStr"/>
       <c r="B2889" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2889" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsJAN</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2889" t="inlineStr"/>
       <c r="E2889" t="inlineStr">
         <is>
-          <t>256K</t>
+          <t>$3.202T</t>
         </is>
       </c>
       <c r="F2889" t="inlineStr"/>
       <c r="G2889" t="inlineStr">
         <is>
-          <t>205K</t>
+          <t>$3.3T</t>
         </is>
       </c>
       <c r="H2889" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2890">
-      <c r="A2890" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2890" t="inlineStr"/>
       <c r="B2890" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2890" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>SACCI Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2890" t="inlineStr"/>
-      <c r="E2890" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
+      <c r="E2890" t="inlineStr"/>
       <c r="F2890" t="inlineStr"/>
-      <c r="G2890" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
+      <c r="G2890" t="inlineStr"/>
       <c r="H2890" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2891">
-      <c r="A2891" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2891" t="inlineStr"/>
       <c r="B2891" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2891" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings MoMJAN</t>
+          <t>SACCI Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D2891" t="inlineStr"/>
       <c r="E2891" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>118.1</t>
         </is>
       </c>
       <c r="F2891" t="inlineStr"/>
       <c r="G2891" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>116</t>
         </is>
       </c>
       <c r="H2891" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2892">
-      <c r="A2892" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2892" t="inlineStr"/>
       <c r="B2892" t="inlineStr">
         <is>
           <t>US</t>
@@ -92158,33 +91768,25 @@
       </c>
       <c r="C2892" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoY</t>
+          <t>Used Car Prices MoMJAN</t>
         </is>
       </c>
       <c r="D2892" t="inlineStr"/>
       <c r="E2892" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F2892" t="inlineStr"/>
-      <c r="G2892" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
+      <c r="G2892" t="inlineStr"/>
       <c r="H2892" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2893">
-      <c r="A2893" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2893" t="inlineStr"/>
       <c r="B2893" t="inlineStr">
         <is>
           <t>US</t>
@@ -92192,890 +91794,134 @@
       </c>
       <c r="C2893" t="inlineStr">
         <is>
-          <t>Participation RateJAN</t>
+          <t>Used Car Prices YoYJAN</t>
         </is>
       </c>
       <c r="D2893" t="inlineStr"/>
       <c r="E2893" t="inlineStr">
         <is>
-          <t>62.5%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2893" t="inlineStr"/>
-      <c r="G2893" t="inlineStr">
-        <is>
-          <t>62.5%</t>
-        </is>
-      </c>
+      <c r="G2893" t="inlineStr"/>
       <c r="H2893" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2894">
       <c r="A2894" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B2894" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2894" t="inlineStr">
-        <is>
-          <t>Average Weekly HoursJAN</t>
-        </is>
-      </c>
+          <t>Saturday February 08 2025</t>
+        </is>
+      </c>
+      <c r="B2894" t="inlineStr"/>
+      <c r="C2894" t="inlineStr"/>
       <c r="D2894" t="inlineStr"/>
-      <c r="E2894" t="inlineStr">
-        <is>
-          <t>34.3</t>
-        </is>
-      </c>
+      <c r="E2894" t="inlineStr"/>
       <c r="F2894" t="inlineStr"/>
-      <c r="G2894" t="inlineStr">
-        <is>
-          <t>34.3</t>
-        </is>
-      </c>
-      <c r="H2894" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G2894" t="inlineStr"/>
+      <c r="H2894" t="inlineStr"/>
     </row>
     <row r="2895">
       <c r="A2895" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2895" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2895" t="inlineStr">
         <is>
-          <t>Government PayrollsJAN</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2895" t="inlineStr"/>
       <c r="E2895" t="inlineStr">
         <is>
-          <t>33K</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2895" t="inlineStr"/>
       <c r="G2895" t="inlineStr">
         <is>
-          <t>25K</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="H2895" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2896">
       <c r="A2896" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2896" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2896" t="inlineStr">
         <is>
-          <t>Manufacturing PayrollsJAN</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2896" t="inlineStr"/>
       <c r="E2896" t="inlineStr">
         <is>
-          <t>-13K</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="F2896" t="inlineStr"/>
       <c r="G2896" t="inlineStr">
         <is>
-          <t>-5K</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H2896" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2897">
       <c r="A2897" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2897" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2897" t="inlineStr">
         <is>
-          <t>Nonfarm Payrolls PrivateJAN</t>
+          <t>PPI YoYJAN</t>
         </is>
       </c>
       <c r="D2897" t="inlineStr"/>
       <c r="E2897" t="inlineStr">
         <is>
-          <t>223K</t>
+          <t>-2.3%</t>
         </is>
       </c>
       <c r="F2897" t="inlineStr"/>
       <c r="G2897" t="inlineStr">
         <is>
-          <t>180K</t>
+          <t>-2.4%</t>
         </is>
       </c>
       <c r="H2897" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2898">
-      <c r="A2898" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B2898" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2898" t="inlineStr">
-        <is>
-          <t>U-6 Unemployment Rate</t>
-        </is>
-      </c>
-      <c r="D2898" t="inlineStr"/>
-      <c r="E2898" t="inlineStr">
-        <is>
-          <t>7.5%</t>
-        </is>
-      </c>
-      <c r="F2898" t="inlineStr"/>
-      <c r="G2898" t="inlineStr">
-        <is>
-          <t>7.5%</t>
-        </is>
-      </c>
-      <c r="H2898" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2899">
-      <c r="A2899" t="inlineStr">
-        <is>
-          <t>08:45 AM</t>
-        </is>
-      </c>
-      <c r="B2899" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2899" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN</t>
-        </is>
-      </c>
-      <c r="D2899" t="inlineStr"/>
-      <c r="E2899" t="inlineStr"/>
-      <c r="F2899" t="inlineStr"/>
-      <c r="G2899" t="inlineStr"/>
-      <c r="H2899" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2900">
-      <c r="A2900" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2900" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2900" t="inlineStr">
-        <is>
-          <t>Treasury Cash BalanceJAN</t>
-        </is>
-      </c>
-      <c r="D2900" t="inlineStr"/>
-      <c r="E2900" t="inlineStr">
-        <is>
-          <t>TRY-323.9B</t>
-        </is>
-      </c>
-      <c r="F2900" t="inlineStr"/>
-      <c r="G2900" t="inlineStr"/>
-      <c r="H2900" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2901">
-      <c r="A2901" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2901" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2901" t="inlineStr">
-        <is>
-          <t>Full Year GDP Growth2025</t>
-        </is>
-      </c>
-      <c r="D2901" t="inlineStr"/>
-      <c r="E2901" t="inlineStr"/>
-      <c r="F2901" t="inlineStr"/>
-      <c r="G2901" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="H2901" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2902">
-      <c r="A2902" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2902" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2902" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2902" t="inlineStr"/>
-      <c r="E2902" t="inlineStr">
-        <is>
-          <t>71.1</t>
-        </is>
-      </c>
-      <c r="F2902" t="inlineStr"/>
-      <c r="G2902" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="H2902" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2903">
-      <c r="A2903" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2903" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2903" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2903" t="inlineStr"/>
-      <c r="E2903" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="F2903" t="inlineStr"/>
-      <c r="G2903" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="H2903" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2904">
-      <c r="A2904" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2904" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2904" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2904" t="inlineStr"/>
-      <c r="E2904" t="inlineStr">
-        <is>
-          <t>69.3</t>
-        </is>
-      </c>
-      <c r="F2904" t="inlineStr"/>
-      <c r="G2904" t="inlineStr">
-        <is>
-          <t>69.5</t>
-        </is>
-      </c>
-      <c r="H2904" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2905">
-      <c r="A2905" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2905" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2905" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2905" t="inlineStr"/>
-      <c r="E2905" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="F2905" t="inlineStr"/>
-      <c r="G2905" t="inlineStr">
-        <is>
-          <t>74.3</t>
-        </is>
-      </c>
-      <c r="H2905" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2906">
-      <c r="A2906" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2906" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2906" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2906" t="inlineStr"/>
-      <c r="E2906" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F2906" t="inlineStr"/>
-      <c r="G2906" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="H2906" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2907">
-      <c r="A2907" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2907" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2907" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2907" t="inlineStr"/>
-      <c r="E2907" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F2907" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="G2907" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="H2907" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2908">
-      <c r="A2908" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B2908" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2908" t="inlineStr">
-        <is>
-          <t>Balance of TradeJAN</t>
-        </is>
-      </c>
-      <c r="D2908" t="inlineStr"/>
-      <c r="E2908" t="inlineStr">
-        <is>
-          <t>$4.8B</t>
-        </is>
-      </c>
-      <c r="F2908" t="inlineStr"/>
-      <c r="G2908" t="inlineStr">
-        <is>
-          <t>$4.1B</t>
-        </is>
-      </c>
-      <c r="H2908" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2909">
-      <c r="A2909" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B2909" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2909" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountFEB/07</t>
-        </is>
-      </c>
-      <c r="D2909" t="inlineStr"/>
-      <c r="E2909" t="inlineStr"/>
-      <c r="F2909" t="inlineStr"/>
-      <c r="G2909" t="inlineStr"/>
-      <c r="H2909" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2910">
-      <c r="A2910" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B2910" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2910" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountFEB/07</t>
-        </is>
-      </c>
-      <c r="D2910" t="inlineStr"/>
-      <c r="E2910" t="inlineStr"/>
-      <c r="F2910" t="inlineStr"/>
-      <c r="G2910" t="inlineStr"/>
-      <c r="H2910" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2911">
-      <c r="A2911" t="inlineStr">
-        <is>
-          <t>02:00 PM</t>
-        </is>
-      </c>
-      <c r="B2911" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C2911" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2911" t="inlineStr"/>
-      <c r="E2911" t="inlineStr">
-        <is>
-          <t>-1.7%</t>
-        </is>
-      </c>
-      <c r="F2911" t="inlineStr"/>
-      <c r="G2911" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="H2911" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2912">
-      <c r="A2912" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B2912" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2912" t="inlineStr">
-        <is>
-          <t>Consumer Credit ChangeDEC</t>
-        </is>
-      </c>
-      <c r="D2912" t="inlineStr"/>
-      <c r="E2912" t="inlineStr">
-        <is>
-          <t>$-7.49B</t>
-        </is>
-      </c>
-      <c r="F2912" t="inlineStr"/>
-      <c r="G2912" t="inlineStr">
-        <is>
-          <t>$ 18B</t>
-        </is>
-      </c>
-      <c r="H2912" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2913">
-      <c r="A2913" t="inlineStr"/>
-      <c r="B2913" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2913" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN</t>
-        </is>
-      </c>
-      <c r="D2913" t="inlineStr"/>
-      <c r="E2913" t="inlineStr">
-        <is>
-          <t>$3.202T</t>
-        </is>
-      </c>
-      <c r="F2913" t="inlineStr"/>
-      <c r="G2913" t="inlineStr">
-        <is>
-          <t>$3.3T</t>
-        </is>
-      </c>
-      <c r="H2913" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2914">
-      <c r="A2914" t="inlineStr"/>
-      <c r="B2914" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C2914" t="inlineStr">
-        <is>
-          <t>SACCI Business ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D2914" t="inlineStr"/>
-      <c r="E2914" t="inlineStr"/>
-      <c r="F2914" t="inlineStr"/>
-      <c r="G2914" t="inlineStr"/>
-      <c r="H2914" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2915">
-      <c r="A2915" t="inlineStr"/>
-      <c r="B2915" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C2915" t="inlineStr">
-        <is>
-          <t>SACCI Business ConfidenceDEC</t>
-        </is>
-      </c>
-      <c r="D2915" t="inlineStr"/>
-      <c r="E2915" t="inlineStr">
-        <is>
-          <t>118.1</t>
-        </is>
-      </c>
-      <c r="F2915" t="inlineStr"/>
-      <c r="G2915" t="inlineStr">
-        <is>
-          <t>116</t>
-        </is>
-      </c>
-      <c r="H2915" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2916">
-      <c r="A2916" t="inlineStr"/>
-      <c r="B2916" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2916" t="inlineStr">
-        <is>
-          <t>Used Car Prices MoMJAN</t>
-        </is>
-      </c>
-      <c r="D2916" t="inlineStr"/>
-      <c r="E2916" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F2916" t="inlineStr"/>
-      <c r="G2916" t="inlineStr"/>
-      <c r="H2916" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2917">
-      <c r="A2917" t="inlineStr"/>
-      <c r="B2917" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2917" t="inlineStr">
-        <is>
-          <t>Used Car Prices YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2917" t="inlineStr"/>
-      <c r="E2917" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F2917" t="inlineStr"/>
-      <c r="G2917" t="inlineStr"/>
-      <c r="H2917" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2918">
-      <c r="A2918" t="inlineStr">
-        <is>
-          <t>Saturday February 08 2025</t>
-        </is>
-      </c>
-      <c r="B2918" t="inlineStr"/>
-      <c r="C2918" t="inlineStr"/>
-      <c r="D2918" t="inlineStr"/>
-      <c r="E2918" t="inlineStr"/>
-      <c r="F2918" t="inlineStr"/>
-      <c r="G2918" t="inlineStr"/>
-      <c r="H2918" t="inlineStr"/>
-    </row>
-    <row r="2919">
-      <c r="A2919" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2919" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2919" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2919" t="inlineStr"/>
-      <c r="E2919" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F2919" t="inlineStr"/>
-      <c r="G2919" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="H2919" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2920">
-      <c r="A2920" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2920" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2920" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMJAN</t>
-        </is>
-      </c>
-      <c r="D2920" t="inlineStr"/>
-      <c r="E2920" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="F2920" t="inlineStr"/>
-      <c r="G2920" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H2920" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2921">
-      <c r="A2921" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2921" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2921" t="inlineStr">
-        <is>
-          <t>PPI YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2921" t="inlineStr"/>
-      <c r="E2921" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
-      <c r="F2921" t="inlineStr"/>
-      <c r="G2921" t="inlineStr">
-        <is>
-          <t>-2.4%</t>
-        </is>
-      </c>
-      <c r="H2921" t="inlineStr">
         <is>
           <t>2</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-08.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-08.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2922"/>
+  <dimension ref="A1:H2898"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84057,10 +84057,8 @@
       </c>
       <c r="F2631" t="inlineStr"/>
       <c r="G2631" t="inlineStr"/>
-      <c r="H2631" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2631" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2632">
@@ -84087,10 +84085,8 @@
       </c>
       <c r="F2632" t="inlineStr"/>
       <c r="G2632" t="inlineStr"/>
-      <c r="H2632" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2632" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2633">
@@ -84117,10 +84113,8 @@
       </c>
       <c r="F2633" t="inlineStr"/>
       <c r="G2633" t="inlineStr"/>
-      <c r="H2633" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2633" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2634">
@@ -84151,10 +84145,8 @@
         </is>
       </c>
       <c r="G2634" t="inlineStr"/>
-      <c r="H2634" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2634" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2635">
@@ -84185,10 +84177,8 @@
         </is>
       </c>
       <c r="G2635" t="inlineStr"/>
-      <c r="H2635" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2635" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2636">
@@ -84215,10 +84205,8 @@
       </c>
       <c r="F2636" t="inlineStr"/>
       <c r="G2636" t="inlineStr"/>
-      <c r="H2636" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2636" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2637">
@@ -84245,10 +84233,8 @@
       </c>
       <c r="F2637" t="inlineStr"/>
       <c r="G2637" t="inlineStr"/>
-      <c r="H2637" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2637" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2638">
@@ -84275,10 +84261,8 @@
       </c>
       <c r="F2638" t="inlineStr"/>
       <c r="G2638" t="inlineStr"/>
-      <c r="H2638" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2638" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2639">
@@ -84305,10 +84289,8 @@
       </c>
       <c r="F2639" t="inlineStr"/>
       <c r="G2639" t="inlineStr"/>
-      <c r="H2639" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2639" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2640">
@@ -84335,10 +84317,8 @@
       </c>
       <c r="F2640" t="inlineStr"/>
       <c r="G2640" t="inlineStr"/>
-      <c r="H2640" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2640" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2641">
@@ -84365,10 +84345,8 @@
       </c>
       <c r="F2641" t="inlineStr"/>
       <c r="G2641" t="inlineStr"/>
-      <c r="H2641" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2641" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2642">
@@ -84395,10 +84373,8 @@
       </c>
       <c r="F2642" t="inlineStr"/>
       <c r="G2642" t="inlineStr"/>
-      <c r="H2642" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2642" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2643">
@@ -84433,10 +84409,8 @@
           <t>45.3</t>
         </is>
       </c>
-      <c r="H2643" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2643" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2644">
@@ -84471,10 +84445,8 @@
           <t>44.1</t>
         </is>
       </c>
-      <c r="H2644" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2644" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2645">
@@ -84509,10 +84481,8 @@
           <t>46.1</t>
         </is>
       </c>
-      <c r="H2645" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2645" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2646">
@@ -84543,10 +84513,8 @@
           <t>47</t>
         </is>
       </c>
-      <c r="H2646" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2646" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2647">
@@ -84581,10 +84549,8 @@
           <t>48.2</t>
         </is>
       </c>
-      <c r="H2647" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2647" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2648">
@@ -84611,10 +84577,8 @@
       </c>
       <c r="F2648" t="inlineStr"/>
       <c r="G2648" t="inlineStr"/>
-      <c r="H2648" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2648" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2649">
@@ -84641,10 +84605,8 @@
       </c>
       <c r="F2649" t="inlineStr"/>
       <c r="G2649" t="inlineStr"/>
-      <c r="H2649" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2649" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2650">
@@ -84671,10 +84633,8 @@
       </c>
       <c r="F2650" t="inlineStr"/>
       <c r="G2650" t="inlineStr"/>
-      <c r="H2650" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2650" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2651">
@@ -84701,10 +84661,8 @@
       </c>
       <c r="F2651" t="inlineStr"/>
       <c r="G2651" t="inlineStr"/>
-      <c r="H2651" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2651" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2652">
@@ -84731,10 +84689,8 @@
       </c>
       <c r="F2652" t="inlineStr"/>
       <c r="G2652" t="inlineStr"/>
-      <c r="H2652" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2652" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2653">
@@ -84761,10 +84717,8 @@
       </c>
       <c r="F2653" t="inlineStr"/>
       <c r="G2653" t="inlineStr"/>
-      <c r="H2653" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2653" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2654">
@@ -84791,10 +84745,8 @@
       </c>
       <c r="F2654" t="inlineStr"/>
       <c r="G2654" t="inlineStr"/>
-      <c r="H2654" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2654" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2655">
@@ -84821,10 +84773,8 @@
       </c>
       <c r="F2655" t="inlineStr"/>
       <c r="G2655" t="inlineStr"/>
-      <c r="H2655" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2655" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2656">
@@ -84855,10 +84805,8 @@
           <t>$ 230B</t>
         </is>
       </c>
-      <c r="H2656" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2656" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2657">
@@ -84889,10 +84837,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H2657" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2657" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2658">
@@ -84923,10 +84869,8 @@
           <t>51.4</t>
         </is>
       </c>
-      <c r="H2658" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2658" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2659">
@@ -84953,10 +84897,8 @@
       </c>
       <c r="F2659" t="inlineStr"/>
       <c r="G2659" t="inlineStr"/>
-      <c r="H2659" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2659" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2660">
@@ -84983,10 +84925,8 @@
       </c>
       <c r="F2660" t="inlineStr"/>
       <c r="G2660" t="inlineStr"/>
-      <c r="H2660" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2660" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2661">
@@ -85013,10 +84953,8 @@
       </c>
       <c r="F2661" t="inlineStr"/>
       <c r="G2661" t="inlineStr"/>
-      <c r="H2661" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2661" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2662">
@@ -85047,10 +84985,8 @@
           <t>52.3</t>
         </is>
       </c>
-      <c r="H2662" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2662" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2663">
@@ -85085,10 +85021,8 @@
           <t>50.1</t>
         </is>
       </c>
-      <c r="H2663" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2663" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2664">
@@ -85119,10 +85053,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H2664" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2664" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2665">
@@ -85153,10 +85085,8 @@
           <t>47</t>
         </is>
       </c>
-      <c r="H2665" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2665" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2666">
@@ -85187,10 +85117,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2666" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2666" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2667">
@@ -85221,10 +85149,8 @@
           <t>52.8</t>
         </is>
       </c>
-      <c r="H2667" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2667" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2668">
@@ -85255,10 +85181,8 @@
           <t>53</t>
         </is>
       </c>
-      <c r="H2668" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2668" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2669">
@@ -85285,10 +85209,8 @@
       </c>
       <c r="F2669" t="inlineStr"/>
       <c r="G2669" t="inlineStr"/>
-      <c r="H2669" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2669" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2670">
@@ -85315,10 +85237,8 @@
       </c>
       <c r="F2670" t="inlineStr"/>
       <c r="G2670" t="inlineStr"/>
-      <c r="H2670" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2670" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2671">
@@ -85341,10 +85261,8 @@
       <c r="E2671" t="inlineStr"/>
       <c r="F2671" t="inlineStr"/>
       <c r="G2671" t="inlineStr"/>
-      <c r="H2671" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2671" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2672">
@@ -85367,10 +85285,8 @@
       <c r="E2672" t="inlineStr"/>
       <c r="F2672" t="inlineStr"/>
       <c r="G2672" t="inlineStr"/>
-      <c r="H2672" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2672" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2673">
@@ -85397,10 +85313,8 @@
       </c>
       <c r="F2673" t="inlineStr"/>
       <c r="G2673" t="inlineStr"/>
-      <c r="H2673" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2673" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2674">
@@ -85427,10 +85341,8 @@
       </c>
       <c r="F2674" t="inlineStr"/>
       <c r="G2674" t="inlineStr"/>
-      <c r="H2674" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2674" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2675">
@@ -85461,10 +85373,8 @@
           <t>58</t>
         </is>
       </c>
-      <c r="H2675" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2675" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2676">
@@ -85483,10 +85393,8 @@
       <c r="E2676" t="inlineStr"/>
       <c r="F2676" t="inlineStr"/>
       <c r="G2676" t="inlineStr"/>
-      <c r="H2676" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2676" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2677">
@@ -85513,10 +85421,8 @@
           <t>43.0K</t>
         </is>
       </c>
-      <c r="H2677" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2677" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2678">
@@ -85557,10 +85463,8 @@
       </c>
       <c r="F2679" t="inlineStr"/>
       <c r="G2679" t="inlineStr"/>
-      <c r="H2679" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2679" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2680">
@@ -85587,10 +85491,8 @@
       </c>
       <c r="F2680" t="inlineStr"/>
       <c r="G2680" t="inlineStr"/>
-      <c r="H2680" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2680" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2681">
@@ -85617,10 +85519,8 @@
       </c>
       <c r="F2681" t="inlineStr"/>
       <c r="G2681" t="inlineStr"/>
-      <c r="H2681" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2681" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2682">
@@ -85647,10 +85547,8 @@
       </c>
       <c r="F2682" t="inlineStr"/>
       <c r="G2682" t="inlineStr"/>
-      <c r="H2682" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2682" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2683">
@@ -85681,10 +85579,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2683" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2683" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2684">
@@ -85711,10 +85607,8 @@
       </c>
       <c r="F2684" t="inlineStr"/>
       <c r="G2684" t="inlineStr"/>
-      <c r="H2684" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2684" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2685">
@@ -85737,10 +85631,8 @@
       <c r="E2685" t="inlineStr"/>
       <c r="F2685" t="inlineStr"/>
       <c r="G2685" t="inlineStr"/>
-      <c r="H2685" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2685" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2686">
@@ -85771,10 +85663,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2686" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2686" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2687">
@@ -85805,10 +85695,8 @@
           <t>8.2%</t>
         </is>
       </c>
-      <c r="H2687" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2687" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2688">
@@ -85839,10 +85727,8 @@
           <t>50.8</t>
         </is>
       </c>
-      <c r="H2688" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2688" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2689">
@@ -85869,10 +85755,8 @@
       </c>
       <c r="F2689" t="inlineStr"/>
       <c r="G2689" t="inlineStr"/>
-      <c r="H2689" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2689" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2690">
@@ -85903,10 +85787,8 @@
           <t>49.7</t>
         </is>
       </c>
-      <c r="H2690" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2690" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2691">
@@ -85937,10 +85819,8 @@
           <t>7.8M</t>
         </is>
       </c>
-      <c r="H2691" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2691" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2692">
@@ -85971,10 +85851,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H2692" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2692" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2693">
@@ -86005,10 +85883,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2693" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2693" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2694">
@@ -86039,10 +85915,8 @@
           <t>3.1M</t>
         </is>
       </c>
-      <c r="H2694" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2694" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2695">
@@ -86073,10 +85947,8 @@
           <t>52.3</t>
         </is>
       </c>
-      <c r="H2695" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2695" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2696">
@@ -86099,10 +85971,8 @@
       <c r="E2696" t="inlineStr"/>
       <c r="F2696" t="inlineStr"/>
       <c r="G2696" t="inlineStr"/>
-      <c r="H2696" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2696" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2697">
@@ -86125,10 +85995,8 @@
       <c r="E2697" t="inlineStr"/>
       <c r="F2697" t="inlineStr"/>
       <c r="G2697" t="inlineStr"/>
-      <c r="H2697" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2697" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2698">
@@ -86155,10 +86023,8 @@
       </c>
       <c r="F2698" t="inlineStr"/>
       <c r="G2698" t="inlineStr"/>
-      <c r="H2698" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2698" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2699">
@@ -86185,10 +86051,8 @@
       </c>
       <c r="F2699" t="inlineStr"/>
       <c r="G2699" t="inlineStr"/>
-      <c r="H2699" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2699" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2700">
@@ -86219,10 +86083,8 @@
           <t>50.4</t>
         </is>
       </c>
-      <c r="H2700" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2700" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2701">
@@ -86253,10 +86115,8 @@
           <t>50.3</t>
         </is>
       </c>
-      <c r="H2701" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2701" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2702">
@@ -86283,10 +86143,8 @@
       </c>
       <c r="F2702" t="inlineStr"/>
       <c r="G2702" t="inlineStr"/>
-      <c r="H2702" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2702" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2703">
@@ -86313,10 +86171,8 @@
       </c>
       <c r="F2703" t="inlineStr"/>
       <c r="G2703" t="inlineStr"/>
-      <c r="H2703" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2703" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2704">
@@ -86347,10 +86203,8 @@
           <t>2.1%</t>
         </is>
       </c>
-      <c r="H2704" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2704" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2705">
@@ -86377,10 +86231,8 @@
       </c>
       <c r="F2705" t="inlineStr"/>
       <c r="G2705" t="inlineStr"/>
-      <c r="H2705" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2705" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2706">
@@ -86415,10 +86267,8 @@
           <t>52.7</t>
         </is>
       </c>
-      <c r="H2706" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2706" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2707">
@@ -86449,10 +86299,8 @@
           <t>51.1</t>
         </is>
       </c>
-      <c r="H2707" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2707" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2708">
@@ -86479,10 +86327,8 @@
       </c>
       <c r="F2708" t="inlineStr"/>
       <c r="G2708" t="inlineStr"/>
-      <c r="H2708" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2708" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2709">
@@ -86513,10 +86359,8 @@
           <t>51.8</t>
         </is>
       </c>
-      <c r="H2709" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2709" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2710">
@@ -86547,10 +86391,8 @@
           <t>51.1</t>
         </is>
       </c>
-      <c r="H2710" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2710" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2711">
@@ -86581,10 +86423,8 @@
           <t>5.2%</t>
         </is>
       </c>
-      <c r="H2711" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2711" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2712">
@@ -86615,10 +86455,8 @@
           <t>5.2%</t>
         </is>
       </c>
-      <c r="H2712" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2712" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2713">
@@ -86649,10 +86487,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2713" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2713" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2714">
@@ -86671,10 +86507,8 @@
       <c r="E2714" t="inlineStr"/>
       <c r="F2714" t="inlineStr"/>
       <c r="G2714" t="inlineStr"/>
-      <c r="H2714" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2714" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2715">
@@ -86693,10 +86527,8 @@
       <c r="E2715" t="inlineStr"/>
       <c r="F2715" t="inlineStr"/>
       <c r="G2715" t="inlineStr"/>
-      <c r="H2715" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2715" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2716">
@@ -86715,10 +86547,8 @@
       <c r="E2716" t="inlineStr"/>
       <c r="F2716" t="inlineStr"/>
       <c r="G2716" t="inlineStr"/>
-      <c r="H2716" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2716" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2717">
@@ -86741,10 +86571,8 @@
       </c>
       <c r="F2717" t="inlineStr"/>
       <c r="G2717" t="inlineStr"/>
-      <c r="H2717" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2717" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2718">
@@ -86793,10 +86621,8 @@
           <t>57.9</t>
         </is>
       </c>
-      <c r="H2719" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2719" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2720">
@@ -86831,10 +86657,8 @@
           <t>56.8</t>
         </is>
       </c>
-      <c r="H2720" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2720" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2721">
@@ -86865,10 +86689,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2721" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2721" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2722">
@@ -86899,10 +86721,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H2722" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2722" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2723">
@@ -86929,10 +86749,8 @@
       </c>
       <c r="F2723" t="inlineStr"/>
       <c r="G2723" t="inlineStr"/>
-      <c r="H2723" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2723" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2724">
@@ -86959,10 +86777,8 @@
       </c>
       <c r="F2724" t="inlineStr"/>
       <c r="G2724" t="inlineStr"/>
-      <c r="H2724" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2724" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2725">
@@ -86989,10 +86805,8 @@
       </c>
       <c r="F2725" t="inlineStr"/>
       <c r="G2725" t="inlineStr"/>
-      <c r="H2725" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2725" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2726">
@@ -87023,10 +86837,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2726" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2726" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2727">
@@ -87053,10 +86865,8 @@
       </c>
       <c r="F2727" t="inlineStr"/>
       <c r="G2727" t="inlineStr"/>
-      <c r="H2727" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2727" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2728">
@@ -87083,10 +86893,8 @@
       </c>
       <c r="F2728" t="inlineStr"/>
       <c r="G2728" t="inlineStr"/>
-      <c r="H2728" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2728" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2729">
@@ -87113,10 +86921,8 @@
       </c>
       <c r="F2729" t="inlineStr"/>
       <c r="G2729" t="inlineStr"/>
-      <c r="H2729" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2729" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2730">
@@ -87143,10 +86949,8 @@
       </c>
       <c r="F2730" t="inlineStr"/>
       <c r="G2730" t="inlineStr"/>
-      <c r="H2730" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2730" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2731">
@@ -87181,10 +86985,8 @@
           <t>48.9</t>
         </is>
       </c>
-      <c r="H2731" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2731" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2732">
@@ -87219,10 +87021,8 @@
           <t>48.3</t>
         </is>
       </c>
-      <c r="H2732" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2732" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2733">
@@ -87257,10 +87057,8 @@
           <t>50.1</t>
         </is>
       </c>
-      <c r="H2733" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2733" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2734">
@@ -87295,10 +87093,8 @@
           <t>52.5</t>
         </is>
       </c>
-      <c r="H2734" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2734" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2735">
@@ -87333,10 +87129,8 @@
           <t>50.2</t>
         </is>
       </c>
-      <c r="H2735" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2735" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2736">
@@ -87371,10 +87165,8 @@
           <t>51.4</t>
         </is>
       </c>
-      <c r="H2736" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2736" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2737">
@@ -87405,10 +87197,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2737" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2737" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2738">
@@ -87439,10 +87229,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H2738" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2738" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2739">
@@ -87473,10 +87261,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H2739" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2739" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2740">
@@ -87511,10 +87297,8 @@
           <t>51.2</t>
         </is>
       </c>
-      <c r="H2740" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2740" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2741">
@@ -87549,10 +87333,8 @@
           <t>50.9</t>
         </is>
       </c>
-      <c r="H2741" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2741" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2742">
@@ -87583,10 +87365,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2742" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2742" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2743">
@@ -87617,10 +87397,8 @@
           <t>1%</t>
         </is>
       </c>
-      <c r="H2743" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2743" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2744">
@@ -87647,10 +87425,8 @@
       </c>
       <c r="F2744" t="inlineStr"/>
       <c r="G2744" t="inlineStr"/>
-      <c r="H2744" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2744" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2745">
@@ -87677,10 +87453,8 @@
       </c>
       <c r="F2745" t="inlineStr"/>
       <c r="G2745" t="inlineStr"/>
-      <c r="H2745" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2745" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2746">
@@ -87707,10 +87481,8 @@
       </c>
       <c r="F2746" t="inlineStr"/>
       <c r="G2746" t="inlineStr"/>
-      <c r="H2746" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2746" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2747">
@@ -87737,10 +87509,8 @@
       </c>
       <c r="F2747" t="inlineStr"/>
       <c r="G2747" t="inlineStr"/>
-      <c r="H2747" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2747" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2748">
@@ -87771,10 +87541,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2748" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2748" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2749">
@@ -87805,10 +87573,8 @@
           <t>3.7%</t>
         </is>
       </c>
-      <c r="H2749" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2749" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2750">
@@ -87839,10 +87605,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2750" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2750" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2751">
@@ -87873,10 +87637,8 @@
           <t>-1.4%</t>
         </is>
       </c>
-      <c r="H2751" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2751" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2752">
@@ -87903,10 +87665,8 @@
       </c>
       <c r="F2752" t="inlineStr"/>
       <c r="G2752" t="inlineStr"/>
-      <c r="H2752" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2752" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2753">
@@ -87933,10 +87693,8 @@
       </c>
       <c r="F2753" t="inlineStr"/>
       <c r="G2753" t="inlineStr"/>
-      <c r="H2753" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2753" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2754">
@@ -87963,10 +87721,8 @@
       </c>
       <c r="F2754" t="inlineStr"/>
       <c r="G2754" t="inlineStr"/>
-      <c r="H2754" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2754" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2755">
@@ -87993,10 +87749,8 @@
       </c>
       <c r="F2755" t="inlineStr"/>
       <c r="G2755" t="inlineStr"/>
-      <c r="H2755" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2755" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2756">
@@ -88023,10 +87777,8 @@
       </c>
       <c r="F2756" t="inlineStr"/>
       <c r="G2756" t="inlineStr"/>
-      <c r="H2756" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2756" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2757">
@@ -88057,10 +87809,8 @@
           <t>50.2</t>
         </is>
       </c>
-      <c r="H2757" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2757" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2758">
@@ -88091,10 +87841,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="H2758" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2758" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2759">
@@ -88125,10 +87873,8 @@
           <t>115.0K</t>
         </is>
       </c>
-      <c r="H2759" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2759" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2760">
@@ -88159,10 +87905,8 @@
           <t>C$ -1.3B</t>
         </is>
       </c>
-      <c r="H2760" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2760" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2761">
@@ -88193,10 +87937,8 @@
           <t>C$ 65.8B</t>
         </is>
       </c>
-      <c r="H2761" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2761" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2762">
@@ -88227,10 +87969,8 @@
           <t>C$ 64.5B</t>
         </is>
       </c>
-      <c r="H2762" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2762" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2763">
@@ -88261,10 +88001,8 @@
           <t>$ -103.0B</t>
         </is>
       </c>
-      <c r="H2763" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2763" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2764">
@@ -88295,10 +88033,8 @@
           <t>$ 260B</t>
         </is>
       </c>
-      <c r="H2764" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2764" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2765">
@@ -88329,10 +88065,8 @@
           <t>$ 363.0B</t>
         </is>
       </c>
-      <c r="H2765" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2765" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2766">
@@ -88355,10 +88089,8 @@
       <c r="E2766" t="inlineStr"/>
       <c r="F2766" t="inlineStr"/>
       <c r="G2766" t="inlineStr"/>
-      <c r="H2766" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2766" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2767">
@@ -88389,10 +88121,8 @@
           <t>49.5</t>
         </is>
       </c>
-      <c r="H2767" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2767" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2768">
@@ -88423,10 +88153,8 @@
           <t>49</t>
         </is>
       </c>
-      <c r="H2768" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2768" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2769">
@@ -88461,10 +88189,8 @@
           <t>52.4</t>
         </is>
       </c>
-      <c r="H2769" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2769" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2770">
@@ -88499,10 +88225,8 @@
           <t>52.8</t>
         </is>
       </c>
-      <c r="H2770" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2770" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2771">
@@ -88533,10 +88257,8 @@
           <t>54</t>
         </is>
       </c>
-      <c r="H2771" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2771" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2772">
@@ -88567,10 +88289,8 @@
           <t>58.1</t>
         </is>
       </c>
-      <c r="H2772" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2772" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2773">
@@ -88601,10 +88321,8 @@
           <t>51.3</t>
         </is>
       </c>
-      <c r="H2773" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2773" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2774">
@@ -88635,10 +88353,8 @@
           <t>54.1</t>
         </is>
       </c>
-      <c r="H2774" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2774" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2775">
@@ -88669,10 +88385,8 @@
           <t>64.8</t>
         </is>
       </c>
-      <c r="H2775" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2775" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2776">
@@ -88699,10 +88413,8 @@
       </c>
       <c r="F2776" t="inlineStr"/>
       <c r="G2776" t="inlineStr"/>
-      <c r="H2776" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2776" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2777">
@@ -88729,10 +88441,8 @@
       </c>
       <c r="F2777" t="inlineStr"/>
       <c r="G2777" t="inlineStr"/>
-      <c r="H2777" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2777" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2778">
@@ -88759,10 +88469,8 @@
       </c>
       <c r="F2778" t="inlineStr"/>
       <c r="G2778" t="inlineStr"/>
-      <c r="H2778" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2778" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2779">
@@ -88789,10 +88497,8 @@
       </c>
       <c r="F2779" t="inlineStr"/>
       <c r="G2779" t="inlineStr"/>
-      <c r="H2779" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2779" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2780">
@@ -88819,10 +88525,8 @@
       </c>
       <c r="F2780" t="inlineStr"/>
       <c r="G2780" t="inlineStr"/>
-      <c r="H2780" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2780" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2781">
@@ -88849,10 +88553,8 @@
       </c>
       <c r="F2781" t="inlineStr"/>
       <c r="G2781" t="inlineStr"/>
-      <c r="H2781" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2781" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2782">
@@ -88879,10 +88581,8 @@
       </c>
       <c r="F2782" t="inlineStr"/>
       <c r="G2782" t="inlineStr"/>
-      <c r="H2782" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2782" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2783">
@@ -88909,10 +88609,8 @@
       </c>
       <c r="F2783" t="inlineStr"/>
       <c r="G2783" t="inlineStr"/>
-      <c r="H2783" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2783" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2784">
@@ -88939,10 +88637,8 @@
       </c>
       <c r="F2784" t="inlineStr"/>
       <c r="G2784" t="inlineStr"/>
-      <c r="H2784" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2784" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2785">
@@ -88973,10 +88669,8 @@
           <t>2.40%</t>
         </is>
       </c>
-      <c r="H2785" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2785" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2786">
@@ -89003,10 +88697,8 @@
       </c>
       <c r="F2786" t="inlineStr"/>
       <c r="G2786" t="inlineStr"/>
-      <c r="H2786" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2786" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2787">
@@ -89033,10 +88725,8 @@
       </c>
       <c r="F2787" t="inlineStr"/>
       <c r="G2787" t="inlineStr"/>
-      <c r="H2787" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2787" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2788">
@@ -89067,10 +88757,8 @@
           <t>3.8%</t>
         </is>
       </c>
-      <c r="H2788" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2788" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2789">
@@ -89097,10 +88785,8 @@
       </c>
       <c r="F2789" t="inlineStr"/>
       <c r="G2789" t="inlineStr"/>
-      <c r="H2789" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2789" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2790">
@@ -89131,10 +88817,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H2790" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2790" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2791">
@@ -89161,10 +88845,8 @@
       </c>
       <c r="F2791" t="inlineStr"/>
       <c r="G2791" t="inlineStr"/>
-      <c r="H2791" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2791" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2792">
@@ -89191,10 +88873,8 @@
       </c>
       <c r="F2792" t="inlineStr"/>
       <c r="G2792" t="inlineStr"/>
-      <c r="H2792" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2792" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2793">
@@ -89217,10 +88897,8 @@
       <c r="E2793" t="inlineStr"/>
       <c r="F2793" t="inlineStr"/>
       <c r="G2793" t="inlineStr"/>
-      <c r="H2793" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2793" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2794">
@@ -89251,10 +88929,8 @@
           <t>-15</t>
         </is>
       </c>
-      <c r="H2794" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2794" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2795">
@@ -89285,10 +88961,8 @@
           <t>-25</t>
         </is>
       </c>
-      <c r="H2795" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2795" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2796">
@@ -89319,10 +88993,8 @@
           <t>-13</t>
         </is>
       </c>
-      <c r="H2796" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2796" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2797">
@@ -89353,10 +89025,8 @@
           <t>$ 8.1B</t>
         </is>
       </c>
-      <c r="H2797" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2797" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2798">
@@ -89383,10 +89053,8 @@
       </c>
       <c r="F2798" t="inlineStr"/>
       <c r="G2798" t="inlineStr"/>
-      <c r="H2798" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2798" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2799">
@@ -89409,10 +89077,8 @@
       <c r="E2799" t="inlineStr"/>
       <c r="F2799" t="inlineStr"/>
       <c r="G2799" t="inlineStr"/>
-      <c r="H2799" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2799" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2800">
@@ -89435,10 +89101,8 @@
       <c r="E2800" t="inlineStr"/>
       <c r="F2800" t="inlineStr"/>
       <c r="G2800" t="inlineStr"/>
-      <c r="H2800" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2800" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2801">
@@ -89469,10 +89133,8 @@
           <t>A$ 3.2B</t>
         </is>
       </c>
-      <c r="H2801" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2801" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2802">
@@ -89499,10 +89161,8 @@
       </c>
       <c r="F2802" t="inlineStr"/>
       <c r="G2802" t="inlineStr"/>
-      <c r="H2802" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2802" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2803">
@@ -89529,10 +89189,8 @@
       </c>
       <c r="F2803" t="inlineStr"/>
       <c r="G2803" t="inlineStr"/>
-      <c r="H2803" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2803" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2804">
@@ -89559,10 +89217,8 @@
       </c>
       <c r="F2804" t="inlineStr"/>
       <c r="G2804" t="inlineStr"/>
-      <c r="H2804" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2804" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2805">
@@ -89589,10 +89245,8 @@
       </c>
       <c r="F2805" t="inlineStr"/>
       <c r="G2805" t="inlineStr"/>
-      <c r="H2805" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2805" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2806">
@@ -89615,10 +89269,8 @@
       </c>
       <c r="F2806" t="inlineStr"/>
       <c r="G2806" t="inlineStr"/>
-      <c r="H2806" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2806" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2807">
@@ -89663,10 +89315,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2808" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2808" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2809">
@@ -89693,10 +89343,8 @@
       </c>
       <c r="F2809" t="inlineStr"/>
       <c r="G2809" t="inlineStr"/>
-      <c r="H2809" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2809" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2810">
@@ -89723,10 +89371,8 @@
       </c>
       <c r="F2810" t="inlineStr"/>
       <c r="G2810" t="inlineStr"/>
-      <c r="H2810" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2810" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2811">
@@ -89753,10 +89399,8 @@
       </c>
       <c r="F2811" t="inlineStr"/>
       <c r="G2811" t="inlineStr"/>
-      <c r="H2811" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2811" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2812">
@@ -89783,10 +89427,8 @@
       </c>
       <c r="F2812" t="inlineStr"/>
       <c r="G2812" t="inlineStr"/>
-      <c r="H2812" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2812" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2813">
@@ -89817,10 +89459,8 @@
           <t>53.5</t>
         </is>
       </c>
-      <c r="H2813" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2813" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2814">
@@ -89851,10 +89491,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2814" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2814" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2815">
@@ -89885,10 +89523,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H2815" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2815" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2816">
@@ -89911,10 +89547,8 @@
       <c r="E2816" t="inlineStr"/>
       <c r="F2816" t="inlineStr"/>
       <c r="G2816" t="inlineStr"/>
-      <c r="H2816" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2816" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2817">
@@ -89937,10 +89571,8 @@
       <c r="E2817" t="inlineStr"/>
       <c r="F2817" t="inlineStr"/>
       <c r="G2817" t="inlineStr"/>
-      <c r="H2817" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2817" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2818">
@@ -89971,10 +89603,8 @@
           <t>46.5</t>
         </is>
       </c>
-      <c r="H2818" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2818" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2819">
@@ -90009,10 +89639,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H2819" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2819" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2820">
@@ -90035,10 +89663,8 @@
       <c r="E2820" t="inlineStr"/>
       <c r="F2820" t="inlineStr"/>
       <c r="G2820" t="inlineStr"/>
-      <c r="H2820" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2820" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2821">
@@ -90061,10 +89687,8 @@
       <c r="E2821" t="inlineStr"/>
       <c r="F2821" t="inlineStr"/>
       <c r="G2821" t="inlineStr"/>
-      <c r="H2821" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2821" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2822">
@@ -90087,10 +89711,8 @@
       <c r="E2822" t="inlineStr"/>
       <c r="F2822" t="inlineStr"/>
       <c r="G2822" t="inlineStr"/>
-      <c r="H2822" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2822" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2823">
@@ -90113,10 +89735,8 @@
       <c r="E2823" t="inlineStr"/>
       <c r="F2823" t="inlineStr"/>
       <c r="G2823" t="inlineStr"/>
-      <c r="H2823" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2823" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2824">
@@ -90139,10 +89759,8 @@
       <c r="E2824" t="inlineStr"/>
       <c r="F2824" t="inlineStr"/>
       <c r="G2824" t="inlineStr"/>
-      <c r="H2824" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2824" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2825">
@@ -90173,10 +89791,8 @@
           <t>45K</t>
         </is>
       </c>
-      <c r="H2825" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2825" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2826">
@@ -90199,10 +89815,8 @@
       <c r="E2826" t="inlineStr"/>
       <c r="F2826" t="inlineStr"/>
       <c r="G2826" t="inlineStr"/>
-      <c r="H2826" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2826" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2827">
@@ -90233,10 +89847,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2827" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2827" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2828">
@@ -90267,10 +89879,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2828" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2828" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2829">
@@ -90293,10 +89903,8 @@
       <c r="E2829" t="inlineStr"/>
       <c r="F2829" t="inlineStr"/>
       <c r="G2829" t="inlineStr"/>
-      <c r="H2829" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2829" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2830">
@@ -90319,10 +89927,8 @@
       <c r="E2830" t="inlineStr"/>
       <c r="F2830" t="inlineStr"/>
       <c r="G2830" t="inlineStr"/>
-      <c r="H2830" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2830" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2831">
@@ -90353,10 +89959,8 @@
           <t>54.2</t>
         </is>
       </c>
-      <c r="H2831" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2831" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2832">
@@ -90379,10 +89983,8 @@
       <c r="E2832" t="inlineStr"/>
       <c r="F2832" t="inlineStr"/>
       <c r="G2832" t="inlineStr"/>
-      <c r="H2832" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2832" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2833">
@@ -90405,10 +90007,8 @@
       <c r="E2833" t="inlineStr"/>
       <c r="F2833" t="inlineStr"/>
       <c r="G2833" t="inlineStr"/>
-      <c r="H2833" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2833" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2834">
@@ -90431,10 +90031,8 @@
       <c r="E2834" t="inlineStr"/>
       <c r="F2834" t="inlineStr"/>
       <c r="G2834" t="inlineStr"/>
-      <c r="H2834" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2834" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2835">
@@ -90461,10 +90059,8 @@
       </c>
       <c r="F2835" t="inlineStr"/>
       <c r="G2835" t="inlineStr"/>
-      <c r="H2835" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2835" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2836">
@@ -90487,10 +90083,8 @@
       <c r="E2836" t="inlineStr"/>
       <c r="F2836" t="inlineStr"/>
       <c r="G2836" t="inlineStr"/>
-      <c r="H2836" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2836" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2837">
@@ -90513,10 +90107,8 @@
       <c r="E2837" t="inlineStr"/>
       <c r="F2837" t="inlineStr"/>
       <c r="G2837" t="inlineStr"/>
-      <c r="H2837" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2837" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2838">
@@ -90547,10 +90139,8 @@
           <t>9.75%</t>
         </is>
       </c>
-      <c r="H2838" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2838" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2839">
@@ -90573,10 +90163,8 @@
       <c r="E2839" t="inlineStr"/>
       <c r="F2839" t="inlineStr"/>
       <c r="G2839" t="inlineStr"/>
-      <c r="H2839" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2839" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2840">
@@ -90599,10 +90187,8 @@
       <c r="E2840" t="inlineStr"/>
       <c r="F2840" t="inlineStr"/>
       <c r="G2840" t="inlineStr"/>
-      <c r="H2840" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2840" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2841">
@@ -90629,10 +90215,8 @@
       </c>
       <c r="F2841" t="inlineStr"/>
       <c r="G2841" t="inlineStr"/>
-      <c r="H2841" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2841" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2842">
@@ -90663,10 +90247,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H2842" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2842" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2843">
@@ -90693,10 +90275,8 @@
       </c>
       <c r="F2843" t="inlineStr"/>
       <c r="G2843" t="inlineStr"/>
-      <c r="H2843" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2843" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2844">
@@ -90719,10 +90299,8 @@
       <c r="E2844" t="inlineStr"/>
       <c r="F2844" t="inlineStr"/>
       <c r="G2844" t="inlineStr"/>
-      <c r="H2844" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2844" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2845">
@@ -90749,10 +90327,8 @@
       </c>
       <c r="F2845" t="inlineStr"/>
       <c r="G2845" t="inlineStr"/>
-      <c r="H2845" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2845" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2846">
@@ -90779,10 +90355,8 @@
       </c>
       <c r="F2846" t="inlineStr"/>
       <c r="G2846" t="inlineStr"/>
-      <c r="H2846" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2846" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2847">
@@ -90805,10 +90379,8 @@
       </c>
       <c r="F2847" t="inlineStr"/>
       <c r="G2847" t="inlineStr"/>
-      <c r="H2847" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2847" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2848">
@@ -90831,10 +90403,8 @@
       </c>
       <c r="F2848" t="inlineStr"/>
       <c r="G2848" t="inlineStr"/>
-      <c r="H2848" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2848" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2849">
@@ -90853,10 +90423,8 @@
       <c r="E2849" t="inlineStr"/>
       <c r="F2849" t="inlineStr"/>
       <c r="G2849" t="inlineStr"/>
-      <c r="H2849" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2849" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2850">
@@ -90875,10 +90443,8 @@
       <c r="E2850" t="inlineStr"/>
       <c r="F2850" t="inlineStr"/>
       <c r="G2850" t="inlineStr"/>
-      <c r="H2850" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2850" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2851">
@@ -90897,10 +90463,8 @@
       <c r="E2851" t="inlineStr"/>
       <c r="F2851" t="inlineStr"/>
       <c r="G2851" t="inlineStr"/>
-      <c r="H2851" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2851" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2852">
@@ -90923,10 +90487,8 @@
       </c>
       <c r="F2852" t="inlineStr"/>
       <c r="G2852" t="inlineStr"/>
-      <c r="H2852" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2852" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2853">
@@ -90945,82 +90507,104 @@
       <c r="E2853" t="inlineStr"/>
       <c r="F2853" t="inlineStr"/>
       <c r="G2853" t="inlineStr"/>
-      <c r="H2853" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2853" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2854">
       <c r="A2854" t="inlineStr">
         <is>
-          <t>Friday February 07 2025</t>
-        </is>
-      </c>
-      <c r="B2854" t="inlineStr"/>
-      <c r="C2854" t="inlineStr"/>
+          <t>07:00 AM</t>
+        </is>
+      </c>
+      <c r="B2854" t="inlineStr">
+        <is>
+          <t>MX</t>
+        </is>
+      </c>
+      <c r="C2854" t="inlineStr">
+        <is>
+          <t>Inflation Rate MoMJAN</t>
+        </is>
+      </c>
       <c r="D2854" t="inlineStr"/>
-      <c r="E2854" t="inlineStr"/>
+      <c r="E2854" t="inlineStr">
+        <is>
+          <t>0.38%</t>
+        </is>
+      </c>
       <c r="F2854" t="inlineStr"/>
-      <c r="G2854" t="inlineStr"/>
-      <c r="H2854" t="inlineStr"/>
+      <c r="G2854" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
+      <c r="H2854" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2855">
       <c r="A2855" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2855" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2855" t="inlineStr">
         <is>
-          <t>Coincident Index PrelDEC</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2855" t="inlineStr"/>
       <c r="E2855" t="inlineStr">
         <is>
-          <t>115.4</t>
+          <t>4.21%</t>
         </is>
       </c>
       <c r="F2855" t="inlineStr"/>
-      <c r="G2855" t="inlineStr"/>
+      <c r="G2855" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
       <c r="H2855" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2856">
       <c r="A2856" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2856" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2856" t="inlineStr">
         <is>
-          <t>Leading Economic Index PrelDEC</t>
+          <t>Core Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2856" t="inlineStr"/>
       <c r="E2856" t="inlineStr">
         <is>
-          <t>107.5</t>
+          <t>0.51%</t>
         </is>
       </c>
       <c r="F2856" t="inlineStr"/>
       <c r="G2856" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H2856" t="inlineStr">
@@ -91032,29 +90616,29 @@
     <row r="2857">
       <c r="A2857" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2857" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2857" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Core Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2857" t="inlineStr"/>
       <c r="E2857" t="inlineStr">
         <is>
-          <t>$65.46B</t>
+          <t>3.65%</t>
         </is>
       </c>
       <c r="F2857" t="inlineStr"/>
       <c r="G2857" t="inlineStr">
         <is>
-          <t>$65.0B</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H2857" t="inlineStr">
@@ -91066,163 +90650,167 @@
     <row r="2858">
       <c r="A2858" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2858" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2858" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Car Production MoMJAN</t>
         </is>
       </c>
       <c r="D2858" t="inlineStr"/>
       <c r="E2858" t="inlineStr">
         <is>
-          <t>€19.7B</t>
+          <t>-19.5%</t>
         </is>
       </c>
       <c r="F2858" t="inlineStr"/>
       <c r="G2858" t="inlineStr">
         <is>
-          <t>€ 22B</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="H2858" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2859">
       <c r="A2859" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2859" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2859" t="inlineStr">
         <is>
-          <t>Exports MoMDEC</t>
+          <t>New Car Registrations MoMJAN</t>
         </is>
       </c>
       <c r="D2859" t="inlineStr"/>
       <c r="E2859" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F2859" t="inlineStr"/>
       <c r="G2859" t="inlineStr">
         <is>
-          <t>130%</t>
+          <t>-1.5%</t>
         </is>
       </c>
       <c r="H2859" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2860">
       <c r="A2860" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2860" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2860" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2860" t="inlineStr"/>
       <c r="E2860" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>6.7%</t>
         </is>
       </c>
       <c r="F2860" t="inlineStr"/>
       <c r="G2860" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>6.8%</t>
         </is>
       </c>
       <c r="H2860" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2861">
       <c r="A2861" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2861" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2861" t="inlineStr">
         <is>
-          <t>Imports MoMDEC</t>
+          <t>Employment ChangeJAN</t>
         </is>
       </c>
       <c r="D2861" t="inlineStr"/>
       <c r="E2861" t="inlineStr">
         <is>
-          <t>-3.3%</t>
+          <t>90.9K</t>
         </is>
       </c>
       <c r="F2861" t="inlineStr"/>
       <c r="G2861" t="inlineStr">
         <is>
-          <t>108%</t>
+          <t>5K</t>
         </is>
       </c>
       <c r="H2861" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2862">
       <c r="A2862" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2862" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2862" t="inlineStr">
         <is>
-          <t>Halifax House Price Index MoMJAN</t>
+          <t>Full Time Employment ChgJAN</t>
         </is>
       </c>
       <c r="D2862" t="inlineStr"/>
       <c r="E2862" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>57.5K</t>
         </is>
       </c>
       <c r="F2862" t="inlineStr"/>
-      <c r="G2862" t="inlineStr"/>
+      <c r="G2862" t="inlineStr">
+        <is>
+          <t>-3K</t>
+        </is>
+      </c>
       <c r="H2862" t="inlineStr">
         <is>
           <t>2</t>
@@ -91232,27 +90820,31 @@
     <row r="2863">
       <c r="A2863" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2863" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2863" t="inlineStr">
         <is>
-          <t>Halifax House Price Index YoYJAN</t>
+          <t>Part Time Employment ChgJAN</t>
         </is>
       </c>
       <c r="D2863" t="inlineStr"/>
       <c r="E2863" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>33.5K</t>
         </is>
       </c>
       <c r="F2863" t="inlineStr"/>
-      <c r="G2863" t="inlineStr"/>
+      <c r="G2863" t="inlineStr">
+        <is>
+          <t>8K</t>
+        </is>
+      </c>
       <c r="H2863" t="inlineStr">
         <is>
           <t>2</t>
@@ -91262,23 +90854,31 @@
     <row r="2864">
       <c r="A2864" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2864" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2864" t="inlineStr">
         <is>
-          <t>Inflation Report</t>
+          <t>Participation RateJAN</t>
         </is>
       </c>
       <c r="D2864" t="inlineStr"/>
-      <c r="E2864" t="inlineStr"/>
+      <c r="E2864" t="inlineStr">
+        <is>
+          <t>65.1%</t>
+        </is>
+      </c>
       <c r="F2864" t="inlineStr"/>
-      <c r="G2864" t="inlineStr"/>
+      <c r="G2864" t="inlineStr">
+        <is>
+          <t>65.0%</t>
+        </is>
+      </c>
       <c r="H2864" t="inlineStr">
         <is>
           <t>2</t>
@@ -91288,229 +90888,233 @@
     <row r="2865">
       <c r="A2865" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2865" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2865" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Average Hourly Wages YoYJAN</t>
         </is>
       </c>
       <c r="D2865" t="inlineStr"/>
       <c r="E2865" t="inlineStr">
         <is>
-          <t>€-7.1B</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="F2865" t="inlineStr"/>
       <c r="G2865" t="inlineStr">
         <is>
-          <t>€ -7.2B</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H2865" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2866">
       <c r="A2866" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2866" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2866" t="inlineStr">
         <is>
-          <t>Current AccountDEC</t>
+          <t>Non Farm PayrollsJAN</t>
         </is>
       </c>
       <c r="D2866" t="inlineStr"/>
       <c r="E2866" t="inlineStr">
         <is>
-          <t>€-1.7B</t>
+          <t>256K</t>
         </is>
       </c>
       <c r="F2866" t="inlineStr"/>
       <c r="G2866" t="inlineStr">
         <is>
-          <t>€ -2.5B</t>
+          <t>205K</t>
         </is>
       </c>
       <c r="H2866" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2867">
       <c r="A2867" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2867" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2867" t="inlineStr">
         <is>
-          <t>ExportsDEC</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2867" t="inlineStr"/>
       <c r="E2867" t="inlineStr">
         <is>
-          <t>€50.101B</t>
+          <t>4.1%</t>
         </is>
       </c>
       <c r="F2867" t="inlineStr"/>
       <c r="G2867" t="inlineStr">
         <is>
-          <t>€ 49.7B</t>
+          <t>4.1%</t>
         </is>
       </c>
       <c r="H2867" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2868">
       <c r="A2868" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2868" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2868" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Average Hourly Earnings MoMJAN</t>
         </is>
       </c>
       <c r="D2868" t="inlineStr"/>
       <c r="E2868" t="inlineStr">
         <is>
-          <t>€275.078B</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F2868" t="inlineStr"/>
-      <c r="G2868" t="inlineStr"/>
+      <c r="G2868" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2868" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2869">
       <c r="A2869" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2869" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2869" t="inlineStr">
         <is>
-          <t>ImportsDEC</t>
+          <t>Average Hourly Earnings YoY</t>
         </is>
       </c>
       <c r="D2869" t="inlineStr"/>
       <c r="E2869" t="inlineStr">
         <is>
-          <t>€57.186B</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="F2869" t="inlineStr"/>
       <c r="G2869" t="inlineStr">
         <is>
-          <t>€ 56.9B</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="H2869" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2870">
       <c r="A2870" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2870" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2870" t="inlineStr">
         <is>
-          <t>Private Non Farm Payrolls QoQ PrelQ4</t>
+          <t>Participation RateJAN</t>
         </is>
       </c>
       <c r="D2870" t="inlineStr"/>
       <c r="E2870" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>62.5%</t>
         </is>
       </c>
       <c r="F2870" t="inlineStr"/>
       <c r="G2870" t="inlineStr">
         <is>
-          <t>20200%</t>
+          <t>62.5%</t>
         </is>
       </c>
       <c r="H2870" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2871">
       <c r="A2871" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2871" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2871" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Average Weekly HoursJAN</t>
         </is>
       </c>
       <c r="D2871" t="inlineStr"/>
       <c r="E2871" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>34.3</t>
         </is>
       </c>
       <c r="F2871" t="inlineStr"/>
       <c r="G2871" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>34.3</t>
         </is>
       </c>
       <c r="H2871" t="inlineStr">
@@ -91522,27 +91126,31 @@
     <row r="2872">
       <c r="A2872" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2872" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2872" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Government PayrollsJAN</t>
         </is>
       </c>
       <c r="D2872" t="inlineStr"/>
       <c r="E2872" t="inlineStr">
         <is>
-          <t>S$506.7B</t>
+          <t>33K</t>
         </is>
       </c>
       <c r="F2872" t="inlineStr"/>
-      <c r="G2872" t="inlineStr"/>
+      <c r="G2872" t="inlineStr">
+        <is>
+          <t>25K</t>
+        </is>
+      </c>
       <c r="H2872" t="inlineStr">
         <is>
           <t>3</t>
@@ -91552,27 +91160,31 @@
     <row r="2873">
       <c r="A2873" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2873" t="inlineStr">
         <is>
-          <t>WL</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2873" t="inlineStr">
         <is>
-          <t>FAO Food Price IndexJAN</t>
+          <t>Manufacturing PayrollsJAN</t>
         </is>
       </c>
       <c r="D2873" t="inlineStr"/>
       <c r="E2873" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>-13K</t>
         </is>
       </c>
       <c r="F2873" t="inlineStr"/>
-      <c r="G2873" t="inlineStr"/>
+      <c r="G2873" t="inlineStr">
+        <is>
+          <t>-5K</t>
+        </is>
+      </c>
       <c r="H2873" t="inlineStr">
         <is>
           <t>3</t>
@@ -91582,27 +91194,31 @@
     <row r="2874">
       <c r="A2874" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2874" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2874" t="inlineStr">
         <is>
-          <t>BBA Mortgage RateJAN</t>
+          <t>Nonfarm Payrolls PrivateJAN</t>
         </is>
       </c>
       <c r="D2874" t="inlineStr"/>
       <c r="E2874" t="inlineStr">
         <is>
-          <t>7.50%</t>
+          <t>223K</t>
         </is>
       </c>
       <c r="F2874" t="inlineStr"/>
-      <c r="G2874" t="inlineStr"/>
+      <c r="G2874" t="inlineStr">
+        <is>
+          <t>180K</t>
+        </is>
+      </c>
       <c r="H2874" t="inlineStr">
         <is>
           <t>3</t>
@@ -91612,23 +91228,31 @@
     <row r="2875">
       <c r="A2875" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2875" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2875" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/31</t>
+          <t>U-6 Unemployment Rate</t>
         </is>
       </c>
       <c r="D2875" t="inlineStr"/>
-      <c r="E2875" t="inlineStr"/>
+      <c r="E2875" t="inlineStr">
+        <is>
+          <t>7.5%</t>
+        </is>
+      </c>
       <c r="F2875" t="inlineStr"/>
-      <c r="G2875" t="inlineStr"/>
+      <c r="G2875" t="inlineStr">
+        <is>
+          <t>7.5%</t>
+        </is>
+      </c>
       <c r="H2875" t="inlineStr">
         <is>
           <t>3</t>
@@ -91638,165 +91262,149 @@
     <row r="2876">
       <c r="A2876" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>08:45 AM</t>
         </is>
       </c>
       <c r="B2876" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2876" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2876" t="inlineStr"/>
-      <c r="E2876" t="inlineStr">
-        <is>
-          <t>0.52%</t>
-        </is>
-      </c>
+      <c r="E2876" t="inlineStr"/>
       <c r="F2876" t="inlineStr"/>
-      <c r="G2876" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2876" t="inlineStr"/>
       <c r="H2876" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2877">
       <c r="A2877" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2877" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2877" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Treasury Cash BalanceJAN</t>
         </is>
       </c>
       <c r="D2877" t="inlineStr"/>
       <c r="E2877" t="inlineStr">
         <is>
-          <t>4.83%</t>
+          <t>TRY-323.9B</t>
         </is>
       </c>
       <c r="F2877" t="inlineStr"/>
-      <c r="G2877" t="inlineStr">
-        <is>
-          <t>4.7%</t>
-        </is>
-      </c>
+      <c r="G2877" t="inlineStr"/>
       <c r="H2877" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2878">
       <c r="A2878" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2878" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2878" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Full Year GDP Growth2025</t>
         </is>
       </c>
       <c r="D2878" t="inlineStr"/>
-      <c r="E2878" t="inlineStr">
-        <is>
-          <t>0.38%</t>
-        </is>
-      </c>
+      <c r="E2878" t="inlineStr"/>
       <c r="F2878" t="inlineStr"/>
       <c r="G2878" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H2878" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2879">
       <c r="A2879" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2879" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2879" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Michigan Consumer Sentiment PrelFEB</t>
         </is>
       </c>
       <c r="D2879" t="inlineStr"/>
       <c r="E2879" t="inlineStr">
         <is>
-          <t>4.21%</t>
+          <t>71.1</t>
         </is>
       </c>
       <c r="F2879" t="inlineStr"/>
       <c r="G2879" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>72</t>
         </is>
       </c>
       <c r="H2879" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2880">
       <c r="A2880" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2880" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2880" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMJAN</t>
+          <t>Michigan 5 Year Inflation Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2880" t="inlineStr"/>
       <c r="E2880" t="inlineStr">
         <is>
-          <t>0.51%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="F2880" t="inlineStr"/>
       <c r="G2880" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H2880" t="inlineStr">
@@ -91808,29 +91416,29 @@
     <row r="2881">
       <c r="A2881" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2881" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2881" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJAN</t>
+          <t>Michigan Consumer Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2881" t="inlineStr"/>
       <c r="E2881" t="inlineStr">
         <is>
-          <t>3.65%</t>
+          <t>69.3</t>
         </is>
       </c>
       <c r="F2881" t="inlineStr"/>
       <c r="G2881" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>69.5</t>
         </is>
       </c>
       <c r="H2881" t="inlineStr">
@@ -91842,29 +91450,29 @@
     <row r="2882">
       <c r="A2882" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2882" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2882" t="inlineStr">
         <is>
-          <t>Car Production MoMJAN</t>
+          <t>Michigan Current Conditions PrelFEB</t>
         </is>
       </c>
       <c r="D2882" t="inlineStr"/>
       <c r="E2882" t="inlineStr">
         <is>
-          <t>-19.5%</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F2882" t="inlineStr"/>
       <c r="G2882" t="inlineStr">
         <is>
-          <t>-5.0%</t>
+          <t>74.3</t>
         </is>
       </c>
       <c r="H2882" t="inlineStr">
@@ -91876,29 +91484,29 @@
     <row r="2883">
       <c r="A2883" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2883" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2883" t="inlineStr">
         <is>
-          <t>New Car Registrations MoMJAN</t>
+          <t>Michigan Inflation Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2883" t="inlineStr"/>
       <c r="E2883" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="F2883" t="inlineStr"/>
       <c r="G2883" t="inlineStr">
         <is>
-          <t>-1.5%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H2883" t="inlineStr">
@@ -91910,63 +91518,67 @@
     <row r="2884">
       <c r="A2884" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2884" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2884" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>Wholesale Inventories MoMDEC</t>
         </is>
       </c>
       <c r="D2884" t="inlineStr"/>
       <c r="E2884" t="inlineStr">
         <is>
-          <t>6.7%</t>
-        </is>
-      </c>
-      <c r="F2884" t="inlineStr"/>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="F2884" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
       <c r="G2884" t="inlineStr">
         <is>
-          <t>6.8%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H2884" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2885">
       <c r="A2885" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B2885" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2885" t="inlineStr">
         <is>
-          <t>Employment ChangeJAN</t>
+          <t>Balance of TradeJAN</t>
         </is>
       </c>
       <c r="D2885" t="inlineStr"/>
       <c r="E2885" t="inlineStr">
         <is>
-          <t>90.9K</t>
+          <t>$4.8B</t>
         </is>
       </c>
       <c r="F2885" t="inlineStr"/>
       <c r="G2885" t="inlineStr">
         <is>
-          <t>5K</t>
+          <t>$4.1B</t>
         </is>
       </c>
       <c r="H2885" t="inlineStr">
@@ -91978,131 +91590,115 @@
     <row r="2886">
       <c r="A2886" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B2886" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2886" t="inlineStr">
         <is>
-          <t>Full Time Employment ChgJAN</t>
+          <t>Baker Hughes Oil Rig CountFEB/07</t>
         </is>
       </c>
       <c r="D2886" t="inlineStr"/>
-      <c r="E2886" t="inlineStr">
-        <is>
-          <t>57.5K</t>
-        </is>
-      </c>
+      <c r="E2886" t="inlineStr"/>
       <c r="F2886" t="inlineStr"/>
-      <c r="G2886" t="inlineStr">
-        <is>
-          <t>-3K</t>
-        </is>
-      </c>
+      <c r="G2886" t="inlineStr"/>
       <c r="H2886" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2887">
       <c r="A2887" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B2887" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2887" t="inlineStr">
         <is>
-          <t>Part Time Employment ChgJAN</t>
+          <t>Baker Hughes Total Rigs CountFEB/07</t>
         </is>
       </c>
       <c r="D2887" t="inlineStr"/>
-      <c r="E2887" t="inlineStr">
-        <is>
-          <t>33.5K</t>
-        </is>
-      </c>
+      <c r="E2887" t="inlineStr"/>
       <c r="F2887" t="inlineStr"/>
-      <c r="G2887" t="inlineStr">
-        <is>
-          <t>8K</t>
-        </is>
-      </c>
+      <c r="G2887" t="inlineStr"/>
       <c r="H2887" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2888">
       <c r="A2888" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B2888" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C2888" t="inlineStr">
         <is>
-          <t>Participation RateJAN</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2888" t="inlineStr"/>
       <c r="E2888" t="inlineStr">
         <is>
-          <t>65.1%</t>
+          <t>-1.7%</t>
         </is>
       </c>
       <c r="F2888" t="inlineStr"/>
       <c r="G2888" t="inlineStr">
         <is>
-          <t>65.0%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H2888" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2889">
       <c r="A2889" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2889" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2889" t="inlineStr">
         <is>
-          <t>Average Hourly Wages YoYJAN</t>
+          <t>Consumer Credit ChangeDEC</t>
         </is>
       </c>
       <c r="D2889" t="inlineStr"/>
       <c r="E2889" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>$-7.49B</t>
         </is>
       </c>
       <c r="F2889" t="inlineStr"/>
       <c r="G2889" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>$ 18B</t>
         </is>
       </c>
       <c r="H2889" t="inlineStr">
@@ -92112,113 +91708,89 @@
       </c>
     </row>
     <row r="2890">
-      <c r="A2890" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2890" t="inlineStr"/>
       <c r="B2890" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2890" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsJAN</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2890" t="inlineStr"/>
       <c r="E2890" t="inlineStr">
         <is>
-          <t>256K</t>
+          <t>$3.202T</t>
         </is>
       </c>
       <c r="F2890" t="inlineStr"/>
       <c r="G2890" t="inlineStr">
         <is>
-          <t>205K</t>
+          <t>$3.3T</t>
         </is>
       </c>
       <c r="H2890" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2891">
-      <c r="A2891" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2891" t="inlineStr"/>
       <c r="B2891" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2891" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>SACCI Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2891" t="inlineStr"/>
-      <c r="E2891" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
+      <c r="E2891" t="inlineStr"/>
       <c r="F2891" t="inlineStr"/>
-      <c r="G2891" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
+      <c r="G2891" t="inlineStr"/>
       <c r="H2891" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2892">
-      <c r="A2892" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2892" t="inlineStr"/>
       <c r="B2892" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2892" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings MoMJAN</t>
+          <t>SACCI Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D2892" t="inlineStr"/>
       <c r="E2892" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>118.1</t>
         </is>
       </c>
       <c r="F2892" t="inlineStr"/>
       <c r="G2892" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>116</t>
         </is>
       </c>
       <c r="H2892" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2893">
-      <c r="A2893" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2893" t="inlineStr"/>
       <c r="B2893" t="inlineStr">
         <is>
           <t>US</t>
@@ -92226,33 +91798,25 @@
       </c>
       <c r="C2893" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoY</t>
+          <t>Used Car Prices MoMJAN</t>
         </is>
       </c>
       <c r="D2893" t="inlineStr"/>
       <c r="E2893" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F2893" t="inlineStr"/>
-      <c r="G2893" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
+      <c r="G2893" t="inlineStr"/>
       <c r="H2893" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2894">
-      <c r="A2894" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2894" t="inlineStr"/>
       <c r="B2894" t="inlineStr">
         <is>
           <t>US</t>
@@ -92260,890 +91824,134 @@
       </c>
       <c r="C2894" t="inlineStr">
         <is>
-          <t>Participation RateJAN</t>
+          <t>Used Car Prices YoYJAN</t>
         </is>
       </c>
       <c r="D2894" t="inlineStr"/>
       <c r="E2894" t="inlineStr">
         <is>
-          <t>62.5%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2894" t="inlineStr"/>
-      <c r="G2894" t="inlineStr">
-        <is>
-          <t>62.5%</t>
-        </is>
-      </c>
+      <c r="G2894" t="inlineStr"/>
       <c r="H2894" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2895">
       <c r="A2895" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B2895" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2895" t="inlineStr">
-        <is>
-          <t>Average Weekly HoursJAN</t>
-        </is>
-      </c>
+          <t>Saturday February 08 2025</t>
+        </is>
+      </c>
+      <c r="B2895" t="inlineStr"/>
+      <c r="C2895" t="inlineStr"/>
       <c r="D2895" t="inlineStr"/>
-      <c r="E2895" t="inlineStr">
-        <is>
-          <t>34.3</t>
-        </is>
-      </c>
+      <c r="E2895" t="inlineStr"/>
       <c r="F2895" t="inlineStr"/>
-      <c r="G2895" t="inlineStr">
-        <is>
-          <t>34.3</t>
-        </is>
-      </c>
-      <c r="H2895" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G2895" t="inlineStr"/>
+      <c r="H2895" t="inlineStr"/>
     </row>
     <row r="2896">
       <c r="A2896" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2896" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2896" t="inlineStr">
         <is>
-          <t>Government PayrollsJAN</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2896" t="inlineStr"/>
       <c r="E2896" t="inlineStr">
         <is>
-          <t>33K</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2896" t="inlineStr"/>
       <c r="G2896" t="inlineStr">
         <is>
-          <t>25K</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="H2896" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2897">
       <c r="A2897" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2897" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2897" t="inlineStr">
         <is>
-          <t>Manufacturing PayrollsJAN</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2897" t="inlineStr"/>
       <c r="E2897" t="inlineStr">
         <is>
-          <t>-13K</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="F2897" t="inlineStr"/>
       <c r="G2897" t="inlineStr">
         <is>
-          <t>-5K</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H2897" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2898">
       <c r="A2898" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2898" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2898" t="inlineStr">
         <is>
-          <t>Nonfarm Payrolls PrivateJAN</t>
+          <t>PPI YoYJAN</t>
         </is>
       </c>
       <c r="D2898" t="inlineStr"/>
       <c r="E2898" t="inlineStr">
         <is>
-          <t>223K</t>
+          <t>-2.3%</t>
         </is>
       </c>
       <c r="F2898" t="inlineStr"/>
       <c r="G2898" t="inlineStr">
         <is>
-          <t>180K</t>
+          <t>-2.4%</t>
         </is>
       </c>
       <c r="H2898" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2899">
-      <c r="A2899" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B2899" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2899" t="inlineStr">
-        <is>
-          <t>U-6 Unemployment Rate</t>
-        </is>
-      </c>
-      <c r="D2899" t="inlineStr"/>
-      <c r="E2899" t="inlineStr">
-        <is>
-          <t>7.5%</t>
-        </is>
-      </c>
-      <c r="F2899" t="inlineStr"/>
-      <c r="G2899" t="inlineStr">
-        <is>
-          <t>7.5%</t>
-        </is>
-      </c>
-      <c r="H2899" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2900">
-      <c r="A2900" t="inlineStr">
-        <is>
-          <t>08:45 AM</t>
-        </is>
-      </c>
-      <c r="B2900" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2900" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN</t>
-        </is>
-      </c>
-      <c r="D2900" t="inlineStr"/>
-      <c r="E2900" t="inlineStr"/>
-      <c r="F2900" t="inlineStr"/>
-      <c r="G2900" t="inlineStr"/>
-      <c r="H2900" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2901">
-      <c r="A2901" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2901" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2901" t="inlineStr">
-        <is>
-          <t>Treasury Cash BalanceJAN</t>
-        </is>
-      </c>
-      <c r="D2901" t="inlineStr"/>
-      <c r="E2901" t="inlineStr">
-        <is>
-          <t>TRY-323.9B</t>
-        </is>
-      </c>
-      <c r="F2901" t="inlineStr"/>
-      <c r="G2901" t="inlineStr"/>
-      <c r="H2901" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2902">
-      <c r="A2902" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2902" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2902" t="inlineStr">
-        <is>
-          <t>Full Year GDP Growth2025</t>
-        </is>
-      </c>
-      <c r="D2902" t="inlineStr"/>
-      <c r="E2902" t="inlineStr"/>
-      <c r="F2902" t="inlineStr"/>
-      <c r="G2902" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="H2902" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2903">
-      <c r="A2903" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2903" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2903" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2903" t="inlineStr"/>
-      <c r="E2903" t="inlineStr">
-        <is>
-          <t>71.1</t>
-        </is>
-      </c>
-      <c r="F2903" t="inlineStr"/>
-      <c r="G2903" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="H2903" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2904">
-      <c r="A2904" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2904" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2904" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2904" t="inlineStr"/>
-      <c r="E2904" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="F2904" t="inlineStr"/>
-      <c r="G2904" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="H2904" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2905">
-      <c r="A2905" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2905" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2905" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2905" t="inlineStr"/>
-      <c r="E2905" t="inlineStr">
-        <is>
-          <t>69.3</t>
-        </is>
-      </c>
-      <c r="F2905" t="inlineStr"/>
-      <c r="G2905" t="inlineStr">
-        <is>
-          <t>69.5</t>
-        </is>
-      </c>
-      <c r="H2905" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2906">
-      <c r="A2906" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2906" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2906" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2906" t="inlineStr"/>
-      <c r="E2906" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="F2906" t="inlineStr"/>
-      <c r="G2906" t="inlineStr">
-        <is>
-          <t>74.3</t>
-        </is>
-      </c>
-      <c r="H2906" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2907">
-      <c r="A2907" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2907" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2907" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2907" t="inlineStr"/>
-      <c r="E2907" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F2907" t="inlineStr"/>
-      <c r="G2907" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="H2907" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2908">
-      <c r="A2908" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2908" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2908" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2908" t="inlineStr"/>
-      <c r="E2908" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F2908" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="G2908" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="H2908" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2909">
-      <c r="A2909" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B2909" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2909" t="inlineStr">
-        <is>
-          <t>Balance of TradeJAN</t>
-        </is>
-      </c>
-      <c r="D2909" t="inlineStr"/>
-      <c r="E2909" t="inlineStr">
-        <is>
-          <t>$4.8B</t>
-        </is>
-      </c>
-      <c r="F2909" t="inlineStr"/>
-      <c r="G2909" t="inlineStr">
-        <is>
-          <t>$4.1B</t>
-        </is>
-      </c>
-      <c r="H2909" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2910">
-      <c r="A2910" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B2910" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2910" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountFEB/07</t>
-        </is>
-      </c>
-      <c r="D2910" t="inlineStr"/>
-      <c r="E2910" t="inlineStr"/>
-      <c r="F2910" t="inlineStr"/>
-      <c r="G2910" t="inlineStr"/>
-      <c r="H2910" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2911">
-      <c r="A2911" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B2911" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2911" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountFEB/07</t>
-        </is>
-      </c>
-      <c r="D2911" t="inlineStr"/>
-      <c r="E2911" t="inlineStr"/>
-      <c r="F2911" t="inlineStr"/>
-      <c r="G2911" t="inlineStr"/>
-      <c r="H2911" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2912">
-      <c r="A2912" t="inlineStr">
-        <is>
-          <t>02:00 PM</t>
-        </is>
-      </c>
-      <c r="B2912" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C2912" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2912" t="inlineStr"/>
-      <c r="E2912" t="inlineStr">
-        <is>
-          <t>-1.7%</t>
-        </is>
-      </c>
-      <c r="F2912" t="inlineStr"/>
-      <c r="G2912" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="H2912" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2913">
-      <c r="A2913" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B2913" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2913" t="inlineStr">
-        <is>
-          <t>Consumer Credit ChangeDEC</t>
-        </is>
-      </c>
-      <c r="D2913" t="inlineStr"/>
-      <c r="E2913" t="inlineStr">
-        <is>
-          <t>$-7.49B</t>
-        </is>
-      </c>
-      <c r="F2913" t="inlineStr"/>
-      <c r="G2913" t="inlineStr">
-        <is>
-          <t>$ 18B</t>
-        </is>
-      </c>
-      <c r="H2913" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2914">
-      <c r="A2914" t="inlineStr"/>
-      <c r="B2914" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2914" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN</t>
-        </is>
-      </c>
-      <c r="D2914" t="inlineStr"/>
-      <c r="E2914" t="inlineStr">
-        <is>
-          <t>$3.202T</t>
-        </is>
-      </c>
-      <c r="F2914" t="inlineStr"/>
-      <c r="G2914" t="inlineStr">
-        <is>
-          <t>$3.3T</t>
-        </is>
-      </c>
-      <c r="H2914" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2915">
-      <c r="A2915" t="inlineStr"/>
-      <c r="B2915" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C2915" t="inlineStr">
-        <is>
-          <t>SACCI Business ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D2915" t="inlineStr"/>
-      <c r="E2915" t="inlineStr"/>
-      <c r="F2915" t="inlineStr"/>
-      <c r="G2915" t="inlineStr"/>
-      <c r="H2915" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2916">
-      <c r="A2916" t="inlineStr"/>
-      <c r="B2916" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C2916" t="inlineStr">
-        <is>
-          <t>SACCI Business ConfidenceDEC</t>
-        </is>
-      </c>
-      <c r="D2916" t="inlineStr"/>
-      <c r="E2916" t="inlineStr">
-        <is>
-          <t>118.1</t>
-        </is>
-      </c>
-      <c r="F2916" t="inlineStr"/>
-      <c r="G2916" t="inlineStr">
-        <is>
-          <t>116</t>
-        </is>
-      </c>
-      <c r="H2916" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2917">
-      <c r="A2917" t="inlineStr"/>
-      <c r="B2917" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2917" t="inlineStr">
-        <is>
-          <t>Used Car Prices MoMJAN</t>
-        </is>
-      </c>
-      <c r="D2917" t="inlineStr"/>
-      <c r="E2917" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F2917" t="inlineStr"/>
-      <c r="G2917" t="inlineStr"/>
-      <c r="H2917" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2918">
-      <c r="A2918" t="inlineStr"/>
-      <c r="B2918" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2918" t="inlineStr">
-        <is>
-          <t>Used Car Prices YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2918" t="inlineStr"/>
-      <c r="E2918" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F2918" t="inlineStr"/>
-      <c r="G2918" t="inlineStr"/>
-      <c r="H2918" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2919">
-      <c r="A2919" t="inlineStr">
-        <is>
-          <t>Saturday February 08 2025</t>
-        </is>
-      </c>
-      <c r="B2919" t="inlineStr"/>
-      <c r="C2919" t="inlineStr"/>
-      <c r="D2919" t="inlineStr"/>
-      <c r="E2919" t="inlineStr"/>
-      <c r="F2919" t="inlineStr"/>
-      <c r="G2919" t="inlineStr"/>
-      <c r="H2919" t="inlineStr"/>
-    </row>
-    <row r="2920">
-      <c r="A2920" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2920" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2920" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2920" t="inlineStr"/>
-      <c r="E2920" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F2920" t="inlineStr"/>
-      <c r="G2920" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="H2920" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2921">
-      <c r="A2921" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2921" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2921" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMJAN</t>
-        </is>
-      </c>
-      <c r="D2921" t="inlineStr"/>
-      <c r="E2921" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="F2921" t="inlineStr"/>
-      <c r="G2921" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H2921" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2922">
-      <c r="A2922" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2922" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2922" t="inlineStr">
-        <is>
-          <t>PPI YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2922" t="inlineStr"/>
-      <c r="E2922" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
-      <c r="F2922" t="inlineStr"/>
-      <c r="G2922" t="inlineStr">
-        <is>
-          <t>-2.4%</t>
-        </is>
-      </c>
-      <c r="H2922" t="inlineStr">
         <is>
           <t>2</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-08.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-08.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2899"/>
+  <dimension ref="A1:H2875"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89293,10 +89293,8 @@
       <c r="E2807" t="inlineStr"/>
       <c r="F2807" t="inlineStr"/>
       <c r="G2807" t="inlineStr"/>
-      <c r="H2807" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2807" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2808">
@@ -89327,10 +89325,8 @@
           <t>54.2</t>
         </is>
       </c>
-      <c r="H2808" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2808" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2809">
@@ -89353,10 +89349,8 @@
       <c r="E2809" t="inlineStr"/>
       <c r="F2809" t="inlineStr"/>
       <c r="G2809" t="inlineStr"/>
-      <c r="H2809" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2809" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2810">
@@ -89379,10 +89373,8 @@
       <c r="E2810" t="inlineStr"/>
       <c r="F2810" t="inlineStr"/>
       <c r="G2810" t="inlineStr"/>
-      <c r="H2810" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2810" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2811">
@@ -89405,10 +89397,8 @@
       <c r="E2811" t="inlineStr"/>
       <c r="F2811" t="inlineStr"/>
       <c r="G2811" t="inlineStr"/>
-      <c r="H2811" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2811" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2812">
@@ -89435,10 +89425,8 @@
       </c>
       <c r="F2812" t="inlineStr"/>
       <c r="G2812" t="inlineStr"/>
-      <c r="H2812" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2812" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2813">
@@ -89461,10 +89449,8 @@
       <c r="E2813" t="inlineStr"/>
       <c r="F2813" t="inlineStr"/>
       <c r="G2813" t="inlineStr"/>
-      <c r="H2813" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2813" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2814">
@@ -89487,10 +89473,8 @@
       <c r="E2814" t="inlineStr"/>
       <c r="F2814" t="inlineStr"/>
       <c r="G2814" t="inlineStr"/>
-      <c r="H2814" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2814" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2815">
@@ -89521,10 +89505,8 @@
           <t>9.75%</t>
         </is>
       </c>
-      <c r="H2815" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2815" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2816">
@@ -89547,10 +89529,8 @@
       <c r="E2816" t="inlineStr"/>
       <c r="F2816" t="inlineStr"/>
       <c r="G2816" t="inlineStr"/>
-      <c r="H2816" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2816" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2817">
@@ -89573,10 +89553,8 @@
       <c r="E2817" t="inlineStr"/>
       <c r="F2817" t="inlineStr"/>
       <c r="G2817" t="inlineStr"/>
-      <c r="H2817" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2817" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2818">
@@ -89603,10 +89581,8 @@
       </c>
       <c r="F2818" t="inlineStr"/>
       <c r="G2818" t="inlineStr"/>
-      <c r="H2818" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2818" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2819">
@@ -89637,10 +89613,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H2819" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2819" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2820">
@@ -89667,10 +89641,8 @@
       </c>
       <c r="F2820" t="inlineStr"/>
       <c r="G2820" t="inlineStr"/>
-      <c r="H2820" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2820" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2821">
@@ -89693,10 +89665,8 @@
       <c r="E2821" t="inlineStr"/>
       <c r="F2821" t="inlineStr"/>
       <c r="G2821" t="inlineStr"/>
-      <c r="H2821" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2821" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2822">
@@ -89723,10 +89693,8 @@
       </c>
       <c r="F2822" t="inlineStr"/>
       <c r="G2822" t="inlineStr"/>
-      <c r="H2822" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2822" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2823">
@@ -89753,10 +89721,8 @@
       </c>
       <c r="F2823" t="inlineStr"/>
       <c r="G2823" t="inlineStr"/>
-      <c r="H2823" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2823" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2824">
@@ -89779,10 +89745,8 @@
       </c>
       <c r="F2824" t="inlineStr"/>
       <c r="G2824" t="inlineStr"/>
-      <c r="H2824" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2824" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2825">
@@ -89805,10 +89769,8 @@
       </c>
       <c r="F2825" t="inlineStr"/>
       <c r="G2825" t="inlineStr"/>
-      <c r="H2825" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2825" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2826">
@@ -89831,10 +89793,8 @@
       </c>
       <c r="F2826" t="inlineStr"/>
       <c r="G2826" t="inlineStr"/>
-      <c r="H2826" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2826" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2827">
@@ -89853,10 +89813,8 @@
       <c r="E2827" t="inlineStr"/>
       <c r="F2827" t="inlineStr"/>
       <c r="G2827" t="inlineStr"/>
-      <c r="H2827" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2827" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2828">
@@ -89875,10 +89833,8 @@
       <c r="E2828" t="inlineStr"/>
       <c r="F2828" t="inlineStr"/>
       <c r="G2828" t="inlineStr"/>
-      <c r="H2828" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2828" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2829">
@@ -89901,10 +89857,8 @@
       </c>
       <c r="F2829" t="inlineStr"/>
       <c r="G2829" t="inlineStr"/>
-      <c r="H2829" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2829" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2830">
@@ -89927,82 +89881,104 @@
       </c>
       <c r="F2830" t="inlineStr"/>
       <c r="G2830" t="inlineStr"/>
-      <c r="H2830" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2830" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2831">
       <c r="A2831" t="inlineStr">
         <is>
-          <t>Friday February 07 2025</t>
-        </is>
-      </c>
-      <c r="B2831" t="inlineStr"/>
-      <c r="C2831" t="inlineStr"/>
+          <t>07:00 AM</t>
+        </is>
+      </c>
+      <c r="B2831" t="inlineStr">
+        <is>
+          <t>MX</t>
+        </is>
+      </c>
+      <c r="C2831" t="inlineStr">
+        <is>
+          <t>Inflation Rate MoMJAN</t>
+        </is>
+      </c>
       <c r="D2831" t="inlineStr"/>
-      <c r="E2831" t="inlineStr"/>
+      <c r="E2831" t="inlineStr">
+        <is>
+          <t>0.38%</t>
+        </is>
+      </c>
       <c r="F2831" t="inlineStr"/>
-      <c r="G2831" t="inlineStr"/>
-      <c r="H2831" t="inlineStr"/>
+      <c r="G2831" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
+      <c r="H2831" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2832">
       <c r="A2832" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2832" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2832" t="inlineStr">
         <is>
-          <t>Coincident Index PrelDEC</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2832" t="inlineStr"/>
       <c r="E2832" t="inlineStr">
         <is>
-          <t>115.4</t>
+          <t>4.21%</t>
         </is>
       </c>
       <c r="F2832" t="inlineStr"/>
-      <c r="G2832" t="inlineStr"/>
+      <c r="G2832" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
       <c r="H2832" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2833">
       <c r="A2833" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2833" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2833" t="inlineStr">
         <is>
-          <t>Leading Economic Index PrelDEC</t>
+          <t>Core Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2833" t="inlineStr"/>
       <c r="E2833" t="inlineStr">
         <is>
-          <t>107.5</t>
+          <t>0.51%</t>
         </is>
       </c>
       <c r="F2833" t="inlineStr"/>
       <c r="G2833" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H2833" t="inlineStr">
@@ -90014,29 +89990,29 @@
     <row r="2834">
       <c r="A2834" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2834" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2834" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Core Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2834" t="inlineStr"/>
       <c r="E2834" t="inlineStr">
         <is>
-          <t>$65.46B</t>
+          <t>3.65%</t>
         </is>
       </c>
       <c r="F2834" t="inlineStr"/>
       <c r="G2834" t="inlineStr">
         <is>
-          <t>$65.0B</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H2834" t="inlineStr">
@@ -90048,163 +90024,167 @@
     <row r="2835">
       <c r="A2835" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2835" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2835" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Car Production MoMJAN</t>
         </is>
       </c>
       <c r="D2835" t="inlineStr"/>
       <c r="E2835" t="inlineStr">
         <is>
-          <t>€19.7B</t>
+          <t>-19.5%</t>
         </is>
       </c>
       <c r="F2835" t="inlineStr"/>
       <c r="G2835" t="inlineStr">
         <is>
-          <t>€ 22B</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="H2835" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2836">
       <c r="A2836" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2836" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2836" t="inlineStr">
         <is>
-          <t>Exports MoMDEC</t>
+          <t>New Car Registrations MoMJAN</t>
         </is>
       </c>
       <c r="D2836" t="inlineStr"/>
       <c r="E2836" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F2836" t="inlineStr"/>
       <c r="G2836" t="inlineStr">
         <is>
-          <t>130%</t>
+          <t>-1.5%</t>
         </is>
       </c>
       <c r="H2836" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2837">
       <c r="A2837" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2837" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2837" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2837" t="inlineStr"/>
       <c r="E2837" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>6.7%</t>
         </is>
       </c>
       <c r="F2837" t="inlineStr"/>
       <c r="G2837" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>6.8%</t>
         </is>
       </c>
       <c r="H2837" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2838">
       <c r="A2838" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2838" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2838" t="inlineStr">
         <is>
-          <t>Imports MoMDEC</t>
+          <t>Employment ChangeJAN</t>
         </is>
       </c>
       <c r="D2838" t="inlineStr"/>
       <c r="E2838" t="inlineStr">
         <is>
-          <t>-3.3%</t>
+          <t>90.9K</t>
         </is>
       </c>
       <c r="F2838" t="inlineStr"/>
       <c r="G2838" t="inlineStr">
         <is>
-          <t>108%</t>
+          <t>5K</t>
         </is>
       </c>
       <c r="H2838" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2839">
       <c r="A2839" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2839" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2839" t="inlineStr">
         <is>
-          <t>Halifax House Price Index MoMJAN</t>
+          <t>Full Time Employment ChgJAN</t>
         </is>
       </c>
       <c r="D2839" t="inlineStr"/>
       <c r="E2839" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>57.5K</t>
         </is>
       </c>
       <c r="F2839" t="inlineStr"/>
-      <c r="G2839" t="inlineStr"/>
+      <c r="G2839" t="inlineStr">
+        <is>
+          <t>-3K</t>
+        </is>
+      </c>
       <c r="H2839" t="inlineStr">
         <is>
           <t>2</t>
@@ -90214,27 +90194,31 @@
     <row r="2840">
       <c r="A2840" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2840" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2840" t="inlineStr">
         <is>
-          <t>Halifax House Price Index YoYJAN</t>
+          <t>Part Time Employment ChgJAN</t>
         </is>
       </c>
       <c r="D2840" t="inlineStr"/>
       <c r="E2840" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>33.5K</t>
         </is>
       </c>
       <c r="F2840" t="inlineStr"/>
-      <c r="G2840" t="inlineStr"/>
+      <c r="G2840" t="inlineStr">
+        <is>
+          <t>8K</t>
+        </is>
+      </c>
       <c r="H2840" t="inlineStr">
         <is>
           <t>2</t>
@@ -90244,23 +90228,31 @@
     <row r="2841">
       <c r="A2841" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2841" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2841" t="inlineStr">
         <is>
-          <t>Inflation Report</t>
+          <t>Participation RateJAN</t>
         </is>
       </c>
       <c r="D2841" t="inlineStr"/>
-      <c r="E2841" t="inlineStr"/>
+      <c r="E2841" t="inlineStr">
+        <is>
+          <t>65.1%</t>
+        </is>
+      </c>
       <c r="F2841" t="inlineStr"/>
-      <c r="G2841" t="inlineStr"/>
+      <c r="G2841" t="inlineStr">
+        <is>
+          <t>65.0%</t>
+        </is>
+      </c>
       <c r="H2841" t="inlineStr">
         <is>
           <t>2</t>
@@ -90270,229 +90262,233 @@
     <row r="2842">
       <c r="A2842" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2842" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2842" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Average Hourly Wages YoYJAN</t>
         </is>
       </c>
       <c r="D2842" t="inlineStr"/>
       <c r="E2842" t="inlineStr">
         <is>
-          <t>€-7.1B</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="F2842" t="inlineStr"/>
       <c r="G2842" t="inlineStr">
         <is>
-          <t>€ -7.2B</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H2842" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2843">
       <c r="A2843" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2843" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2843" t="inlineStr">
         <is>
-          <t>Current AccountDEC</t>
+          <t>Non Farm PayrollsJAN</t>
         </is>
       </c>
       <c r="D2843" t="inlineStr"/>
       <c r="E2843" t="inlineStr">
         <is>
-          <t>€-1.7B</t>
+          <t>256K</t>
         </is>
       </c>
       <c r="F2843" t="inlineStr"/>
       <c r="G2843" t="inlineStr">
         <is>
-          <t>€ -2.5B</t>
+          <t>205K</t>
         </is>
       </c>
       <c r="H2843" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2844">
       <c r="A2844" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2844" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2844" t="inlineStr">
         <is>
-          <t>ExportsDEC</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2844" t="inlineStr"/>
       <c r="E2844" t="inlineStr">
         <is>
-          <t>€50.101B</t>
+          <t>4.1%</t>
         </is>
       </c>
       <c r="F2844" t="inlineStr"/>
       <c r="G2844" t="inlineStr">
         <is>
-          <t>€ 49.7B</t>
+          <t>4.1%</t>
         </is>
       </c>
       <c r="H2844" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2845">
       <c r="A2845" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2845" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2845" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Average Hourly Earnings MoMJAN</t>
         </is>
       </c>
       <c r="D2845" t="inlineStr"/>
       <c r="E2845" t="inlineStr">
         <is>
-          <t>€275.078B</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F2845" t="inlineStr"/>
-      <c r="G2845" t="inlineStr"/>
+      <c r="G2845" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2845" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2846">
       <c r="A2846" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2846" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2846" t="inlineStr">
         <is>
-          <t>ImportsDEC</t>
+          <t>Average Hourly Earnings YoY</t>
         </is>
       </c>
       <c r="D2846" t="inlineStr"/>
       <c r="E2846" t="inlineStr">
         <is>
-          <t>€57.186B</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="F2846" t="inlineStr"/>
       <c r="G2846" t="inlineStr">
         <is>
-          <t>€ 56.9B</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="H2846" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2847">
       <c r="A2847" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2847" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2847" t="inlineStr">
         <is>
-          <t>Private Non Farm Payrolls QoQ PrelQ4</t>
+          <t>Participation RateJAN</t>
         </is>
       </c>
       <c r="D2847" t="inlineStr"/>
       <c r="E2847" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>62.5%</t>
         </is>
       </c>
       <c r="F2847" t="inlineStr"/>
       <c r="G2847" t="inlineStr">
         <is>
-          <t>20200%</t>
+          <t>62.5%</t>
         </is>
       </c>
       <c r="H2847" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2848">
       <c r="A2848" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2848" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2848" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Average Weekly HoursJAN</t>
         </is>
       </c>
       <c r="D2848" t="inlineStr"/>
       <c r="E2848" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>34.3</t>
         </is>
       </c>
       <c r="F2848" t="inlineStr"/>
       <c r="G2848" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>34.3</t>
         </is>
       </c>
       <c r="H2848" t="inlineStr">
@@ -90504,27 +90500,31 @@
     <row r="2849">
       <c r="A2849" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2849" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2849" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Government PayrollsJAN</t>
         </is>
       </c>
       <c r="D2849" t="inlineStr"/>
       <c r="E2849" t="inlineStr">
         <is>
-          <t>S$506.7B</t>
+          <t>33K</t>
         </is>
       </c>
       <c r="F2849" t="inlineStr"/>
-      <c r="G2849" t="inlineStr"/>
+      <c r="G2849" t="inlineStr">
+        <is>
+          <t>25K</t>
+        </is>
+      </c>
       <c r="H2849" t="inlineStr">
         <is>
           <t>3</t>
@@ -90534,27 +90534,31 @@
     <row r="2850">
       <c r="A2850" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2850" t="inlineStr">
         <is>
-          <t>WL</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2850" t="inlineStr">
         <is>
-          <t>FAO Food Price IndexJAN</t>
+          <t>Manufacturing PayrollsJAN</t>
         </is>
       </c>
       <c r="D2850" t="inlineStr"/>
       <c r="E2850" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>-13K</t>
         </is>
       </c>
       <c r="F2850" t="inlineStr"/>
-      <c r="G2850" t="inlineStr"/>
+      <c r="G2850" t="inlineStr">
+        <is>
+          <t>-5K</t>
+        </is>
+      </c>
       <c r="H2850" t="inlineStr">
         <is>
           <t>3</t>
@@ -90564,27 +90568,31 @@
     <row r="2851">
       <c r="A2851" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2851" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2851" t="inlineStr">
         <is>
-          <t>BBA Mortgage RateJAN</t>
+          <t>Nonfarm Payrolls PrivateJAN</t>
         </is>
       </c>
       <c r="D2851" t="inlineStr"/>
       <c r="E2851" t="inlineStr">
         <is>
-          <t>7.50%</t>
+          <t>223K</t>
         </is>
       </c>
       <c r="F2851" t="inlineStr"/>
-      <c r="G2851" t="inlineStr"/>
+      <c r="G2851" t="inlineStr">
+        <is>
+          <t>180K</t>
+        </is>
+      </c>
       <c r="H2851" t="inlineStr">
         <is>
           <t>3</t>
@@ -90594,23 +90602,31 @@
     <row r="2852">
       <c r="A2852" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2852" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2852" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/31</t>
+          <t>U-6 Unemployment Rate</t>
         </is>
       </c>
       <c r="D2852" t="inlineStr"/>
-      <c r="E2852" t="inlineStr"/>
+      <c r="E2852" t="inlineStr">
+        <is>
+          <t>7.5%</t>
+        </is>
+      </c>
       <c r="F2852" t="inlineStr"/>
-      <c r="G2852" t="inlineStr"/>
+      <c r="G2852" t="inlineStr">
+        <is>
+          <t>7.5%</t>
+        </is>
+      </c>
       <c r="H2852" t="inlineStr">
         <is>
           <t>3</t>
@@ -90620,165 +90636,161 @@
     <row r="2853">
       <c r="A2853" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>08:45 AM</t>
         </is>
       </c>
       <c r="B2853" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2853" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2853" t="inlineStr"/>
       <c r="E2853" t="inlineStr">
         <is>
-          <t>0.52%</t>
+          <t>$609.1B</t>
         </is>
       </c>
       <c r="F2853" t="inlineStr"/>
       <c r="G2853" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>$607.0B</t>
         </is>
       </c>
       <c r="H2853" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2854">
       <c r="A2854" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2854" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2854" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Treasury Cash BalanceJAN</t>
         </is>
       </c>
       <c r="D2854" t="inlineStr"/>
       <c r="E2854" t="inlineStr">
         <is>
-          <t>4.83%</t>
+          <t>TRY-323.9B</t>
         </is>
       </c>
       <c r="F2854" t="inlineStr"/>
-      <c r="G2854" t="inlineStr">
-        <is>
-          <t>4.7%</t>
-        </is>
-      </c>
+      <c r="G2854" t="inlineStr"/>
       <c r="H2854" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2855">
       <c r="A2855" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2855" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2855" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Full Year GDP Growth2024</t>
         </is>
       </c>
       <c r="D2855" t="inlineStr"/>
       <c r="E2855" t="inlineStr">
         <is>
-          <t>0.38%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="F2855" t="inlineStr"/>
       <c r="G2855" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="H2855" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2856">
       <c r="A2856" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2856" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2856" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Michigan Consumer Sentiment PrelFEB</t>
         </is>
       </c>
       <c r="D2856" t="inlineStr"/>
       <c r="E2856" t="inlineStr">
         <is>
-          <t>4.21%</t>
+          <t>71.1</t>
         </is>
       </c>
       <c r="F2856" t="inlineStr"/>
       <c r="G2856" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>72</t>
         </is>
       </c>
       <c r="H2856" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2857">
       <c r="A2857" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2857" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2857" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMJAN</t>
+          <t>Michigan 5 Year Inflation Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2857" t="inlineStr"/>
       <c r="E2857" t="inlineStr">
         <is>
-          <t>0.51%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="F2857" t="inlineStr"/>
       <c r="G2857" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H2857" t="inlineStr">
@@ -90790,29 +90802,29 @@
     <row r="2858">
       <c r="A2858" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2858" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2858" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJAN</t>
+          <t>Michigan Consumer Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2858" t="inlineStr"/>
       <c r="E2858" t="inlineStr">
         <is>
-          <t>3.65%</t>
+          <t>69.3</t>
         </is>
       </c>
       <c r="F2858" t="inlineStr"/>
       <c r="G2858" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>69.5</t>
         </is>
       </c>
       <c r="H2858" t="inlineStr">
@@ -90824,29 +90836,29 @@
     <row r="2859">
       <c r="A2859" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2859" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2859" t="inlineStr">
         <is>
-          <t>Car Production MoMJAN</t>
+          <t>Michigan Current Conditions PrelFEB</t>
         </is>
       </c>
       <c r="D2859" t="inlineStr"/>
       <c r="E2859" t="inlineStr">
         <is>
-          <t>-19.5%</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F2859" t="inlineStr"/>
       <c r="G2859" t="inlineStr">
         <is>
-          <t>-5.0%</t>
+          <t>74.3</t>
         </is>
       </c>
       <c r="H2859" t="inlineStr">
@@ -90858,29 +90870,29 @@
     <row r="2860">
       <c r="A2860" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2860" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2860" t="inlineStr">
         <is>
-          <t>New Car Registrations MoMJAN</t>
+          <t>Michigan Inflation Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2860" t="inlineStr"/>
       <c r="E2860" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="F2860" t="inlineStr"/>
       <c r="G2860" t="inlineStr">
         <is>
-          <t>-1.5%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H2860" t="inlineStr">
@@ -90892,63 +90904,67 @@
     <row r="2861">
       <c r="A2861" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2861" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2861" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>Wholesale Inventories MoMDEC</t>
         </is>
       </c>
       <c r="D2861" t="inlineStr"/>
       <c r="E2861" t="inlineStr">
         <is>
-          <t>6.7%</t>
-        </is>
-      </c>
-      <c r="F2861" t="inlineStr"/>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="F2861" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
       <c r="G2861" t="inlineStr">
         <is>
-          <t>6.8%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H2861" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2862">
       <c r="A2862" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B2862" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2862" t="inlineStr">
         <is>
-          <t>Employment ChangeJAN</t>
+          <t>Balance of TradeJAN</t>
         </is>
       </c>
       <c r="D2862" t="inlineStr"/>
       <c r="E2862" t="inlineStr">
         <is>
-          <t>90.9K</t>
+          <t>$4.8B</t>
         </is>
       </c>
       <c r="F2862" t="inlineStr"/>
       <c r="G2862" t="inlineStr">
         <is>
-          <t>5K</t>
+          <t>$4.1B</t>
         </is>
       </c>
       <c r="H2862" t="inlineStr">
@@ -90960,131 +90976,115 @@
     <row r="2863">
       <c r="A2863" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B2863" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2863" t="inlineStr">
         <is>
-          <t>Full Time Employment ChgJAN</t>
+          <t>Baker Hughes Oil Rig CountFEB/07</t>
         </is>
       </c>
       <c r="D2863" t="inlineStr"/>
-      <c r="E2863" t="inlineStr">
-        <is>
-          <t>57.5K</t>
-        </is>
-      </c>
+      <c r="E2863" t="inlineStr"/>
       <c r="F2863" t="inlineStr"/>
-      <c r="G2863" t="inlineStr">
-        <is>
-          <t>-3K</t>
-        </is>
-      </c>
+      <c r="G2863" t="inlineStr"/>
       <c r="H2863" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2864">
       <c r="A2864" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B2864" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2864" t="inlineStr">
         <is>
-          <t>Part Time Employment ChgJAN</t>
+          <t>Baker Hughes Total Rigs CountFEB/07</t>
         </is>
       </c>
       <c r="D2864" t="inlineStr"/>
-      <c r="E2864" t="inlineStr">
-        <is>
-          <t>33.5K</t>
-        </is>
-      </c>
+      <c r="E2864" t="inlineStr"/>
       <c r="F2864" t="inlineStr"/>
-      <c r="G2864" t="inlineStr">
-        <is>
-          <t>8K</t>
-        </is>
-      </c>
+      <c r="G2864" t="inlineStr"/>
       <c r="H2864" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2865">
       <c r="A2865" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B2865" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C2865" t="inlineStr">
         <is>
-          <t>Participation RateJAN</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2865" t="inlineStr"/>
       <c r="E2865" t="inlineStr">
         <is>
-          <t>65.1%</t>
+          <t>-1.7%</t>
         </is>
       </c>
       <c r="F2865" t="inlineStr"/>
       <c r="G2865" t="inlineStr">
         <is>
-          <t>65.0%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H2865" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2866">
       <c r="A2866" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2866" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2866" t="inlineStr">
         <is>
-          <t>Average Hourly Wages YoYJAN</t>
+          <t>Consumer Credit ChangeDEC</t>
         </is>
       </c>
       <c r="D2866" t="inlineStr"/>
       <c r="E2866" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>$-7.49B</t>
         </is>
       </c>
       <c r="F2866" t="inlineStr"/>
       <c r="G2866" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>$ 18B</t>
         </is>
       </c>
       <c r="H2866" t="inlineStr">
@@ -91094,113 +91094,89 @@
       </c>
     </row>
     <row r="2867">
-      <c r="A2867" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2867" t="inlineStr"/>
       <c r="B2867" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2867" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsJAN</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2867" t="inlineStr"/>
       <c r="E2867" t="inlineStr">
         <is>
-          <t>256K</t>
+          <t>$3.202T</t>
         </is>
       </c>
       <c r="F2867" t="inlineStr"/>
       <c r="G2867" t="inlineStr">
         <is>
-          <t>205K</t>
+          <t>$3.3T</t>
         </is>
       </c>
       <c r="H2867" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2868">
-      <c r="A2868" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2868" t="inlineStr"/>
       <c r="B2868" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2868" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>SACCI Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2868" t="inlineStr"/>
-      <c r="E2868" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
+      <c r="E2868" t="inlineStr"/>
       <c r="F2868" t="inlineStr"/>
-      <c r="G2868" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
+      <c r="G2868" t="inlineStr"/>
       <c r="H2868" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2869">
-      <c r="A2869" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2869" t="inlineStr"/>
       <c r="B2869" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2869" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings MoMJAN</t>
+          <t>SACCI Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D2869" t="inlineStr"/>
       <c r="E2869" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>118.1</t>
         </is>
       </c>
       <c r="F2869" t="inlineStr"/>
       <c r="G2869" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>116</t>
         </is>
       </c>
       <c r="H2869" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2870">
-      <c r="A2870" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2870" t="inlineStr"/>
       <c r="B2870" t="inlineStr">
         <is>
           <t>US</t>
@@ -91208,33 +91184,25 @@
       </c>
       <c r="C2870" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoY</t>
+          <t>Used Car Prices MoMJAN</t>
         </is>
       </c>
       <c r="D2870" t="inlineStr"/>
       <c r="E2870" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F2870" t="inlineStr"/>
-      <c r="G2870" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
+      <c r="G2870" t="inlineStr"/>
       <c r="H2870" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2871">
-      <c r="A2871" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2871" t="inlineStr"/>
       <c r="B2871" t="inlineStr">
         <is>
           <t>US</t>
@@ -91242,898 +91210,134 @@
       </c>
       <c r="C2871" t="inlineStr">
         <is>
-          <t>Participation RateJAN</t>
+          <t>Used Car Prices YoYJAN</t>
         </is>
       </c>
       <c r="D2871" t="inlineStr"/>
       <c r="E2871" t="inlineStr">
         <is>
-          <t>62.5%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2871" t="inlineStr"/>
-      <c r="G2871" t="inlineStr">
-        <is>
-          <t>62.5%</t>
-        </is>
-      </c>
+      <c r="G2871" t="inlineStr"/>
       <c r="H2871" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2872">
       <c r="A2872" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B2872" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2872" t="inlineStr">
-        <is>
-          <t>Average Weekly HoursJAN</t>
-        </is>
-      </c>
+          <t>Saturday February 08 2025</t>
+        </is>
+      </c>
+      <c r="B2872" t="inlineStr"/>
+      <c r="C2872" t="inlineStr"/>
       <c r="D2872" t="inlineStr"/>
-      <c r="E2872" t="inlineStr">
-        <is>
-          <t>34.3</t>
-        </is>
-      </c>
+      <c r="E2872" t="inlineStr"/>
       <c r="F2872" t="inlineStr"/>
-      <c r="G2872" t="inlineStr">
-        <is>
-          <t>34.3</t>
-        </is>
-      </c>
-      <c r="H2872" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G2872" t="inlineStr"/>
+      <c r="H2872" t="inlineStr"/>
     </row>
     <row r="2873">
       <c r="A2873" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2873" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2873" t="inlineStr">
         <is>
-          <t>Government PayrollsJAN</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2873" t="inlineStr"/>
       <c r="E2873" t="inlineStr">
         <is>
-          <t>33K</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2873" t="inlineStr"/>
       <c r="G2873" t="inlineStr">
         <is>
-          <t>25K</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="H2873" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2874">
       <c r="A2874" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2874" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2874" t="inlineStr">
         <is>
-          <t>Manufacturing PayrollsJAN</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2874" t="inlineStr"/>
       <c r="E2874" t="inlineStr">
         <is>
-          <t>-13K</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="F2874" t="inlineStr"/>
       <c r="G2874" t="inlineStr">
         <is>
-          <t>-5K</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H2874" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2875">
       <c r="A2875" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2875" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2875" t="inlineStr">
         <is>
-          <t>Nonfarm Payrolls PrivateJAN</t>
+          <t>PPI YoYJAN</t>
         </is>
       </c>
       <c r="D2875" t="inlineStr"/>
       <c r="E2875" t="inlineStr">
         <is>
-          <t>223K</t>
+          <t>-2.3%</t>
         </is>
       </c>
       <c r="F2875" t="inlineStr"/>
       <c r="G2875" t="inlineStr">
         <is>
-          <t>180K</t>
+          <t>-2.4%</t>
         </is>
       </c>
       <c r="H2875" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2876">
-      <c r="A2876" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B2876" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2876" t="inlineStr">
-        <is>
-          <t>U-6 Unemployment Rate</t>
-        </is>
-      </c>
-      <c r="D2876" t="inlineStr"/>
-      <c r="E2876" t="inlineStr">
-        <is>
-          <t>7.5%</t>
-        </is>
-      </c>
-      <c r="F2876" t="inlineStr"/>
-      <c r="G2876" t="inlineStr">
-        <is>
-          <t>7.5%</t>
-        </is>
-      </c>
-      <c r="H2876" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2877">
-      <c r="A2877" t="inlineStr">
-        <is>
-          <t>08:45 AM</t>
-        </is>
-      </c>
-      <c r="B2877" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2877" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN</t>
-        </is>
-      </c>
-      <c r="D2877" t="inlineStr"/>
-      <c r="E2877" t="inlineStr">
-        <is>
-          <t>$609.1B</t>
-        </is>
-      </c>
-      <c r="F2877" t="inlineStr"/>
-      <c r="G2877" t="inlineStr"/>
-      <c r="H2877" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2878">
-      <c r="A2878" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2878" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2878" t="inlineStr">
-        <is>
-          <t>Treasury Cash BalanceJAN</t>
-        </is>
-      </c>
-      <c r="D2878" t="inlineStr"/>
-      <c r="E2878" t="inlineStr">
-        <is>
-          <t>TRY-323.9B</t>
-        </is>
-      </c>
-      <c r="F2878" t="inlineStr"/>
-      <c r="G2878" t="inlineStr"/>
-      <c r="H2878" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2879">
-      <c r="A2879" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2879" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2879" t="inlineStr">
-        <is>
-          <t>Full Year GDP Growth2024</t>
-        </is>
-      </c>
-      <c r="D2879" t="inlineStr"/>
-      <c r="E2879" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="F2879" t="inlineStr"/>
-      <c r="G2879" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="H2879" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2880">
-      <c r="A2880" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2880" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2880" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2880" t="inlineStr"/>
-      <c r="E2880" t="inlineStr">
-        <is>
-          <t>71.1</t>
-        </is>
-      </c>
-      <c r="F2880" t="inlineStr"/>
-      <c r="G2880" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="H2880" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2881">
-      <c r="A2881" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2881" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2881" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2881" t="inlineStr"/>
-      <c r="E2881" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="F2881" t="inlineStr"/>
-      <c r="G2881" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="H2881" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2882">
-      <c r="A2882" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2882" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2882" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2882" t="inlineStr"/>
-      <c r="E2882" t="inlineStr">
-        <is>
-          <t>69.3</t>
-        </is>
-      </c>
-      <c r="F2882" t="inlineStr"/>
-      <c r="G2882" t="inlineStr">
-        <is>
-          <t>69.5</t>
-        </is>
-      </c>
-      <c r="H2882" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2883">
-      <c r="A2883" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2883" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2883" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2883" t="inlineStr"/>
-      <c r="E2883" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="F2883" t="inlineStr"/>
-      <c r="G2883" t="inlineStr">
-        <is>
-          <t>74.3</t>
-        </is>
-      </c>
-      <c r="H2883" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2884">
-      <c r="A2884" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2884" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2884" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2884" t="inlineStr"/>
-      <c r="E2884" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F2884" t="inlineStr"/>
-      <c r="G2884" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="H2884" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2885">
-      <c r="A2885" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2885" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2885" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2885" t="inlineStr"/>
-      <c r="E2885" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F2885" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="G2885" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="H2885" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2886">
-      <c r="A2886" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B2886" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2886" t="inlineStr">
-        <is>
-          <t>Balance of TradeJAN</t>
-        </is>
-      </c>
-      <c r="D2886" t="inlineStr"/>
-      <c r="E2886" t="inlineStr">
-        <is>
-          <t>$4.8B</t>
-        </is>
-      </c>
-      <c r="F2886" t="inlineStr"/>
-      <c r="G2886" t="inlineStr">
-        <is>
-          <t>$4.1B</t>
-        </is>
-      </c>
-      <c r="H2886" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2887">
-      <c r="A2887" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B2887" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2887" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountFEB/07</t>
-        </is>
-      </c>
-      <c r="D2887" t="inlineStr"/>
-      <c r="E2887" t="inlineStr"/>
-      <c r="F2887" t="inlineStr"/>
-      <c r="G2887" t="inlineStr"/>
-      <c r="H2887" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2888">
-      <c r="A2888" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B2888" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2888" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountFEB/07</t>
-        </is>
-      </c>
-      <c r="D2888" t="inlineStr"/>
-      <c r="E2888" t="inlineStr"/>
-      <c r="F2888" t="inlineStr"/>
-      <c r="G2888" t="inlineStr"/>
-      <c r="H2888" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2889">
-      <c r="A2889" t="inlineStr">
-        <is>
-          <t>02:00 PM</t>
-        </is>
-      </c>
-      <c r="B2889" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C2889" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2889" t="inlineStr"/>
-      <c r="E2889" t="inlineStr">
-        <is>
-          <t>-1.7%</t>
-        </is>
-      </c>
-      <c r="F2889" t="inlineStr"/>
-      <c r="G2889" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="H2889" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2890">
-      <c r="A2890" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B2890" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2890" t="inlineStr">
-        <is>
-          <t>Consumer Credit ChangeDEC</t>
-        </is>
-      </c>
-      <c r="D2890" t="inlineStr"/>
-      <c r="E2890" t="inlineStr">
-        <is>
-          <t>$-7.49B</t>
-        </is>
-      </c>
-      <c r="F2890" t="inlineStr"/>
-      <c r="G2890" t="inlineStr">
-        <is>
-          <t>$ 18B</t>
-        </is>
-      </c>
-      <c r="H2890" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2891">
-      <c r="A2891" t="inlineStr"/>
-      <c r="B2891" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2891" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN</t>
-        </is>
-      </c>
-      <c r="D2891" t="inlineStr"/>
-      <c r="E2891" t="inlineStr">
-        <is>
-          <t>$3.202T</t>
-        </is>
-      </c>
-      <c r="F2891" t="inlineStr"/>
-      <c r="G2891" t="inlineStr">
-        <is>
-          <t>$3.3T</t>
-        </is>
-      </c>
-      <c r="H2891" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2892">
-      <c r="A2892" t="inlineStr"/>
-      <c r="B2892" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C2892" t="inlineStr">
-        <is>
-          <t>SACCI Business ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D2892" t="inlineStr"/>
-      <c r="E2892" t="inlineStr"/>
-      <c r="F2892" t="inlineStr"/>
-      <c r="G2892" t="inlineStr"/>
-      <c r="H2892" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2893">
-      <c r="A2893" t="inlineStr"/>
-      <c r="B2893" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C2893" t="inlineStr">
-        <is>
-          <t>SACCI Business ConfidenceDEC</t>
-        </is>
-      </c>
-      <c r="D2893" t="inlineStr"/>
-      <c r="E2893" t="inlineStr">
-        <is>
-          <t>118.1</t>
-        </is>
-      </c>
-      <c r="F2893" t="inlineStr"/>
-      <c r="G2893" t="inlineStr">
-        <is>
-          <t>116</t>
-        </is>
-      </c>
-      <c r="H2893" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2894">
-      <c r="A2894" t="inlineStr"/>
-      <c r="B2894" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2894" t="inlineStr">
-        <is>
-          <t>Used Car Prices MoMJAN</t>
-        </is>
-      </c>
-      <c r="D2894" t="inlineStr"/>
-      <c r="E2894" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F2894" t="inlineStr"/>
-      <c r="G2894" t="inlineStr"/>
-      <c r="H2894" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2895">
-      <c r="A2895" t="inlineStr"/>
-      <c r="B2895" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2895" t="inlineStr">
-        <is>
-          <t>Used Car Prices YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2895" t="inlineStr"/>
-      <c r="E2895" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F2895" t="inlineStr"/>
-      <c r="G2895" t="inlineStr"/>
-      <c r="H2895" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2896">
-      <c r="A2896" t="inlineStr">
-        <is>
-          <t>Saturday February 08 2025</t>
-        </is>
-      </c>
-      <c r="B2896" t="inlineStr"/>
-      <c r="C2896" t="inlineStr"/>
-      <c r="D2896" t="inlineStr"/>
-      <c r="E2896" t="inlineStr"/>
-      <c r="F2896" t="inlineStr"/>
-      <c r="G2896" t="inlineStr"/>
-      <c r="H2896" t="inlineStr"/>
-    </row>
-    <row r="2897">
-      <c r="A2897" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2897" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2897" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2897" t="inlineStr"/>
-      <c r="E2897" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F2897" t="inlineStr"/>
-      <c r="G2897" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="H2897" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2898">
-      <c r="A2898" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2898" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2898" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMJAN</t>
-        </is>
-      </c>
-      <c r="D2898" t="inlineStr"/>
-      <c r="E2898" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="F2898" t="inlineStr"/>
-      <c r="G2898" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H2898" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2899">
-      <c r="A2899" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2899" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2899" t="inlineStr">
-        <is>
-          <t>PPI YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2899" t="inlineStr"/>
-      <c r="E2899" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
-      <c r="F2899" t="inlineStr"/>
-      <c r="G2899" t="inlineStr">
-        <is>
-          <t>-2.4%</t>
-        </is>
-      </c>
-      <c r="H2899" t="inlineStr">
         <is>
           <t>2</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-08.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-08.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2961"/>
+  <dimension ref="A1:H2936"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79017,10 +79017,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H2474" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2474" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2475">
@@ -79051,10 +79049,8 @@
       </c>
       <c r="F2475" t="inlineStr"/>
       <c r="G2475" t="inlineStr"/>
-      <c r="H2475" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2475" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2476">
@@ -79089,10 +79085,8 @@
           <t>3.8%</t>
         </is>
       </c>
-      <c r="H2476" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2476" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2477">
@@ -79115,10 +79109,8 @@
       <c r="E2477" t="inlineStr"/>
       <c r="F2477" t="inlineStr"/>
       <c r="G2477" t="inlineStr"/>
-      <c r="H2477" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2477" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2478">
@@ -79157,10 +79149,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2478" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2478" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2479">
@@ -79195,10 +79185,8 @@
           <t>1.1%</t>
         </is>
       </c>
-      <c r="H2479" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2479" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2480">
@@ -79237,10 +79225,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2480" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2480" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2481">
@@ -79279,10 +79265,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2481" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2481" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2482">
@@ -79321,10 +79305,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H2482" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2482" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2483">
@@ -79359,10 +79341,8 @@
           <t>98.3</t>
         </is>
       </c>
-      <c r="H2483" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2483" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2484">
@@ -79401,10 +79381,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2484" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2484" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2485">
@@ -79443,10 +79421,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H2485" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2485" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2486">
@@ -79481,10 +79457,8 @@
           <t>2.7%</t>
         </is>
       </c>
-      <c r="H2486" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2486" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2487">
@@ -79523,10 +79497,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H2487" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2487" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2488">
@@ -79565,10 +79537,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2488" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2488" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2489">
@@ -79607,10 +79577,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H2489" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2489" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2490">
@@ -79649,10 +79617,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2490" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2490" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2491">
@@ -79691,10 +79657,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2491" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2491" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2492">
@@ -79733,10 +79697,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2492" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2492" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2493">
@@ -79771,10 +79733,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2493" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2493" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2494">
@@ -79813,10 +79773,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2494" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2494" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2495">
@@ -79855,10 +79813,8 @@
           <t>£ 1.0B</t>
         </is>
       </c>
-      <c r="H2495" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2495" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2496">
@@ -79897,10 +79853,8 @@
           <t>65.1K</t>
         </is>
       </c>
-      <c r="H2496" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2496" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2497">
@@ -79939,10 +79893,8 @@
           <t>£ 2.2B</t>
         </is>
       </c>
-      <c r="H2497" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2497" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2498">
@@ -79981,10 +79933,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2498" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2498" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2499">
@@ -80023,10 +79973,8 @@
           <t>£3.5B</t>
         </is>
       </c>
-      <c r="H2499" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2499" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2500">
@@ -80065,10 +80013,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2500" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2500" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2501">
@@ -80107,10 +80053,8 @@
           <t>6.4%</t>
         </is>
       </c>
-      <c r="H2501" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2501" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2502">
@@ -80145,10 +80089,8 @@
         </is>
       </c>
       <c r="G2502" t="inlineStr"/>
-      <c r="H2502" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2502" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2503">
@@ -80187,10 +80129,8 @@
           <t>93.5</t>
         </is>
       </c>
-      <c r="H2503" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2503" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2504">
@@ -80229,10 +80169,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H2504" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2504" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2505">
@@ -80267,10 +80205,8 @@
           <t>22</t>
         </is>
       </c>
-      <c r="H2505" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2505" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2506">
@@ -80309,10 +80245,8 @@
           <t>-14.5</t>
         </is>
       </c>
-      <c r="H2506" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2506" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2507">
@@ -80347,10 +80281,8 @@
           <t>8</t>
         </is>
       </c>
-      <c r="H2507" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2507" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2508">
@@ -80389,10 +80321,8 @@
           <t>6</t>
         </is>
       </c>
-      <c r="H2508" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2508" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2509">
@@ -80431,10 +80361,8 @@
           <t>5.6%</t>
         </is>
       </c>
-      <c r="H2509" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2509" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2510">
@@ -80465,10 +80393,8 @@
       </c>
       <c r="F2510" t="inlineStr"/>
       <c r="G2510" t="inlineStr"/>
-      <c r="H2510" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2510" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2511">
@@ -80499,10 +80425,8 @@
       </c>
       <c r="F2511" t="inlineStr"/>
       <c r="G2511" t="inlineStr"/>
-      <c r="H2511" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2511" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2512">
@@ -80533,10 +80457,8 @@
       </c>
       <c r="F2512" t="inlineStr"/>
       <c r="G2512" t="inlineStr"/>
-      <c r="H2512" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2512" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2513">
@@ -80575,10 +80497,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2513" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2513" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2514">
@@ -80613,10 +80533,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H2514" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2514" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2515">
@@ -80651,10 +80569,8 @@
           <t>-5.1%</t>
         </is>
       </c>
-      <c r="H2515" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2515" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2516">
@@ -80677,10 +80593,8 @@
       <c r="E2516" t="inlineStr"/>
       <c r="F2516" t="inlineStr"/>
       <c r="G2516" t="inlineStr"/>
-      <c r="H2516" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2516" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2517">
@@ -80711,10 +80625,8 @@
       </c>
       <c r="F2517" t="inlineStr"/>
       <c r="G2517" t="inlineStr"/>
-      <c r="H2517" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2517" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2518">
@@ -80749,10 +80661,8 @@
           <t>56.2</t>
         </is>
       </c>
-      <c r="H2518" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2518" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2519">
@@ -80791,10 +80701,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2519" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2519" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2520">
@@ -80833,10 +80741,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H2520" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2520" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2521">
@@ -80871,10 +80777,8 @@
           <t>ZAR14.0B</t>
         </is>
       </c>
-      <c r="H2521" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2521" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2522">
@@ -80909,10 +80813,8 @@
           <t>-5</t>
         </is>
       </c>
-      <c r="H2522" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2522" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2523">
@@ -80951,10 +80853,8 @@
           <t>-425.0K</t>
         </is>
       </c>
-      <c r="H2523" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2523" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2524">
@@ -80993,10 +80893,8 @@
           <t>7.50%</t>
         </is>
       </c>
-      <c r="H2524" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2524" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2525">
@@ -81031,10 +80929,8 @@
           <t>11.0%</t>
         </is>
       </c>
-      <c r="H2525" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2525" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2526">
@@ -81073,10 +80969,8 @@
           <t>2.75%</t>
         </is>
       </c>
-      <c r="H2526" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2526" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2527">
@@ -81115,10 +81009,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2527" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2527" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2528">
@@ -81153,10 +81045,8 @@
           <t>3.15%</t>
         </is>
       </c>
-      <c r="H2528" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2528" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2529">
@@ -81191,10 +81081,8 @@
           <t>5.0%</t>
         </is>
       </c>
-      <c r="H2529" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2529" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2530">
@@ -81233,10 +81121,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H2530" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2530" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2531">
@@ -81275,10 +81161,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H2531" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2531" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2532">
@@ -81317,10 +81201,8 @@
           <t>228.0K</t>
         </is>
       </c>
-      <c r="H2532" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2532" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2533">
@@ -81359,10 +81241,8 @@
           <t>1885.0K</t>
         </is>
       </c>
-      <c r="H2533" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2533" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2534">
@@ -81401,10 +81281,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H2534" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2534" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2535">
@@ -81439,10 +81317,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2535" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2535" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2536">
@@ -81477,10 +81353,8 @@
           <t>214.0K</t>
         </is>
       </c>
-      <c r="H2536" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2536" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2537">
@@ -81515,10 +81389,8 @@
           <t>1.1%</t>
         </is>
       </c>
-      <c r="H2537" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2537" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2538">
@@ -81553,10 +81425,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2538" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2538" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2539">
@@ -81579,10 +81449,8 @@
       <c r="E2539" t="inlineStr"/>
       <c r="F2539" t="inlineStr"/>
       <c r="G2539" t="inlineStr"/>
-      <c r="H2539" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2539" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2540">
@@ -81617,10 +81485,8 @@
           <t>10.6%</t>
         </is>
       </c>
-      <c r="H2540" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2540" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2541">
@@ -81655,10 +81521,8 @@
           <t>12.8%</t>
         </is>
       </c>
-      <c r="H2541" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2541" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2542">
@@ -81697,10 +81561,8 @@
           <t>-0.3%</t>
         </is>
       </c>
-      <c r="H2542" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2542" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2543">
@@ -81735,10 +81597,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H2543" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2543" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2544">
@@ -81769,10 +81629,8 @@
         </is>
       </c>
       <c r="G2544" t="inlineStr"/>
-      <c r="H2544" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2544" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2545">
@@ -81799,10 +81657,8 @@
       </c>
       <c r="F2545" t="inlineStr"/>
       <c r="G2545" t="inlineStr"/>
-      <c r="H2545" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2545" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2546">
@@ -81829,10 +81685,8 @@
       </c>
       <c r="F2546" t="inlineStr"/>
       <c r="G2546" t="inlineStr"/>
-      <c r="H2546" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2546" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2547">
@@ -81859,10 +81713,8 @@
       </c>
       <c r="F2547" t="inlineStr"/>
       <c r="G2547" t="inlineStr"/>
-      <c r="H2547" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2547" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2548">
@@ -81889,10 +81741,8 @@
       </c>
       <c r="F2548" t="inlineStr"/>
       <c r="G2548" t="inlineStr"/>
-      <c r="H2548" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2548" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2549">
@@ -81919,10 +81769,8 @@
       </c>
       <c r="F2549" t="inlineStr"/>
       <c r="G2549" t="inlineStr"/>
-      <c r="H2549" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2549" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2550">
@@ -81957,10 +81805,8 @@
           <t>2.50%</t>
         </is>
       </c>
-      <c r="H2550" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2550" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2551">
@@ -81995,10 +81841,8 @@
           <t>1.25</t>
         </is>
       </c>
-      <c r="H2551" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2551" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2552">
@@ -82033,10 +81877,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H2552" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2552" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2553">
@@ -82067,10 +81909,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H2553" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2553" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2554">
@@ -82101,10 +81941,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H2554" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2554" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2555">
@@ -82139,10 +81977,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2555" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2555" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2556">
@@ -82177,10 +82013,8 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H2556" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2556" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2557">
@@ -82211,10 +82045,8 @@
           <t>-1.6%</t>
         </is>
       </c>
-      <c r="H2557" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2557" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2558">
@@ -82245,10 +82077,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2558" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2558" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2559">
@@ -82283,10 +82113,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2559" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2559" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2560">
@@ -82321,10 +82149,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2560" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2560" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2561">
@@ -82355,10 +82181,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H2561" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2561" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2562">
@@ -82393,10 +82217,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2562" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2562" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2563">
@@ -82427,10 +82249,8 @@
           <t>5.7%</t>
         </is>
       </c>
-      <c r="H2563" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2563" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2564">
@@ -82461,10 +82281,8 @@
           <t>S$ 818.2B</t>
         </is>
       </c>
-      <c r="H2564" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2564" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2565">
@@ -82491,10 +82309,8 @@
       </c>
       <c r="F2565" t="inlineStr"/>
       <c r="G2565" t="inlineStr"/>
-      <c r="H2565" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2565" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2566">
@@ -82521,10 +82337,8 @@
       </c>
       <c r="F2566" t="inlineStr"/>
       <c r="G2566" t="inlineStr"/>
-      <c r="H2566" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2566" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2567">
@@ -82547,10 +82361,8 @@
       </c>
       <c r="F2567" t="inlineStr"/>
       <c r="G2567" t="inlineStr"/>
-      <c r="H2567" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2567" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2568">
@@ -82573,10 +82385,8 @@
       </c>
       <c r="F2568" t="inlineStr"/>
       <c r="G2568" t="inlineStr"/>
-      <c r="H2568" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2568" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2569">
@@ -82603,10 +82413,8 @@
           <t>MXN-1120.0B</t>
         </is>
       </c>
-      <c r="H2569" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2569" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2570">
@@ -82633,10 +82441,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H2570" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2570" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2571">
@@ -82659,10 +82465,8 @@
       </c>
       <c r="F2571" t="inlineStr"/>
       <c r="G2571" t="inlineStr"/>
-      <c r="H2571" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2571" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2572">
@@ -82711,10 +82515,8 @@
           <t>-3.3%</t>
         </is>
       </c>
-      <c r="H2573" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2573" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2574">
@@ -82745,10 +82547,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H2574" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2574" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2575">
@@ -82779,10 +82579,8 @@
           <t>12</t>
         </is>
       </c>
-      <c r="H2575" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2575" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2576">
@@ -82817,10 +82615,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2576" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2576" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2577">
@@ -82855,10 +82651,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H2577" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2577" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2578">
@@ -82889,10 +82683,8 @@
           <t>$-8.82B</t>
         </is>
       </c>
-      <c r="H2578" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2578" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2579">
@@ -82927,10 +82719,8 @@
           <t>$ 23.46B</t>
         </is>
       </c>
-      <c r="H2579" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2579" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2580">
@@ -82961,10 +82751,8 @@
           <t>$32.29B</t>
         </is>
       </c>
-      <c r="H2580" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2580" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2581">
@@ -82995,10 +82783,8 @@
           <t>$ 23.5B</t>
         </is>
       </c>
-      <c r="H2581" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2581" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2582">
@@ -83033,10 +82819,8 @@
           <t>0.9%</t>
         </is>
       </c>
-      <c r="H2582" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2582" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2583">
@@ -83071,10 +82855,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H2583" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2583" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2584">
@@ -83109,10 +82891,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H2584" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2584" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2585">
@@ -83147,10 +82927,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2585" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2585" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2586">
@@ -83185,10 +82963,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2586" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2586" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2587">
@@ -83223,10 +82999,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H2587" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2587" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2588">
@@ -83257,10 +83031,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2588" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2588" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2589">
@@ -83291,10 +83063,8 @@
           <t>-4.3%</t>
         </is>
       </c>
-      <c r="H2589" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2589" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2590">
@@ -83325,10 +83095,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2590" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2590" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2591">
@@ -83363,10 +83131,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2591" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2591" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2592">
@@ -83393,10 +83159,8 @@
       </c>
       <c r="F2592" t="inlineStr"/>
       <c r="G2592" t="inlineStr"/>
-      <c r="H2592" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2592" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2593">
@@ -83431,10 +83195,8 @@
           <t>7.0K</t>
         </is>
       </c>
-      <c r="H2593" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2593" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2594">
@@ -83465,10 +83227,8 @@
           <t>2.876M</t>
         </is>
       </c>
-      <c r="H2594" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2594" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2595">
@@ -83503,10 +83263,8 @@
           <t>6.2%</t>
         </is>
       </c>
-      <c r="H2595" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2595" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2596">
@@ -83529,10 +83287,8 @@
       <c r="E2596" t="inlineStr"/>
       <c r="F2596" t="inlineStr"/>
       <c r="G2596" t="inlineStr"/>
-      <c r="H2596" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2596" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2597">
@@ -83559,10 +83315,8 @@
       </c>
       <c r="F2597" t="inlineStr"/>
       <c r="G2597" t="inlineStr"/>
-      <c r="H2597" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2597" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2598">
@@ -83589,10 +83343,8 @@
       </c>
       <c r="F2598" t="inlineStr"/>
       <c r="G2598" t="inlineStr"/>
-      <c r="H2598" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2598" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2599">
@@ -83619,10 +83371,8 @@
       </c>
       <c r="F2599" t="inlineStr"/>
       <c r="G2599" t="inlineStr"/>
-      <c r="H2599" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2599" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2600">
@@ -83649,10 +83399,8 @@
       </c>
       <c r="F2600" t="inlineStr"/>
       <c r="G2600" t="inlineStr"/>
-      <c r="H2600" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2600" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2601">
@@ -83679,10 +83427,8 @@
       </c>
       <c r="F2601" t="inlineStr"/>
       <c r="G2601" t="inlineStr"/>
-      <c r="H2601" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2601" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2602">
@@ -83709,10 +83455,8 @@
       </c>
       <c r="F2602" t="inlineStr"/>
       <c r="G2602" t="inlineStr"/>
-      <c r="H2602" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2602" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2603">
@@ -83739,10 +83483,8 @@
       </c>
       <c r="F2603" t="inlineStr"/>
       <c r="G2603" t="inlineStr"/>
-      <c r="H2603" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2603" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2604">
@@ -83769,10 +83511,8 @@
       </c>
       <c r="F2604" t="inlineStr"/>
       <c r="G2604" t="inlineStr"/>
-      <c r="H2604" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2604" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2605">
@@ -83799,10 +83539,8 @@
       </c>
       <c r="F2605" t="inlineStr"/>
       <c r="G2605" t="inlineStr"/>
-      <c r="H2605" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2605" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2606">
@@ -83829,10 +83567,8 @@
       </c>
       <c r="F2606" t="inlineStr"/>
       <c r="G2606" t="inlineStr"/>
-      <c r="H2606" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2606" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2607">
@@ -83859,10 +83595,8 @@
       </c>
       <c r="F2607" t="inlineStr"/>
       <c r="G2607" t="inlineStr"/>
-      <c r="H2607" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2607" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2608">
@@ -83889,10 +83623,8 @@
       </c>
       <c r="F2608" t="inlineStr"/>
       <c r="G2608" t="inlineStr"/>
-      <c r="H2608" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2608" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2609">
@@ -83923,10 +83655,8 @@
           <t>€5.0B</t>
         </is>
       </c>
-      <c r="H2609" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2609" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2610">
@@ -83957,10 +83687,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2610" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2610" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2611">
@@ -83991,10 +83719,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2611" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2611" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2612">
@@ -84025,10 +83751,8 @@
           <t>INR-9700.0B</t>
         </is>
       </c>
-      <c r="H2612" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2612" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2613">
@@ -84059,10 +83783,8 @@
           <t>77.9%</t>
         </is>
       </c>
-      <c r="H2613" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2613" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2614">
@@ -84097,10 +83819,8 @@
           <t>BRL-75.0B</t>
         </is>
       </c>
-      <c r="H2614" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2614" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2615">
@@ -84127,10 +83847,8 @@
       </c>
       <c r="F2615" t="inlineStr"/>
       <c r="G2615" t="inlineStr"/>
-      <c r="H2615" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2615" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2616">
@@ -84157,10 +83875,8 @@
       </c>
       <c r="F2616" t="inlineStr"/>
       <c r="G2616" t="inlineStr"/>
-      <c r="H2616" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2616" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2617">
@@ -84187,10 +83903,8 @@
       </c>
       <c r="F2617" t="inlineStr"/>
       <c r="G2617" t="inlineStr"/>
-      <c r="H2617" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2617" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2618">
@@ -84221,10 +83935,8 @@
           <t>4.8%</t>
         </is>
       </c>
-      <c r="H2618" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2618" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2619">
@@ -84259,10 +83971,8 @@
           <t>6.1%</t>
         </is>
       </c>
-      <c r="H2619" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2619" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2620">
@@ -84293,10 +84003,8 @@
           <t>ZAR 27.0B</t>
         </is>
       </c>
-      <c r="H2620" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2620" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2621">
@@ -84331,10 +84039,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H2621" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2621" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2622">
@@ -84369,10 +84075,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2622" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2622" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2623">
@@ -84407,10 +84111,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H2623" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2623" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2624">
@@ -84445,10 +84147,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2624" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2624" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2625">
@@ -84483,10 +84183,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H2625" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2625" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2626">
@@ -84517,10 +84215,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2626" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2626" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2627">
@@ -84555,10 +84251,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2627" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2627" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2628">
@@ -84593,10 +84287,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2628" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2628" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2629">
@@ -84631,10 +84323,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2629" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2629" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2630">
@@ -84665,10 +84355,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2630" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2630" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2631">
@@ -84699,10 +84387,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2631" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2631" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2632">
@@ -84737,10 +84423,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2632" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2632" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2633">
@@ -84763,10 +84447,8 @@
       <c r="E2633" t="inlineStr"/>
       <c r="F2633" t="inlineStr"/>
       <c r="G2633" t="inlineStr"/>
-      <c r="H2633" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2633" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2634">
@@ -84801,10 +84483,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2634" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2634" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2635">
@@ -84839,10 +84519,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H2635" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2635" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2636">
@@ -84877,10 +84555,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H2636" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2636" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2637">
@@ -84915,10 +84591,8 @@
           <t>37.2</t>
         </is>
       </c>
-      <c r="H2637" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2637" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2638">
@@ -84949,10 +84623,8 @@
           <t>C$-1.9B</t>
         </is>
       </c>
-      <c r="H2638" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2638" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2639">
@@ -84979,10 +84651,8 @@
       </c>
       <c r="F2639" t="inlineStr"/>
       <c r="G2639" t="inlineStr"/>
-      <c r="H2639" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2639" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2640">
@@ -85009,10 +84679,8 @@
       </c>
       <c r="F2640" t="inlineStr"/>
       <c r="G2640" t="inlineStr"/>
-      <c r="H2640" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2640" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2641">
@@ -85043,10 +84711,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2641" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2641" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2642">
@@ -85077,10 +84743,8 @@
           <t>$0.9B</t>
         </is>
       </c>
-      <c r="H2642" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2642" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2643">
@@ -85111,10 +84775,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H2643" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2643" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2644">
@@ -85141,10 +84803,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2644" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2644" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2645">
@@ -85171,10 +84831,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2645" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2645" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2646">
@@ -85201,10 +84859,8 @@
           <t>80</t>
         </is>
       </c>
-      <c r="H2646" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2646" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2647">
@@ -85231,10 +84887,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H2647" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2647" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2648">
@@ -85261,10 +84915,8 @@
           <t>-4.0%</t>
         </is>
       </c>
-      <c r="H2648" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2648" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2649">
@@ -85291,10 +84943,8 @@
           <t>20.7%</t>
         </is>
       </c>
-      <c r="H2649" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2649" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2650">
@@ -85335,10 +84985,8 @@
       </c>
       <c r="F2651" t="inlineStr"/>
       <c r="G2651" t="inlineStr"/>
-      <c r="H2651" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2651" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2652">
@@ -85369,10 +85017,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H2652" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2652" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2653">
@@ -85403,10 +85049,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H2653" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2653" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2654">
@@ -85437,10 +85081,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2654" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2654" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2655">
@@ -85463,10 +85105,8 @@
       <c r="E2655" t="inlineStr"/>
       <c r="F2655" t="inlineStr"/>
       <c r="G2655" t="inlineStr"/>
-      <c r="H2655" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2655" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2656">
@@ -85497,10 +85137,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H2656" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2656" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2657">
@@ -85535,10 +85173,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2657" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2657" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2658">
@@ -85565,10 +85201,8 @@
       </c>
       <c r="F2658" t="inlineStr"/>
       <c r="G2658" t="inlineStr"/>
-      <c r="H2658" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2658" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2659">
@@ -85595,10 +85229,8 @@
       </c>
       <c r="F2659" t="inlineStr"/>
       <c r="G2659" t="inlineStr"/>
-      <c r="H2659" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2659" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2660">
@@ -85629,10 +85261,8 @@
           <t>51.6</t>
         </is>
       </c>
-      <c r="H2660" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2660" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2661">
@@ -85667,10 +85297,8 @@
           <t>48.8</t>
         </is>
       </c>
-      <c r="H2661" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2661" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2662">
@@ -85701,10 +85329,8 @@
           <t>49.5</t>
         </is>
       </c>
-      <c r="H2662" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2662" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2663">
@@ -85739,10 +85365,8 @@
           <t>50.5</t>
         </is>
       </c>
-      <c r="H2663" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2663" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2664">
@@ -85773,10 +85397,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H2664" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2664" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2665">
@@ -85807,10 +85429,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H2665" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2665" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2666">
@@ -85841,10 +85461,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2666" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2666" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2667">
@@ -85875,10 +85493,8 @@
           <t>18.0%</t>
         </is>
       </c>
-      <c r="H2667" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2667" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2668">
@@ -85927,10 +85543,8 @@
           <t>58</t>
         </is>
       </c>
-      <c r="H2669" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2669" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2670">
@@ -85957,10 +85571,8 @@
       </c>
       <c r="F2670" t="inlineStr"/>
       <c r="G2670" t="inlineStr"/>
-      <c r="H2670" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2670" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2671">
@@ -85987,10 +85599,8 @@
       </c>
       <c r="F2671" t="inlineStr"/>
       <c r="G2671" t="inlineStr"/>
-      <c r="H2671" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2671" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2672">
@@ -86021,10 +85631,8 @@
           <t>50.6</t>
         </is>
       </c>
-      <c r="H2672" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2672" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2673">
@@ -86059,10 +85667,8 @@
           <t>4.2%</t>
         </is>
       </c>
-      <c r="H2673" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2673" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2674">
@@ -86097,10 +85703,8 @@
           <t>41.0%</t>
         </is>
       </c>
-      <c r="H2674" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2674" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2675">
@@ -86131,10 +85735,8 @@
           <t>49.3</t>
         </is>
       </c>
-      <c r="H2675" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2675" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2676">
@@ -86165,10 +85767,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2676" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2676" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2677">
@@ -86199,10 +85799,8 @@
           <t>27.0%</t>
         </is>
       </c>
-      <c r="H2677" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2677" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2678">
@@ -86229,10 +85827,8 @@
       </c>
       <c r="F2678" t="inlineStr"/>
       <c r="G2678" t="inlineStr"/>
-      <c r="H2678" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2678" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2679">
@@ -86259,10 +85855,8 @@
       </c>
       <c r="F2679" t="inlineStr"/>
       <c r="G2679" t="inlineStr"/>
-      <c r="H2679" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2679" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2680">
@@ -86289,10 +85883,8 @@
       </c>
       <c r="F2680" t="inlineStr"/>
       <c r="G2680" t="inlineStr"/>
-      <c r="H2680" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2680" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2681">
@@ -86319,10 +85911,8 @@
       </c>
       <c r="F2681" t="inlineStr"/>
       <c r="G2681" t="inlineStr"/>
-      <c r="H2681" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2681" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2682">
@@ -86357,10 +85947,8 @@
           <t>45.3</t>
         </is>
       </c>
-      <c r="H2682" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2682" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2683">
@@ -86395,10 +85983,8 @@
           <t>44.1</t>
         </is>
       </c>
-      <c r="H2683" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2683" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2684">
@@ -86433,10 +86019,8 @@
           <t>46.1</t>
         </is>
       </c>
-      <c r="H2684" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2684" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2685">
@@ -86467,10 +86051,8 @@
           <t>47</t>
         </is>
       </c>
-      <c r="H2685" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2685" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2686">
@@ -86505,10 +86087,8 @@
           <t>48.2</t>
         </is>
       </c>
-      <c r="H2686" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2686" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2687">
@@ -86535,10 +86115,8 @@
       </c>
       <c r="F2687" t="inlineStr"/>
       <c r="G2687" t="inlineStr"/>
-      <c r="H2687" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2687" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2688">
@@ -86565,10 +86143,8 @@
       </c>
       <c r="F2688" t="inlineStr"/>
       <c r="G2688" t="inlineStr"/>
-      <c r="H2688" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2688" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2689">
@@ -86595,10 +86171,8 @@
       </c>
       <c r="F2689" t="inlineStr"/>
       <c r="G2689" t="inlineStr"/>
-      <c r="H2689" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2689" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2690">
@@ -86625,10 +86199,8 @@
       </c>
       <c r="F2690" t="inlineStr"/>
       <c r="G2690" t="inlineStr"/>
-      <c r="H2690" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2690" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2691">
@@ -86655,10 +86227,8 @@
       </c>
       <c r="F2691" t="inlineStr"/>
       <c r="G2691" t="inlineStr"/>
-      <c r="H2691" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2691" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2692">
@@ -86685,10 +86255,8 @@
       </c>
       <c r="F2692" t="inlineStr"/>
       <c r="G2692" t="inlineStr"/>
-      <c r="H2692" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2692" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2693">
@@ -86715,10 +86283,8 @@
       </c>
       <c r="F2693" t="inlineStr"/>
       <c r="G2693" t="inlineStr"/>
-      <c r="H2693" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2693" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2694">
@@ -86745,10 +86311,8 @@
       </c>
       <c r="F2694" t="inlineStr"/>
       <c r="G2694" t="inlineStr"/>
-      <c r="H2694" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2694" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2695">
@@ -86779,10 +86343,8 @@
           <t>$ 230B</t>
         </is>
       </c>
-      <c r="H2695" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2695" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2696">
@@ -86813,10 +86375,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H2696" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2696" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2697">
@@ -86847,10 +86407,8 @@
           <t>51.4</t>
         </is>
       </c>
-      <c r="H2697" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2697" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2698">
@@ -86877,10 +86435,8 @@
       </c>
       <c r="F2698" t="inlineStr"/>
       <c r="G2698" t="inlineStr"/>
-      <c r="H2698" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2698" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2699">
@@ -86907,10 +86463,8 @@
       </c>
       <c r="F2699" t="inlineStr"/>
       <c r="G2699" t="inlineStr"/>
-      <c r="H2699" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2699" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2700">
@@ -86937,10 +86491,8 @@
       </c>
       <c r="F2700" t="inlineStr"/>
       <c r="G2700" t="inlineStr"/>
-      <c r="H2700" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2700" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2701">
@@ -86971,10 +86523,8 @@
           <t>52.3</t>
         </is>
       </c>
-      <c r="H2701" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2701" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2702">
@@ -87009,10 +86559,8 @@
           <t>50.1</t>
         </is>
       </c>
-      <c r="H2702" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2702" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2703">
@@ -87043,10 +86591,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H2703" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2703" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2704">
@@ -87077,10 +86623,8 @@
           <t>47</t>
         </is>
       </c>
-      <c r="H2704" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2704" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2705">
@@ -87111,10 +86655,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2705" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2705" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2706">
@@ -87145,10 +86687,8 @@
           <t>52.8</t>
         </is>
       </c>
-      <c r="H2706" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2706" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2707">
@@ -87179,10 +86719,8 @@
           <t>53</t>
         </is>
       </c>
-      <c r="H2707" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2707" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2708">
@@ -87209,10 +86747,8 @@
       </c>
       <c r="F2708" t="inlineStr"/>
       <c r="G2708" t="inlineStr"/>
-      <c r="H2708" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2708" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2709">
@@ -87239,10 +86775,8 @@
       </c>
       <c r="F2709" t="inlineStr"/>
       <c r="G2709" t="inlineStr"/>
-      <c r="H2709" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2709" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2710">
@@ -87265,10 +86799,8 @@
       <c r="E2710" t="inlineStr"/>
       <c r="F2710" t="inlineStr"/>
       <c r="G2710" t="inlineStr"/>
-      <c r="H2710" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2710" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2711">
@@ -87291,10 +86823,8 @@
       <c r="E2711" t="inlineStr"/>
       <c r="F2711" t="inlineStr"/>
       <c r="G2711" t="inlineStr"/>
-      <c r="H2711" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2711" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2712">
@@ -87321,10 +86851,8 @@
       </c>
       <c r="F2712" t="inlineStr"/>
       <c r="G2712" t="inlineStr"/>
-      <c r="H2712" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2712" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2713">
@@ -87351,10 +86879,8 @@
       </c>
       <c r="F2713" t="inlineStr"/>
       <c r="G2713" t="inlineStr"/>
-      <c r="H2713" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2713" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2714">
@@ -87385,10 +86911,8 @@
           <t>58</t>
         </is>
       </c>
-      <c r="H2714" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2714" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2715">
@@ -87407,10 +86931,8 @@
       <c r="E2715" t="inlineStr"/>
       <c r="F2715" t="inlineStr"/>
       <c r="G2715" t="inlineStr"/>
-      <c r="H2715" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2715" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2716">
@@ -87437,10 +86959,8 @@
           <t>43.0K</t>
         </is>
       </c>
-      <c r="H2716" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2716" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2717">
@@ -87481,10 +87001,8 @@
       </c>
       <c r="F2718" t="inlineStr"/>
       <c r="G2718" t="inlineStr"/>
-      <c r="H2718" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2718" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2719">
@@ -87511,10 +87029,8 @@
       </c>
       <c r="F2719" t="inlineStr"/>
       <c r="G2719" t="inlineStr"/>
-      <c r="H2719" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2719" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2720">
@@ -87541,10 +87057,8 @@
       </c>
       <c r="F2720" t="inlineStr"/>
       <c r="G2720" t="inlineStr"/>
-      <c r="H2720" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2720" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2721">
@@ -87571,10 +87085,8 @@
       </c>
       <c r="F2721" t="inlineStr"/>
       <c r="G2721" t="inlineStr"/>
-      <c r="H2721" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2721" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2722">
@@ -87605,10 +87117,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2722" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2722" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2723">
@@ -87635,10 +87145,8 @@
       </c>
       <c r="F2723" t="inlineStr"/>
       <c r="G2723" t="inlineStr"/>
-      <c r="H2723" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2723" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2724">
@@ -87661,10 +87169,8 @@
       <c r="E2724" t="inlineStr"/>
       <c r="F2724" t="inlineStr"/>
       <c r="G2724" t="inlineStr"/>
-      <c r="H2724" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2724" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2725">
@@ -87695,10 +87201,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2725" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2725" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2726">
@@ -87729,10 +87233,8 @@
           <t>8.2%</t>
         </is>
       </c>
-      <c r="H2726" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2726" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2727">
@@ -87763,10 +87265,8 @@
           <t>50.8</t>
         </is>
       </c>
-      <c r="H2727" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2727" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2728">
@@ -87793,10 +87293,8 @@
       </c>
       <c r="F2728" t="inlineStr"/>
       <c r="G2728" t="inlineStr"/>
-      <c r="H2728" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2728" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2729">
@@ -87827,10 +87325,8 @@
           <t>49.7</t>
         </is>
       </c>
-      <c r="H2729" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2729" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2730">
@@ -87861,10 +87357,8 @@
           <t>7.8M</t>
         </is>
       </c>
-      <c r="H2730" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2730" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2731">
@@ -87895,10 +87389,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H2731" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2731" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2732">
@@ -87929,10 +87421,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2732" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2732" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2733">
@@ -87963,10 +87453,8 @@
           <t>3.1M</t>
         </is>
       </c>
-      <c r="H2733" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2733" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2734">
@@ -87997,10 +87485,8 @@
           <t>52.3</t>
         </is>
       </c>
-      <c r="H2734" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2734" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2735">
@@ -88023,10 +87509,8 @@
       <c r="E2735" t="inlineStr"/>
       <c r="F2735" t="inlineStr"/>
       <c r="G2735" t="inlineStr"/>
-      <c r="H2735" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2735" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2736">
@@ -88049,10 +87533,8 @@
       <c r="E2736" t="inlineStr"/>
       <c r="F2736" t="inlineStr"/>
       <c r="G2736" t="inlineStr"/>
-      <c r="H2736" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2736" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2737">
@@ -88079,10 +87561,8 @@
       </c>
       <c r="F2737" t="inlineStr"/>
       <c r="G2737" t="inlineStr"/>
-      <c r="H2737" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2737" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2738">
@@ -88109,10 +87589,8 @@
       </c>
       <c r="F2738" t="inlineStr"/>
       <c r="G2738" t="inlineStr"/>
-      <c r="H2738" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2738" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2739">
@@ -88143,10 +87621,8 @@
           <t>50.4</t>
         </is>
       </c>
-      <c r="H2739" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2739" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2740">
@@ -88177,10 +87653,8 @@
           <t>50.3</t>
         </is>
       </c>
-      <c r="H2740" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2740" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2741">
@@ -88207,10 +87681,8 @@
       </c>
       <c r="F2741" t="inlineStr"/>
       <c r="G2741" t="inlineStr"/>
-      <c r="H2741" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2741" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2742">
@@ -88237,10 +87709,8 @@
       </c>
       <c r="F2742" t="inlineStr"/>
       <c r="G2742" t="inlineStr"/>
-      <c r="H2742" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2742" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2743">
@@ -88271,10 +87741,8 @@
           <t>2.1%</t>
         </is>
       </c>
-      <c r="H2743" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2743" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2744">
@@ -88301,10 +87769,8 @@
       </c>
       <c r="F2744" t="inlineStr"/>
       <c r="G2744" t="inlineStr"/>
-      <c r="H2744" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2744" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2745">
@@ -88339,10 +87805,8 @@
           <t>52.7</t>
         </is>
       </c>
-      <c r="H2745" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2745" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2746">
@@ -88373,10 +87837,8 @@
           <t>51.1</t>
         </is>
       </c>
-      <c r="H2746" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2746" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2747">
@@ -88403,10 +87865,8 @@
       </c>
       <c r="F2747" t="inlineStr"/>
       <c r="G2747" t="inlineStr"/>
-      <c r="H2747" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2747" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2748">
@@ -88437,10 +87897,8 @@
           <t>51.8</t>
         </is>
       </c>
-      <c r="H2748" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2748" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2749">
@@ -88471,10 +87929,8 @@
           <t>51.1</t>
         </is>
       </c>
-      <c r="H2749" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2749" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2750">
@@ -88505,10 +87961,8 @@
           <t>5.2%</t>
         </is>
       </c>
-      <c r="H2750" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2750" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2751">
@@ -88539,10 +87993,8 @@
           <t>5.2%</t>
         </is>
       </c>
-      <c r="H2751" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2751" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2752">
@@ -88573,10 +88025,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2752" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2752" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2753">
@@ -88599,10 +88049,8 @@
           <t>$-9.4B</t>
         </is>
       </c>
-      <c r="H2753" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2753" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2754">
@@ -88625,10 +88073,8 @@
           <t>$24.3B</t>
         </is>
       </c>
-      <c r="H2754" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2754" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2755">
@@ -88651,10 +88097,8 @@
           <t>$33.7B</t>
         </is>
       </c>
-      <c r="H2755" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2755" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2756">
@@ -88677,10 +88121,8 @@
       </c>
       <c r="F2756" t="inlineStr"/>
       <c r="G2756" t="inlineStr"/>
-      <c r="H2756" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2756" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2757">
@@ -88729,10 +88171,8 @@
           <t>57.9</t>
         </is>
       </c>
-      <c r="H2758" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2758" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2759">
@@ -88767,10 +88207,8 @@
           <t>56.8</t>
         </is>
       </c>
-      <c r="H2759" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2759" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2760">
@@ -88801,10 +88239,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2760" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2760" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2761">
@@ -88835,10 +88271,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H2761" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2761" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2762">
@@ -88869,10 +88303,8 @@
           <t>50.9</t>
         </is>
       </c>
-      <c r="H2762" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2762" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2763">
@@ -88903,10 +88335,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="H2763" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2763" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2764">
@@ -88933,10 +88363,8 @@
       </c>
       <c r="F2764" t="inlineStr"/>
       <c r="G2764" t="inlineStr"/>
-      <c r="H2764" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2764" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2765">
@@ -88967,10 +88395,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2765" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2765" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2766">
@@ -88997,10 +88423,8 @@
       </c>
       <c r="F2766" t="inlineStr"/>
       <c r="G2766" t="inlineStr"/>
-      <c r="H2766" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2766" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2767">
@@ -89027,10 +88451,8 @@
       </c>
       <c r="F2767" t="inlineStr"/>
       <c r="G2767" t="inlineStr"/>
-      <c r="H2767" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2767" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2768">
@@ -89057,10 +88479,8 @@
       </c>
       <c r="F2768" t="inlineStr"/>
       <c r="G2768" t="inlineStr"/>
-      <c r="H2768" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2768" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2769">
@@ -89087,10 +88507,8 @@
       </c>
       <c r="F2769" t="inlineStr"/>
       <c r="G2769" t="inlineStr"/>
-      <c r="H2769" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2769" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2770">
@@ -89125,10 +88543,8 @@
           <t>48.9</t>
         </is>
       </c>
-      <c r="H2770" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2770" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2771">
@@ -89163,10 +88579,8 @@
           <t>48.3</t>
         </is>
       </c>
-      <c r="H2771" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2771" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2772">
@@ -89201,10 +88615,8 @@
           <t>50.1</t>
         </is>
       </c>
-      <c r="H2772" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2772" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2773">
@@ -89239,10 +88651,8 @@
           <t>52.5</t>
         </is>
       </c>
-      <c r="H2773" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2773" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2774">
@@ -89277,10 +88687,8 @@
           <t>50.2</t>
         </is>
       </c>
-      <c r="H2774" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2774" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2775">
@@ -89315,10 +88723,8 @@
           <t>51.4</t>
         </is>
       </c>
-      <c r="H2775" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2775" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2776">
@@ -89349,10 +88755,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2776" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2776" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2777">
@@ -89383,10 +88787,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H2777" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2777" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2778">
@@ -89417,10 +88819,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H2778" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2778" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2779">
@@ -89455,10 +88855,8 @@
           <t>51.2</t>
         </is>
       </c>
-      <c r="H2779" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2779" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2780">
@@ -89493,10 +88891,8 @@
           <t>50.9</t>
         </is>
       </c>
-      <c r="H2780" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2780" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2781">
@@ -89527,10 +88923,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2781" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2781" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2782">
@@ -89561,10 +88955,8 @@
           <t>1%</t>
         </is>
       </c>
-      <c r="H2782" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2782" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2783">
@@ -89591,10 +88983,8 @@
       </c>
       <c r="F2783" t="inlineStr"/>
       <c r="G2783" t="inlineStr"/>
-      <c r="H2783" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2783" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2784">
@@ -89621,10 +89011,8 @@
       </c>
       <c r="F2784" t="inlineStr"/>
       <c r="G2784" t="inlineStr"/>
-      <c r="H2784" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2784" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2785">
@@ -89651,10 +89039,8 @@
       </c>
       <c r="F2785" t="inlineStr"/>
       <c r="G2785" t="inlineStr"/>
-      <c r="H2785" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2785" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2786">
@@ -89681,10 +89067,8 @@
       </c>
       <c r="F2786" t="inlineStr"/>
       <c r="G2786" t="inlineStr"/>
-      <c r="H2786" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2786" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2787">
@@ -89715,10 +89099,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2787" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2787" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2788">
@@ -89749,10 +89131,8 @@
           <t>3.7%</t>
         </is>
       </c>
-      <c r="H2788" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2788" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2789">
@@ -89783,10 +89163,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2789" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2789" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2790">
@@ -89817,10 +89195,8 @@
           <t>-1.4%</t>
         </is>
       </c>
-      <c r="H2790" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2790" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2791">
@@ -89847,10 +89223,8 @@
       </c>
       <c r="F2791" t="inlineStr"/>
       <c r="G2791" t="inlineStr"/>
-      <c r="H2791" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2791" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2792">
@@ -89877,10 +89251,8 @@
       </c>
       <c r="F2792" t="inlineStr"/>
       <c r="G2792" t="inlineStr"/>
-      <c r="H2792" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2792" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2793">
@@ -89907,10 +89279,8 @@
       </c>
       <c r="F2793" t="inlineStr"/>
       <c r="G2793" t="inlineStr"/>
-      <c r="H2793" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2793" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2794">
@@ -89937,10 +89307,8 @@
       </c>
       <c r="F2794" t="inlineStr"/>
       <c r="G2794" t="inlineStr"/>
-      <c r="H2794" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2794" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2795">
@@ -89967,10 +89335,8 @@
       </c>
       <c r="F2795" t="inlineStr"/>
       <c r="G2795" t="inlineStr"/>
-      <c r="H2795" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2795" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2796">
@@ -90001,10 +89367,8 @@
           <t>50.2</t>
         </is>
       </c>
-      <c r="H2796" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2796" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2797">
@@ -90035,10 +89399,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="H2797" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2797" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2798">
@@ -90069,10 +89431,8 @@
           <t>115.0K</t>
         </is>
       </c>
-      <c r="H2798" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2798" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2799">
@@ -90103,10 +89463,8 @@
           <t>C$ -1.3B</t>
         </is>
       </c>
-      <c r="H2799" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2799" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2800">
@@ -90137,10 +89495,8 @@
           <t>C$ 65.8B</t>
         </is>
       </c>
-      <c r="H2800" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2800" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2801">
@@ -90171,10 +89527,8 @@
           <t>C$ 64.5B</t>
         </is>
       </c>
-      <c r="H2801" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2801" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2802">
@@ -90205,10 +89559,8 @@
           <t>$ -103.0B</t>
         </is>
       </c>
-      <c r="H2802" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2802" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2803">
@@ -90239,10 +89591,8 @@
           <t>$ 260B</t>
         </is>
       </c>
-      <c r="H2803" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2803" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2804">
@@ -90273,10 +89623,8 @@
           <t>$ 363.0B</t>
         </is>
       </c>
-      <c r="H2804" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2804" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2805">
@@ -90299,10 +89647,8 @@
       <c r="E2805" t="inlineStr"/>
       <c r="F2805" t="inlineStr"/>
       <c r="G2805" t="inlineStr"/>
-      <c r="H2805" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2805" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2806">
@@ -90333,10 +89679,8 @@
           <t>49.5</t>
         </is>
       </c>
-      <c r="H2806" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2806" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2807">
@@ -90367,10 +89711,8 @@
           <t>49</t>
         </is>
       </c>
-      <c r="H2807" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2807" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2808">
@@ -90405,10 +89747,8 @@
           <t>52.4</t>
         </is>
       </c>
-      <c r="H2808" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2808" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2809">
@@ -90443,10 +89783,8 @@
           <t>52.8</t>
         </is>
       </c>
-      <c r="H2809" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2809" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2810">
@@ -90477,10 +89815,8 @@
           <t>54</t>
         </is>
       </c>
-      <c r="H2810" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2810" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2811">
@@ -90511,10 +89847,8 @@
           <t>58.1</t>
         </is>
       </c>
-      <c r="H2811" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2811" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2812">
@@ -90545,10 +89879,8 @@
           <t>51.3</t>
         </is>
       </c>
-      <c r="H2812" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2812" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2813">
@@ -90579,10 +89911,8 @@
           <t>54.1</t>
         </is>
       </c>
-      <c r="H2813" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2813" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2814">
@@ -90613,10 +89943,8 @@
           <t>64.8</t>
         </is>
       </c>
-      <c r="H2814" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2814" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2815">
@@ -90643,10 +89971,8 @@
       </c>
       <c r="F2815" t="inlineStr"/>
       <c r="G2815" t="inlineStr"/>
-      <c r="H2815" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2815" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2816">
@@ -90673,10 +89999,8 @@
       </c>
       <c r="F2816" t="inlineStr"/>
       <c r="G2816" t="inlineStr"/>
-      <c r="H2816" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2816" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2817">
@@ -90703,10 +90027,8 @@
       </c>
       <c r="F2817" t="inlineStr"/>
       <c r="G2817" t="inlineStr"/>
-      <c r="H2817" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2817" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2818">
@@ -90733,10 +90055,8 @@
       </c>
       <c r="F2818" t="inlineStr"/>
       <c r="G2818" t="inlineStr"/>
-      <c r="H2818" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2818" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2819">
@@ -90763,10 +90083,8 @@
       </c>
       <c r="F2819" t="inlineStr"/>
       <c r="G2819" t="inlineStr"/>
-      <c r="H2819" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2819" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2820">
@@ -90793,10 +90111,8 @@
       </c>
       <c r="F2820" t="inlineStr"/>
       <c r="G2820" t="inlineStr"/>
-      <c r="H2820" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2820" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2821">
@@ -90823,10 +90139,8 @@
       </c>
       <c r="F2821" t="inlineStr"/>
       <c r="G2821" t="inlineStr"/>
-      <c r="H2821" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2821" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2822">
@@ -90853,10 +90167,8 @@
       </c>
       <c r="F2822" t="inlineStr"/>
       <c r="G2822" t="inlineStr"/>
-      <c r="H2822" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2822" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2823">
@@ -90883,10 +90195,8 @@
       </c>
       <c r="F2823" t="inlineStr"/>
       <c r="G2823" t="inlineStr"/>
-      <c r="H2823" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2823" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2824">
@@ -90917,10 +90227,8 @@
           <t>2.40%</t>
         </is>
       </c>
-      <c r="H2824" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2824" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2825">
@@ -90951,10 +90259,8 @@
           <t>6.8</t>
         </is>
       </c>
-      <c r="H2825" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2825" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2826">
@@ -90985,10 +90291,8 @@
           <t>RUB 26.0T</t>
         </is>
       </c>
-      <c r="H2826" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2826" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2827">
@@ -91019,10 +90323,8 @@
           <t>3.8%</t>
         </is>
       </c>
-      <c r="H2827" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2827" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2828">
@@ -91053,10 +90355,8 @@
           <t>7.0%</t>
         </is>
       </c>
-      <c r="H2828" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2828" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2829">
@@ -91087,10 +90387,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H2829" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2829" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2830">
@@ -91117,10 +90415,8 @@
       </c>
       <c r="F2830" t="inlineStr"/>
       <c r="G2830" t="inlineStr"/>
-      <c r="H2830" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2830" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2831">
@@ -91147,10 +90443,8 @@
       </c>
       <c r="F2831" t="inlineStr"/>
       <c r="G2831" t="inlineStr"/>
-      <c r="H2831" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2831" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2832">
@@ -91173,10 +90467,8 @@
       <c r="E2832" t="inlineStr"/>
       <c r="F2832" t="inlineStr"/>
       <c r="G2832" t="inlineStr"/>
-      <c r="H2832" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2832" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2833">
@@ -91207,10 +90499,8 @@
           <t>-15</t>
         </is>
       </c>
-      <c r="H2833" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2833" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2834">
@@ -91241,10 +90531,8 @@
           <t>-25</t>
         </is>
       </c>
-      <c r="H2834" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2834" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2835">
@@ -91275,10 +90563,8 @@
           <t>-13</t>
         </is>
       </c>
-      <c r="H2835" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2835" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2836">
@@ -91309,10 +90595,8 @@
           <t>$ 8.1B</t>
         </is>
       </c>
-      <c r="H2836" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2836" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2837">
@@ -91339,10 +90623,8 @@
       </c>
       <c r="F2837" t="inlineStr"/>
       <c r="G2837" t="inlineStr"/>
-      <c r="H2837" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2837" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2838">
@@ -91365,10 +90647,8 @@
       <c r="E2838" t="inlineStr"/>
       <c r="F2838" t="inlineStr"/>
       <c r="G2838" t="inlineStr"/>
-      <c r="H2838" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2838" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2839">
@@ -91391,10 +90671,8 @@
       <c r="E2839" t="inlineStr"/>
       <c r="F2839" t="inlineStr"/>
       <c r="G2839" t="inlineStr"/>
-      <c r="H2839" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2839" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2840">
@@ -91425,10 +90703,8 @@
           <t>A$ 3.2B</t>
         </is>
       </c>
-      <c r="H2840" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2840" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2841">
@@ -91455,10 +90731,8 @@
       </c>
       <c r="F2841" t="inlineStr"/>
       <c r="G2841" t="inlineStr"/>
-      <c r="H2841" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2841" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2842">
@@ -91485,10 +90759,8 @@
       </c>
       <c r="F2842" t="inlineStr"/>
       <c r="G2842" t="inlineStr"/>
-      <c r="H2842" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2842" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2843">
@@ -91515,10 +90787,8 @@
       </c>
       <c r="F2843" t="inlineStr"/>
       <c r="G2843" t="inlineStr"/>
-      <c r="H2843" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2843" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2844">
@@ -91545,10 +90815,8 @@
       </c>
       <c r="F2844" t="inlineStr"/>
       <c r="G2844" t="inlineStr"/>
-      <c r="H2844" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2844" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2845">
@@ -91571,10 +90839,8 @@
       </c>
       <c r="F2845" t="inlineStr"/>
       <c r="G2845" t="inlineStr"/>
-      <c r="H2845" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2845" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2846">
@@ -91619,10 +90885,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2847" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2847" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2848">
@@ -91649,10 +90913,8 @@
       </c>
       <c r="F2848" t="inlineStr"/>
       <c r="G2848" t="inlineStr"/>
-      <c r="H2848" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2848" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2849">
@@ -91679,10 +90941,8 @@
       </c>
       <c r="F2849" t="inlineStr"/>
       <c r="G2849" t="inlineStr"/>
-      <c r="H2849" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2849" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2850">
@@ -91709,10 +90969,8 @@
       </c>
       <c r="F2850" t="inlineStr"/>
       <c r="G2850" t="inlineStr"/>
-      <c r="H2850" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2850" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2851">
@@ -91739,10 +90997,8 @@
       </c>
       <c r="F2851" t="inlineStr"/>
       <c r="G2851" t="inlineStr"/>
-      <c r="H2851" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2851" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2852">
@@ -91773,10 +91029,8 @@
           <t>53.5</t>
         </is>
       </c>
-      <c r="H2852" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2852" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2853">
@@ -91807,10 +91061,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2853" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2853" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2854">
@@ -91841,10 +91093,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H2854" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2854" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2855">
@@ -91867,10 +91117,8 @@
       <c r="E2855" t="inlineStr"/>
       <c r="F2855" t="inlineStr"/>
       <c r="G2855" t="inlineStr"/>
-      <c r="H2855" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2855" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2856">
@@ -91897,10 +91145,8 @@
       </c>
       <c r="F2856" t="inlineStr"/>
       <c r="G2856" t="inlineStr"/>
-      <c r="H2856" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2856" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2857">
@@ -91931,10 +91177,8 @@
           <t>46.5</t>
         </is>
       </c>
-      <c r="H2857" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2857" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2858">
@@ -91969,10 +91213,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H2858" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2858" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2859">
@@ -91995,10 +91237,8 @@
       <c r="E2859" t="inlineStr"/>
       <c r="F2859" t="inlineStr"/>
       <c r="G2859" t="inlineStr"/>
-      <c r="H2859" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2859" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2860">
@@ -92025,10 +91265,8 @@
       </c>
       <c r="F2860" t="inlineStr"/>
       <c r="G2860" t="inlineStr"/>
-      <c r="H2860" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2860" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2861">
@@ -92055,10 +91293,8 @@
       </c>
       <c r="F2861" t="inlineStr"/>
       <c r="G2861" t="inlineStr"/>
-      <c r="H2861" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2861" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2862">
@@ -92085,10 +91321,8 @@
       </c>
       <c r="F2862" t="inlineStr"/>
       <c r="G2862" t="inlineStr"/>
-      <c r="H2862" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2862" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2863">
@@ -92111,10 +91345,8 @@
       <c r="E2863" t="inlineStr"/>
       <c r="F2863" t="inlineStr"/>
       <c r="G2863" t="inlineStr"/>
-      <c r="H2863" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2863" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2864">
@@ -92145,10 +91377,8 @@
           <t>45K</t>
         </is>
       </c>
-      <c r="H2864" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2864" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2865">
@@ -92179,10 +91409,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="H2865" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2865" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2866">
@@ -92213,10 +91441,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2866" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2866" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2867">
@@ -92247,10 +91473,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2867" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2867" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2868">
@@ -92281,10 +91505,8 @@
           <t>1855.0K</t>
         </is>
       </c>
-      <c r="H2868" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2868" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2869">
@@ -92315,10 +91537,8 @@
           <t>215.5K</t>
         </is>
       </c>
-      <c r="H2869" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2869" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2870">
@@ -92349,10 +91569,8 @@
           <t>54.2</t>
         </is>
       </c>
-      <c r="H2870" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2870" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2871">
@@ -92375,10 +91593,8 @@
       <c r="E2871" t="inlineStr"/>
       <c r="F2871" t="inlineStr"/>
       <c r="G2871" t="inlineStr"/>
-      <c r="H2871" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2871" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2872">
@@ -92401,10 +91617,8 @@
       <c r="E2872" t="inlineStr"/>
       <c r="F2872" t="inlineStr"/>
       <c r="G2872" t="inlineStr"/>
-      <c r="H2872" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2872" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2873">
@@ -92427,10 +91641,8 @@
       <c r="E2873" t="inlineStr"/>
       <c r="F2873" t="inlineStr"/>
       <c r="G2873" t="inlineStr"/>
-      <c r="H2873" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2873" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2874">
@@ -92457,10 +91669,8 @@
       </c>
       <c r="F2874" t="inlineStr"/>
       <c r="G2874" t="inlineStr"/>
-      <c r="H2874" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2874" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2875">
@@ -92483,10 +91693,8 @@
       <c r="E2875" t="inlineStr"/>
       <c r="F2875" t="inlineStr"/>
       <c r="G2875" t="inlineStr"/>
-      <c r="H2875" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2875" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2876">
@@ -92509,10 +91717,8 @@
       <c r="E2876" t="inlineStr"/>
       <c r="F2876" t="inlineStr"/>
       <c r="G2876" t="inlineStr"/>
-      <c r="H2876" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2876" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2877">
@@ -92543,10 +91749,8 @@
           <t>9.75%</t>
         </is>
       </c>
-      <c r="H2877" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2877" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2878">
@@ -92569,10 +91773,8 @@
       <c r="E2878" t="inlineStr"/>
       <c r="F2878" t="inlineStr"/>
       <c r="G2878" t="inlineStr"/>
-      <c r="H2878" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2878" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2879">
@@ -92595,10 +91797,8 @@
       <c r="E2879" t="inlineStr"/>
       <c r="F2879" t="inlineStr"/>
       <c r="G2879" t="inlineStr"/>
-      <c r="H2879" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2879" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2880">
@@ -92625,10 +91825,8 @@
       </c>
       <c r="F2880" t="inlineStr"/>
       <c r="G2880" t="inlineStr"/>
-      <c r="H2880" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2880" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2881">
@@ -92659,10 +91857,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H2881" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2881" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2882">
@@ -92689,10 +91885,8 @@
       </c>
       <c r="F2882" t="inlineStr"/>
       <c r="G2882" t="inlineStr"/>
-      <c r="H2882" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2882" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2883">
@@ -92715,10 +91909,8 @@
       <c r="E2883" t="inlineStr"/>
       <c r="F2883" t="inlineStr"/>
       <c r="G2883" t="inlineStr"/>
-      <c r="H2883" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2883" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2884">
@@ -92745,10 +91937,8 @@
       </c>
       <c r="F2884" t="inlineStr"/>
       <c r="G2884" t="inlineStr"/>
-      <c r="H2884" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2884" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2885">
@@ -92775,10 +91965,8 @@
       </c>
       <c r="F2885" t="inlineStr"/>
       <c r="G2885" t="inlineStr"/>
-      <c r="H2885" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2885" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2886">
@@ -92801,10 +91989,8 @@
       </c>
       <c r="F2886" t="inlineStr"/>
       <c r="G2886" t="inlineStr"/>
-      <c r="H2886" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2886" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2887">
@@ -92827,10 +92013,8 @@
       </c>
       <c r="F2887" t="inlineStr"/>
       <c r="G2887" t="inlineStr"/>
-      <c r="H2887" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2887" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2888">
@@ -92853,10 +92037,8 @@
       </c>
       <c r="F2888" t="inlineStr"/>
       <c r="G2888" t="inlineStr"/>
-      <c r="H2888" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2888" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2889">
@@ -92875,10 +92057,8 @@
       <c r="E2889" t="inlineStr"/>
       <c r="F2889" t="inlineStr"/>
       <c r="G2889" t="inlineStr"/>
-      <c r="H2889" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2889" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2890">
@@ -92897,10 +92077,8 @@
       <c r="E2890" t="inlineStr"/>
       <c r="F2890" t="inlineStr"/>
       <c r="G2890" t="inlineStr"/>
-      <c r="H2890" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2890" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2891">
@@ -92923,10 +92101,8 @@
       </c>
       <c r="F2891" t="inlineStr"/>
       <c r="G2891" t="inlineStr"/>
-      <c r="H2891" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2891" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2892">
@@ -92949,50 +92125,72 @@
       </c>
       <c r="F2892" t="inlineStr"/>
       <c r="G2892" t="inlineStr"/>
-      <c r="H2892" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2892" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2893">
       <c r="A2893" t="inlineStr">
         <is>
-          <t>Friday February 07 2025</t>
-        </is>
-      </c>
-      <c r="B2893" t="inlineStr"/>
-      <c r="C2893" t="inlineStr"/>
+          <t>07:00 AM</t>
+        </is>
+      </c>
+      <c r="B2893" t="inlineStr">
+        <is>
+          <t>MX</t>
+        </is>
+      </c>
+      <c r="C2893" t="inlineStr">
+        <is>
+          <t>Inflation Rate YoYJAN</t>
+        </is>
+      </c>
       <c r="D2893" t="inlineStr"/>
-      <c r="E2893" t="inlineStr"/>
+      <c r="E2893" t="inlineStr">
+        <is>
+          <t>4.21%</t>
+        </is>
+      </c>
       <c r="F2893" t="inlineStr"/>
-      <c r="G2893" t="inlineStr"/>
-      <c r="H2893" t="inlineStr"/>
+      <c r="G2893" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="H2893" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2894">
       <c r="A2894" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2894" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2894" t="inlineStr">
         <is>
-          <t>Coincident Index PrelDEC</t>
+          <t>Core Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2894" t="inlineStr"/>
       <c r="E2894" t="inlineStr">
         <is>
-          <t>115.4</t>
+          <t>0.51%</t>
         </is>
       </c>
       <c r="F2894" t="inlineStr"/>
-      <c r="G2894" t="inlineStr"/>
+      <c r="G2894" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H2894" t="inlineStr">
         <is>
           <t>3</t>
@@ -93002,29 +92200,29 @@
     <row r="2895">
       <c r="A2895" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2895" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2895" t="inlineStr">
         <is>
-          <t>Leading Economic Index PrelDEC</t>
+          <t>Core Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2895" t="inlineStr"/>
       <c r="E2895" t="inlineStr">
         <is>
-          <t>107.5</t>
+          <t>3.65%</t>
         </is>
       </c>
       <c r="F2895" t="inlineStr"/>
       <c r="G2895" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H2895" t="inlineStr">
@@ -93036,29 +92234,29 @@
     <row r="2896">
       <c r="A2896" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2896" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2896" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Car Production MoMJAN</t>
         </is>
       </c>
       <c r="D2896" t="inlineStr"/>
       <c r="E2896" t="inlineStr">
         <is>
-          <t>$65.46B</t>
+          <t>-19.5%</t>
         </is>
       </c>
       <c r="F2896" t="inlineStr"/>
       <c r="G2896" t="inlineStr">
         <is>
-          <t>$65.0B</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="H2896" t="inlineStr">
@@ -93070,97 +92268,97 @@
     <row r="2897">
       <c r="A2897" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2897" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2897" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>New Car Registrations MoMJAN</t>
         </is>
       </c>
       <c r="D2897" t="inlineStr"/>
       <c r="E2897" t="inlineStr">
         <is>
-          <t>€19.7B</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F2897" t="inlineStr"/>
       <c r="G2897" t="inlineStr">
         <is>
-          <t>€ 22B</t>
+          <t>-1.5%</t>
         </is>
       </c>
       <c r="H2897" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2898">
       <c r="A2898" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2898" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2898" t="inlineStr">
         <is>
-          <t>Exports MoMDEC</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2898" t="inlineStr"/>
       <c r="E2898" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>6.7%</t>
         </is>
       </c>
       <c r="F2898" t="inlineStr"/>
       <c r="G2898" t="inlineStr">
         <is>
-          <t>130%</t>
+          <t>6.8%</t>
         </is>
       </c>
       <c r="H2898" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2899">
       <c r="A2899" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2899" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2899" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>Employment ChangeJAN</t>
         </is>
       </c>
       <c r="D2899" t="inlineStr"/>
       <c r="E2899" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>90.9K</t>
         </is>
       </c>
       <c r="F2899" t="inlineStr"/>
       <c r="G2899" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>5K</t>
         </is>
       </c>
       <c r="H2899" t="inlineStr">
@@ -93172,61 +92370,65 @@
     <row r="2900">
       <c r="A2900" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2900" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2900" t="inlineStr">
         <is>
-          <t>Imports MoMDEC</t>
+          <t>Full Time Employment ChgJAN</t>
         </is>
       </c>
       <c r="D2900" t="inlineStr"/>
       <c r="E2900" t="inlineStr">
         <is>
-          <t>-3.3%</t>
+          <t>57.5K</t>
         </is>
       </c>
       <c r="F2900" t="inlineStr"/>
       <c r="G2900" t="inlineStr">
         <is>
-          <t>108%</t>
+          <t>-3K</t>
         </is>
       </c>
       <c r="H2900" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2901">
       <c r="A2901" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2901" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2901" t="inlineStr">
         <is>
-          <t>Halifax House Price Index MoMJAN</t>
+          <t>Part Time Employment ChgJAN</t>
         </is>
       </c>
       <c r="D2901" t="inlineStr"/>
       <c r="E2901" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>33.5K</t>
         </is>
       </c>
       <c r="F2901" t="inlineStr"/>
-      <c r="G2901" t="inlineStr"/>
+      <c r="G2901" t="inlineStr">
+        <is>
+          <t>8K</t>
+        </is>
+      </c>
       <c r="H2901" t="inlineStr">
         <is>
           <t>2</t>
@@ -93236,27 +92438,31 @@
     <row r="2902">
       <c r="A2902" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2902" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2902" t="inlineStr">
         <is>
-          <t>Halifax House Price Index YoYJAN</t>
+          <t>Participation RateJAN</t>
         </is>
       </c>
       <c r="D2902" t="inlineStr"/>
       <c r="E2902" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>65.1%</t>
         </is>
       </c>
       <c r="F2902" t="inlineStr"/>
-      <c r="G2902" t="inlineStr"/>
+      <c r="G2902" t="inlineStr">
+        <is>
+          <t>65.0%</t>
+        </is>
+      </c>
       <c r="H2902" t="inlineStr">
         <is>
           <t>2</t>
@@ -93266,221 +92472,233 @@
     <row r="2903">
       <c r="A2903" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2903" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2903" t="inlineStr">
         <is>
-          <t>Inflation Report</t>
+          <t>Average Hourly Wages YoYJAN</t>
         </is>
       </c>
       <c r="D2903" t="inlineStr"/>
-      <c r="E2903" t="inlineStr"/>
+      <c r="E2903" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
       <c r="F2903" t="inlineStr"/>
-      <c r="G2903" t="inlineStr"/>
+      <c r="G2903" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
       <c r="H2903" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2904">
       <c r="A2904" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2904" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2904" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Non Farm PayrollsJAN</t>
         </is>
       </c>
       <c r="D2904" t="inlineStr"/>
       <c r="E2904" t="inlineStr">
         <is>
-          <t>€-7.1B</t>
+          <t>256K</t>
         </is>
       </c>
       <c r="F2904" t="inlineStr"/>
       <c r="G2904" t="inlineStr">
         <is>
-          <t>€ -7.2B</t>
+          <t>205K</t>
         </is>
       </c>
       <c r="H2904" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2905">
       <c r="A2905" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2905" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2905" t="inlineStr">
         <is>
-          <t>Current AccountDEC</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2905" t="inlineStr"/>
       <c r="E2905" t="inlineStr">
         <is>
-          <t>€-1.7B</t>
+          <t>4.1%</t>
         </is>
       </c>
       <c r="F2905" t="inlineStr"/>
       <c r="G2905" t="inlineStr">
         <is>
-          <t>€ -2.5B</t>
+          <t>4.1%</t>
         </is>
       </c>
       <c r="H2905" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2906">
       <c r="A2906" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2906" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2906" t="inlineStr">
         <is>
-          <t>ExportsDEC</t>
+          <t>Average Hourly Earnings MoMJAN</t>
         </is>
       </c>
       <c r="D2906" t="inlineStr"/>
       <c r="E2906" t="inlineStr">
         <is>
-          <t>€50.101B</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F2906" t="inlineStr"/>
       <c r="G2906" t="inlineStr">
         <is>
-          <t>€ 49.7B</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2906" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2907">
       <c r="A2907" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2907" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2907" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Average Hourly Earnings YoYJAN</t>
         </is>
       </c>
       <c r="D2907" t="inlineStr"/>
       <c r="E2907" t="inlineStr">
         <is>
-          <t>€275.078B</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="F2907" t="inlineStr"/>
-      <c r="G2907" t="inlineStr"/>
+      <c r="G2907" t="inlineStr">
+        <is>
+          <t>3.9%</t>
+        </is>
+      </c>
       <c r="H2907" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2908">
       <c r="A2908" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2908" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2908" t="inlineStr">
         <is>
-          <t>ImportsDEC</t>
+          <t>Participation RateJAN</t>
         </is>
       </c>
       <c r="D2908" t="inlineStr"/>
       <c r="E2908" t="inlineStr">
         <is>
-          <t>€57.186B</t>
+          <t>62.5%</t>
         </is>
       </c>
       <c r="F2908" t="inlineStr"/>
       <c r="G2908" t="inlineStr">
         <is>
-          <t>€ 56.9B</t>
+          <t>62.5%</t>
         </is>
       </c>
       <c r="H2908" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2909">
       <c r="A2909" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2909" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2909" t="inlineStr">
         <is>
-          <t>Private Non Farm Payrolls QoQ PrelQ4</t>
+          <t>Average Weekly HoursJAN</t>
         </is>
       </c>
       <c r="D2909" t="inlineStr"/>
       <c r="E2909" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>34.3</t>
         </is>
       </c>
       <c r="F2909" t="inlineStr"/>
       <c r="G2909" t="inlineStr">
         <is>
-          <t>20200%</t>
+          <t>34.3</t>
         </is>
       </c>
       <c r="H2909" t="inlineStr">
@@ -93492,29 +92710,29 @@
     <row r="2910">
       <c r="A2910" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2910" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2910" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Government PayrollsJAN</t>
         </is>
       </c>
       <c r="D2910" t="inlineStr"/>
       <c r="E2910" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>33K</t>
         </is>
       </c>
       <c r="F2910" t="inlineStr"/>
       <c r="G2910" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>25K</t>
         </is>
       </c>
       <c r="H2910" t="inlineStr">
@@ -93526,27 +92744,31 @@
     <row r="2911">
       <c r="A2911" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2911" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2911" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Manufacturing PayrollsJAN</t>
         </is>
       </c>
       <c r="D2911" t="inlineStr"/>
       <c r="E2911" t="inlineStr">
         <is>
-          <t>S$506.7B</t>
+          <t>-13K</t>
         </is>
       </c>
       <c r="F2911" t="inlineStr"/>
-      <c r="G2911" t="inlineStr"/>
+      <c r="G2911" t="inlineStr">
+        <is>
+          <t>-5K</t>
+        </is>
+      </c>
       <c r="H2911" t="inlineStr">
         <is>
           <t>3</t>
@@ -93556,27 +92778,31 @@
     <row r="2912">
       <c r="A2912" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2912" t="inlineStr">
         <is>
-          <t>WL</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2912" t="inlineStr">
         <is>
-          <t>FAO Food Price IndexJAN</t>
+          <t>Nonfarm Payrolls PrivateJAN</t>
         </is>
       </c>
       <c r="D2912" t="inlineStr"/>
       <c r="E2912" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>223K</t>
         </is>
       </c>
       <c r="F2912" t="inlineStr"/>
-      <c r="G2912" t="inlineStr"/>
+      <c r="G2912" t="inlineStr">
+        <is>
+          <t>180K</t>
+        </is>
+      </c>
       <c r="H2912" t="inlineStr">
         <is>
           <t>3</t>
@@ -93586,27 +92812,31 @@
     <row r="2913">
       <c r="A2913" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2913" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2913" t="inlineStr">
         <is>
-          <t>BBA Mortgage RateJAN</t>
+          <t>U-6 Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2913" t="inlineStr"/>
       <c r="E2913" t="inlineStr">
         <is>
-          <t>7.50%</t>
+          <t>7.5%</t>
         </is>
       </c>
       <c r="F2913" t="inlineStr"/>
-      <c r="G2913" t="inlineStr"/>
+      <c r="G2913" t="inlineStr">
+        <is>
+          <t>7.5%</t>
+        </is>
+      </c>
       <c r="H2913" t="inlineStr">
         <is>
           <t>3</t>
@@ -93616,23 +92846,31 @@
     <row r="2914">
       <c r="A2914" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:45 AM</t>
         </is>
       </c>
       <c r="B2914" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2914" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/31</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2914" t="inlineStr"/>
-      <c r="E2914" t="inlineStr"/>
+      <c r="E2914" t="inlineStr">
+        <is>
+          <t>$609.1B</t>
+        </is>
+      </c>
       <c r="F2914" t="inlineStr"/>
-      <c r="G2914" t="inlineStr"/>
+      <c r="G2914" t="inlineStr">
+        <is>
+          <t>$607.0B</t>
+        </is>
+      </c>
       <c r="H2914" t="inlineStr">
         <is>
           <t>3</t>
@@ -93642,165 +92880,161 @@
     <row r="2915">
       <c r="A2915" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2915" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2915" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Treasury Cash BalanceJAN</t>
         </is>
       </c>
       <c r="D2915" t="inlineStr"/>
       <c r="E2915" t="inlineStr">
         <is>
-          <t>0.52%</t>
+          <t>TRY-323.9B</t>
         </is>
       </c>
       <c r="F2915" t="inlineStr"/>
-      <c r="G2915" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2915" t="inlineStr"/>
       <c r="H2915" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2916">
       <c r="A2916" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2916" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2916" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Full Year GDP Growth2024</t>
         </is>
       </c>
       <c r="D2916" t="inlineStr"/>
       <c r="E2916" t="inlineStr">
         <is>
-          <t>4.83%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="F2916" t="inlineStr"/>
       <c r="G2916" t="inlineStr">
         <is>
-          <t>4.7%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="H2916" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2917">
       <c r="A2917" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2917" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2917" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Michigan Consumer Sentiment PrelFEB</t>
         </is>
       </c>
       <c r="D2917" t="inlineStr"/>
       <c r="E2917" t="inlineStr">
         <is>
-          <t>0.38%</t>
+          <t>71.1</t>
         </is>
       </c>
       <c r="F2917" t="inlineStr"/>
       <c r="G2917" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>72</t>
         </is>
       </c>
       <c r="H2917" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2918">
       <c r="A2918" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2918" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2918" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Michigan 5 Year Inflation Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2918" t="inlineStr"/>
       <c r="E2918" t="inlineStr">
         <is>
-          <t>4.21%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="F2918" t="inlineStr"/>
       <c r="G2918" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H2918" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2919">
       <c r="A2919" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2919" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2919" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMJAN</t>
+          <t>Michigan Consumer Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2919" t="inlineStr"/>
       <c r="E2919" t="inlineStr">
         <is>
-          <t>0.51%</t>
+          <t>69.3</t>
         </is>
       </c>
       <c r="F2919" t="inlineStr"/>
       <c r="G2919" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>69.5</t>
         </is>
       </c>
       <c r="H2919" t="inlineStr">
@@ -93812,29 +93046,29 @@
     <row r="2920">
       <c r="A2920" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2920" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2920" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJAN</t>
+          <t>Michigan Current Conditions PrelFEB</t>
         </is>
       </c>
       <c r="D2920" t="inlineStr"/>
       <c r="E2920" t="inlineStr">
         <is>
-          <t>3.65%</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F2920" t="inlineStr"/>
       <c r="G2920" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>74.3</t>
         </is>
       </c>
       <c r="H2920" t="inlineStr">
@@ -93846,29 +93080,29 @@
     <row r="2921">
       <c r="A2921" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2921" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2921" t="inlineStr">
         <is>
-          <t>Car Production MoMJAN</t>
+          <t>Michigan Inflation Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2921" t="inlineStr"/>
       <c r="E2921" t="inlineStr">
         <is>
-          <t>-19.5%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="F2921" t="inlineStr"/>
       <c r="G2921" t="inlineStr">
         <is>
-          <t>-5.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H2921" t="inlineStr">
@@ -93880,29 +93114,33 @@
     <row r="2922">
       <c r="A2922" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2922" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2922" t="inlineStr">
         <is>
-          <t>New Car Registrations MoMJAN</t>
+          <t>Wholesale Inventories MoMDEC</t>
         </is>
       </c>
       <c r="D2922" t="inlineStr"/>
       <c r="E2922" t="inlineStr">
         <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="F2922" t="inlineStr"/>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="F2922" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
       <c r="G2922" t="inlineStr">
         <is>
-          <t>-1.5%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H2922" t="inlineStr">
@@ -93914,199 +93152,179 @@
     <row r="2923">
       <c r="A2923" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B2923" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2923" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>Balance of TradeJAN</t>
         </is>
       </c>
       <c r="D2923" t="inlineStr"/>
       <c r="E2923" t="inlineStr">
         <is>
-          <t>6.7%</t>
+          <t>$4.8B</t>
         </is>
       </c>
       <c r="F2923" t="inlineStr"/>
       <c r="G2923" t="inlineStr">
         <is>
-          <t>6.8%</t>
+          <t>$4.1B</t>
         </is>
       </c>
       <c r="H2923" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2924">
       <c r="A2924" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B2924" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2924" t="inlineStr">
         <is>
-          <t>Employment ChangeJAN</t>
+          <t>Baker Hughes Oil Rig CountFEB/07</t>
         </is>
       </c>
       <c r="D2924" t="inlineStr"/>
-      <c r="E2924" t="inlineStr">
-        <is>
-          <t>90.9K</t>
-        </is>
-      </c>
+      <c r="E2924" t="inlineStr"/>
       <c r="F2924" t="inlineStr"/>
-      <c r="G2924" t="inlineStr">
-        <is>
-          <t>5K</t>
-        </is>
-      </c>
+      <c r="G2924" t="inlineStr"/>
       <c r="H2924" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2925">
       <c r="A2925" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B2925" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2925" t="inlineStr">
         <is>
-          <t>Full Time Employment ChgJAN</t>
+          <t>Baker Hughes Total Rigs CountFEB/07</t>
         </is>
       </c>
       <c r="D2925" t="inlineStr"/>
-      <c r="E2925" t="inlineStr">
-        <is>
-          <t>57.5K</t>
-        </is>
-      </c>
+      <c r="E2925" t="inlineStr"/>
       <c r="F2925" t="inlineStr"/>
-      <c r="G2925" t="inlineStr">
-        <is>
-          <t>-3K</t>
-        </is>
-      </c>
+      <c r="G2925" t="inlineStr"/>
       <c r="H2925" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2926">
       <c r="A2926" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B2926" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C2926" t="inlineStr">
         <is>
-          <t>Part Time Employment ChgJAN</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2926" t="inlineStr"/>
       <c r="E2926" t="inlineStr">
         <is>
-          <t>33.5K</t>
+          <t>-1.7%</t>
         </is>
       </c>
       <c r="F2926" t="inlineStr"/>
       <c r="G2926" t="inlineStr">
         <is>
-          <t>8K</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H2926" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2927">
       <c r="A2927" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2927" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2927" t="inlineStr">
         <is>
-          <t>Participation RateJAN</t>
+          <t>Consumer Credit ChangeDEC</t>
         </is>
       </c>
       <c r="D2927" t="inlineStr"/>
       <c r="E2927" t="inlineStr">
         <is>
-          <t>65.1%</t>
+          <t>$-7.49B</t>
         </is>
       </c>
       <c r="F2927" t="inlineStr"/>
       <c r="G2927" t="inlineStr">
         <is>
-          <t>65.0%</t>
+          <t>$ 18B</t>
         </is>
       </c>
       <c r="H2927" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2928">
-      <c r="A2928" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2928" t="inlineStr"/>
       <c r="B2928" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2928" t="inlineStr">
         <is>
-          <t>Average Hourly Wages YoYJAN</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2928" t="inlineStr"/>
       <c r="E2928" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>$3.202T</t>
         </is>
       </c>
       <c r="F2928" t="inlineStr"/>
       <c r="G2928" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>$3.3T</t>
         </is>
       </c>
       <c r="H2928" t="inlineStr">
@@ -94116,79 +93334,59 @@
       </c>
     </row>
     <row r="2929">
-      <c r="A2929" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2929" t="inlineStr"/>
       <c r="B2929" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2929" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsJAN</t>
+          <t>SACCI Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2929" t="inlineStr"/>
-      <c r="E2929" t="inlineStr">
-        <is>
-          <t>256K</t>
-        </is>
-      </c>
+      <c r="E2929" t="inlineStr"/>
       <c r="F2929" t="inlineStr"/>
-      <c r="G2929" t="inlineStr">
-        <is>
-          <t>205K</t>
-        </is>
-      </c>
+      <c r="G2929" t="inlineStr"/>
       <c r="H2929" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2930">
-      <c r="A2930" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2930" t="inlineStr"/>
       <c r="B2930" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2930" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>SACCI Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D2930" t="inlineStr"/>
       <c r="E2930" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>118.1</t>
         </is>
       </c>
       <c r="F2930" t="inlineStr"/>
       <c r="G2930" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>116</t>
         </is>
       </c>
       <c r="H2930" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2931">
-      <c r="A2931" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2931" t="inlineStr"/>
       <c r="B2931" t="inlineStr">
         <is>
           <t>US</t>
@@ -94196,33 +93394,25 @@
       </c>
       <c r="C2931" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings MoMJAN</t>
+          <t>Used Car Prices MoMJAN</t>
         </is>
       </c>
       <c r="D2931" t="inlineStr"/>
       <c r="E2931" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F2931" t="inlineStr"/>
-      <c r="G2931" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2931" t="inlineStr"/>
       <c r="H2931" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2932">
-      <c r="A2932" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2932" t="inlineStr"/>
       <c r="B2932" t="inlineStr">
         <is>
           <t>US</t>
@@ -94230,936 +93420,134 @@
       </c>
       <c r="C2932" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoY</t>
+          <t>Used Car Prices YoYJAN</t>
         </is>
       </c>
       <c r="D2932" t="inlineStr"/>
       <c r="E2932" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2932" t="inlineStr"/>
-      <c r="G2932" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
+      <c r="G2932" t="inlineStr"/>
       <c r="H2932" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2933">
       <c r="A2933" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B2933" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2933" t="inlineStr">
-        <is>
-          <t>Participation RateJAN</t>
-        </is>
-      </c>
+          <t>Saturday February 08 2025</t>
+        </is>
+      </c>
+      <c r="B2933" t="inlineStr"/>
+      <c r="C2933" t="inlineStr"/>
       <c r="D2933" t="inlineStr"/>
-      <c r="E2933" t="inlineStr">
-        <is>
-          <t>62.5%</t>
-        </is>
-      </c>
+      <c r="E2933" t="inlineStr"/>
       <c r="F2933" t="inlineStr"/>
-      <c r="G2933" t="inlineStr">
-        <is>
-          <t>62.5%</t>
-        </is>
-      </c>
-      <c r="H2933" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G2933" t="inlineStr"/>
+      <c r="H2933" t="inlineStr"/>
     </row>
     <row r="2934">
       <c r="A2934" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2934" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2934" t="inlineStr">
         <is>
-          <t>Average Weekly HoursJAN</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2934" t="inlineStr"/>
       <c r="E2934" t="inlineStr">
         <is>
-          <t>34.3</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2934" t="inlineStr"/>
       <c r="G2934" t="inlineStr">
         <is>
-          <t>34.3</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="H2934" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2935">
       <c r="A2935" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2935" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2935" t="inlineStr">
         <is>
-          <t>Government PayrollsJAN</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2935" t="inlineStr"/>
       <c r="E2935" t="inlineStr">
         <is>
-          <t>33K</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="F2935" t="inlineStr"/>
       <c r="G2935" t="inlineStr">
         <is>
-          <t>25K</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H2935" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2936">
       <c r="A2936" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2936" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2936" t="inlineStr">
         <is>
-          <t>Manufacturing PayrollsJAN</t>
+          <t>PPI YoYJAN</t>
         </is>
       </c>
       <c r="D2936" t="inlineStr"/>
       <c r="E2936" t="inlineStr">
         <is>
-          <t>-13K</t>
+          <t>-2.3%</t>
         </is>
       </c>
       <c r="F2936" t="inlineStr"/>
       <c r="G2936" t="inlineStr">
         <is>
-          <t>-5K</t>
+          <t>-2.4%</t>
         </is>
       </c>
       <c r="H2936" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2937">
-      <c r="A2937" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B2937" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2937" t="inlineStr">
-        <is>
-          <t>Nonfarm Payrolls PrivateJAN</t>
-        </is>
-      </c>
-      <c r="D2937" t="inlineStr"/>
-      <c r="E2937" t="inlineStr">
-        <is>
-          <t>223K</t>
-        </is>
-      </c>
-      <c r="F2937" t="inlineStr"/>
-      <c r="G2937" t="inlineStr">
-        <is>
-          <t>180K</t>
-        </is>
-      </c>
-      <c r="H2937" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2938">
-      <c r="A2938" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B2938" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2938" t="inlineStr">
-        <is>
-          <t>U-6 Unemployment Rate</t>
-        </is>
-      </c>
-      <c r="D2938" t="inlineStr"/>
-      <c r="E2938" t="inlineStr">
-        <is>
-          <t>7.5%</t>
-        </is>
-      </c>
-      <c r="F2938" t="inlineStr"/>
-      <c r="G2938" t="inlineStr">
-        <is>
-          <t>7.5%</t>
-        </is>
-      </c>
-      <c r="H2938" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2939">
-      <c r="A2939" t="inlineStr">
-        <is>
-          <t>08:45 AM</t>
-        </is>
-      </c>
-      <c r="B2939" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2939" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN</t>
-        </is>
-      </c>
-      <c r="D2939" t="inlineStr"/>
-      <c r="E2939" t="inlineStr">
-        <is>
-          <t>$609.1B</t>
-        </is>
-      </c>
-      <c r="F2939" t="inlineStr"/>
-      <c r="G2939" t="inlineStr">
-        <is>
-          <t>$607.0B</t>
-        </is>
-      </c>
-      <c r="H2939" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2940">
-      <c r="A2940" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2940" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2940" t="inlineStr">
-        <is>
-          <t>Treasury Cash BalanceJAN</t>
-        </is>
-      </c>
-      <c r="D2940" t="inlineStr"/>
-      <c r="E2940" t="inlineStr">
-        <is>
-          <t>TRY-323.9B</t>
-        </is>
-      </c>
-      <c r="F2940" t="inlineStr"/>
-      <c r="G2940" t="inlineStr"/>
-      <c r="H2940" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2941">
-      <c r="A2941" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2941" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2941" t="inlineStr">
-        <is>
-          <t>Full Year GDP Growth2024</t>
-        </is>
-      </c>
-      <c r="D2941" t="inlineStr"/>
-      <c r="E2941" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="F2941" t="inlineStr"/>
-      <c r="G2941" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="H2941" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2942">
-      <c r="A2942" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2942" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2942" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2942" t="inlineStr"/>
-      <c r="E2942" t="inlineStr">
-        <is>
-          <t>71.1</t>
-        </is>
-      </c>
-      <c r="F2942" t="inlineStr"/>
-      <c r="G2942" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="H2942" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2943">
-      <c r="A2943" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2943" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2943" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2943" t="inlineStr"/>
-      <c r="E2943" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="F2943" t="inlineStr"/>
-      <c r="G2943" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="H2943" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2944">
-      <c r="A2944" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2944" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2944" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2944" t="inlineStr"/>
-      <c r="E2944" t="inlineStr">
-        <is>
-          <t>69.3</t>
-        </is>
-      </c>
-      <c r="F2944" t="inlineStr"/>
-      <c r="G2944" t="inlineStr">
-        <is>
-          <t>69.5</t>
-        </is>
-      </c>
-      <c r="H2944" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2945">
-      <c r="A2945" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2945" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2945" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2945" t="inlineStr"/>
-      <c r="E2945" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="F2945" t="inlineStr"/>
-      <c r="G2945" t="inlineStr">
-        <is>
-          <t>74.3</t>
-        </is>
-      </c>
-      <c r="H2945" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2946">
-      <c r="A2946" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2946" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2946" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2946" t="inlineStr"/>
-      <c r="E2946" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F2946" t="inlineStr"/>
-      <c r="G2946" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="H2946" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2947">
-      <c r="A2947" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2947" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2947" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2947" t="inlineStr"/>
-      <c r="E2947" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F2947" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="G2947" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="H2947" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2948">
-      <c r="A2948" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B2948" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2948" t="inlineStr">
-        <is>
-          <t>Balance of TradeJAN</t>
-        </is>
-      </c>
-      <c r="D2948" t="inlineStr"/>
-      <c r="E2948" t="inlineStr">
-        <is>
-          <t>$4.8B</t>
-        </is>
-      </c>
-      <c r="F2948" t="inlineStr"/>
-      <c r="G2948" t="inlineStr">
-        <is>
-          <t>$4.1B</t>
-        </is>
-      </c>
-      <c r="H2948" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2949">
-      <c r="A2949" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B2949" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2949" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountFEB/07</t>
-        </is>
-      </c>
-      <c r="D2949" t="inlineStr"/>
-      <c r="E2949" t="inlineStr"/>
-      <c r="F2949" t="inlineStr"/>
-      <c r="G2949" t="inlineStr"/>
-      <c r="H2949" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2950">
-      <c r="A2950" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B2950" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2950" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountFEB/07</t>
-        </is>
-      </c>
-      <c r="D2950" t="inlineStr"/>
-      <c r="E2950" t="inlineStr"/>
-      <c r="F2950" t="inlineStr"/>
-      <c r="G2950" t="inlineStr"/>
-      <c r="H2950" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2951">
-      <c r="A2951" t="inlineStr">
-        <is>
-          <t>02:00 PM</t>
-        </is>
-      </c>
-      <c r="B2951" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C2951" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2951" t="inlineStr"/>
-      <c r="E2951" t="inlineStr">
-        <is>
-          <t>-1.7%</t>
-        </is>
-      </c>
-      <c r="F2951" t="inlineStr"/>
-      <c r="G2951" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="H2951" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2952">
-      <c r="A2952" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B2952" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2952" t="inlineStr">
-        <is>
-          <t>Consumer Credit ChangeDEC</t>
-        </is>
-      </c>
-      <c r="D2952" t="inlineStr"/>
-      <c r="E2952" t="inlineStr">
-        <is>
-          <t>$-7.49B</t>
-        </is>
-      </c>
-      <c r="F2952" t="inlineStr"/>
-      <c r="G2952" t="inlineStr">
-        <is>
-          <t>$ 18B</t>
-        </is>
-      </c>
-      <c r="H2952" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2953">
-      <c r="A2953" t="inlineStr"/>
-      <c r="B2953" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2953" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN</t>
-        </is>
-      </c>
-      <c r="D2953" t="inlineStr"/>
-      <c r="E2953" t="inlineStr">
-        <is>
-          <t>$3.202T</t>
-        </is>
-      </c>
-      <c r="F2953" t="inlineStr"/>
-      <c r="G2953" t="inlineStr">
-        <is>
-          <t>$3.3T</t>
-        </is>
-      </c>
-      <c r="H2953" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2954">
-      <c r="A2954" t="inlineStr"/>
-      <c r="B2954" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C2954" t="inlineStr">
-        <is>
-          <t>SACCI Business ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D2954" t="inlineStr"/>
-      <c r="E2954" t="inlineStr"/>
-      <c r="F2954" t="inlineStr"/>
-      <c r="G2954" t="inlineStr"/>
-      <c r="H2954" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2955">
-      <c r="A2955" t="inlineStr"/>
-      <c r="B2955" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C2955" t="inlineStr">
-        <is>
-          <t>SACCI Business ConfidenceDEC</t>
-        </is>
-      </c>
-      <c r="D2955" t="inlineStr"/>
-      <c r="E2955" t="inlineStr">
-        <is>
-          <t>118.1</t>
-        </is>
-      </c>
-      <c r="F2955" t="inlineStr"/>
-      <c r="G2955" t="inlineStr">
-        <is>
-          <t>116</t>
-        </is>
-      </c>
-      <c r="H2955" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2956">
-      <c r="A2956" t="inlineStr"/>
-      <c r="B2956" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2956" t="inlineStr">
-        <is>
-          <t>Used Car Prices MoMJAN</t>
-        </is>
-      </c>
-      <c r="D2956" t="inlineStr"/>
-      <c r="E2956" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F2956" t="inlineStr"/>
-      <c r="G2956" t="inlineStr"/>
-      <c r="H2956" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2957">
-      <c r="A2957" t="inlineStr"/>
-      <c r="B2957" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2957" t="inlineStr">
-        <is>
-          <t>Used Car Prices YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2957" t="inlineStr"/>
-      <c r="E2957" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F2957" t="inlineStr"/>
-      <c r="G2957" t="inlineStr"/>
-      <c r="H2957" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2958">
-      <c r="A2958" t="inlineStr">
-        <is>
-          <t>Saturday February 08 2025</t>
-        </is>
-      </c>
-      <c r="B2958" t="inlineStr"/>
-      <c r="C2958" t="inlineStr"/>
-      <c r="D2958" t="inlineStr"/>
-      <c r="E2958" t="inlineStr"/>
-      <c r="F2958" t="inlineStr"/>
-      <c r="G2958" t="inlineStr"/>
-      <c r="H2958" t="inlineStr"/>
-    </row>
-    <row r="2959">
-      <c r="A2959" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2959" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2959" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2959" t="inlineStr"/>
-      <c r="E2959" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F2959" t="inlineStr"/>
-      <c r="G2959" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="H2959" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2960">
-      <c r="A2960" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2960" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2960" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMJAN</t>
-        </is>
-      </c>
-      <c r="D2960" t="inlineStr"/>
-      <c r="E2960" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="F2960" t="inlineStr"/>
-      <c r="G2960" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H2960" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2961">
-      <c r="A2961" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2961" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2961" t="inlineStr">
-        <is>
-          <t>PPI YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2961" t="inlineStr"/>
-      <c r="E2961" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
-      <c r="F2961" t="inlineStr"/>
-      <c r="G2961" t="inlineStr">
-        <is>
-          <t>-2.4%</t>
-        </is>
-      </c>
-      <c r="H2961" t="inlineStr">
         <is>
           <t>2</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-08.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-08.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2946"/>
+  <dimension ref="A1:H2921"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82497,10 +82497,8 @@
           <t>-4.3%</t>
         </is>
       </c>
-      <c r="H2572" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2572" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2573">
@@ -82531,10 +82529,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2573" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2573" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2574">
@@ -82569,10 +82565,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2574" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2574" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2575">
@@ -82599,10 +82593,8 @@
       </c>
       <c r="F2575" t="inlineStr"/>
       <c r="G2575" t="inlineStr"/>
-      <c r="H2575" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2575" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2576">
@@ -82637,10 +82629,8 @@
           <t>7.0K</t>
         </is>
       </c>
-      <c r="H2576" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2576" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2577">
@@ -82671,10 +82661,8 @@
           <t>2.876M</t>
         </is>
       </c>
-      <c r="H2577" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2577" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2578">
@@ -82709,10 +82697,8 @@
           <t>6.2%</t>
         </is>
       </c>
-      <c r="H2578" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2578" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2579">
@@ -82735,10 +82721,8 @@
       <c r="E2579" t="inlineStr"/>
       <c r="F2579" t="inlineStr"/>
       <c r="G2579" t="inlineStr"/>
-      <c r="H2579" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2579" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2580">
@@ -82765,10 +82749,8 @@
       </c>
       <c r="F2580" t="inlineStr"/>
       <c r="G2580" t="inlineStr"/>
-      <c r="H2580" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2580" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2581">
@@ -82795,10 +82777,8 @@
       </c>
       <c r="F2581" t="inlineStr"/>
       <c r="G2581" t="inlineStr"/>
-      <c r="H2581" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2581" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2582">
@@ -82825,10 +82805,8 @@
       </c>
       <c r="F2582" t="inlineStr"/>
       <c r="G2582" t="inlineStr"/>
-      <c r="H2582" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2582" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2583">
@@ -82855,10 +82833,8 @@
       </c>
       <c r="F2583" t="inlineStr"/>
       <c r="G2583" t="inlineStr"/>
-      <c r="H2583" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2583" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2584">
@@ -82885,10 +82861,8 @@
       </c>
       <c r="F2584" t="inlineStr"/>
       <c r="G2584" t="inlineStr"/>
-      <c r="H2584" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2584" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2585">
@@ -82915,10 +82889,8 @@
       </c>
       <c r="F2585" t="inlineStr"/>
       <c r="G2585" t="inlineStr"/>
-      <c r="H2585" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2585" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2586">
@@ -82945,10 +82917,8 @@
       </c>
       <c r="F2586" t="inlineStr"/>
       <c r="G2586" t="inlineStr"/>
-      <c r="H2586" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2586" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2587">
@@ -82975,10 +82945,8 @@
       </c>
       <c r="F2587" t="inlineStr"/>
       <c r="G2587" t="inlineStr"/>
-      <c r="H2587" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2587" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2588">
@@ -83005,10 +82973,8 @@
       </c>
       <c r="F2588" t="inlineStr"/>
       <c r="G2588" t="inlineStr"/>
-      <c r="H2588" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2588" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2589">
@@ -83035,10 +83001,8 @@
       </c>
       <c r="F2589" t="inlineStr"/>
       <c r="G2589" t="inlineStr"/>
-      <c r="H2589" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2589" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2590">
@@ -83065,10 +83029,8 @@
       </c>
       <c r="F2590" t="inlineStr"/>
       <c r="G2590" t="inlineStr"/>
-      <c r="H2590" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2590" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2591">
@@ -83095,10 +83057,8 @@
       </c>
       <c r="F2591" t="inlineStr"/>
       <c r="G2591" t="inlineStr"/>
-      <c r="H2591" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2591" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2592">
@@ -83129,10 +83089,8 @@
           <t>€5.0B</t>
         </is>
       </c>
-      <c r="H2592" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2592" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2593">
@@ -83163,10 +83121,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2593" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2593" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2594">
@@ -83197,10 +83153,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2594" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2594" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2595">
@@ -83231,10 +83185,8 @@
           <t>INR-9700.0B</t>
         </is>
       </c>
-      <c r="H2595" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2595" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2596">
@@ -83265,10 +83217,8 @@
           <t>77.9%</t>
         </is>
       </c>
-      <c r="H2596" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2596" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2597">
@@ -83303,10 +83253,8 @@
           <t>BRL-75.0B</t>
         </is>
       </c>
-      <c r="H2597" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2597" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2598">
@@ -83333,10 +83281,8 @@
       </c>
       <c r="F2598" t="inlineStr"/>
       <c r="G2598" t="inlineStr"/>
-      <c r="H2598" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2598" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2599">
@@ -83363,10 +83309,8 @@
       </c>
       <c r="F2599" t="inlineStr"/>
       <c r="G2599" t="inlineStr"/>
-      <c r="H2599" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2599" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2600">
@@ -83393,10 +83337,8 @@
       </c>
       <c r="F2600" t="inlineStr"/>
       <c r="G2600" t="inlineStr"/>
-      <c r="H2600" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2600" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2601">
@@ -83427,10 +83369,8 @@
           <t>4.8%</t>
         </is>
       </c>
-      <c r="H2601" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2601" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2602">
@@ -83465,10 +83405,8 @@
           <t>6.1%</t>
         </is>
       </c>
-      <c r="H2602" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2602" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2603">
@@ -83499,10 +83437,8 @@
           <t>ZAR 27.0B</t>
         </is>
       </c>
-      <c r="H2603" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2603" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2604">
@@ -83537,10 +83473,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H2604" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2604" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2605">
@@ -83575,10 +83509,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2605" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2605" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2606">
@@ -83613,10 +83545,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H2606" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2606" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2607">
@@ -83651,10 +83581,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2607" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2607" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2608">
@@ -83689,10 +83617,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H2608" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2608" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2609">
@@ -83723,10 +83649,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2609" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2609" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2610">
@@ -83761,10 +83685,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2610" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2610" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2611">
@@ -83799,10 +83721,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2611" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2611" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2612">
@@ -83837,10 +83757,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2612" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2612" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2613">
@@ -83871,10 +83789,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2613" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2613" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2614">
@@ -83905,10 +83821,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2614" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2614" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2615">
@@ -83943,10 +83857,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2615" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2615" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2616">
@@ -83969,10 +83881,8 @@
       <c r="E2616" t="inlineStr"/>
       <c r="F2616" t="inlineStr"/>
       <c r="G2616" t="inlineStr"/>
-      <c r="H2616" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2616" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2617">
@@ -84007,10 +83917,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2617" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2617" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2618">
@@ -84045,10 +83953,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H2618" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2618" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2619">
@@ -84083,10 +83989,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H2619" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2619" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2620">
@@ -84121,10 +84025,8 @@
           <t>37.2</t>
         </is>
       </c>
-      <c r="H2620" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2620" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2621">
@@ -84155,10 +84057,8 @@
           <t>C$-1.9B</t>
         </is>
       </c>
-      <c r="H2621" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2621" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2622">
@@ -84185,10 +84085,8 @@
       </c>
       <c r="F2622" t="inlineStr"/>
       <c r="G2622" t="inlineStr"/>
-      <c r="H2622" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2622" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2623">
@@ -84215,10 +84113,8 @@
       </c>
       <c r="F2623" t="inlineStr"/>
       <c r="G2623" t="inlineStr"/>
-      <c r="H2623" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2623" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2624">
@@ -84249,10 +84145,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2624" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2624" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2625">
@@ -84283,10 +84177,8 @@
           <t>$0.9B</t>
         </is>
       </c>
-      <c r="H2625" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2625" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2626">
@@ -84317,10 +84209,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H2626" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2626" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2627">
@@ -84347,10 +84237,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2627" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2627" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2628">
@@ -84377,10 +84265,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2628" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2628" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2629">
@@ -84407,10 +84293,8 @@
           <t>80</t>
         </is>
       </c>
-      <c r="H2629" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2629" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2630">
@@ -84437,10 +84321,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H2630" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2630" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2631">
@@ -84467,10 +84349,8 @@
           <t>-4.0%</t>
         </is>
       </c>
-      <c r="H2631" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2631" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2632">
@@ -84497,10 +84377,8 @@
           <t>20.7%</t>
         </is>
       </c>
-      <c r="H2632" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2632" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2633">
@@ -84541,10 +84419,8 @@
       </c>
       <c r="F2634" t="inlineStr"/>
       <c r="G2634" t="inlineStr"/>
-      <c r="H2634" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2634" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2635">
@@ -84575,10 +84451,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H2635" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2635" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2636">
@@ -84609,10 +84483,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H2636" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2636" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2637">
@@ -84643,10 +84515,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2637" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2637" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2638">
@@ -84669,10 +84539,8 @@
       <c r="E2638" t="inlineStr"/>
       <c r="F2638" t="inlineStr"/>
       <c r="G2638" t="inlineStr"/>
-      <c r="H2638" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2638" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2639">
@@ -84703,10 +84571,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H2639" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2639" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2640">
@@ -84741,10 +84607,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2640" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2640" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2641">
@@ -84771,10 +84635,8 @@
       </c>
       <c r="F2641" t="inlineStr"/>
       <c r="G2641" t="inlineStr"/>
-      <c r="H2641" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2641" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2642">
@@ -84801,10 +84663,8 @@
       </c>
       <c r="F2642" t="inlineStr"/>
       <c r="G2642" t="inlineStr"/>
-      <c r="H2642" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2642" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2643">
@@ -84835,10 +84695,8 @@
           <t>51.6</t>
         </is>
       </c>
-      <c r="H2643" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2643" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2644">
@@ -84873,10 +84731,8 @@
           <t>48.8</t>
         </is>
       </c>
-      <c r="H2644" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2644" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2645">
@@ -84907,10 +84763,8 @@
           <t>49.5</t>
         </is>
       </c>
-      <c r="H2645" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2645" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2646">
@@ -84945,10 +84799,8 @@
           <t>50.5</t>
         </is>
       </c>
-      <c r="H2646" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2646" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2647">
@@ -84979,10 +84831,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H2647" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2647" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2648">
@@ -85013,10 +84863,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H2648" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2648" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2649">
@@ -85047,10 +84895,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2649" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2649" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2650">
@@ -85081,10 +84927,8 @@
           <t>18.0%</t>
         </is>
       </c>
-      <c r="H2650" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2650" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2651">
@@ -85133,10 +84977,8 @@
           <t>58</t>
         </is>
       </c>
-      <c r="H2652" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2652" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2653">
@@ -85163,10 +85005,8 @@
       </c>
       <c r="F2653" t="inlineStr"/>
       <c r="G2653" t="inlineStr"/>
-      <c r="H2653" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2653" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2654">
@@ -85193,10 +85033,8 @@
       </c>
       <c r="F2654" t="inlineStr"/>
       <c r="G2654" t="inlineStr"/>
-      <c r="H2654" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2654" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2655">
@@ -85227,10 +85065,8 @@
           <t>50.6</t>
         </is>
       </c>
-      <c r="H2655" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2655" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2656">
@@ -85265,10 +85101,8 @@
           <t>4.2%</t>
         </is>
       </c>
-      <c r="H2656" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2656" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2657">
@@ -85303,10 +85137,8 @@
           <t>41.0%</t>
         </is>
       </c>
-      <c r="H2657" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2657" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2658">
@@ -85337,10 +85169,8 @@
           <t>49.3</t>
         </is>
       </c>
-      <c r="H2658" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2658" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2659">
@@ -85371,10 +85201,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2659" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2659" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2660">
@@ -85405,10 +85233,8 @@
           <t>27.0%</t>
         </is>
       </c>
-      <c r="H2660" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2660" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2661">
@@ -85435,10 +85261,8 @@
       </c>
       <c r="F2661" t="inlineStr"/>
       <c r="G2661" t="inlineStr"/>
-      <c r="H2661" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2661" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2662">
@@ -85465,10 +85289,8 @@
       </c>
       <c r="F2662" t="inlineStr"/>
       <c r="G2662" t="inlineStr"/>
-      <c r="H2662" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2662" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2663">
@@ -85495,10 +85317,8 @@
       </c>
       <c r="F2663" t="inlineStr"/>
       <c r="G2663" t="inlineStr"/>
-      <c r="H2663" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2663" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2664">
@@ -85525,10 +85345,8 @@
       </c>
       <c r="F2664" t="inlineStr"/>
       <c r="G2664" t="inlineStr"/>
-      <c r="H2664" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2664" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2665">
@@ -85563,10 +85381,8 @@
           <t>45.3</t>
         </is>
       </c>
-      <c r="H2665" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2665" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2666">
@@ -85601,10 +85417,8 @@
           <t>44.1</t>
         </is>
       </c>
-      <c r="H2666" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2666" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2667">
@@ -85639,10 +85453,8 @@
           <t>46.1</t>
         </is>
       </c>
-      <c r="H2667" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2667" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2668">
@@ -85673,10 +85485,8 @@
           <t>47</t>
         </is>
       </c>
-      <c r="H2668" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2668" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2669">
@@ -85711,10 +85521,8 @@
           <t>48.2</t>
         </is>
       </c>
-      <c r="H2669" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2669" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2670">
@@ -85741,10 +85549,8 @@
       </c>
       <c r="F2670" t="inlineStr"/>
       <c r="G2670" t="inlineStr"/>
-      <c r="H2670" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2670" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2671">
@@ -85771,10 +85577,8 @@
       </c>
       <c r="F2671" t="inlineStr"/>
       <c r="G2671" t="inlineStr"/>
-      <c r="H2671" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2671" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2672">
@@ -85801,10 +85605,8 @@
       </c>
       <c r="F2672" t="inlineStr"/>
       <c r="G2672" t="inlineStr"/>
-      <c r="H2672" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2672" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2673">
@@ -85831,10 +85633,8 @@
       </c>
       <c r="F2673" t="inlineStr"/>
       <c r="G2673" t="inlineStr"/>
-      <c r="H2673" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2673" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2674">
@@ -85861,10 +85661,8 @@
       </c>
       <c r="F2674" t="inlineStr"/>
       <c r="G2674" t="inlineStr"/>
-      <c r="H2674" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2674" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2675">
@@ -85891,10 +85689,8 @@
       </c>
       <c r="F2675" t="inlineStr"/>
       <c r="G2675" t="inlineStr"/>
-      <c r="H2675" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2675" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2676">
@@ -85921,10 +85717,8 @@
       </c>
       <c r="F2676" t="inlineStr"/>
       <c r="G2676" t="inlineStr"/>
-      <c r="H2676" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2676" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2677">
@@ -85951,10 +85745,8 @@
       </c>
       <c r="F2677" t="inlineStr"/>
       <c r="G2677" t="inlineStr"/>
-      <c r="H2677" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2677" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2678">
@@ -85985,10 +85777,8 @@
           <t>$ 230B</t>
         </is>
       </c>
-      <c r="H2678" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2678" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2679">
@@ -86019,10 +85809,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H2679" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2679" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2680">
@@ -86053,10 +85841,8 @@
           <t>51.4</t>
         </is>
       </c>
-      <c r="H2680" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2680" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2681">
@@ -86083,10 +85869,8 @@
       </c>
       <c r="F2681" t="inlineStr"/>
       <c r="G2681" t="inlineStr"/>
-      <c r="H2681" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2681" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2682">
@@ -86113,10 +85897,8 @@
       </c>
       <c r="F2682" t="inlineStr"/>
       <c r="G2682" t="inlineStr"/>
-      <c r="H2682" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2682" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2683">
@@ -86143,10 +85925,8 @@
       </c>
       <c r="F2683" t="inlineStr"/>
       <c r="G2683" t="inlineStr"/>
-      <c r="H2683" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2683" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2684">
@@ -86177,10 +85957,8 @@
           <t>52.3</t>
         </is>
       </c>
-      <c r="H2684" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2684" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2685">
@@ -86215,10 +85993,8 @@
           <t>50.1</t>
         </is>
       </c>
-      <c r="H2685" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2685" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2686">
@@ -86249,10 +86025,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H2686" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2686" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2687">
@@ -86283,10 +86057,8 @@
           <t>47</t>
         </is>
       </c>
-      <c r="H2687" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2687" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2688">
@@ -86317,10 +86089,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2688" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2688" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2689">
@@ -86351,10 +86121,8 @@
           <t>52.8</t>
         </is>
       </c>
-      <c r="H2689" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2689" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2690">
@@ -86385,10 +86153,8 @@
           <t>53</t>
         </is>
       </c>
-      <c r="H2690" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2690" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2691">
@@ -86415,10 +86181,8 @@
       </c>
       <c r="F2691" t="inlineStr"/>
       <c r="G2691" t="inlineStr"/>
-      <c r="H2691" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2691" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2692">
@@ -86445,10 +86209,8 @@
       </c>
       <c r="F2692" t="inlineStr"/>
       <c r="G2692" t="inlineStr"/>
-      <c r="H2692" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2692" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2693">
@@ -86471,10 +86233,8 @@
       <c r="E2693" t="inlineStr"/>
       <c r="F2693" t="inlineStr"/>
       <c r="G2693" t="inlineStr"/>
-      <c r="H2693" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2693" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2694">
@@ -86497,10 +86257,8 @@
       <c r="E2694" t="inlineStr"/>
       <c r="F2694" t="inlineStr"/>
       <c r="G2694" t="inlineStr"/>
-      <c r="H2694" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2694" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2695">
@@ -86523,10 +86281,8 @@
       <c r="E2695" t="inlineStr"/>
       <c r="F2695" t="inlineStr"/>
       <c r="G2695" t="inlineStr"/>
-      <c r="H2695" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2695" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2696">
@@ -86553,10 +86309,8 @@
       </c>
       <c r="F2696" t="inlineStr"/>
       <c r="G2696" t="inlineStr"/>
-      <c r="H2696" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2696" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2697">
@@ -86583,10 +86337,8 @@
       </c>
       <c r="F2697" t="inlineStr"/>
       <c r="G2697" t="inlineStr"/>
-      <c r="H2697" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2697" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2698">
@@ -86617,10 +86369,8 @@
           <t>58</t>
         </is>
       </c>
-      <c r="H2698" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2698" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2699">
@@ -86639,10 +86389,8 @@
       <c r="E2699" t="inlineStr"/>
       <c r="F2699" t="inlineStr"/>
       <c r="G2699" t="inlineStr"/>
-      <c r="H2699" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2699" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2700">
@@ -86661,10 +86409,8 @@
       <c r="E2700" t="inlineStr"/>
       <c r="F2700" t="inlineStr"/>
       <c r="G2700" t="inlineStr"/>
-      <c r="H2700" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2700" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2701">
@@ -86691,10 +86437,8 @@
           <t>43.0K</t>
         </is>
       </c>
-      <c r="H2701" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2701" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2702">
@@ -86735,10 +86479,8 @@
       </c>
       <c r="F2703" t="inlineStr"/>
       <c r="G2703" t="inlineStr"/>
-      <c r="H2703" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2703" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2704">
@@ -86765,10 +86507,8 @@
       </c>
       <c r="F2704" t="inlineStr"/>
       <c r="G2704" t="inlineStr"/>
-      <c r="H2704" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2704" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2705">
@@ -86795,10 +86535,8 @@
       </c>
       <c r="F2705" t="inlineStr"/>
       <c r="G2705" t="inlineStr"/>
-      <c r="H2705" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2705" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2706">
@@ -86825,10 +86563,8 @@
       </c>
       <c r="F2706" t="inlineStr"/>
       <c r="G2706" t="inlineStr"/>
-      <c r="H2706" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2706" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2707">
@@ -86859,10 +86595,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2707" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2707" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2708">
@@ -86889,10 +86623,8 @@
       </c>
       <c r="F2708" t="inlineStr"/>
       <c r="G2708" t="inlineStr"/>
-      <c r="H2708" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2708" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2709">
@@ -86915,10 +86647,8 @@
       <c r="E2709" t="inlineStr"/>
       <c r="F2709" t="inlineStr"/>
       <c r="G2709" t="inlineStr"/>
-      <c r="H2709" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2709" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2710">
@@ -86949,10 +86679,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2710" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2710" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2711">
@@ -86983,10 +86711,8 @@
           <t>8.2%</t>
         </is>
       </c>
-      <c r="H2711" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2711" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2712">
@@ -87017,10 +86743,8 @@
           <t>50.8</t>
         </is>
       </c>
-      <c r="H2712" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2712" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2713">
@@ -87047,10 +86771,8 @@
       </c>
       <c r="F2713" t="inlineStr"/>
       <c r="G2713" t="inlineStr"/>
-      <c r="H2713" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2713" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2714">
@@ -87081,10 +86803,8 @@
           <t>49.7</t>
         </is>
       </c>
-      <c r="H2714" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2714" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2715">
@@ -87115,10 +86835,8 @@
           <t>7.8M</t>
         </is>
       </c>
-      <c r="H2715" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2715" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2716">
@@ -87149,10 +86867,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H2716" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2716" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2717">
@@ -87183,10 +86899,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2717" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2717" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2718">
@@ -87217,10 +86931,8 @@
           <t>3.1M</t>
         </is>
       </c>
-      <c r="H2718" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2718" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2719">
@@ -87251,10 +86963,8 @@
           <t>52.3</t>
         </is>
       </c>
-      <c r="H2719" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2719" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2720">
@@ -87277,10 +86987,8 @@
       <c r="E2720" t="inlineStr"/>
       <c r="F2720" t="inlineStr"/>
       <c r="G2720" t="inlineStr"/>
-      <c r="H2720" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2720" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2721">
@@ -87303,10 +87011,8 @@
       <c r="E2721" t="inlineStr"/>
       <c r="F2721" t="inlineStr"/>
       <c r="G2721" t="inlineStr"/>
-      <c r="H2721" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2721" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2722">
@@ -87333,10 +87039,8 @@
       </c>
       <c r="F2722" t="inlineStr"/>
       <c r="G2722" t="inlineStr"/>
-      <c r="H2722" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2722" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2723">
@@ -87363,10 +87067,8 @@
       </c>
       <c r="F2723" t="inlineStr"/>
       <c r="G2723" t="inlineStr"/>
-      <c r="H2723" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2723" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2724">
@@ -87397,10 +87099,8 @@
           <t>50.4</t>
         </is>
       </c>
-      <c r="H2724" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2724" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2725">
@@ -87431,10 +87131,8 @@
           <t>50.3</t>
         </is>
       </c>
-      <c r="H2725" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2725" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2726">
@@ -87461,10 +87159,8 @@
       </c>
       <c r="F2726" t="inlineStr"/>
       <c r="G2726" t="inlineStr"/>
-      <c r="H2726" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2726" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2727">
@@ -87491,10 +87187,8 @@
       </c>
       <c r="F2727" t="inlineStr"/>
       <c r="G2727" t="inlineStr"/>
-      <c r="H2727" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2727" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2728">
@@ -87525,10 +87219,8 @@
           <t>2.1%</t>
         </is>
       </c>
-      <c r="H2728" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2728" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2729">
@@ -87555,10 +87247,8 @@
       </c>
       <c r="F2729" t="inlineStr"/>
       <c r="G2729" t="inlineStr"/>
-      <c r="H2729" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2729" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2730">
@@ -87593,10 +87283,8 @@
           <t>52.7</t>
         </is>
       </c>
-      <c r="H2730" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2730" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2731">
@@ -87627,10 +87315,8 @@
           <t>51.1</t>
         </is>
       </c>
-      <c r="H2731" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2731" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2732">
@@ -87657,10 +87343,8 @@
       </c>
       <c r="F2732" t="inlineStr"/>
       <c r="G2732" t="inlineStr"/>
-      <c r="H2732" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2732" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2733">
@@ -87691,10 +87375,8 @@
           <t>51.8</t>
         </is>
       </c>
-      <c r="H2733" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2733" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2734">
@@ -87725,10 +87407,8 @@
           <t>51.1</t>
         </is>
       </c>
-      <c r="H2734" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2734" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2735">
@@ -87759,10 +87439,8 @@
           <t>5.2%</t>
         </is>
       </c>
-      <c r="H2735" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2735" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2736">
@@ -87793,10 +87471,8 @@
           <t>5.2%</t>
         </is>
       </c>
-      <c r="H2736" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2736" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2737">
@@ -87827,10 +87503,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2737" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2737" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2738">
@@ -87853,10 +87527,8 @@
           <t>$-9.4B</t>
         </is>
       </c>
-      <c r="H2738" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2738" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2739">
@@ -87879,10 +87551,8 @@
           <t>$24.3B</t>
         </is>
       </c>
-      <c r="H2739" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2739" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2740">
@@ -87905,10 +87575,8 @@
           <t>$33.7B</t>
         </is>
       </c>
-      <c r="H2740" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2740" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2741">
@@ -87931,10 +87599,8 @@
       </c>
       <c r="F2741" t="inlineStr"/>
       <c r="G2741" t="inlineStr"/>
-      <c r="H2741" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2741" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2742">
@@ -87983,10 +87649,8 @@
           <t>57.9</t>
         </is>
       </c>
-      <c r="H2743" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2743" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2744">
@@ -88021,10 +87685,8 @@
           <t>56.8</t>
         </is>
       </c>
-      <c r="H2744" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2744" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2745">
@@ -88055,10 +87717,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2745" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2745" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2746">
@@ -88089,10 +87749,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H2746" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2746" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2747">
@@ -88123,10 +87781,8 @@
           <t>50.9</t>
         </is>
       </c>
-      <c r="H2747" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2747" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2748">
@@ -88157,10 +87813,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="H2748" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2748" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2749">
@@ -88187,10 +87841,8 @@
       </c>
       <c r="F2749" t="inlineStr"/>
       <c r="G2749" t="inlineStr"/>
-      <c r="H2749" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2749" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2750">
@@ -88221,10 +87873,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2750" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2750" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2751">
@@ -88251,10 +87901,8 @@
       </c>
       <c r="F2751" t="inlineStr"/>
       <c r="G2751" t="inlineStr"/>
-      <c r="H2751" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2751" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2752">
@@ -88281,10 +87929,8 @@
       </c>
       <c r="F2752" t="inlineStr"/>
       <c r="G2752" t="inlineStr"/>
-      <c r="H2752" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2752" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2753">
@@ -88311,10 +87957,8 @@
       </c>
       <c r="F2753" t="inlineStr"/>
       <c r="G2753" t="inlineStr"/>
-      <c r="H2753" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2753" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2754">
@@ -88341,10 +87985,8 @@
       </c>
       <c r="F2754" t="inlineStr"/>
       <c r="G2754" t="inlineStr"/>
-      <c r="H2754" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2754" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2755">
@@ -88379,10 +88021,8 @@
           <t>48.9</t>
         </is>
       </c>
-      <c r="H2755" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2755" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2756">
@@ -88417,10 +88057,8 @@
           <t>48.3</t>
         </is>
       </c>
-      <c r="H2756" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2756" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2757">
@@ -88455,10 +88093,8 @@
           <t>50.1</t>
         </is>
       </c>
-      <c r="H2757" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2757" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2758">
@@ -88493,10 +88129,8 @@
           <t>52.5</t>
         </is>
       </c>
-      <c r="H2758" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2758" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2759">
@@ -88531,10 +88165,8 @@
           <t>50.2</t>
         </is>
       </c>
-      <c r="H2759" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2759" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2760">
@@ -88569,10 +88201,8 @@
           <t>51.4</t>
         </is>
       </c>
-      <c r="H2760" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2760" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2761">
@@ -88603,10 +88233,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2761" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2761" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2762">
@@ -88637,10 +88265,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H2762" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2762" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2763">
@@ -88671,10 +88297,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H2763" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2763" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2764">
@@ -88709,10 +88333,8 @@
           <t>51.2</t>
         </is>
       </c>
-      <c r="H2764" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2764" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2765">
@@ -88747,10 +88369,8 @@
           <t>50.9</t>
         </is>
       </c>
-      <c r="H2765" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2765" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2766">
@@ -88781,10 +88401,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2766" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2766" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2767">
@@ -88815,10 +88433,8 @@
           <t>1%</t>
         </is>
       </c>
-      <c r="H2767" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2767" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2768">
@@ -88845,10 +88461,8 @@
       </c>
       <c r="F2768" t="inlineStr"/>
       <c r="G2768" t="inlineStr"/>
-      <c r="H2768" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2768" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2769">
@@ -88875,10 +88489,8 @@
       </c>
       <c r="F2769" t="inlineStr"/>
       <c r="G2769" t="inlineStr"/>
-      <c r="H2769" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2769" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2770">
@@ -88905,10 +88517,8 @@
       </c>
       <c r="F2770" t="inlineStr"/>
       <c r="G2770" t="inlineStr"/>
-      <c r="H2770" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2770" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2771">
@@ -88935,10 +88545,8 @@
       </c>
       <c r="F2771" t="inlineStr"/>
       <c r="G2771" t="inlineStr"/>
-      <c r="H2771" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2771" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2772">
@@ -88969,10 +88577,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2772" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2772" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2773">
@@ -89003,10 +88609,8 @@
           <t>3.7%</t>
         </is>
       </c>
-      <c r="H2773" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2773" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2774">
@@ -89037,10 +88641,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2774" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2774" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2775">
@@ -89071,10 +88673,8 @@
           <t>-1.4%</t>
         </is>
       </c>
-      <c r="H2775" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2775" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2776">
@@ -89101,10 +88701,8 @@
       </c>
       <c r="F2776" t="inlineStr"/>
       <c r="G2776" t="inlineStr"/>
-      <c r="H2776" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2776" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2777">
@@ -89131,10 +88729,8 @@
       </c>
       <c r="F2777" t="inlineStr"/>
       <c r="G2777" t="inlineStr"/>
-      <c r="H2777" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2777" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2778">
@@ -89161,10 +88757,8 @@
       </c>
       <c r="F2778" t="inlineStr"/>
       <c r="G2778" t="inlineStr"/>
-      <c r="H2778" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2778" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2779">
@@ -89191,10 +88785,8 @@
       </c>
       <c r="F2779" t="inlineStr"/>
       <c r="G2779" t="inlineStr"/>
-      <c r="H2779" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2779" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2780">
@@ -89221,10 +88813,8 @@
       </c>
       <c r="F2780" t="inlineStr"/>
       <c r="G2780" t="inlineStr"/>
-      <c r="H2780" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2780" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2781">
@@ -89255,10 +88845,8 @@
           <t>50.2</t>
         </is>
       </c>
-      <c r="H2781" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2781" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2782">
@@ -89289,10 +88877,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="H2782" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2782" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2783">
@@ -89323,10 +88909,8 @@
           <t>115.0K</t>
         </is>
       </c>
-      <c r="H2783" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2783" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2784">
@@ -89357,10 +88941,8 @@
           <t>C$ -1.3B</t>
         </is>
       </c>
-      <c r="H2784" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2784" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2785">
@@ -89391,10 +88973,8 @@
           <t>C$ 65.8B</t>
         </is>
       </c>
-      <c r="H2785" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2785" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2786">
@@ -89425,10 +89005,8 @@
           <t>C$ 64.5B</t>
         </is>
       </c>
-      <c r="H2786" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2786" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2787">
@@ -89459,10 +89037,8 @@
           <t>$ -103.0B</t>
         </is>
       </c>
-      <c r="H2787" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2787" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2788">
@@ -89493,10 +89069,8 @@
           <t>$ 260B</t>
         </is>
       </c>
-      <c r="H2788" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2788" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2789">
@@ -89527,10 +89101,8 @@
           <t>$ 363.0B</t>
         </is>
       </c>
-      <c r="H2789" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2789" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2790">
@@ -89553,10 +89125,8 @@
       <c r="E2790" t="inlineStr"/>
       <c r="F2790" t="inlineStr"/>
       <c r="G2790" t="inlineStr"/>
-      <c r="H2790" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2790" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2791">
@@ -89587,10 +89157,8 @@
           <t>49.5</t>
         </is>
       </c>
-      <c r="H2791" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2791" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2792">
@@ -89621,10 +89189,8 @@
           <t>49</t>
         </is>
       </c>
-      <c r="H2792" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2792" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2793">
@@ -89659,10 +89225,8 @@
           <t>52.4</t>
         </is>
       </c>
-      <c r="H2793" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2793" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2794">
@@ -89697,10 +89261,8 @@
           <t>52.8</t>
         </is>
       </c>
-      <c r="H2794" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2794" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2795">
@@ -89731,10 +89293,8 @@
           <t>54</t>
         </is>
       </c>
-      <c r="H2795" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2795" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2796">
@@ -89765,10 +89325,8 @@
           <t>58.1</t>
         </is>
       </c>
-      <c r="H2796" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2796" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2797">
@@ -89799,10 +89357,8 @@
           <t>51.3</t>
         </is>
       </c>
-      <c r="H2797" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2797" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2798">
@@ -89833,10 +89389,8 @@
           <t>54.1</t>
         </is>
       </c>
-      <c r="H2798" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2798" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2799">
@@ -89867,10 +89421,8 @@
           <t>64.8</t>
         </is>
       </c>
-      <c r="H2799" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2799" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2800">
@@ -89897,10 +89449,8 @@
       </c>
       <c r="F2800" t="inlineStr"/>
       <c r="G2800" t="inlineStr"/>
-      <c r="H2800" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2800" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2801">
@@ -89927,10 +89477,8 @@
       </c>
       <c r="F2801" t="inlineStr"/>
       <c r="G2801" t="inlineStr"/>
-      <c r="H2801" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2801" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2802">
@@ -89957,10 +89505,8 @@
       </c>
       <c r="F2802" t="inlineStr"/>
       <c r="G2802" t="inlineStr"/>
-      <c r="H2802" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2802" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2803">
@@ -89987,10 +89533,8 @@
       </c>
       <c r="F2803" t="inlineStr"/>
       <c r="G2803" t="inlineStr"/>
-      <c r="H2803" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2803" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2804">
@@ -90017,10 +89561,8 @@
       </c>
       <c r="F2804" t="inlineStr"/>
       <c r="G2804" t="inlineStr"/>
-      <c r="H2804" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2804" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2805">
@@ -90047,10 +89589,8 @@
       </c>
       <c r="F2805" t="inlineStr"/>
       <c r="G2805" t="inlineStr"/>
-      <c r="H2805" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2805" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2806">
@@ -90077,10 +89617,8 @@
       </c>
       <c r="F2806" t="inlineStr"/>
       <c r="G2806" t="inlineStr"/>
-      <c r="H2806" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2806" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2807">
@@ -90107,10 +89645,8 @@
       </c>
       <c r="F2807" t="inlineStr"/>
       <c r="G2807" t="inlineStr"/>
-      <c r="H2807" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2807" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2808">
@@ -90137,10 +89673,8 @@
       </c>
       <c r="F2808" t="inlineStr"/>
       <c r="G2808" t="inlineStr"/>
-      <c r="H2808" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2808" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2809">
@@ -90171,10 +89705,8 @@
           <t>2.40%</t>
         </is>
       </c>
-      <c r="H2809" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2809" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2810">
@@ -90205,10 +89737,8 @@
           <t>6.8</t>
         </is>
       </c>
-      <c r="H2810" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2810" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2811">
@@ -90239,10 +89769,8 @@
           <t>RUB 26.0T</t>
         </is>
       </c>
-      <c r="H2811" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2811" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2812">
@@ -90273,10 +89801,8 @@
           <t>3.8%</t>
         </is>
       </c>
-      <c r="H2812" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2812" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2813">
@@ -90307,10 +89833,8 @@
           <t>7.0%</t>
         </is>
       </c>
-      <c r="H2813" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2813" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2814">
@@ -90341,10 +89865,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H2814" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2814" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2815">
@@ -90371,10 +89893,8 @@
       </c>
       <c r="F2815" t="inlineStr"/>
       <c r="G2815" t="inlineStr"/>
-      <c r="H2815" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2815" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2816">
@@ -90401,10 +89921,8 @@
       </c>
       <c r="F2816" t="inlineStr"/>
       <c r="G2816" t="inlineStr"/>
-      <c r="H2816" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2816" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2817">
@@ -90427,10 +89945,8 @@
       <c r="E2817" t="inlineStr"/>
       <c r="F2817" t="inlineStr"/>
       <c r="G2817" t="inlineStr"/>
-      <c r="H2817" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2817" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2818">
@@ -90461,10 +89977,8 @@
           <t>-15</t>
         </is>
       </c>
-      <c r="H2818" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2818" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2819">
@@ -90495,10 +90009,8 @@
           <t>-25</t>
         </is>
       </c>
-      <c r="H2819" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2819" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2820">
@@ -90529,10 +90041,8 @@
           <t>-13</t>
         </is>
       </c>
-      <c r="H2820" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2820" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2821">
@@ -90563,10 +90073,8 @@
           <t>$ 8.1B</t>
         </is>
       </c>
-      <c r="H2821" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2821" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2822">
@@ -90593,10 +90101,8 @@
       </c>
       <c r="F2822" t="inlineStr"/>
       <c r="G2822" t="inlineStr"/>
-      <c r="H2822" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2822" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2823">
@@ -90623,10 +90129,8 @@
       </c>
       <c r="F2823" t="inlineStr"/>
       <c r="G2823" t="inlineStr"/>
-      <c r="H2823" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2823" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2824">
@@ -90653,10 +90157,8 @@
       </c>
       <c r="F2824" t="inlineStr"/>
       <c r="G2824" t="inlineStr"/>
-      <c r="H2824" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2824" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2825">
@@ -90687,10 +90189,8 @@
           <t>A$ 3.2B</t>
         </is>
       </c>
-      <c r="H2825" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2825" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2826">
@@ -90717,10 +90217,8 @@
       </c>
       <c r="F2826" t="inlineStr"/>
       <c r="G2826" t="inlineStr"/>
-      <c r="H2826" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2826" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2827">
@@ -90747,10 +90245,8 @@
       </c>
       <c r="F2827" t="inlineStr"/>
       <c r="G2827" t="inlineStr"/>
-      <c r="H2827" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2827" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2828">
@@ -90777,10 +90273,8 @@
       </c>
       <c r="F2828" t="inlineStr"/>
       <c r="G2828" t="inlineStr"/>
-      <c r="H2828" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2828" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2829">
@@ -90807,10 +90301,8 @@
       </c>
       <c r="F2829" t="inlineStr"/>
       <c r="G2829" t="inlineStr"/>
-      <c r="H2829" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2829" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2830">
@@ -90833,10 +90325,8 @@
       </c>
       <c r="F2830" t="inlineStr"/>
       <c r="G2830" t="inlineStr"/>
-      <c r="H2830" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2830" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2831">
@@ -90881,10 +90371,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2832" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2832" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2833">
@@ -90911,10 +90399,8 @@
       </c>
       <c r="F2833" t="inlineStr"/>
       <c r="G2833" t="inlineStr"/>
-      <c r="H2833" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2833" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2834">
@@ -90941,10 +90427,8 @@
       </c>
       <c r="F2834" t="inlineStr"/>
       <c r="G2834" t="inlineStr"/>
-      <c r="H2834" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2834" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2835">
@@ -90971,10 +90455,8 @@
       </c>
       <c r="F2835" t="inlineStr"/>
       <c r="G2835" t="inlineStr"/>
-      <c r="H2835" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2835" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2836">
@@ -91001,10 +90483,8 @@
       </c>
       <c r="F2836" t="inlineStr"/>
       <c r="G2836" t="inlineStr"/>
-      <c r="H2836" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2836" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2837">
@@ -91035,10 +90515,8 @@
           <t>53.5</t>
         </is>
       </c>
-      <c r="H2837" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2837" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2838">
@@ -91069,10 +90547,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2838" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2838" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2839">
@@ -91103,10 +90579,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H2839" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2839" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2840">
@@ -91129,10 +90603,8 @@
       <c r="E2840" t="inlineStr"/>
       <c r="F2840" t="inlineStr"/>
       <c r="G2840" t="inlineStr"/>
-      <c r="H2840" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2840" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2841">
@@ -91159,10 +90631,8 @@
       </c>
       <c r="F2841" t="inlineStr"/>
       <c r="G2841" t="inlineStr"/>
-      <c r="H2841" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2841" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2842">
@@ -91193,10 +90663,8 @@
           <t>46.5</t>
         </is>
       </c>
-      <c r="H2842" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2842" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2843">
@@ -91231,10 +90699,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H2843" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2843" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2844">
@@ -91257,10 +90723,8 @@
       <c r="E2844" t="inlineStr"/>
       <c r="F2844" t="inlineStr"/>
       <c r="G2844" t="inlineStr"/>
-      <c r="H2844" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2844" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2845">
@@ -91287,10 +90751,8 @@
       </c>
       <c r="F2845" t="inlineStr"/>
       <c r="G2845" t="inlineStr"/>
-      <c r="H2845" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2845" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2846">
@@ -91317,10 +90779,8 @@
       </c>
       <c r="F2846" t="inlineStr"/>
       <c r="G2846" t="inlineStr"/>
-      <c r="H2846" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2846" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2847">
@@ -91347,10 +90807,8 @@
       </c>
       <c r="F2847" t="inlineStr"/>
       <c r="G2847" t="inlineStr"/>
-      <c r="H2847" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2847" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2848">
@@ -91373,10 +90831,8 @@
       <c r="E2848" t="inlineStr"/>
       <c r="F2848" t="inlineStr"/>
       <c r="G2848" t="inlineStr"/>
-      <c r="H2848" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2848" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2849">
@@ -91407,10 +90863,8 @@
           <t>45K</t>
         </is>
       </c>
-      <c r="H2849" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2849" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2850">
@@ -91441,10 +90895,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="H2850" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2850" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2851">
@@ -91475,10 +90927,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2851" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2851" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2852">
@@ -91509,10 +90959,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2852" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2852" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2853">
@@ -91543,10 +90991,8 @@
           <t>1855.0K</t>
         </is>
       </c>
-      <c r="H2853" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2853" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2854">
@@ -91577,10 +91023,8 @@
           <t>215.5K</t>
         </is>
       </c>
-      <c r="H2854" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2854" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2855">
@@ -91611,10 +91055,8 @@
           <t>54.2</t>
         </is>
       </c>
-      <c r="H2855" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2855" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2856">
@@ -91641,10 +91083,8 @@
       </c>
       <c r="F2856" t="inlineStr"/>
       <c r="G2856" t="inlineStr"/>
-      <c r="H2856" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2856" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2857">
@@ -91671,10 +91111,8 @@
       </c>
       <c r="F2857" t="inlineStr"/>
       <c r="G2857" t="inlineStr"/>
-      <c r="H2857" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2857" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2858">
@@ -91701,10 +91139,8 @@
       </c>
       <c r="F2858" t="inlineStr"/>
       <c r="G2858" t="inlineStr"/>
-      <c r="H2858" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2858" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2859">
@@ -91731,10 +91167,8 @@
       </c>
       <c r="F2859" t="inlineStr"/>
       <c r="G2859" t="inlineStr"/>
-      <c r="H2859" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2859" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2860">
@@ -91757,10 +91191,8 @@
       <c r="E2860" t="inlineStr"/>
       <c r="F2860" t="inlineStr"/>
       <c r="G2860" t="inlineStr"/>
-      <c r="H2860" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2860" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2861">
@@ -91783,10 +91215,8 @@
       <c r="E2861" t="inlineStr"/>
       <c r="F2861" t="inlineStr"/>
       <c r="G2861" t="inlineStr"/>
-      <c r="H2861" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2861" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2862">
@@ -91817,10 +91247,8 @@
           <t>9.75%</t>
         </is>
       </c>
-      <c r="H2862" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2862" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2863">
@@ -91843,10 +91271,8 @@
       <c r="E2863" t="inlineStr"/>
       <c r="F2863" t="inlineStr"/>
       <c r="G2863" t="inlineStr"/>
-      <c r="H2863" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2863" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2864">
@@ -91869,10 +91295,8 @@
       <c r="E2864" t="inlineStr"/>
       <c r="F2864" t="inlineStr"/>
       <c r="G2864" t="inlineStr"/>
-      <c r="H2864" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2864" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2865">
@@ -91899,10 +91323,8 @@
       </c>
       <c r="F2865" t="inlineStr"/>
       <c r="G2865" t="inlineStr"/>
-      <c r="H2865" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2865" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2866">
@@ -91933,10 +91355,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H2866" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2866" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2867">
@@ -91963,10 +91383,8 @@
       </c>
       <c r="F2867" t="inlineStr"/>
       <c r="G2867" t="inlineStr"/>
-      <c r="H2867" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2867" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2868">
@@ -91989,10 +91407,8 @@
       <c r="E2868" t="inlineStr"/>
       <c r="F2868" t="inlineStr"/>
       <c r="G2868" t="inlineStr"/>
-      <c r="H2868" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2868" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2869">
@@ -92019,10 +91435,8 @@
       </c>
       <c r="F2869" t="inlineStr"/>
       <c r="G2869" t="inlineStr"/>
-      <c r="H2869" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2869" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2870">
@@ -92049,10 +91463,8 @@
       </c>
       <c r="F2870" t="inlineStr"/>
       <c r="G2870" t="inlineStr"/>
-      <c r="H2870" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2870" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2871">
@@ -92075,10 +91487,8 @@
       </c>
       <c r="F2871" t="inlineStr"/>
       <c r="G2871" t="inlineStr"/>
-      <c r="H2871" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2871" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2872">
@@ -92101,10 +91511,8 @@
       </c>
       <c r="F2872" t="inlineStr"/>
       <c r="G2872" t="inlineStr"/>
-      <c r="H2872" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2872" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2873">
@@ -92127,10 +91535,8 @@
       </c>
       <c r="F2873" t="inlineStr"/>
       <c r="G2873" t="inlineStr"/>
-      <c r="H2873" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2873" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2874">
@@ -92153,10 +91559,8 @@
       </c>
       <c r="F2874" t="inlineStr"/>
       <c r="G2874" t="inlineStr"/>
-      <c r="H2874" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2874" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2875">
@@ -92179,10 +91583,8 @@
       </c>
       <c r="F2875" t="inlineStr"/>
       <c r="G2875" t="inlineStr"/>
-      <c r="H2875" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2875" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2876">
@@ -92205,10 +91607,8 @@
       </c>
       <c r="F2876" t="inlineStr"/>
       <c r="G2876" t="inlineStr"/>
-      <c r="H2876" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2876" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2877">
@@ -92231,50 +91631,72 @@
       </c>
       <c r="F2877" t="inlineStr"/>
       <c r="G2877" t="inlineStr"/>
-      <c r="H2877" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2877" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2878">
       <c r="A2878" t="inlineStr">
         <is>
-          <t>Friday February 07 2025</t>
-        </is>
-      </c>
-      <c r="B2878" t="inlineStr"/>
-      <c r="C2878" t="inlineStr"/>
+          <t>07:00 AM</t>
+        </is>
+      </c>
+      <c r="B2878" t="inlineStr">
+        <is>
+          <t>MX</t>
+        </is>
+      </c>
+      <c r="C2878" t="inlineStr">
+        <is>
+          <t>Inflation Rate YoYJAN</t>
+        </is>
+      </c>
       <c r="D2878" t="inlineStr"/>
-      <c r="E2878" t="inlineStr"/>
+      <c r="E2878" t="inlineStr">
+        <is>
+          <t>4.21%</t>
+        </is>
+      </c>
       <c r="F2878" t="inlineStr"/>
-      <c r="G2878" t="inlineStr"/>
-      <c r="H2878" t="inlineStr"/>
+      <c r="G2878" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="H2878" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2879">
       <c r="A2879" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2879" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2879" t="inlineStr">
         <is>
-          <t>Coincident Index PrelDEC</t>
+          <t>Core Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2879" t="inlineStr"/>
       <c r="E2879" t="inlineStr">
         <is>
-          <t>115.4</t>
+          <t>0.51%</t>
         </is>
       </c>
       <c r="F2879" t="inlineStr"/>
-      <c r="G2879" t="inlineStr"/>
+      <c r="G2879" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H2879" t="inlineStr">
         <is>
           <t>3</t>
@@ -92284,29 +91706,29 @@
     <row r="2880">
       <c r="A2880" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2880" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2880" t="inlineStr">
         <is>
-          <t>Leading Economic Index PrelDEC</t>
+          <t>Core Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2880" t="inlineStr"/>
       <c r="E2880" t="inlineStr">
         <is>
-          <t>107.5</t>
+          <t>3.65%</t>
         </is>
       </c>
       <c r="F2880" t="inlineStr"/>
       <c r="G2880" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H2880" t="inlineStr">
@@ -92318,29 +91740,29 @@
     <row r="2881">
       <c r="A2881" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2881" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2881" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Car Production MoMJAN</t>
         </is>
       </c>
       <c r="D2881" t="inlineStr"/>
       <c r="E2881" t="inlineStr">
         <is>
-          <t>$65.46B</t>
+          <t>-19.5%</t>
         </is>
       </c>
       <c r="F2881" t="inlineStr"/>
       <c r="G2881" t="inlineStr">
         <is>
-          <t>$65.0B</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="H2881" t="inlineStr">
@@ -92352,97 +91774,97 @@
     <row r="2882">
       <c r="A2882" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2882" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2882" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>New Car Registrations MoMJAN</t>
         </is>
       </c>
       <c r="D2882" t="inlineStr"/>
       <c r="E2882" t="inlineStr">
         <is>
-          <t>€19.7B</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F2882" t="inlineStr"/>
       <c r="G2882" t="inlineStr">
         <is>
-          <t>€ 22B</t>
+          <t>-1.5%</t>
         </is>
       </c>
       <c r="H2882" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2883">
       <c r="A2883" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2883" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2883" t="inlineStr">
         <is>
-          <t>Exports MoMDEC</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2883" t="inlineStr"/>
       <c r="E2883" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>6.7%</t>
         </is>
       </c>
       <c r="F2883" t="inlineStr"/>
       <c r="G2883" t="inlineStr">
         <is>
-          <t>130%</t>
+          <t>6.8%</t>
         </is>
       </c>
       <c r="H2883" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2884">
       <c r="A2884" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2884" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2884" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>Employment ChangeJAN</t>
         </is>
       </c>
       <c r="D2884" t="inlineStr"/>
       <c r="E2884" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>90.9K</t>
         </is>
       </c>
       <c r="F2884" t="inlineStr"/>
       <c r="G2884" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>5K</t>
         </is>
       </c>
       <c r="H2884" t="inlineStr">
@@ -92454,61 +91876,65 @@
     <row r="2885">
       <c r="A2885" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2885" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2885" t="inlineStr">
         <is>
-          <t>Imports MoMDEC</t>
+          <t>Full Time Employment ChgJAN</t>
         </is>
       </c>
       <c r="D2885" t="inlineStr"/>
       <c r="E2885" t="inlineStr">
         <is>
-          <t>-3.3%</t>
+          <t>57.5K</t>
         </is>
       </c>
       <c r="F2885" t="inlineStr"/>
       <c r="G2885" t="inlineStr">
         <is>
-          <t>108%</t>
+          <t>-3K</t>
         </is>
       </c>
       <c r="H2885" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2886">
       <c r="A2886" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2886" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2886" t="inlineStr">
         <is>
-          <t>Halifax House Price Index MoMJAN</t>
+          <t>Part Time Employment ChgJAN</t>
         </is>
       </c>
       <c r="D2886" t="inlineStr"/>
       <c r="E2886" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>33.5K</t>
         </is>
       </c>
       <c r="F2886" t="inlineStr"/>
-      <c r="G2886" t="inlineStr"/>
+      <c r="G2886" t="inlineStr">
+        <is>
+          <t>8K</t>
+        </is>
+      </c>
       <c r="H2886" t="inlineStr">
         <is>
           <t>2</t>
@@ -92518,27 +91944,31 @@
     <row r="2887">
       <c r="A2887" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2887" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2887" t="inlineStr">
         <is>
-          <t>Halifax House Price Index YoYJAN</t>
+          <t>Participation RateJAN</t>
         </is>
       </c>
       <c r="D2887" t="inlineStr"/>
       <c r="E2887" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>65.1%</t>
         </is>
       </c>
       <c r="F2887" t="inlineStr"/>
-      <c r="G2887" t="inlineStr"/>
+      <c r="G2887" t="inlineStr">
+        <is>
+          <t>65.0%</t>
+        </is>
+      </c>
       <c r="H2887" t="inlineStr">
         <is>
           <t>2</t>
@@ -92548,221 +91978,233 @@
     <row r="2888">
       <c r="A2888" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2888" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2888" t="inlineStr">
         <is>
-          <t>Inflation Report</t>
+          <t>Average Hourly Wages YoYJAN</t>
         </is>
       </c>
       <c r="D2888" t="inlineStr"/>
-      <c r="E2888" t="inlineStr"/>
+      <c r="E2888" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
       <c r="F2888" t="inlineStr"/>
-      <c r="G2888" t="inlineStr"/>
+      <c r="G2888" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
       <c r="H2888" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2889">
       <c r="A2889" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2889" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2889" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Non Farm PayrollsJAN</t>
         </is>
       </c>
       <c r="D2889" t="inlineStr"/>
       <c r="E2889" t="inlineStr">
         <is>
-          <t>€-7.1B</t>
+          <t>256K</t>
         </is>
       </c>
       <c r="F2889" t="inlineStr"/>
       <c r="G2889" t="inlineStr">
         <is>
-          <t>€ -7.2B</t>
+          <t>205K</t>
         </is>
       </c>
       <c r="H2889" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2890">
       <c r="A2890" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2890" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2890" t="inlineStr">
         <is>
-          <t>Current AccountDEC</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2890" t="inlineStr"/>
       <c r="E2890" t="inlineStr">
         <is>
-          <t>€-1.7B</t>
+          <t>4.1%</t>
         </is>
       </c>
       <c r="F2890" t="inlineStr"/>
       <c r="G2890" t="inlineStr">
         <is>
-          <t>€ -2.5B</t>
+          <t>4.1%</t>
         </is>
       </c>
       <c r="H2890" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2891">
       <c r="A2891" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2891" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2891" t="inlineStr">
         <is>
-          <t>ExportsDEC</t>
+          <t>Average Hourly Earnings MoMJAN</t>
         </is>
       </c>
       <c r="D2891" t="inlineStr"/>
       <c r="E2891" t="inlineStr">
         <is>
-          <t>€50.101B</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F2891" t="inlineStr"/>
       <c r="G2891" t="inlineStr">
         <is>
-          <t>€ 49.7B</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2891" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2892">
       <c r="A2892" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2892" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2892" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Average Hourly Earnings YoYJAN</t>
         </is>
       </c>
       <c r="D2892" t="inlineStr"/>
       <c r="E2892" t="inlineStr">
         <is>
-          <t>€275.078B</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="F2892" t="inlineStr"/>
-      <c r="G2892" t="inlineStr"/>
+      <c r="G2892" t="inlineStr">
+        <is>
+          <t>3.9%</t>
+        </is>
+      </c>
       <c r="H2892" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2893">
       <c r="A2893" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2893" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2893" t="inlineStr">
         <is>
-          <t>ImportsDEC</t>
+          <t>Participation RateJAN</t>
         </is>
       </c>
       <c r="D2893" t="inlineStr"/>
       <c r="E2893" t="inlineStr">
         <is>
-          <t>€57.186B</t>
+          <t>62.5%</t>
         </is>
       </c>
       <c r="F2893" t="inlineStr"/>
       <c r="G2893" t="inlineStr">
         <is>
-          <t>€ 56.9B</t>
+          <t>62.5%</t>
         </is>
       </c>
       <c r="H2893" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2894">
       <c r="A2894" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2894" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2894" t="inlineStr">
         <is>
-          <t>Private Non Farm Payrolls QoQ PrelQ4</t>
+          <t>Average Weekly HoursJAN</t>
         </is>
       </c>
       <c r="D2894" t="inlineStr"/>
       <c r="E2894" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>34.3</t>
         </is>
       </c>
       <c r="F2894" t="inlineStr"/>
       <c r="G2894" t="inlineStr">
         <is>
-          <t>20200%</t>
+          <t>34.3</t>
         </is>
       </c>
       <c r="H2894" t="inlineStr">
@@ -92774,29 +92216,29 @@
     <row r="2895">
       <c r="A2895" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2895" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2895" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Government PayrollsJAN</t>
         </is>
       </c>
       <c r="D2895" t="inlineStr"/>
       <c r="E2895" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>33K</t>
         </is>
       </c>
       <c r="F2895" t="inlineStr"/>
       <c r="G2895" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>25K</t>
         </is>
       </c>
       <c r="H2895" t="inlineStr">
@@ -92808,27 +92250,31 @@
     <row r="2896">
       <c r="A2896" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2896" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2896" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Manufacturing PayrollsJAN</t>
         </is>
       </c>
       <c r="D2896" t="inlineStr"/>
       <c r="E2896" t="inlineStr">
         <is>
-          <t>S$506.7B</t>
+          <t>-13K</t>
         </is>
       </c>
       <c r="F2896" t="inlineStr"/>
-      <c r="G2896" t="inlineStr"/>
+      <c r="G2896" t="inlineStr">
+        <is>
+          <t>-5K</t>
+        </is>
+      </c>
       <c r="H2896" t="inlineStr">
         <is>
           <t>3</t>
@@ -92838,27 +92284,31 @@
     <row r="2897">
       <c r="A2897" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2897" t="inlineStr">
         <is>
-          <t>WL</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2897" t="inlineStr">
         <is>
-          <t>FAO Food Price IndexJAN</t>
+          <t>Nonfarm Payrolls PrivateJAN</t>
         </is>
       </c>
       <c r="D2897" t="inlineStr"/>
       <c r="E2897" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>223K</t>
         </is>
       </c>
       <c r="F2897" t="inlineStr"/>
-      <c r="G2897" t="inlineStr"/>
+      <c r="G2897" t="inlineStr">
+        <is>
+          <t>180K</t>
+        </is>
+      </c>
       <c r="H2897" t="inlineStr">
         <is>
           <t>3</t>
@@ -92868,27 +92318,31 @@
     <row r="2898">
       <c r="A2898" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2898" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2898" t="inlineStr">
         <is>
-          <t>BBA Mortgage RateJAN</t>
+          <t>U-6 Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2898" t="inlineStr"/>
       <c r="E2898" t="inlineStr">
         <is>
-          <t>7.50%</t>
+          <t>7.5%</t>
         </is>
       </c>
       <c r="F2898" t="inlineStr"/>
-      <c r="G2898" t="inlineStr"/>
+      <c r="G2898" t="inlineStr">
+        <is>
+          <t>7.5%</t>
+        </is>
+      </c>
       <c r="H2898" t="inlineStr">
         <is>
           <t>3</t>
@@ -92898,23 +92352,31 @@
     <row r="2899">
       <c r="A2899" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:45 AM</t>
         </is>
       </c>
       <c r="B2899" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2899" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/31</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2899" t="inlineStr"/>
-      <c r="E2899" t="inlineStr"/>
+      <c r="E2899" t="inlineStr">
+        <is>
+          <t>$609.1B</t>
+        </is>
+      </c>
       <c r="F2899" t="inlineStr"/>
-      <c r="G2899" t="inlineStr"/>
+      <c r="G2899" t="inlineStr">
+        <is>
+          <t>$607.0B</t>
+        </is>
+      </c>
       <c r="H2899" t="inlineStr">
         <is>
           <t>3</t>
@@ -92924,165 +92386,161 @@
     <row r="2900">
       <c r="A2900" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2900" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2900" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Treasury Cash BalanceJAN</t>
         </is>
       </c>
       <c r="D2900" t="inlineStr"/>
       <c r="E2900" t="inlineStr">
         <is>
-          <t>0.52%</t>
+          <t>TRY-323.9B</t>
         </is>
       </c>
       <c r="F2900" t="inlineStr"/>
-      <c r="G2900" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2900" t="inlineStr"/>
       <c r="H2900" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2901">
       <c r="A2901" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2901" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2901" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Full Year GDP Growth2024</t>
         </is>
       </c>
       <c r="D2901" t="inlineStr"/>
       <c r="E2901" t="inlineStr">
         <is>
-          <t>4.83%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="F2901" t="inlineStr"/>
       <c r="G2901" t="inlineStr">
         <is>
-          <t>4.7%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="H2901" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2902">
       <c r="A2902" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2902" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2902" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Michigan Consumer Sentiment PrelFEB</t>
         </is>
       </c>
       <c r="D2902" t="inlineStr"/>
       <c r="E2902" t="inlineStr">
         <is>
-          <t>0.38%</t>
+          <t>71.1</t>
         </is>
       </c>
       <c r="F2902" t="inlineStr"/>
       <c r="G2902" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>72</t>
         </is>
       </c>
       <c r="H2902" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2903">
       <c r="A2903" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2903" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2903" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Michigan 5 Year Inflation Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2903" t="inlineStr"/>
       <c r="E2903" t="inlineStr">
         <is>
-          <t>4.21%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="F2903" t="inlineStr"/>
       <c r="G2903" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H2903" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2904">
       <c r="A2904" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2904" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2904" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMJAN</t>
+          <t>Michigan Consumer Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2904" t="inlineStr"/>
       <c r="E2904" t="inlineStr">
         <is>
-          <t>0.51%</t>
+          <t>69.3</t>
         </is>
       </c>
       <c r="F2904" t="inlineStr"/>
       <c r="G2904" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>69.5</t>
         </is>
       </c>
       <c r="H2904" t="inlineStr">
@@ -93094,29 +92552,29 @@
     <row r="2905">
       <c r="A2905" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2905" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2905" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJAN</t>
+          <t>Michigan Current Conditions PrelFEB</t>
         </is>
       </c>
       <c r="D2905" t="inlineStr"/>
       <c r="E2905" t="inlineStr">
         <is>
-          <t>3.65%</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F2905" t="inlineStr"/>
       <c r="G2905" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>74.3</t>
         </is>
       </c>
       <c r="H2905" t="inlineStr">
@@ -93128,29 +92586,29 @@
     <row r="2906">
       <c r="A2906" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2906" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2906" t="inlineStr">
         <is>
-          <t>Car Production MoMJAN</t>
+          <t>Michigan Inflation Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2906" t="inlineStr"/>
       <c r="E2906" t="inlineStr">
         <is>
-          <t>-19.5%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="F2906" t="inlineStr"/>
       <c r="G2906" t="inlineStr">
         <is>
-          <t>-5.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H2906" t="inlineStr">
@@ -93162,29 +92620,33 @@
     <row r="2907">
       <c r="A2907" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2907" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2907" t="inlineStr">
         <is>
-          <t>New Car Registrations MoMJAN</t>
+          <t>Wholesale Inventories MoMDEC</t>
         </is>
       </c>
       <c r="D2907" t="inlineStr"/>
       <c r="E2907" t="inlineStr">
         <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="F2907" t="inlineStr"/>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="F2907" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
       <c r="G2907" t="inlineStr">
         <is>
-          <t>-1.5%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H2907" t="inlineStr">
@@ -93196,199 +92658,179 @@
     <row r="2908">
       <c r="A2908" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B2908" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2908" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>Balance of TradeJAN</t>
         </is>
       </c>
       <c r="D2908" t="inlineStr"/>
       <c r="E2908" t="inlineStr">
         <is>
-          <t>6.7%</t>
+          <t>$4.8B</t>
         </is>
       </c>
       <c r="F2908" t="inlineStr"/>
       <c r="G2908" t="inlineStr">
         <is>
-          <t>6.8%</t>
+          <t>$4.1B</t>
         </is>
       </c>
       <c r="H2908" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2909">
       <c r="A2909" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B2909" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2909" t="inlineStr">
         <is>
-          <t>Employment ChangeJAN</t>
+          <t>Baker Hughes Oil Rig CountFEB/07</t>
         </is>
       </c>
       <c r="D2909" t="inlineStr"/>
-      <c r="E2909" t="inlineStr">
-        <is>
-          <t>90.9K</t>
-        </is>
-      </c>
+      <c r="E2909" t="inlineStr"/>
       <c r="F2909" t="inlineStr"/>
-      <c r="G2909" t="inlineStr">
-        <is>
-          <t>5K</t>
-        </is>
-      </c>
+      <c r="G2909" t="inlineStr"/>
       <c r="H2909" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2910">
       <c r="A2910" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B2910" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2910" t="inlineStr">
         <is>
-          <t>Full Time Employment ChgJAN</t>
+          <t>Baker Hughes Total Rigs CountFEB/07</t>
         </is>
       </c>
       <c r="D2910" t="inlineStr"/>
-      <c r="E2910" t="inlineStr">
-        <is>
-          <t>57.5K</t>
-        </is>
-      </c>
+      <c r="E2910" t="inlineStr"/>
       <c r="F2910" t="inlineStr"/>
-      <c r="G2910" t="inlineStr">
-        <is>
-          <t>-3K</t>
-        </is>
-      </c>
+      <c r="G2910" t="inlineStr"/>
       <c r="H2910" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2911">
       <c r="A2911" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B2911" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C2911" t="inlineStr">
         <is>
-          <t>Part Time Employment ChgJAN</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2911" t="inlineStr"/>
       <c r="E2911" t="inlineStr">
         <is>
-          <t>33.5K</t>
+          <t>-1.7%</t>
         </is>
       </c>
       <c r="F2911" t="inlineStr"/>
       <c r="G2911" t="inlineStr">
         <is>
-          <t>8K</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H2911" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2912">
       <c r="A2912" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2912" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2912" t="inlineStr">
         <is>
-          <t>Participation RateJAN</t>
+          <t>Consumer Credit ChangeDEC</t>
         </is>
       </c>
       <c r="D2912" t="inlineStr"/>
       <c r="E2912" t="inlineStr">
         <is>
-          <t>65.1%</t>
+          <t>$-7.49B</t>
         </is>
       </c>
       <c r="F2912" t="inlineStr"/>
       <c r="G2912" t="inlineStr">
         <is>
-          <t>65.0%</t>
+          <t>$ 18B</t>
         </is>
       </c>
       <c r="H2912" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2913">
-      <c r="A2913" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2913" t="inlineStr"/>
       <c r="B2913" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2913" t="inlineStr">
         <is>
-          <t>Average Hourly Wages YoYJAN</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2913" t="inlineStr"/>
       <c r="E2913" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>$3.202T</t>
         </is>
       </c>
       <c r="F2913" t="inlineStr"/>
       <c r="G2913" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>$3.3T</t>
         </is>
       </c>
       <c r="H2913" t="inlineStr">
@@ -93398,79 +92840,59 @@
       </c>
     </row>
     <row r="2914">
-      <c r="A2914" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2914" t="inlineStr"/>
       <c r="B2914" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2914" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsJAN</t>
+          <t>SACCI Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2914" t="inlineStr"/>
-      <c r="E2914" t="inlineStr">
-        <is>
-          <t>256K</t>
-        </is>
-      </c>
+      <c r="E2914" t="inlineStr"/>
       <c r="F2914" t="inlineStr"/>
-      <c r="G2914" t="inlineStr">
-        <is>
-          <t>205K</t>
-        </is>
-      </c>
+      <c r="G2914" t="inlineStr"/>
       <c r="H2914" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2915">
-      <c r="A2915" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2915" t="inlineStr"/>
       <c r="B2915" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2915" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>SACCI Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D2915" t="inlineStr"/>
       <c r="E2915" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>118.1</t>
         </is>
       </c>
       <c r="F2915" t="inlineStr"/>
       <c r="G2915" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>116</t>
         </is>
       </c>
       <c r="H2915" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2916">
-      <c r="A2916" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2916" t="inlineStr"/>
       <c r="B2916" t="inlineStr">
         <is>
           <t>US</t>
@@ -93478,33 +92900,25 @@
       </c>
       <c r="C2916" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings MoMJAN</t>
+          <t>Used Car Prices MoMJAN</t>
         </is>
       </c>
       <c r="D2916" t="inlineStr"/>
       <c r="E2916" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F2916" t="inlineStr"/>
-      <c r="G2916" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2916" t="inlineStr"/>
       <c r="H2916" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2917">
-      <c r="A2917" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2917" t="inlineStr"/>
       <c r="B2917" t="inlineStr">
         <is>
           <t>US</t>
@@ -93512,936 +92926,134 @@
       </c>
       <c r="C2917" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoYJAN</t>
+          <t>Used Car Prices YoYJAN</t>
         </is>
       </c>
       <c r="D2917" t="inlineStr"/>
       <c r="E2917" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2917" t="inlineStr"/>
-      <c r="G2917" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
+      <c r="G2917" t="inlineStr"/>
       <c r="H2917" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2918">
       <c r="A2918" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B2918" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2918" t="inlineStr">
-        <is>
-          <t>Participation RateJAN</t>
-        </is>
-      </c>
+          <t>Saturday February 08 2025</t>
+        </is>
+      </c>
+      <c r="B2918" t="inlineStr"/>
+      <c r="C2918" t="inlineStr"/>
       <c r="D2918" t="inlineStr"/>
-      <c r="E2918" t="inlineStr">
-        <is>
-          <t>62.5%</t>
-        </is>
-      </c>
+      <c r="E2918" t="inlineStr"/>
       <c r="F2918" t="inlineStr"/>
-      <c r="G2918" t="inlineStr">
-        <is>
-          <t>62.5%</t>
-        </is>
-      </c>
-      <c r="H2918" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G2918" t="inlineStr"/>
+      <c r="H2918" t="inlineStr"/>
     </row>
     <row r="2919">
       <c r="A2919" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2919" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2919" t="inlineStr">
         <is>
-          <t>Average Weekly HoursJAN</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2919" t="inlineStr"/>
       <c r="E2919" t="inlineStr">
         <is>
-          <t>34.3</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2919" t="inlineStr"/>
       <c r="G2919" t="inlineStr">
         <is>
-          <t>34.3</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="H2919" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2920">
       <c r="A2920" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2920" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2920" t="inlineStr">
         <is>
-          <t>Government PayrollsJAN</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2920" t="inlineStr"/>
       <c r="E2920" t="inlineStr">
         <is>
-          <t>33K</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="F2920" t="inlineStr"/>
       <c r="G2920" t="inlineStr">
         <is>
-          <t>25K</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H2920" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2921">
       <c r="A2921" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2921" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2921" t="inlineStr">
         <is>
-          <t>Manufacturing PayrollsJAN</t>
+          <t>PPI YoYJAN</t>
         </is>
       </c>
       <c r="D2921" t="inlineStr"/>
       <c r="E2921" t="inlineStr">
         <is>
-          <t>-13K</t>
+          <t>-2.3%</t>
         </is>
       </c>
       <c r="F2921" t="inlineStr"/>
       <c r="G2921" t="inlineStr">
         <is>
-          <t>-5K</t>
+          <t>-2.4%</t>
         </is>
       </c>
       <c r="H2921" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2922">
-      <c r="A2922" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B2922" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2922" t="inlineStr">
-        <is>
-          <t>Nonfarm Payrolls PrivateJAN</t>
-        </is>
-      </c>
-      <c r="D2922" t="inlineStr"/>
-      <c r="E2922" t="inlineStr">
-        <is>
-          <t>223K</t>
-        </is>
-      </c>
-      <c r="F2922" t="inlineStr"/>
-      <c r="G2922" t="inlineStr">
-        <is>
-          <t>180K</t>
-        </is>
-      </c>
-      <c r="H2922" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2923">
-      <c r="A2923" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B2923" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2923" t="inlineStr">
-        <is>
-          <t>U-6 Unemployment RateJAN</t>
-        </is>
-      </c>
-      <c r="D2923" t="inlineStr"/>
-      <c r="E2923" t="inlineStr">
-        <is>
-          <t>7.5%</t>
-        </is>
-      </c>
-      <c r="F2923" t="inlineStr"/>
-      <c r="G2923" t="inlineStr">
-        <is>
-          <t>7.5%</t>
-        </is>
-      </c>
-      <c r="H2923" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2924">
-      <c r="A2924" t="inlineStr">
-        <is>
-          <t>08:45 AM</t>
-        </is>
-      </c>
-      <c r="B2924" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2924" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN</t>
-        </is>
-      </c>
-      <c r="D2924" t="inlineStr"/>
-      <c r="E2924" t="inlineStr">
-        <is>
-          <t>$609.1B</t>
-        </is>
-      </c>
-      <c r="F2924" t="inlineStr"/>
-      <c r="G2924" t="inlineStr">
-        <is>
-          <t>$607.0B</t>
-        </is>
-      </c>
-      <c r="H2924" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2925">
-      <c r="A2925" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2925" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2925" t="inlineStr">
-        <is>
-          <t>Treasury Cash BalanceJAN</t>
-        </is>
-      </c>
-      <c r="D2925" t="inlineStr"/>
-      <c r="E2925" t="inlineStr">
-        <is>
-          <t>TRY-323.9B</t>
-        </is>
-      </c>
-      <c r="F2925" t="inlineStr"/>
-      <c r="G2925" t="inlineStr"/>
-      <c r="H2925" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2926">
-      <c r="A2926" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2926" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2926" t="inlineStr">
-        <is>
-          <t>Full Year GDP Growth2024</t>
-        </is>
-      </c>
-      <c r="D2926" t="inlineStr"/>
-      <c r="E2926" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="F2926" t="inlineStr"/>
-      <c r="G2926" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="H2926" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2927">
-      <c r="A2927" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2927" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2927" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2927" t="inlineStr"/>
-      <c r="E2927" t="inlineStr">
-        <is>
-          <t>71.1</t>
-        </is>
-      </c>
-      <c r="F2927" t="inlineStr"/>
-      <c r="G2927" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="H2927" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2928">
-      <c r="A2928" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2928" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2928" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2928" t="inlineStr"/>
-      <c r="E2928" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="F2928" t="inlineStr"/>
-      <c r="G2928" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="H2928" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2929">
-      <c r="A2929" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2929" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2929" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2929" t="inlineStr"/>
-      <c r="E2929" t="inlineStr">
-        <is>
-          <t>69.3</t>
-        </is>
-      </c>
-      <c r="F2929" t="inlineStr"/>
-      <c r="G2929" t="inlineStr">
-        <is>
-          <t>69.5</t>
-        </is>
-      </c>
-      <c r="H2929" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2930">
-      <c r="A2930" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2930" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2930" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2930" t="inlineStr"/>
-      <c r="E2930" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="F2930" t="inlineStr"/>
-      <c r="G2930" t="inlineStr">
-        <is>
-          <t>74.3</t>
-        </is>
-      </c>
-      <c r="H2930" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2931">
-      <c r="A2931" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2931" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2931" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2931" t="inlineStr"/>
-      <c r="E2931" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F2931" t="inlineStr"/>
-      <c r="G2931" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="H2931" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2932">
-      <c r="A2932" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2932" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2932" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2932" t="inlineStr"/>
-      <c r="E2932" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F2932" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="G2932" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="H2932" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2933">
-      <c r="A2933" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B2933" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2933" t="inlineStr">
-        <is>
-          <t>Balance of TradeJAN</t>
-        </is>
-      </c>
-      <c r="D2933" t="inlineStr"/>
-      <c r="E2933" t="inlineStr">
-        <is>
-          <t>$4.8B</t>
-        </is>
-      </c>
-      <c r="F2933" t="inlineStr"/>
-      <c r="G2933" t="inlineStr">
-        <is>
-          <t>$4.1B</t>
-        </is>
-      </c>
-      <c r="H2933" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2934">
-      <c r="A2934" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B2934" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2934" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountFEB/07</t>
-        </is>
-      </c>
-      <c r="D2934" t="inlineStr"/>
-      <c r="E2934" t="inlineStr"/>
-      <c r="F2934" t="inlineStr"/>
-      <c r="G2934" t="inlineStr"/>
-      <c r="H2934" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2935">
-      <c r="A2935" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B2935" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2935" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountFEB/07</t>
-        </is>
-      </c>
-      <c r="D2935" t="inlineStr"/>
-      <c r="E2935" t="inlineStr"/>
-      <c r="F2935" t="inlineStr"/>
-      <c r="G2935" t="inlineStr"/>
-      <c r="H2935" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2936">
-      <c r="A2936" t="inlineStr">
-        <is>
-          <t>02:00 PM</t>
-        </is>
-      </c>
-      <c r="B2936" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C2936" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2936" t="inlineStr"/>
-      <c r="E2936" t="inlineStr">
-        <is>
-          <t>-1.7%</t>
-        </is>
-      </c>
-      <c r="F2936" t="inlineStr"/>
-      <c r="G2936" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="H2936" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2937">
-      <c r="A2937" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B2937" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2937" t="inlineStr">
-        <is>
-          <t>Consumer Credit ChangeDEC</t>
-        </is>
-      </c>
-      <c r="D2937" t="inlineStr"/>
-      <c r="E2937" t="inlineStr">
-        <is>
-          <t>$-7.49B</t>
-        </is>
-      </c>
-      <c r="F2937" t="inlineStr"/>
-      <c r="G2937" t="inlineStr">
-        <is>
-          <t>$ 18B</t>
-        </is>
-      </c>
-      <c r="H2937" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2938">
-      <c r="A2938" t="inlineStr"/>
-      <c r="B2938" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2938" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN</t>
-        </is>
-      </c>
-      <c r="D2938" t="inlineStr"/>
-      <c r="E2938" t="inlineStr">
-        <is>
-          <t>$3.202T</t>
-        </is>
-      </c>
-      <c r="F2938" t="inlineStr"/>
-      <c r="G2938" t="inlineStr">
-        <is>
-          <t>$3.3T</t>
-        </is>
-      </c>
-      <c r="H2938" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2939">
-      <c r="A2939" t="inlineStr"/>
-      <c r="B2939" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C2939" t="inlineStr">
-        <is>
-          <t>SACCI Business ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D2939" t="inlineStr"/>
-      <c r="E2939" t="inlineStr"/>
-      <c r="F2939" t="inlineStr"/>
-      <c r="G2939" t="inlineStr"/>
-      <c r="H2939" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2940">
-      <c r="A2940" t="inlineStr"/>
-      <c r="B2940" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C2940" t="inlineStr">
-        <is>
-          <t>SACCI Business ConfidenceDEC</t>
-        </is>
-      </c>
-      <c r="D2940" t="inlineStr"/>
-      <c r="E2940" t="inlineStr">
-        <is>
-          <t>118.1</t>
-        </is>
-      </c>
-      <c r="F2940" t="inlineStr"/>
-      <c r="G2940" t="inlineStr">
-        <is>
-          <t>116</t>
-        </is>
-      </c>
-      <c r="H2940" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2941">
-      <c r="A2941" t="inlineStr"/>
-      <c r="B2941" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2941" t="inlineStr">
-        <is>
-          <t>Used Car Prices MoMJAN</t>
-        </is>
-      </c>
-      <c r="D2941" t="inlineStr"/>
-      <c r="E2941" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F2941" t="inlineStr"/>
-      <c r="G2941" t="inlineStr"/>
-      <c r="H2941" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2942">
-      <c r="A2942" t="inlineStr"/>
-      <c r="B2942" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2942" t="inlineStr">
-        <is>
-          <t>Used Car Prices YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2942" t="inlineStr"/>
-      <c r="E2942" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F2942" t="inlineStr"/>
-      <c r="G2942" t="inlineStr"/>
-      <c r="H2942" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2943">
-      <c r="A2943" t="inlineStr">
-        <is>
-          <t>Saturday February 08 2025</t>
-        </is>
-      </c>
-      <c r="B2943" t="inlineStr"/>
-      <c r="C2943" t="inlineStr"/>
-      <c r="D2943" t="inlineStr"/>
-      <c r="E2943" t="inlineStr"/>
-      <c r="F2943" t="inlineStr"/>
-      <c r="G2943" t="inlineStr"/>
-      <c r="H2943" t="inlineStr"/>
-    </row>
-    <row r="2944">
-      <c r="A2944" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2944" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2944" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2944" t="inlineStr"/>
-      <c r="E2944" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F2944" t="inlineStr"/>
-      <c r="G2944" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="H2944" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2945">
-      <c r="A2945" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2945" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2945" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMJAN</t>
-        </is>
-      </c>
-      <c r="D2945" t="inlineStr"/>
-      <c r="E2945" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="F2945" t="inlineStr"/>
-      <c r="G2945" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H2945" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2946">
-      <c r="A2946" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2946" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2946" t="inlineStr">
-        <is>
-          <t>PPI YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2946" t="inlineStr"/>
-      <c r="E2946" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
-      <c r="F2946" t="inlineStr"/>
-      <c r="G2946" t="inlineStr">
-        <is>
-          <t>-2.4%</t>
-        </is>
-      </c>
-      <c r="H2946" t="inlineStr">
         <is>
           <t>2</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-08.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-08.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2925"/>
+  <dimension ref="A1:H2900"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84955,10 +84955,8 @@
       </c>
       <c r="F2651" t="inlineStr"/>
       <c r="G2651" t="inlineStr"/>
-      <c r="H2651" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2651" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2652">
@@ -84985,10 +84983,8 @@
       </c>
       <c r="F2652" t="inlineStr"/>
       <c r="G2652" t="inlineStr"/>
-      <c r="H2652" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2652" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2653">
@@ -85015,10 +85011,8 @@
       </c>
       <c r="F2653" t="inlineStr"/>
       <c r="G2653" t="inlineStr"/>
-      <c r="H2653" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2653" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2654">
@@ -85045,10 +85039,8 @@
       </c>
       <c r="F2654" t="inlineStr"/>
       <c r="G2654" t="inlineStr"/>
-      <c r="H2654" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2654" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2655">
@@ -85075,10 +85067,8 @@
       </c>
       <c r="F2655" t="inlineStr"/>
       <c r="G2655" t="inlineStr"/>
-      <c r="H2655" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2655" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2656">
@@ -85105,10 +85095,8 @@
       </c>
       <c r="F2656" t="inlineStr"/>
       <c r="G2656" t="inlineStr"/>
-      <c r="H2656" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2656" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2657">
@@ -85139,10 +85127,8 @@
           <t>$ 230B</t>
         </is>
       </c>
-      <c r="H2657" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2657" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2658">
@@ -85173,10 +85159,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H2658" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2658" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2659">
@@ -85207,10 +85191,8 @@
           <t>51.4</t>
         </is>
       </c>
-      <c r="H2659" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2659" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2660">
@@ -85237,10 +85219,8 @@
       </c>
       <c r="F2660" t="inlineStr"/>
       <c r="G2660" t="inlineStr"/>
-      <c r="H2660" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2660" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2661">
@@ -85267,10 +85247,8 @@
       </c>
       <c r="F2661" t="inlineStr"/>
       <c r="G2661" t="inlineStr"/>
-      <c r="H2661" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2661" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2662">
@@ -85297,10 +85275,8 @@
       </c>
       <c r="F2662" t="inlineStr"/>
       <c r="G2662" t="inlineStr"/>
-      <c r="H2662" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2662" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2663">
@@ -85331,10 +85307,8 @@
           <t>52.3</t>
         </is>
       </c>
-      <c r="H2663" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2663" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2664">
@@ -85369,10 +85343,8 @@
           <t>50.1</t>
         </is>
       </c>
-      <c r="H2664" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2664" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2665">
@@ -85403,10 +85375,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H2665" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2665" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2666">
@@ -85437,10 +85407,8 @@
           <t>47</t>
         </is>
       </c>
-      <c r="H2666" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2666" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2667">
@@ -85471,10 +85439,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2667" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2667" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2668">
@@ -85505,10 +85471,8 @@
           <t>52.8</t>
         </is>
       </c>
-      <c r="H2668" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2668" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2669">
@@ -85539,10 +85503,8 @@
           <t>53</t>
         </is>
       </c>
-      <c r="H2669" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2669" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2670">
@@ -85569,10 +85531,8 @@
       </c>
       <c r="F2670" t="inlineStr"/>
       <c r="G2670" t="inlineStr"/>
-      <c r="H2670" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2670" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2671">
@@ -85599,10 +85559,8 @@
       </c>
       <c r="F2671" t="inlineStr"/>
       <c r="G2671" t="inlineStr"/>
-      <c r="H2671" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2671" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2672">
@@ -85625,10 +85583,8 @@
       <c r="E2672" t="inlineStr"/>
       <c r="F2672" t="inlineStr"/>
       <c r="G2672" t="inlineStr"/>
-      <c r="H2672" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2672" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2673">
@@ -85651,10 +85607,8 @@
       <c r="E2673" t="inlineStr"/>
       <c r="F2673" t="inlineStr"/>
       <c r="G2673" t="inlineStr"/>
-      <c r="H2673" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2673" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2674">
@@ -85677,10 +85631,8 @@
       <c r="E2674" t="inlineStr"/>
       <c r="F2674" t="inlineStr"/>
       <c r="G2674" t="inlineStr"/>
-      <c r="H2674" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2674" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2675">
@@ -85707,10 +85659,8 @@
       </c>
       <c r="F2675" t="inlineStr"/>
       <c r="G2675" t="inlineStr"/>
-      <c r="H2675" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2675" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2676">
@@ -85737,10 +85687,8 @@
       </c>
       <c r="F2676" t="inlineStr"/>
       <c r="G2676" t="inlineStr"/>
-      <c r="H2676" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2676" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2677">
@@ -85771,10 +85719,8 @@
           <t>58</t>
         </is>
       </c>
-      <c r="H2677" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2677" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2678">
@@ -85793,10 +85739,8 @@
       <c r="E2678" t="inlineStr"/>
       <c r="F2678" t="inlineStr"/>
       <c r="G2678" t="inlineStr"/>
-      <c r="H2678" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2678" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2679">
@@ -85815,10 +85759,8 @@
       <c r="E2679" t="inlineStr"/>
       <c r="F2679" t="inlineStr"/>
       <c r="G2679" t="inlineStr"/>
-      <c r="H2679" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2679" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2680">
@@ -85845,10 +85787,8 @@
           <t>43.0K</t>
         </is>
       </c>
-      <c r="H2680" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2680" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2681">
@@ -85889,10 +85829,8 @@
       </c>
       <c r="F2682" t="inlineStr"/>
       <c r="G2682" t="inlineStr"/>
-      <c r="H2682" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2682" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2683">
@@ -85919,10 +85857,8 @@
       </c>
       <c r="F2683" t="inlineStr"/>
       <c r="G2683" t="inlineStr"/>
-      <c r="H2683" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2683" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2684">
@@ -85949,10 +85885,8 @@
       </c>
       <c r="F2684" t="inlineStr"/>
       <c r="G2684" t="inlineStr"/>
-      <c r="H2684" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2684" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2685">
@@ -85979,10 +85913,8 @@
       </c>
       <c r="F2685" t="inlineStr"/>
       <c r="G2685" t="inlineStr"/>
-      <c r="H2685" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2685" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2686">
@@ -86013,10 +85945,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2686" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2686" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2687">
@@ -86043,10 +85973,8 @@
       </c>
       <c r="F2687" t="inlineStr"/>
       <c r="G2687" t="inlineStr"/>
-      <c r="H2687" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2687" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2688">
@@ -86069,10 +85997,8 @@
       <c r="E2688" t="inlineStr"/>
       <c r="F2688" t="inlineStr"/>
       <c r="G2688" t="inlineStr"/>
-      <c r="H2688" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2688" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2689">
@@ -86103,10 +86029,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2689" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2689" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2690">
@@ -86137,10 +86061,8 @@
           <t>8.2%</t>
         </is>
       </c>
-      <c r="H2690" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2690" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2691">
@@ -86171,10 +86093,8 @@
           <t>50.8</t>
         </is>
       </c>
-      <c r="H2691" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2691" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2692">
@@ -86201,10 +86121,8 @@
       </c>
       <c r="F2692" t="inlineStr"/>
       <c r="G2692" t="inlineStr"/>
-      <c r="H2692" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2692" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2693">
@@ -86235,10 +86153,8 @@
           <t>49.7</t>
         </is>
       </c>
-      <c r="H2693" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2693" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2694">
@@ -86269,10 +86185,8 @@
           <t>7.8M</t>
         </is>
       </c>
-      <c r="H2694" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2694" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2695">
@@ -86303,10 +86217,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H2695" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2695" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2696">
@@ -86337,10 +86249,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2696" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2696" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2697">
@@ -86371,10 +86281,8 @@
           <t>3.1M</t>
         </is>
       </c>
-      <c r="H2697" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2697" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2698">
@@ -86405,10 +86313,8 @@
           <t>52.3</t>
         </is>
       </c>
-      <c r="H2698" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2698" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2699">
@@ -86431,10 +86337,8 @@
       <c r="E2699" t="inlineStr"/>
       <c r="F2699" t="inlineStr"/>
       <c r="G2699" t="inlineStr"/>
-      <c r="H2699" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2699" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2700">
@@ -86457,10 +86361,8 @@
       <c r="E2700" t="inlineStr"/>
       <c r="F2700" t="inlineStr"/>
       <c r="G2700" t="inlineStr"/>
-      <c r="H2700" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2700" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2701">
@@ -86487,10 +86389,8 @@
       </c>
       <c r="F2701" t="inlineStr"/>
       <c r="G2701" t="inlineStr"/>
-      <c r="H2701" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2701" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2702">
@@ -86517,10 +86417,8 @@
       </c>
       <c r="F2702" t="inlineStr"/>
       <c r="G2702" t="inlineStr"/>
-      <c r="H2702" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2702" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2703">
@@ -86551,10 +86449,8 @@
           <t>50.4</t>
         </is>
       </c>
-      <c r="H2703" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2703" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2704">
@@ -86585,10 +86481,8 @@
           <t>50.3</t>
         </is>
       </c>
-      <c r="H2704" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2704" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2705">
@@ -86615,10 +86509,8 @@
       </c>
       <c r="F2705" t="inlineStr"/>
       <c r="G2705" t="inlineStr"/>
-      <c r="H2705" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2705" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2706">
@@ -86645,10 +86537,8 @@
       </c>
       <c r="F2706" t="inlineStr"/>
       <c r="G2706" t="inlineStr"/>
-      <c r="H2706" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2706" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2707">
@@ -86679,10 +86569,8 @@
           <t>2.1%</t>
         </is>
       </c>
-      <c r="H2707" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2707" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2708">
@@ -86709,10 +86597,8 @@
       </c>
       <c r="F2708" t="inlineStr"/>
       <c r="G2708" t="inlineStr"/>
-      <c r="H2708" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2708" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2709">
@@ -86747,10 +86633,8 @@
           <t>52.7</t>
         </is>
       </c>
-      <c r="H2709" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2709" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2710">
@@ -86781,10 +86665,8 @@
           <t>51.1</t>
         </is>
       </c>
-      <c r="H2710" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2710" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2711">
@@ -86811,10 +86693,8 @@
       </c>
       <c r="F2711" t="inlineStr"/>
       <c r="G2711" t="inlineStr"/>
-      <c r="H2711" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2711" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2712">
@@ -86845,10 +86725,8 @@
           <t>51.8</t>
         </is>
       </c>
-      <c r="H2712" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2712" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2713">
@@ -86879,10 +86757,8 @@
           <t>51.1</t>
         </is>
       </c>
-      <c r="H2713" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2713" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2714">
@@ -86913,10 +86789,8 @@
           <t>5.2%</t>
         </is>
       </c>
-      <c r="H2714" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2714" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2715">
@@ -86947,10 +86821,8 @@
           <t>5.2%</t>
         </is>
       </c>
-      <c r="H2715" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2715" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2716">
@@ -86981,10 +86853,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2716" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2716" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2717">
@@ -87007,10 +86877,8 @@
           <t>$-9.4B</t>
         </is>
       </c>
-      <c r="H2717" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2717" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2718">
@@ -87033,10 +86901,8 @@
           <t>$24.3B</t>
         </is>
       </c>
-      <c r="H2718" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2718" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2719">
@@ -87059,10 +86925,8 @@
           <t>$33.7B</t>
         </is>
       </c>
-      <c r="H2719" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2719" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2720">
@@ -87085,10 +86949,8 @@
       </c>
       <c r="F2720" t="inlineStr"/>
       <c r="G2720" t="inlineStr"/>
-      <c r="H2720" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2720" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2721">
@@ -87137,10 +86999,8 @@
           <t>57.9</t>
         </is>
       </c>
-      <c r="H2722" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2722" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2723">
@@ -87175,10 +87035,8 @@
           <t>56.8</t>
         </is>
       </c>
-      <c r="H2723" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2723" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2724">
@@ -87209,10 +87067,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2724" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2724" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2725">
@@ -87243,10 +87099,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H2725" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2725" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2726">
@@ -87277,10 +87131,8 @@
           <t>50.9</t>
         </is>
       </c>
-      <c r="H2726" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2726" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2727">
@@ -87311,10 +87163,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="H2727" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2727" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2728">
@@ -87341,10 +87191,8 @@
       </c>
       <c r="F2728" t="inlineStr"/>
       <c r="G2728" t="inlineStr"/>
-      <c r="H2728" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2728" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2729">
@@ -87375,10 +87223,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2729" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2729" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2730">
@@ -87405,10 +87251,8 @@
       </c>
       <c r="F2730" t="inlineStr"/>
       <c r="G2730" t="inlineStr"/>
-      <c r="H2730" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2730" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2731">
@@ -87435,10 +87279,8 @@
       </c>
       <c r="F2731" t="inlineStr"/>
       <c r="G2731" t="inlineStr"/>
-      <c r="H2731" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2731" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2732">
@@ -87465,10 +87307,8 @@
       </c>
       <c r="F2732" t="inlineStr"/>
       <c r="G2732" t="inlineStr"/>
-      <c r="H2732" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2732" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2733">
@@ -87495,10 +87335,8 @@
       </c>
       <c r="F2733" t="inlineStr"/>
       <c r="G2733" t="inlineStr"/>
-      <c r="H2733" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2733" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2734">
@@ -87533,10 +87371,8 @@
           <t>48.9</t>
         </is>
       </c>
-      <c r="H2734" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2734" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2735">
@@ -87571,10 +87407,8 @@
           <t>48.3</t>
         </is>
       </c>
-      <c r="H2735" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2735" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2736">
@@ -87609,10 +87443,8 @@
           <t>50.1</t>
         </is>
       </c>
-      <c r="H2736" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2736" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2737">
@@ -87647,10 +87479,8 @@
           <t>52.5</t>
         </is>
       </c>
-      <c r="H2737" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2737" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2738">
@@ -87685,10 +87515,8 @@
           <t>50.2</t>
         </is>
       </c>
-      <c r="H2738" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2738" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2739">
@@ -87723,10 +87551,8 @@
           <t>51.4</t>
         </is>
       </c>
-      <c r="H2739" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2739" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2740">
@@ -87757,10 +87583,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2740" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2740" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2741">
@@ -87791,10 +87615,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H2741" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2741" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2742">
@@ -87825,10 +87647,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H2742" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2742" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2743">
@@ -87863,10 +87683,8 @@
           <t>51.2</t>
         </is>
       </c>
-      <c r="H2743" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2743" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2744">
@@ -87901,10 +87719,8 @@
           <t>50.9</t>
         </is>
       </c>
-      <c r="H2744" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2744" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2745">
@@ -87935,10 +87751,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2745" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2745" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2746">
@@ -87969,10 +87783,8 @@
           <t>1%</t>
         </is>
       </c>
-      <c r="H2746" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2746" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2747">
@@ -87999,10 +87811,8 @@
       </c>
       <c r="F2747" t="inlineStr"/>
       <c r="G2747" t="inlineStr"/>
-      <c r="H2747" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2747" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2748">
@@ -88029,10 +87839,8 @@
       </c>
       <c r="F2748" t="inlineStr"/>
       <c r="G2748" t="inlineStr"/>
-      <c r="H2748" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2748" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2749">
@@ -88059,10 +87867,8 @@
       </c>
       <c r="F2749" t="inlineStr"/>
       <c r="G2749" t="inlineStr"/>
-      <c r="H2749" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2749" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2750">
@@ -88089,10 +87895,8 @@
       </c>
       <c r="F2750" t="inlineStr"/>
       <c r="G2750" t="inlineStr"/>
-      <c r="H2750" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2750" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2751">
@@ -88123,10 +87927,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2751" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2751" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2752">
@@ -88157,10 +87959,8 @@
           <t>3.7%</t>
         </is>
       </c>
-      <c r="H2752" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2752" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2753">
@@ -88191,10 +87991,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2753" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2753" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2754">
@@ -88225,10 +88023,8 @@
           <t>-1.4%</t>
         </is>
       </c>
-      <c r="H2754" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2754" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2755">
@@ -88255,10 +88051,8 @@
       </c>
       <c r="F2755" t="inlineStr"/>
       <c r="G2755" t="inlineStr"/>
-      <c r="H2755" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2755" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2756">
@@ -88285,10 +88079,8 @@
       </c>
       <c r="F2756" t="inlineStr"/>
       <c r="G2756" t="inlineStr"/>
-      <c r="H2756" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2756" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2757">
@@ -88315,10 +88107,8 @@
       </c>
       <c r="F2757" t="inlineStr"/>
       <c r="G2757" t="inlineStr"/>
-      <c r="H2757" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2757" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2758">
@@ -88345,10 +88135,8 @@
       </c>
       <c r="F2758" t="inlineStr"/>
       <c r="G2758" t="inlineStr"/>
-      <c r="H2758" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2758" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2759">
@@ -88375,10 +88163,8 @@
       </c>
       <c r="F2759" t="inlineStr"/>
       <c r="G2759" t="inlineStr"/>
-      <c r="H2759" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2759" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2760">
@@ -88409,10 +88195,8 @@
           <t>50.2</t>
         </is>
       </c>
-      <c r="H2760" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2760" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2761">
@@ -88443,10 +88227,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="H2761" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2761" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2762">
@@ -88477,10 +88259,8 @@
           <t>115.0K</t>
         </is>
       </c>
-      <c r="H2762" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2762" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2763">
@@ -88511,10 +88291,8 @@
           <t>C$ -1.3B</t>
         </is>
       </c>
-      <c r="H2763" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2763" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2764">
@@ -88545,10 +88323,8 @@
           <t>C$ 65.8B</t>
         </is>
       </c>
-      <c r="H2764" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2764" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2765">
@@ -88579,10 +88355,8 @@
           <t>C$ 64.5B</t>
         </is>
       </c>
-      <c r="H2765" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2765" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2766">
@@ -88613,10 +88387,8 @@
           <t>$ -103.0B</t>
         </is>
       </c>
-      <c r="H2766" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2766" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2767">
@@ -88647,10 +88419,8 @@
           <t>$ 260B</t>
         </is>
       </c>
-      <c r="H2767" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2767" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2768">
@@ -88681,10 +88451,8 @@
           <t>$ 363.0B</t>
         </is>
       </c>
-      <c r="H2768" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2768" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2769">
@@ -88707,10 +88475,8 @@
       <c r="E2769" t="inlineStr"/>
       <c r="F2769" t="inlineStr"/>
       <c r="G2769" t="inlineStr"/>
-      <c r="H2769" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2769" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2770">
@@ -88741,10 +88507,8 @@
           <t>49.5</t>
         </is>
       </c>
-      <c r="H2770" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2770" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2771">
@@ -88775,10 +88539,8 @@
           <t>49</t>
         </is>
       </c>
-      <c r="H2771" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2771" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2772">
@@ -88813,10 +88575,8 @@
           <t>52.4</t>
         </is>
       </c>
-      <c r="H2772" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2772" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2773">
@@ -88851,10 +88611,8 @@
           <t>52.8</t>
         </is>
       </c>
-      <c r="H2773" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2773" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2774">
@@ -88885,10 +88643,8 @@
           <t>54</t>
         </is>
       </c>
-      <c r="H2774" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2774" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2775">
@@ -88919,10 +88675,8 @@
           <t>58.1</t>
         </is>
       </c>
-      <c r="H2775" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2775" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2776">
@@ -88953,10 +88707,8 @@
           <t>51.3</t>
         </is>
       </c>
-      <c r="H2776" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2776" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2777">
@@ -88987,10 +88739,8 @@
           <t>54.1</t>
         </is>
       </c>
-      <c r="H2777" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2777" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2778">
@@ -89021,10 +88771,8 @@
           <t>64.8</t>
         </is>
       </c>
-      <c r="H2778" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2778" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2779">
@@ -89051,10 +88799,8 @@
       </c>
       <c r="F2779" t="inlineStr"/>
       <c r="G2779" t="inlineStr"/>
-      <c r="H2779" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2779" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2780">
@@ -89081,10 +88827,8 @@
       </c>
       <c r="F2780" t="inlineStr"/>
       <c r="G2780" t="inlineStr"/>
-      <c r="H2780" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2780" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2781">
@@ -89111,10 +88855,8 @@
       </c>
       <c r="F2781" t="inlineStr"/>
       <c r="G2781" t="inlineStr"/>
-      <c r="H2781" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2781" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2782">
@@ -89141,10 +88883,8 @@
       </c>
       <c r="F2782" t="inlineStr"/>
       <c r="G2782" t="inlineStr"/>
-      <c r="H2782" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2782" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2783">
@@ -89171,10 +88911,8 @@
       </c>
       <c r="F2783" t="inlineStr"/>
       <c r="G2783" t="inlineStr"/>
-      <c r="H2783" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2783" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2784">
@@ -89201,10 +88939,8 @@
       </c>
       <c r="F2784" t="inlineStr"/>
       <c r="G2784" t="inlineStr"/>
-      <c r="H2784" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2784" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2785">
@@ -89231,10 +88967,8 @@
       </c>
       <c r="F2785" t="inlineStr"/>
       <c r="G2785" t="inlineStr"/>
-      <c r="H2785" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2785" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2786">
@@ -89261,10 +88995,8 @@
       </c>
       <c r="F2786" t="inlineStr"/>
       <c r="G2786" t="inlineStr"/>
-      <c r="H2786" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2786" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2787">
@@ -89291,10 +89023,8 @@
       </c>
       <c r="F2787" t="inlineStr"/>
       <c r="G2787" t="inlineStr"/>
-      <c r="H2787" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2787" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2788">
@@ -89325,10 +89055,8 @@
           <t>2.40%</t>
         </is>
       </c>
-      <c r="H2788" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2788" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2789">
@@ -89359,10 +89087,8 @@
           <t>6.8</t>
         </is>
       </c>
-      <c r="H2789" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2789" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2790">
@@ -89393,10 +89119,8 @@
           <t>RUB 26.0T</t>
         </is>
       </c>
-      <c r="H2790" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2790" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2791">
@@ -89427,10 +89151,8 @@
           <t>3.8%</t>
         </is>
       </c>
-      <c r="H2791" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2791" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2792">
@@ -89461,10 +89183,8 @@
           <t>7.0%</t>
         </is>
       </c>
-      <c r="H2792" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2792" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2793">
@@ -89495,10 +89215,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H2793" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2793" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2794">
@@ -89525,10 +89243,8 @@
       </c>
       <c r="F2794" t="inlineStr"/>
       <c r="G2794" t="inlineStr"/>
-      <c r="H2794" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2794" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2795">
@@ -89555,10 +89271,8 @@
       </c>
       <c r="F2795" t="inlineStr"/>
       <c r="G2795" t="inlineStr"/>
-      <c r="H2795" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2795" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2796">
@@ -89581,10 +89295,8 @@
       <c r="E2796" t="inlineStr"/>
       <c r="F2796" t="inlineStr"/>
       <c r="G2796" t="inlineStr"/>
-      <c r="H2796" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2796" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2797">
@@ -89615,10 +89327,8 @@
           <t>-15</t>
         </is>
       </c>
-      <c r="H2797" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2797" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2798">
@@ -89649,10 +89359,8 @@
           <t>-25</t>
         </is>
       </c>
-      <c r="H2798" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2798" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2799">
@@ -89683,10 +89391,8 @@
           <t>-13</t>
         </is>
       </c>
-      <c r="H2799" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2799" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2800">
@@ -89717,10 +89423,8 @@
           <t>$ 8.1B</t>
         </is>
       </c>
-      <c r="H2800" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2800" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2801">
@@ -89751,10 +89455,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H2801" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2801" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2802">
@@ -89781,10 +89483,8 @@
       </c>
       <c r="F2802" t="inlineStr"/>
       <c r="G2802" t="inlineStr"/>
-      <c r="H2802" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2802" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2803">
@@ -89811,10 +89511,8 @@
       </c>
       <c r="F2803" t="inlineStr"/>
       <c r="G2803" t="inlineStr"/>
-      <c r="H2803" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2803" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2804">
@@ -89845,10 +89543,8 @@
           <t>A$ 3.2B</t>
         </is>
       </c>
-      <c r="H2804" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2804" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2805">
@@ -89875,10 +89571,8 @@
       </c>
       <c r="F2805" t="inlineStr"/>
       <c r="G2805" t="inlineStr"/>
-      <c r="H2805" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2805" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2806">
@@ -89905,10 +89599,8 @@
       </c>
       <c r="F2806" t="inlineStr"/>
       <c r="G2806" t="inlineStr"/>
-      <c r="H2806" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2806" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2807">
@@ -89935,10 +89627,8 @@
       </c>
       <c r="F2807" t="inlineStr"/>
       <c r="G2807" t="inlineStr"/>
-      <c r="H2807" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2807" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2808">
@@ -89965,10 +89655,8 @@
       </c>
       <c r="F2808" t="inlineStr"/>
       <c r="G2808" t="inlineStr"/>
-      <c r="H2808" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2808" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2809">
@@ -89991,10 +89679,8 @@
       </c>
       <c r="F2809" t="inlineStr"/>
       <c r="G2809" t="inlineStr"/>
-      <c r="H2809" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2809" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2810">
@@ -90039,10 +89725,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2811" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2811" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2812">
@@ -90069,10 +89753,8 @@
       </c>
       <c r="F2812" t="inlineStr"/>
       <c r="G2812" t="inlineStr"/>
-      <c r="H2812" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2812" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2813">
@@ -90099,10 +89781,8 @@
       </c>
       <c r="F2813" t="inlineStr"/>
       <c r="G2813" t="inlineStr"/>
-      <c r="H2813" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2813" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2814">
@@ -90129,10 +89809,8 @@
       </c>
       <c r="F2814" t="inlineStr"/>
       <c r="G2814" t="inlineStr"/>
-      <c r="H2814" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2814" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2815">
@@ -90159,10 +89837,8 @@
       </c>
       <c r="F2815" t="inlineStr"/>
       <c r="G2815" t="inlineStr"/>
-      <c r="H2815" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2815" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2816">
@@ -90193,10 +89869,8 @@
           <t>53.5</t>
         </is>
       </c>
-      <c r="H2816" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2816" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2817">
@@ -90227,10 +89901,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2817" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2817" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2818">
@@ -90261,10 +89933,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H2818" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2818" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2819">
@@ -90287,10 +89957,8 @@
       <c r="E2819" t="inlineStr"/>
       <c r="F2819" t="inlineStr"/>
       <c r="G2819" t="inlineStr"/>
-      <c r="H2819" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2819" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2820">
@@ -90317,10 +89985,8 @@
       </c>
       <c r="F2820" t="inlineStr"/>
       <c r="G2820" t="inlineStr"/>
-      <c r="H2820" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2820" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2821">
@@ -90351,10 +90017,8 @@
           <t>46.5</t>
         </is>
       </c>
-      <c r="H2821" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2821" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2822">
@@ -90389,10 +90053,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H2822" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2822" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2823">
@@ -90415,10 +90077,8 @@
       <c r="E2823" t="inlineStr"/>
       <c r="F2823" t="inlineStr"/>
       <c r="G2823" t="inlineStr"/>
-      <c r="H2823" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2823" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2824">
@@ -90445,10 +90105,8 @@
       </c>
       <c r="F2824" t="inlineStr"/>
       <c r="G2824" t="inlineStr"/>
-      <c r="H2824" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2824" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2825">
@@ -90475,10 +90133,8 @@
       </c>
       <c r="F2825" t="inlineStr"/>
       <c r="G2825" t="inlineStr"/>
-      <c r="H2825" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2825" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2826">
@@ -90505,10 +90161,8 @@
       </c>
       <c r="F2826" t="inlineStr"/>
       <c r="G2826" t="inlineStr"/>
-      <c r="H2826" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2826" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2827">
@@ -90531,10 +90185,8 @@
       <c r="E2827" t="inlineStr"/>
       <c r="F2827" t="inlineStr"/>
       <c r="G2827" t="inlineStr"/>
-      <c r="H2827" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2827" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2828">
@@ -90565,10 +90217,8 @@
           <t>45K</t>
         </is>
       </c>
-      <c r="H2828" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2828" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2829">
@@ -90599,10 +90249,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="H2829" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2829" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2830">
@@ -90633,10 +90281,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2830" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2830" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2831">
@@ -90667,10 +90313,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2831" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2831" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2832">
@@ -90701,10 +90345,8 @@
           <t>1855.0K</t>
         </is>
       </c>
-      <c r="H2832" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2832" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2833">
@@ -90735,10 +90377,8 @@
           <t>215.5K</t>
         </is>
       </c>
-      <c r="H2833" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2833" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2834">
@@ -90769,10 +90409,8 @@
           <t>54.2</t>
         </is>
       </c>
-      <c r="H2834" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2834" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2835">
@@ -90799,10 +90437,8 @@
       </c>
       <c r="F2835" t="inlineStr"/>
       <c r="G2835" t="inlineStr"/>
-      <c r="H2835" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2835" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2836">
@@ -90829,10 +90465,8 @@
       </c>
       <c r="F2836" t="inlineStr"/>
       <c r="G2836" t="inlineStr"/>
-      <c r="H2836" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2836" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2837">
@@ -90859,10 +90493,8 @@
       </c>
       <c r="F2837" t="inlineStr"/>
       <c r="G2837" t="inlineStr"/>
-      <c r="H2837" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2837" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2838">
@@ -90889,10 +90521,8 @@
       </c>
       <c r="F2838" t="inlineStr"/>
       <c r="G2838" t="inlineStr"/>
-      <c r="H2838" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2838" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2839">
@@ -90919,10 +90549,8 @@
       </c>
       <c r="F2839" t="inlineStr"/>
       <c r="G2839" t="inlineStr"/>
-      <c r="H2839" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2839" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2840">
@@ -90949,10 +90577,8 @@
       </c>
       <c r="F2840" t="inlineStr"/>
       <c r="G2840" t="inlineStr"/>
-      <c r="H2840" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2840" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2841">
@@ -90983,10 +90609,8 @@
           <t>9.75%</t>
         </is>
       </c>
-      <c r="H2841" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2841" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2842">
@@ -91009,10 +90633,8 @@
       <c r="E2842" t="inlineStr"/>
       <c r="F2842" t="inlineStr"/>
       <c r="G2842" t="inlineStr"/>
-      <c r="H2842" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2842" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2843">
@@ -91035,10 +90657,8 @@
       <c r="E2843" t="inlineStr"/>
       <c r="F2843" t="inlineStr"/>
       <c r="G2843" t="inlineStr"/>
-      <c r="H2843" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2843" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2844">
@@ -91069,10 +90689,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2844" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2844" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2845">
@@ -91103,10 +90721,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H2845" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2845" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2846">
@@ -91133,10 +90749,8 @@
       </c>
       <c r="F2846" t="inlineStr"/>
       <c r="G2846" t="inlineStr"/>
-      <c r="H2846" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2846" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2847">
@@ -91159,10 +90773,8 @@
       <c r="E2847" t="inlineStr"/>
       <c r="F2847" t="inlineStr"/>
       <c r="G2847" t="inlineStr"/>
-      <c r="H2847" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2847" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2848">
@@ -91189,10 +90801,8 @@
       </c>
       <c r="F2848" t="inlineStr"/>
       <c r="G2848" t="inlineStr"/>
-      <c r="H2848" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2848" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2849">
@@ -91219,10 +90829,8 @@
       </c>
       <c r="F2849" t="inlineStr"/>
       <c r="G2849" t="inlineStr"/>
-      <c r="H2849" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2849" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2850">
@@ -91245,10 +90853,8 @@
       </c>
       <c r="F2850" t="inlineStr"/>
       <c r="G2850" t="inlineStr"/>
-      <c r="H2850" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2850" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2851">
@@ -91271,10 +90877,8 @@
       </c>
       <c r="F2851" t="inlineStr"/>
       <c r="G2851" t="inlineStr"/>
-      <c r="H2851" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2851" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2852">
@@ -91297,10 +90901,8 @@
       </c>
       <c r="F2852" t="inlineStr"/>
       <c r="G2852" t="inlineStr"/>
-      <c r="H2852" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2852" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2853">
@@ -91323,10 +90925,8 @@
       </c>
       <c r="F2853" t="inlineStr"/>
       <c r="G2853" t="inlineStr"/>
-      <c r="H2853" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2853" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2854">
@@ -91349,10 +90949,8 @@
       </c>
       <c r="F2854" t="inlineStr"/>
       <c r="G2854" t="inlineStr"/>
-      <c r="H2854" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2854" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2855">
@@ -91375,10 +90973,8 @@
       </c>
       <c r="F2855" t="inlineStr"/>
       <c r="G2855" t="inlineStr"/>
-      <c r="H2855" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2855" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2856">
@@ -91401,52 +90997,70 @@
       </c>
       <c r="F2856" t="inlineStr"/>
       <c r="G2856" t="inlineStr"/>
-      <c r="H2856" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2856" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2857">
       <c r="A2857" t="inlineStr">
         <is>
-          <t>Friday February 07 2025</t>
-        </is>
-      </c>
-      <c r="B2857" t="inlineStr"/>
-      <c r="C2857" t="inlineStr"/>
+          <t>07:00 AM</t>
+        </is>
+      </c>
+      <c r="B2857" t="inlineStr">
+        <is>
+          <t>MX</t>
+        </is>
+      </c>
+      <c r="C2857" t="inlineStr">
+        <is>
+          <t>Inflation Rate YoYJAN</t>
+        </is>
+      </c>
       <c r="D2857" t="inlineStr"/>
-      <c r="E2857" t="inlineStr"/>
+      <c r="E2857" t="inlineStr">
+        <is>
+          <t>4.21%</t>
+        </is>
+      </c>
       <c r="F2857" t="inlineStr"/>
-      <c r="G2857" t="inlineStr"/>
-      <c r="H2857" t="inlineStr"/>
+      <c r="G2857" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="H2857" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2858">
       <c r="A2858" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2858" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2858" t="inlineStr">
         <is>
-          <t>Coincident Index PrelDEC</t>
+          <t>Core Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2858" t="inlineStr"/>
       <c r="E2858" t="inlineStr">
         <is>
-          <t>115.4</t>
+          <t>0.51%</t>
         </is>
       </c>
       <c r="F2858" t="inlineStr"/>
       <c r="G2858" t="inlineStr">
         <is>
-          <t>115.9</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H2858" t="inlineStr">
@@ -91458,29 +91072,29 @@
     <row r="2859">
       <c r="A2859" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2859" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2859" t="inlineStr">
         <is>
-          <t>Leading Economic Index PrelDEC</t>
+          <t>Core Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2859" t="inlineStr"/>
       <c r="E2859" t="inlineStr">
         <is>
-          <t>107.5</t>
+          <t>3.65%</t>
         </is>
       </c>
       <c r="F2859" t="inlineStr"/>
       <c r="G2859" t="inlineStr">
         <is>
-          <t>108.2</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H2859" t="inlineStr">
@@ -91492,29 +91106,29 @@
     <row r="2860">
       <c r="A2860" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2860" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2860" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Car Production MoMJAN</t>
         </is>
       </c>
       <c r="D2860" t="inlineStr"/>
       <c r="E2860" t="inlineStr">
         <is>
-          <t>$65.46B</t>
+          <t>-19.5%</t>
         </is>
       </c>
       <c r="F2860" t="inlineStr"/>
       <c r="G2860" t="inlineStr">
         <is>
-          <t>$65.0B</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="H2860" t="inlineStr">
@@ -91526,97 +91140,97 @@
     <row r="2861">
       <c r="A2861" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2861" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2861" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>New Car Registrations MoMJAN</t>
         </is>
       </c>
       <c r="D2861" t="inlineStr"/>
       <c r="E2861" t="inlineStr">
         <is>
-          <t>€19.7B</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F2861" t="inlineStr"/>
       <c r="G2861" t="inlineStr">
         <is>
-          <t>€ 22B</t>
+          <t>-1.5%</t>
         </is>
       </c>
       <c r="H2861" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2862">
       <c r="A2862" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2862" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2862" t="inlineStr">
         <is>
-          <t>Exports MoMDEC</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2862" t="inlineStr"/>
       <c r="E2862" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>6.7%</t>
         </is>
       </c>
       <c r="F2862" t="inlineStr"/>
       <c r="G2862" t="inlineStr">
         <is>
-          <t>130%</t>
+          <t>6.8%</t>
         </is>
       </c>
       <c r="H2862" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2863">
       <c r="A2863" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2863" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2863" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>Employment ChangeJAN</t>
         </is>
       </c>
       <c r="D2863" t="inlineStr"/>
       <c r="E2863" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>90.9K</t>
         </is>
       </c>
       <c r="F2863" t="inlineStr"/>
       <c r="G2863" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>5K</t>
         </is>
       </c>
       <c r="H2863" t="inlineStr">
@@ -91628,61 +91242,65 @@
     <row r="2864">
       <c r="A2864" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2864" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2864" t="inlineStr">
         <is>
-          <t>Imports MoMDEC</t>
+          <t>Full Time Employment ChgJAN</t>
         </is>
       </c>
       <c r="D2864" t="inlineStr"/>
       <c r="E2864" t="inlineStr">
         <is>
-          <t>-3.3%</t>
+          <t>57.5K</t>
         </is>
       </c>
       <c r="F2864" t="inlineStr"/>
       <c r="G2864" t="inlineStr">
         <is>
-          <t>108%</t>
+          <t>-3K</t>
         </is>
       </c>
       <c r="H2864" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2865">
       <c r="A2865" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2865" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2865" t="inlineStr">
         <is>
-          <t>Halifax House Price Index MoMJAN</t>
+          <t>Part Time Employment ChgJAN</t>
         </is>
       </c>
       <c r="D2865" t="inlineStr"/>
       <c r="E2865" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>33.5K</t>
         </is>
       </c>
       <c r="F2865" t="inlineStr"/>
-      <c r="G2865" t="inlineStr"/>
+      <c r="G2865" t="inlineStr">
+        <is>
+          <t>8K</t>
+        </is>
+      </c>
       <c r="H2865" t="inlineStr">
         <is>
           <t>2</t>
@@ -91692,27 +91310,31 @@
     <row r="2866">
       <c r="A2866" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2866" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2866" t="inlineStr">
         <is>
-          <t>Halifax House Price Index YoYJAN</t>
+          <t>Participation RateJAN</t>
         </is>
       </c>
       <c r="D2866" t="inlineStr"/>
       <c r="E2866" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>65.1%</t>
         </is>
       </c>
       <c r="F2866" t="inlineStr"/>
-      <c r="G2866" t="inlineStr"/>
+      <c r="G2866" t="inlineStr">
+        <is>
+          <t>65.0%</t>
+        </is>
+      </c>
       <c r="H2866" t="inlineStr">
         <is>
           <t>2</t>
@@ -91722,221 +91344,233 @@
     <row r="2867">
       <c r="A2867" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2867" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2867" t="inlineStr">
         <is>
-          <t>Inflation Report</t>
+          <t>Average Hourly Wages YoYJAN</t>
         </is>
       </c>
       <c r="D2867" t="inlineStr"/>
-      <c r="E2867" t="inlineStr"/>
+      <c r="E2867" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
       <c r="F2867" t="inlineStr"/>
-      <c r="G2867" t="inlineStr"/>
+      <c r="G2867" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
       <c r="H2867" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2868">
       <c r="A2868" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2868" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2868" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Non Farm PayrollsJAN</t>
         </is>
       </c>
       <c r="D2868" t="inlineStr"/>
       <c r="E2868" t="inlineStr">
         <is>
-          <t>€-7.1B</t>
+          <t>256K</t>
         </is>
       </c>
       <c r="F2868" t="inlineStr"/>
       <c r="G2868" t="inlineStr">
         <is>
-          <t>€ -7.2B</t>
+          <t>205K</t>
         </is>
       </c>
       <c r="H2868" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2869">
       <c r="A2869" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2869" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2869" t="inlineStr">
         <is>
-          <t>Current AccountDEC</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2869" t="inlineStr"/>
       <c r="E2869" t="inlineStr">
         <is>
-          <t>€-1.7B</t>
+          <t>4.1%</t>
         </is>
       </c>
       <c r="F2869" t="inlineStr"/>
       <c r="G2869" t="inlineStr">
         <is>
-          <t>€ -2.5B</t>
+          <t>4.1%</t>
         </is>
       </c>
       <c r="H2869" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2870">
       <c r="A2870" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2870" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2870" t="inlineStr">
         <is>
-          <t>ExportsDEC</t>
+          <t>Average Hourly Earnings MoMJAN</t>
         </is>
       </c>
       <c r="D2870" t="inlineStr"/>
       <c r="E2870" t="inlineStr">
         <is>
-          <t>€50.101B</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F2870" t="inlineStr"/>
       <c r="G2870" t="inlineStr">
         <is>
-          <t>€ 49.7B</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2870" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2871">
       <c r="A2871" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2871" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2871" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Average Hourly Earnings YoYJAN</t>
         </is>
       </c>
       <c r="D2871" t="inlineStr"/>
       <c r="E2871" t="inlineStr">
         <is>
-          <t>€275.078B</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="F2871" t="inlineStr"/>
-      <c r="G2871" t="inlineStr"/>
+      <c r="G2871" t="inlineStr">
+        <is>
+          <t>3.9%</t>
+        </is>
+      </c>
       <c r="H2871" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2872">
       <c r="A2872" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2872" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2872" t="inlineStr">
         <is>
-          <t>ImportsDEC</t>
+          <t>Participation RateJAN</t>
         </is>
       </c>
       <c r="D2872" t="inlineStr"/>
       <c r="E2872" t="inlineStr">
         <is>
-          <t>€57.186B</t>
+          <t>62.5%</t>
         </is>
       </c>
       <c r="F2872" t="inlineStr"/>
       <c r="G2872" t="inlineStr">
         <is>
-          <t>€ 56.9B</t>
+          <t>62.5%</t>
         </is>
       </c>
       <c r="H2872" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2873">
       <c r="A2873" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2873" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2873" t="inlineStr">
         <is>
-          <t>Private Non Farm Payrolls QoQ PrelQ4</t>
+          <t>Average Weekly HoursJAN</t>
         </is>
       </c>
       <c r="D2873" t="inlineStr"/>
       <c r="E2873" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>34.3</t>
         </is>
       </c>
       <c r="F2873" t="inlineStr"/>
       <c r="G2873" t="inlineStr">
         <is>
-          <t>20200%</t>
+          <t>34.3</t>
         </is>
       </c>
       <c r="H2873" t="inlineStr">
@@ -91948,29 +91582,29 @@
     <row r="2874">
       <c r="A2874" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2874" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2874" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Government PayrollsJAN</t>
         </is>
       </c>
       <c r="D2874" t="inlineStr"/>
       <c r="E2874" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>33K</t>
         </is>
       </c>
       <c r="F2874" t="inlineStr"/>
       <c r="G2874" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>25K</t>
         </is>
       </c>
       <c r="H2874" t="inlineStr">
@@ -91982,27 +91616,31 @@
     <row r="2875">
       <c r="A2875" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2875" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2875" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Manufacturing PayrollsJAN</t>
         </is>
       </c>
       <c r="D2875" t="inlineStr"/>
       <c r="E2875" t="inlineStr">
         <is>
-          <t>S$506.7B</t>
+          <t>-13K</t>
         </is>
       </c>
       <c r="F2875" t="inlineStr"/>
-      <c r="G2875" t="inlineStr"/>
+      <c r="G2875" t="inlineStr">
+        <is>
+          <t>-5K</t>
+        </is>
+      </c>
       <c r="H2875" t="inlineStr">
         <is>
           <t>3</t>
@@ -92012,27 +91650,31 @@
     <row r="2876">
       <c r="A2876" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2876" t="inlineStr">
         <is>
-          <t>WL</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2876" t="inlineStr">
         <is>
-          <t>FAO Food Price IndexJAN</t>
+          <t>Nonfarm Payrolls PrivateJAN</t>
         </is>
       </c>
       <c r="D2876" t="inlineStr"/>
       <c r="E2876" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>223K</t>
         </is>
       </c>
       <c r="F2876" t="inlineStr"/>
-      <c r="G2876" t="inlineStr"/>
+      <c r="G2876" t="inlineStr">
+        <is>
+          <t>180K</t>
+        </is>
+      </c>
       <c r="H2876" t="inlineStr">
         <is>
           <t>3</t>
@@ -92042,27 +91684,31 @@
     <row r="2877">
       <c r="A2877" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2877" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2877" t="inlineStr">
         <is>
-          <t>BBA Mortgage RateJAN</t>
+          <t>U-6 Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2877" t="inlineStr"/>
       <c r="E2877" t="inlineStr">
         <is>
-          <t>7.50%</t>
+          <t>7.5%</t>
         </is>
       </c>
       <c r="F2877" t="inlineStr"/>
-      <c r="G2877" t="inlineStr"/>
+      <c r="G2877" t="inlineStr">
+        <is>
+          <t>7.5%</t>
+        </is>
+      </c>
       <c r="H2877" t="inlineStr">
         <is>
           <t>3</t>
@@ -92072,23 +91718,31 @@
     <row r="2878">
       <c r="A2878" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:45 AM</t>
         </is>
       </c>
       <c r="B2878" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2878" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/31</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2878" t="inlineStr"/>
-      <c r="E2878" t="inlineStr"/>
+      <c r="E2878" t="inlineStr">
+        <is>
+          <t>$609.1B</t>
+        </is>
+      </c>
       <c r="F2878" t="inlineStr"/>
-      <c r="G2878" t="inlineStr"/>
+      <c r="G2878" t="inlineStr">
+        <is>
+          <t>$607.0B</t>
+        </is>
+      </c>
       <c r="H2878" t="inlineStr">
         <is>
           <t>3</t>
@@ -92098,165 +91752,161 @@
     <row r="2879">
       <c r="A2879" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2879" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2879" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Treasury Cash BalanceJAN</t>
         </is>
       </c>
       <c r="D2879" t="inlineStr"/>
       <c r="E2879" t="inlineStr">
         <is>
-          <t>0.52%</t>
+          <t>TRY-323.9B</t>
         </is>
       </c>
       <c r="F2879" t="inlineStr"/>
-      <c r="G2879" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2879" t="inlineStr"/>
       <c r="H2879" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2880">
       <c r="A2880" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2880" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2880" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Full Year GDP Growth2024</t>
         </is>
       </c>
       <c r="D2880" t="inlineStr"/>
       <c r="E2880" t="inlineStr">
         <is>
-          <t>4.83%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="F2880" t="inlineStr"/>
       <c r="G2880" t="inlineStr">
         <is>
-          <t>4.7%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="H2880" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2881">
       <c r="A2881" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2881" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2881" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Michigan Consumer Sentiment PrelFEB</t>
         </is>
       </c>
       <c r="D2881" t="inlineStr"/>
       <c r="E2881" t="inlineStr">
         <is>
-          <t>0.38%</t>
+          <t>71.1</t>
         </is>
       </c>
       <c r="F2881" t="inlineStr"/>
       <c r="G2881" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>72</t>
         </is>
       </c>
       <c r="H2881" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2882">
       <c r="A2882" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2882" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2882" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Michigan 5 Year Inflation Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2882" t="inlineStr"/>
       <c r="E2882" t="inlineStr">
         <is>
-          <t>4.21%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="F2882" t="inlineStr"/>
       <c r="G2882" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H2882" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2883">
       <c r="A2883" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2883" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2883" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMJAN</t>
+          <t>Michigan Consumer Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2883" t="inlineStr"/>
       <c r="E2883" t="inlineStr">
         <is>
-          <t>0.51%</t>
+          <t>69.3</t>
         </is>
       </c>
       <c r="F2883" t="inlineStr"/>
       <c r="G2883" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>69.5</t>
         </is>
       </c>
       <c r="H2883" t="inlineStr">
@@ -92268,29 +91918,29 @@
     <row r="2884">
       <c r="A2884" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2884" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2884" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJAN</t>
+          <t>Michigan Current Conditions PrelFEB</t>
         </is>
       </c>
       <c r="D2884" t="inlineStr"/>
       <c r="E2884" t="inlineStr">
         <is>
-          <t>3.65%</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F2884" t="inlineStr"/>
       <c r="G2884" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>74.3</t>
         </is>
       </c>
       <c r="H2884" t="inlineStr">
@@ -92302,29 +91952,29 @@
     <row r="2885">
       <c r="A2885" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2885" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2885" t="inlineStr">
         <is>
-          <t>Car Production MoMJAN</t>
+          <t>Michigan Inflation Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2885" t="inlineStr"/>
       <c r="E2885" t="inlineStr">
         <is>
-          <t>-19.5%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="F2885" t="inlineStr"/>
       <c r="G2885" t="inlineStr">
         <is>
-          <t>-5.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H2885" t="inlineStr">
@@ -92336,29 +91986,33 @@
     <row r="2886">
       <c r="A2886" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2886" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2886" t="inlineStr">
         <is>
-          <t>New Car Registrations MoMJAN</t>
+          <t>Wholesale Inventories MoMDEC</t>
         </is>
       </c>
       <c r="D2886" t="inlineStr"/>
       <c r="E2886" t="inlineStr">
         <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="F2886" t="inlineStr"/>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="F2886" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
       <c r="G2886" t="inlineStr">
         <is>
-          <t>-1.5%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H2886" t="inlineStr">
@@ -92370,199 +92024,179 @@
     <row r="2887">
       <c r="A2887" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B2887" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2887" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>Balance of TradeJAN</t>
         </is>
       </c>
       <c r="D2887" t="inlineStr"/>
       <c r="E2887" t="inlineStr">
         <is>
-          <t>6.7%</t>
+          <t>$4.8B</t>
         </is>
       </c>
       <c r="F2887" t="inlineStr"/>
       <c r="G2887" t="inlineStr">
         <is>
-          <t>6.8%</t>
+          <t>$4.1B</t>
         </is>
       </c>
       <c r="H2887" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2888">
       <c r="A2888" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B2888" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2888" t="inlineStr">
         <is>
-          <t>Employment ChangeJAN</t>
+          <t>Baker Hughes Oil Rig CountFEB/07</t>
         </is>
       </c>
       <c r="D2888" t="inlineStr"/>
-      <c r="E2888" t="inlineStr">
-        <is>
-          <t>90.9K</t>
-        </is>
-      </c>
+      <c r="E2888" t="inlineStr"/>
       <c r="F2888" t="inlineStr"/>
-      <c r="G2888" t="inlineStr">
-        <is>
-          <t>5K</t>
-        </is>
-      </c>
+      <c r="G2888" t="inlineStr"/>
       <c r="H2888" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2889">
       <c r="A2889" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B2889" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2889" t="inlineStr">
         <is>
-          <t>Full Time Employment ChgJAN</t>
+          <t>Baker Hughes Total Rigs CountFEB/07</t>
         </is>
       </c>
       <c r="D2889" t="inlineStr"/>
-      <c r="E2889" t="inlineStr">
-        <is>
-          <t>57.5K</t>
-        </is>
-      </c>
+      <c r="E2889" t="inlineStr"/>
       <c r="F2889" t="inlineStr"/>
-      <c r="G2889" t="inlineStr">
-        <is>
-          <t>-3K</t>
-        </is>
-      </c>
+      <c r="G2889" t="inlineStr"/>
       <c r="H2889" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2890">
       <c r="A2890" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B2890" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C2890" t="inlineStr">
         <is>
-          <t>Part Time Employment ChgJAN</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2890" t="inlineStr"/>
       <c r="E2890" t="inlineStr">
         <is>
-          <t>33.5K</t>
+          <t>-1.7%</t>
         </is>
       </c>
       <c r="F2890" t="inlineStr"/>
       <c r="G2890" t="inlineStr">
         <is>
-          <t>8K</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H2890" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2891">
       <c r="A2891" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2891" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2891" t="inlineStr">
         <is>
-          <t>Participation RateJAN</t>
+          <t>Consumer Credit ChangeDEC</t>
         </is>
       </c>
       <c r="D2891" t="inlineStr"/>
       <c r="E2891" t="inlineStr">
         <is>
-          <t>65.1%</t>
+          <t>$-7.49B</t>
         </is>
       </c>
       <c r="F2891" t="inlineStr"/>
       <c r="G2891" t="inlineStr">
         <is>
-          <t>65.0%</t>
+          <t>$ 18B</t>
         </is>
       </c>
       <c r="H2891" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2892">
-      <c r="A2892" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2892" t="inlineStr"/>
       <c r="B2892" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2892" t="inlineStr">
         <is>
-          <t>Average Hourly Wages YoYJAN</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2892" t="inlineStr"/>
       <c r="E2892" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>$3.202T</t>
         </is>
       </c>
       <c r="F2892" t="inlineStr"/>
       <c r="G2892" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>$3.3T</t>
         </is>
       </c>
       <c r="H2892" t="inlineStr">
@@ -92572,79 +92206,59 @@
       </c>
     </row>
     <row r="2893">
-      <c r="A2893" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2893" t="inlineStr"/>
       <c r="B2893" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2893" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsJAN</t>
+          <t>SACCI Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2893" t="inlineStr"/>
-      <c r="E2893" t="inlineStr">
-        <is>
-          <t>256K</t>
-        </is>
-      </c>
+      <c r="E2893" t="inlineStr"/>
       <c r="F2893" t="inlineStr"/>
-      <c r="G2893" t="inlineStr">
-        <is>
-          <t>205K</t>
-        </is>
-      </c>
+      <c r="G2893" t="inlineStr"/>
       <c r="H2893" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2894">
-      <c r="A2894" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2894" t="inlineStr"/>
       <c r="B2894" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2894" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>SACCI Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D2894" t="inlineStr"/>
       <c r="E2894" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>118.1</t>
         </is>
       </c>
       <c r="F2894" t="inlineStr"/>
       <c r="G2894" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>116</t>
         </is>
       </c>
       <c r="H2894" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2895">
-      <c r="A2895" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2895" t="inlineStr"/>
       <c r="B2895" t="inlineStr">
         <is>
           <t>US</t>
@@ -92652,33 +92266,25 @@
       </c>
       <c r="C2895" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings MoMJAN</t>
+          <t>Used Car Prices MoMJAN</t>
         </is>
       </c>
       <c r="D2895" t="inlineStr"/>
       <c r="E2895" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F2895" t="inlineStr"/>
-      <c r="G2895" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2895" t="inlineStr"/>
       <c r="H2895" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2896">
-      <c r="A2896" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2896" t="inlineStr"/>
       <c r="B2896" t="inlineStr">
         <is>
           <t>US</t>
@@ -92686,936 +92292,134 @@
       </c>
       <c r="C2896" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoYJAN</t>
+          <t>Used Car Prices YoYJAN</t>
         </is>
       </c>
       <c r="D2896" t="inlineStr"/>
       <c r="E2896" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2896" t="inlineStr"/>
-      <c r="G2896" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
+      <c r="G2896" t="inlineStr"/>
       <c r="H2896" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2897">
       <c r="A2897" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B2897" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2897" t="inlineStr">
-        <is>
-          <t>Participation RateJAN</t>
-        </is>
-      </c>
+          <t>Saturday February 08 2025</t>
+        </is>
+      </c>
+      <c r="B2897" t="inlineStr"/>
+      <c r="C2897" t="inlineStr"/>
       <c r="D2897" t="inlineStr"/>
-      <c r="E2897" t="inlineStr">
-        <is>
-          <t>62.5%</t>
-        </is>
-      </c>
+      <c r="E2897" t="inlineStr"/>
       <c r="F2897" t="inlineStr"/>
-      <c r="G2897" t="inlineStr">
-        <is>
-          <t>62.5%</t>
-        </is>
-      </c>
-      <c r="H2897" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G2897" t="inlineStr"/>
+      <c r="H2897" t="inlineStr"/>
     </row>
     <row r="2898">
       <c r="A2898" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2898" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2898" t="inlineStr">
         <is>
-          <t>Average Weekly HoursJAN</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2898" t="inlineStr"/>
       <c r="E2898" t="inlineStr">
         <is>
-          <t>34.3</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2898" t="inlineStr"/>
       <c r="G2898" t="inlineStr">
         <is>
-          <t>34.3</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="H2898" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2899">
       <c r="A2899" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2899" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2899" t="inlineStr">
         <is>
-          <t>Government PayrollsJAN</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2899" t="inlineStr"/>
       <c r="E2899" t="inlineStr">
         <is>
-          <t>33K</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="F2899" t="inlineStr"/>
       <c r="G2899" t="inlineStr">
         <is>
-          <t>25K</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H2899" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2900">
       <c r="A2900" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2900" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2900" t="inlineStr">
         <is>
-          <t>Manufacturing PayrollsJAN</t>
+          <t>PPI YoYJAN</t>
         </is>
       </c>
       <c r="D2900" t="inlineStr"/>
       <c r="E2900" t="inlineStr">
         <is>
-          <t>-13K</t>
+          <t>-2.3%</t>
         </is>
       </c>
       <c r="F2900" t="inlineStr"/>
       <c r="G2900" t="inlineStr">
         <is>
-          <t>-5K</t>
+          <t>-2.4%</t>
         </is>
       </c>
       <c r="H2900" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2901">
-      <c r="A2901" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B2901" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2901" t="inlineStr">
-        <is>
-          <t>Nonfarm Payrolls PrivateJAN</t>
-        </is>
-      </c>
-      <c r="D2901" t="inlineStr"/>
-      <c r="E2901" t="inlineStr">
-        <is>
-          <t>223K</t>
-        </is>
-      </c>
-      <c r="F2901" t="inlineStr"/>
-      <c r="G2901" t="inlineStr">
-        <is>
-          <t>180K</t>
-        </is>
-      </c>
-      <c r="H2901" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2902">
-      <c r="A2902" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B2902" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2902" t="inlineStr">
-        <is>
-          <t>U-6 Unemployment RateJAN</t>
-        </is>
-      </c>
-      <c r="D2902" t="inlineStr"/>
-      <c r="E2902" t="inlineStr">
-        <is>
-          <t>7.5%</t>
-        </is>
-      </c>
-      <c r="F2902" t="inlineStr"/>
-      <c r="G2902" t="inlineStr">
-        <is>
-          <t>7.5%</t>
-        </is>
-      </c>
-      <c r="H2902" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2903">
-      <c r="A2903" t="inlineStr">
-        <is>
-          <t>08:45 AM</t>
-        </is>
-      </c>
-      <c r="B2903" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2903" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN</t>
-        </is>
-      </c>
-      <c r="D2903" t="inlineStr"/>
-      <c r="E2903" t="inlineStr">
-        <is>
-          <t>$609.1B</t>
-        </is>
-      </c>
-      <c r="F2903" t="inlineStr"/>
-      <c r="G2903" t="inlineStr">
-        <is>
-          <t>$607.0B</t>
-        </is>
-      </c>
-      <c r="H2903" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2904">
-      <c r="A2904" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2904" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2904" t="inlineStr">
-        <is>
-          <t>Treasury Cash BalanceJAN</t>
-        </is>
-      </c>
-      <c r="D2904" t="inlineStr"/>
-      <c r="E2904" t="inlineStr">
-        <is>
-          <t>TRY-323.9B</t>
-        </is>
-      </c>
-      <c r="F2904" t="inlineStr"/>
-      <c r="G2904" t="inlineStr"/>
-      <c r="H2904" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2905">
-      <c r="A2905" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2905" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2905" t="inlineStr">
-        <is>
-          <t>Full Year GDP Growth2024</t>
-        </is>
-      </c>
-      <c r="D2905" t="inlineStr"/>
-      <c r="E2905" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="F2905" t="inlineStr"/>
-      <c r="G2905" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="H2905" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2906">
-      <c r="A2906" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2906" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2906" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2906" t="inlineStr"/>
-      <c r="E2906" t="inlineStr">
-        <is>
-          <t>71.1</t>
-        </is>
-      </c>
-      <c r="F2906" t="inlineStr"/>
-      <c r="G2906" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="H2906" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2907">
-      <c r="A2907" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2907" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2907" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2907" t="inlineStr"/>
-      <c r="E2907" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="F2907" t="inlineStr"/>
-      <c r="G2907" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="H2907" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2908">
-      <c r="A2908" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2908" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2908" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2908" t="inlineStr"/>
-      <c r="E2908" t="inlineStr">
-        <is>
-          <t>69.3</t>
-        </is>
-      </c>
-      <c r="F2908" t="inlineStr"/>
-      <c r="G2908" t="inlineStr">
-        <is>
-          <t>69.5</t>
-        </is>
-      </c>
-      <c r="H2908" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2909">
-      <c r="A2909" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2909" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2909" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2909" t="inlineStr"/>
-      <c r="E2909" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="F2909" t="inlineStr"/>
-      <c r="G2909" t="inlineStr">
-        <is>
-          <t>74.3</t>
-        </is>
-      </c>
-      <c r="H2909" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2910">
-      <c r="A2910" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2910" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2910" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2910" t="inlineStr"/>
-      <c r="E2910" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F2910" t="inlineStr"/>
-      <c r="G2910" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="H2910" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2911">
-      <c r="A2911" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2911" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2911" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2911" t="inlineStr"/>
-      <c r="E2911" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F2911" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="G2911" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="H2911" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2912">
-      <c r="A2912" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B2912" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2912" t="inlineStr">
-        <is>
-          <t>Balance of TradeJAN</t>
-        </is>
-      </c>
-      <c r="D2912" t="inlineStr"/>
-      <c r="E2912" t="inlineStr">
-        <is>
-          <t>$4.8B</t>
-        </is>
-      </c>
-      <c r="F2912" t="inlineStr"/>
-      <c r="G2912" t="inlineStr">
-        <is>
-          <t>$4.1B</t>
-        </is>
-      </c>
-      <c r="H2912" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2913">
-      <c r="A2913" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B2913" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2913" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountFEB/07</t>
-        </is>
-      </c>
-      <c r="D2913" t="inlineStr"/>
-      <c r="E2913" t="inlineStr"/>
-      <c r="F2913" t="inlineStr"/>
-      <c r="G2913" t="inlineStr"/>
-      <c r="H2913" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2914">
-      <c r="A2914" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B2914" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2914" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountFEB/07</t>
-        </is>
-      </c>
-      <c r="D2914" t="inlineStr"/>
-      <c r="E2914" t="inlineStr"/>
-      <c r="F2914" t="inlineStr"/>
-      <c r="G2914" t="inlineStr"/>
-      <c r="H2914" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2915">
-      <c r="A2915" t="inlineStr">
-        <is>
-          <t>02:00 PM</t>
-        </is>
-      </c>
-      <c r="B2915" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C2915" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2915" t="inlineStr"/>
-      <c r="E2915" t="inlineStr">
-        <is>
-          <t>-1.7%</t>
-        </is>
-      </c>
-      <c r="F2915" t="inlineStr"/>
-      <c r="G2915" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="H2915" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2916">
-      <c r="A2916" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B2916" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2916" t="inlineStr">
-        <is>
-          <t>Consumer Credit ChangeDEC</t>
-        </is>
-      </c>
-      <c r="D2916" t="inlineStr"/>
-      <c r="E2916" t="inlineStr">
-        <is>
-          <t>$-7.49B</t>
-        </is>
-      </c>
-      <c r="F2916" t="inlineStr"/>
-      <c r="G2916" t="inlineStr">
-        <is>
-          <t>$ 18B</t>
-        </is>
-      </c>
-      <c r="H2916" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2917">
-      <c r="A2917" t="inlineStr"/>
-      <c r="B2917" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2917" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN</t>
-        </is>
-      </c>
-      <c r="D2917" t="inlineStr"/>
-      <c r="E2917" t="inlineStr">
-        <is>
-          <t>$3.202T</t>
-        </is>
-      </c>
-      <c r="F2917" t="inlineStr"/>
-      <c r="G2917" t="inlineStr">
-        <is>
-          <t>$3.3T</t>
-        </is>
-      </c>
-      <c r="H2917" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2918">
-      <c r="A2918" t="inlineStr"/>
-      <c r="B2918" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C2918" t="inlineStr">
-        <is>
-          <t>SACCI Business ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D2918" t="inlineStr"/>
-      <c r="E2918" t="inlineStr"/>
-      <c r="F2918" t="inlineStr"/>
-      <c r="G2918" t="inlineStr"/>
-      <c r="H2918" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2919">
-      <c r="A2919" t="inlineStr"/>
-      <c r="B2919" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C2919" t="inlineStr">
-        <is>
-          <t>SACCI Business ConfidenceDEC</t>
-        </is>
-      </c>
-      <c r="D2919" t="inlineStr"/>
-      <c r="E2919" t="inlineStr">
-        <is>
-          <t>118.1</t>
-        </is>
-      </c>
-      <c r="F2919" t="inlineStr"/>
-      <c r="G2919" t="inlineStr">
-        <is>
-          <t>116</t>
-        </is>
-      </c>
-      <c r="H2919" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2920">
-      <c r="A2920" t="inlineStr"/>
-      <c r="B2920" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2920" t="inlineStr">
-        <is>
-          <t>Used Car Prices MoMJAN</t>
-        </is>
-      </c>
-      <c r="D2920" t="inlineStr"/>
-      <c r="E2920" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F2920" t="inlineStr"/>
-      <c r="G2920" t="inlineStr"/>
-      <c r="H2920" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2921">
-      <c r="A2921" t="inlineStr"/>
-      <c r="B2921" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2921" t="inlineStr">
-        <is>
-          <t>Used Car Prices YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2921" t="inlineStr"/>
-      <c r="E2921" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F2921" t="inlineStr"/>
-      <c r="G2921" t="inlineStr"/>
-      <c r="H2921" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2922">
-      <c r="A2922" t="inlineStr">
-        <is>
-          <t>Saturday February 08 2025</t>
-        </is>
-      </c>
-      <c r="B2922" t="inlineStr"/>
-      <c r="C2922" t="inlineStr"/>
-      <c r="D2922" t="inlineStr"/>
-      <c r="E2922" t="inlineStr"/>
-      <c r="F2922" t="inlineStr"/>
-      <c r="G2922" t="inlineStr"/>
-      <c r="H2922" t="inlineStr"/>
-    </row>
-    <row r="2923">
-      <c r="A2923" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2923" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2923" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2923" t="inlineStr"/>
-      <c r="E2923" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F2923" t="inlineStr"/>
-      <c r="G2923" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="H2923" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2924">
-      <c r="A2924" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2924" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2924" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMJAN</t>
-        </is>
-      </c>
-      <c r="D2924" t="inlineStr"/>
-      <c r="E2924" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="F2924" t="inlineStr"/>
-      <c r="G2924" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H2924" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2925">
-      <c r="A2925" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2925" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2925" t="inlineStr">
-        <is>
-          <t>PPI YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2925" t="inlineStr"/>
-      <c r="E2925" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
-      <c r="F2925" t="inlineStr"/>
-      <c r="G2925" t="inlineStr">
-        <is>
-          <t>-2.4%</t>
-        </is>
-      </c>
-      <c r="H2925" t="inlineStr">
         <is>
           <t>2</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-08.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-08.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2926"/>
+  <dimension ref="A1:H2901"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84405,10 +84405,8 @@
       </c>
       <c r="F2633" t="inlineStr"/>
       <c r="G2633" t="inlineStr"/>
-      <c r="H2633" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2633" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2634">
@@ -84435,10 +84433,8 @@
       </c>
       <c r="F2634" t="inlineStr"/>
       <c r="G2634" t="inlineStr"/>
-      <c r="H2634" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2634" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2635">
@@ -84469,10 +84465,8 @@
           <t>50.6</t>
         </is>
       </c>
-      <c r="H2635" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2635" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2636">
@@ -84507,10 +84501,8 @@
           <t>4.2%</t>
         </is>
       </c>
-      <c r="H2636" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2636" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2637">
@@ -84545,10 +84537,8 @@
           <t>41.0%</t>
         </is>
       </c>
-      <c r="H2637" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2637" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2638">
@@ -84579,10 +84569,8 @@
           <t>49.3</t>
         </is>
       </c>
-      <c r="H2638" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2638" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2639">
@@ -84613,10 +84601,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2639" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2639" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2640">
@@ -84647,10 +84633,8 @@
           <t>27.0%</t>
         </is>
       </c>
-      <c r="H2640" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2640" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2641">
@@ -84677,10 +84661,8 @@
       </c>
       <c r="F2641" t="inlineStr"/>
       <c r="G2641" t="inlineStr"/>
-      <c r="H2641" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2641" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2642">
@@ -84707,10 +84689,8 @@
       </c>
       <c r="F2642" t="inlineStr"/>
       <c r="G2642" t="inlineStr"/>
-      <c r="H2642" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2642" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2643">
@@ -84737,10 +84717,8 @@
       </c>
       <c r="F2643" t="inlineStr"/>
       <c r="G2643" t="inlineStr"/>
-      <c r="H2643" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2643" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2644">
@@ -84767,10 +84745,8 @@
       </c>
       <c r="F2644" t="inlineStr"/>
       <c r="G2644" t="inlineStr"/>
-      <c r="H2644" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2644" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2645">
@@ -84805,10 +84781,8 @@
           <t>45.3</t>
         </is>
       </c>
-      <c r="H2645" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2645" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2646">
@@ -84843,10 +84817,8 @@
           <t>44.1</t>
         </is>
       </c>
-      <c r="H2646" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2646" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2647">
@@ -84881,10 +84853,8 @@
           <t>46.1</t>
         </is>
       </c>
-      <c r="H2647" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2647" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2648">
@@ -84915,10 +84885,8 @@
           <t>47</t>
         </is>
       </c>
-      <c r="H2648" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2648" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2649">
@@ -84953,10 +84921,8 @@
           <t>48.2</t>
         </is>
       </c>
-      <c r="H2649" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2649" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2650">
@@ -84983,10 +84949,8 @@
       </c>
       <c r="F2650" t="inlineStr"/>
       <c r="G2650" t="inlineStr"/>
-      <c r="H2650" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2650" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2651">
@@ -85013,10 +84977,8 @@
       </c>
       <c r="F2651" t="inlineStr"/>
       <c r="G2651" t="inlineStr"/>
-      <c r="H2651" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2651" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2652">
@@ -85043,10 +85005,8 @@
       </c>
       <c r="F2652" t="inlineStr"/>
       <c r="G2652" t="inlineStr"/>
-      <c r="H2652" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2652" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2653">
@@ -85073,10 +85033,8 @@
       </c>
       <c r="F2653" t="inlineStr"/>
       <c r="G2653" t="inlineStr"/>
-      <c r="H2653" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2653" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2654">
@@ -85103,10 +85061,8 @@
       </c>
       <c r="F2654" t="inlineStr"/>
       <c r="G2654" t="inlineStr"/>
-      <c r="H2654" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2654" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2655">
@@ -85133,10 +85089,8 @@
       </c>
       <c r="F2655" t="inlineStr"/>
       <c r="G2655" t="inlineStr"/>
-      <c r="H2655" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2655" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2656">
@@ -85163,10 +85117,8 @@
       </c>
       <c r="F2656" t="inlineStr"/>
       <c r="G2656" t="inlineStr"/>
-      <c r="H2656" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2656" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2657">
@@ -85193,10 +85145,8 @@
       </c>
       <c r="F2657" t="inlineStr"/>
       <c r="G2657" t="inlineStr"/>
-      <c r="H2657" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2657" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2658">
@@ -85227,10 +85177,8 @@
           <t>$ 230B</t>
         </is>
       </c>
-      <c r="H2658" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2658" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2659">
@@ -85261,10 +85209,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H2659" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2659" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2660">
@@ -85295,10 +85241,8 @@
           <t>51.4</t>
         </is>
       </c>
-      <c r="H2660" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2660" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2661">
@@ -85325,10 +85269,8 @@
       </c>
       <c r="F2661" t="inlineStr"/>
       <c r="G2661" t="inlineStr"/>
-      <c r="H2661" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2661" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2662">
@@ -85355,10 +85297,8 @@
       </c>
       <c r="F2662" t="inlineStr"/>
       <c r="G2662" t="inlineStr"/>
-      <c r="H2662" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2662" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2663">
@@ -85385,10 +85325,8 @@
       </c>
       <c r="F2663" t="inlineStr"/>
       <c r="G2663" t="inlineStr"/>
-      <c r="H2663" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2663" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2664">
@@ -85419,10 +85357,8 @@
           <t>52.3</t>
         </is>
       </c>
-      <c r="H2664" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2664" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2665">
@@ -85457,10 +85393,8 @@
           <t>50.1</t>
         </is>
       </c>
-      <c r="H2665" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2665" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2666">
@@ -85491,10 +85425,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H2666" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2666" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2667">
@@ -85525,10 +85457,8 @@
           <t>47</t>
         </is>
       </c>
-      <c r="H2667" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2667" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2668">
@@ -85559,10 +85489,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2668" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2668" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2669">
@@ -85593,10 +85521,8 @@
           <t>52.8</t>
         </is>
       </c>
-      <c r="H2669" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2669" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2670">
@@ -85627,10 +85553,8 @@
           <t>53</t>
         </is>
       </c>
-      <c r="H2670" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2670" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2671">
@@ -85657,10 +85581,8 @@
       </c>
       <c r="F2671" t="inlineStr"/>
       <c r="G2671" t="inlineStr"/>
-      <c r="H2671" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2671" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2672">
@@ -85687,10 +85609,8 @@
       </c>
       <c r="F2672" t="inlineStr"/>
       <c r="G2672" t="inlineStr"/>
-      <c r="H2672" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2672" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2673">
@@ -85713,10 +85633,8 @@
       <c r="E2673" t="inlineStr"/>
       <c r="F2673" t="inlineStr"/>
       <c r="G2673" t="inlineStr"/>
-      <c r="H2673" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2673" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2674">
@@ -85739,10 +85657,8 @@
       <c r="E2674" t="inlineStr"/>
       <c r="F2674" t="inlineStr"/>
       <c r="G2674" t="inlineStr"/>
-      <c r="H2674" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2674" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2675">
@@ -85765,10 +85681,8 @@
       <c r="E2675" t="inlineStr"/>
       <c r="F2675" t="inlineStr"/>
       <c r="G2675" t="inlineStr"/>
-      <c r="H2675" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2675" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2676">
@@ -85795,10 +85709,8 @@
       </c>
       <c r="F2676" t="inlineStr"/>
       <c r="G2676" t="inlineStr"/>
-      <c r="H2676" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2676" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2677">
@@ -85825,10 +85737,8 @@
       </c>
       <c r="F2677" t="inlineStr"/>
       <c r="G2677" t="inlineStr"/>
-      <c r="H2677" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2677" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2678">
@@ -85859,10 +85769,8 @@
           <t>58</t>
         </is>
       </c>
-      <c r="H2678" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2678" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2679">
@@ -85881,10 +85789,8 @@
       <c r="E2679" t="inlineStr"/>
       <c r="F2679" t="inlineStr"/>
       <c r="G2679" t="inlineStr"/>
-      <c r="H2679" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2679" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2680">
@@ -85903,10 +85809,8 @@
       <c r="E2680" t="inlineStr"/>
       <c r="F2680" t="inlineStr"/>
       <c r="G2680" t="inlineStr"/>
-      <c r="H2680" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2680" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2681">
@@ -85933,10 +85837,8 @@
           <t>43.0K</t>
         </is>
       </c>
-      <c r="H2681" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2681" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2682">
@@ -85977,10 +85879,8 @@
       </c>
       <c r="F2683" t="inlineStr"/>
       <c r="G2683" t="inlineStr"/>
-      <c r="H2683" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2683" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2684">
@@ -86007,10 +85907,8 @@
       </c>
       <c r="F2684" t="inlineStr"/>
       <c r="G2684" t="inlineStr"/>
-      <c r="H2684" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2684" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2685">
@@ -86037,10 +85935,8 @@
       </c>
       <c r="F2685" t="inlineStr"/>
       <c r="G2685" t="inlineStr"/>
-      <c r="H2685" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2685" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2686">
@@ -86067,10 +85963,8 @@
       </c>
       <c r="F2686" t="inlineStr"/>
       <c r="G2686" t="inlineStr"/>
-      <c r="H2686" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2686" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2687">
@@ -86101,10 +85995,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2687" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2687" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2688">
@@ -86131,10 +86023,8 @@
       </c>
       <c r="F2688" t="inlineStr"/>
       <c r="G2688" t="inlineStr"/>
-      <c r="H2688" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2688" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2689">
@@ -86157,10 +86047,8 @@
       <c r="E2689" t="inlineStr"/>
       <c r="F2689" t="inlineStr"/>
       <c r="G2689" t="inlineStr"/>
-      <c r="H2689" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2689" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2690">
@@ -86191,10 +86079,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2690" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2690" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2691">
@@ -86225,10 +86111,8 @@
           <t>8.2%</t>
         </is>
       </c>
-      <c r="H2691" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2691" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2692">
@@ -86259,10 +86143,8 @@
           <t>50.8</t>
         </is>
       </c>
-      <c r="H2692" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2692" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2693">
@@ -86289,10 +86171,8 @@
       </c>
       <c r="F2693" t="inlineStr"/>
       <c r="G2693" t="inlineStr"/>
-      <c r="H2693" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2693" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2694">
@@ -86323,10 +86203,8 @@
           <t>49.7</t>
         </is>
       </c>
-      <c r="H2694" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2694" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2695">
@@ -86357,10 +86235,8 @@
           <t>7.8M</t>
         </is>
       </c>
-      <c r="H2695" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2695" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2696">
@@ -86391,10 +86267,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H2696" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2696" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2697">
@@ -86425,10 +86299,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2697" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2697" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2698">
@@ -86459,10 +86331,8 @@
           <t>3.1M</t>
         </is>
       </c>
-      <c r="H2698" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2698" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2699">
@@ -86493,10 +86363,8 @@
           <t>52.3</t>
         </is>
       </c>
-      <c r="H2699" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2699" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2700">
@@ -86519,10 +86387,8 @@
       <c r="E2700" t="inlineStr"/>
       <c r="F2700" t="inlineStr"/>
       <c r="G2700" t="inlineStr"/>
-      <c r="H2700" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2700" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2701">
@@ -86545,10 +86411,8 @@
       <c r="E2701" t="inlineStr"/>
       <c r="F2701" t="inlineStr"/>
       <c r="G2701" t="inlineStr"/>
-      <c r="H2701" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2701" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2702">
@@ -86575,10 +86439,8 @@
       </c>
       <c r="F2702" t="inlineStr"/>
       <c r="G2702" t="inlineStr"/>
-      <c r="H2702" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2702" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2703">
@@ -86605,10 +86467,8 @@
       </c>
       <c r="F2703" t="inlineStr"/>
       <c r="G2703" t="inlineStr"/>
-      <c r="H2703" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2703" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2704">
@@ -86639,10 +86499,8 @@
           <t>50.4</t>
         </is>
       </c>
-      <c r="H2704" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2704" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2705">
@@ -86673,10 +86531,8 @@
           <t>50.3</t>
         </is>
       </c>
-      <c r="H2705" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2705" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2706">
@@ -86703,10 +86559,8 @@
       </c>
       <c r="F2706" t="inlineStr"/>
       <c r="G2706" t="inlineStr"/>
-      <c r="H2706" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2706" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2707">
@@ -86733,10 +86587,8 @@
       </c>
       <c r="F2707" t="inlineStr"/>
       <c r="G2707" t="inlineStr"/>
-      <c r="H2707" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2707" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2708">
@@ -86767,10 +86619,8 @@
           <t>2.1%</t>
         </is>
       </c>
-      <c r="H2708" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2708" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2709">
@@ -86797,10 +86647,8 @@
       </c>
       <c r="F2709" t="inlineStr"/>
       <c r="G2709" t="inlineStr"/>
-      <c r="H2709" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2709" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2710">
@@ -86835,10 +86683,8 @@
           <t>52.7</t>
         </is>
       </c>
-      <c r="H2710" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2710" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2711">
@@ -86869,10 +86715,8 @@
           <t>51.1</t>
         </is>
       </c>
-      <c r="H2711" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2711" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2712">
@@ -86899,10 +86743,8 @@
       </c>
       <c r="F2712" t="inlineStr"/>
       <c r="G2712" t="inlineStr"/>
-      <c r="H2712" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2712" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2713">
@@ -86933,10 +86775,8 @@
           <t>51.8</t>
         </is>
       </c>
-      <c r="H2713" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2713" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2714">
@@ -86967,10 +86807,8 @@
           <t>51.1</t>
         </is>
       </c>
-      <c r="H2714" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2714" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2715">
@@ -87001,10 +86839,8 @@
           <t>5.2%</t>
         </is>
       </c>
-      <c r="H2715" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2715" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2716">
@@ -87035,10 +86871,8 @@
           <t>5.2%</t>
         </is>
       </c>
-      <c r="H2716" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2716" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2717">
@@ -87069,10 +86903,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2717" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2717" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2718">
@@ -87095,10 +86927,8 @@
           <t>$-9.4B</t>
         </is>
       </c>
-      <c r="H2718" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2718" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2719">
@@ -87121,10 +86951,8 @@
           <t>$24.3B</t>
         </is>
       </c>
-      <c r="H2719" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2719" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2720">
@@ -87147,10 +86975,8 @@
           <t>$33.7B</t>
         </is>
       </c>
-      <c r="H2720" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2720" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2721">
@@ -87173,10 +86999,8 @@
       </c>
       <c r="F2721" t="inlineStr"/>
       <c r="G2721" t="inlineStr"/>
-      <c r="H2721" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2721" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2722">
@@ -87225,10 +87049,8 @@
           <t>57.9</t>
         </is>
       </c>
-      <c r="H2723" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2723" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2724">
@@ -87263,10 +87085,8 @@
           <t>56.8</t>
         </is>
       </c>
-      <c r="H2724" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2724" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2725">
@@ -87297,10 +87117,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2725" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2725" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2726">
@@ -87331,10 +87149,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H2726" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2726" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2727">
@@ -87365,10 +87181,8 @@
           <t>50.9</t>
         </is>
       </c>
-      <c r="H2727" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2727" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2728">
@@ -87399,10 +87213,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="H2728" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2728" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2729">
@@ -87429,10 +87241,8 @@
       </c>
       <c r="F2729" t="inlineStr"/>
       <c r="G2729" t="inlineStr"/>
-      <c r="H2729" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2729" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2730">
@@ -87463,10 +87273,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2730" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2730" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2731">
@@ -87493,10 +87301,8 @@
       </c>
       <c r="F2731" t="inlineStr"/>
       <c r="G2731" t="inlineStr"/>
-      <c r="H2731" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2731" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2732">
@@ -87523,10 +87329,8 @@
       </c>
       <c r="F2732" t="inlineStr"/>
       <c r="G2732" t="inlineStr"/>
-      <c r="H2732" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2732" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2733">
@@ -87553,10 +87357,8 @@
       </c>
       <c r="F2733" t="inlineStr"/>
       <c r="G2733" t="inlineStr"/>
-      <c r="H2733" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2733" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2734">
@@ -87583,10 +87385,8 @@
       </c>
       <c r="F2734" t="inlineStr"/>
       <c r="G2734" t="inlineStr"/>
-      <c r="H2734" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2734" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2735">
@@ -87621,10 +87421,8 @@
           <t>48.9</t>
         </is>
       </c>
-      <c r="H2735" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2735" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2736">
@@ -87659,10 +87457,8 @@
           <t>48.3</t>
         </is>
       </c>
-      <c r="H2736" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2736" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2737">
@@ -87697,10 +87493,8 @@
           <t>50.1</t>
         </is>
       </c>
-      <c r="H2737" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2737" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2738">
@@ -87735,10 +87529,8 @@
           <t>52.5</t>
         </is>
       </c>
-      <c r="H2738" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2738" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2739">
@@ -87773,10 +87565,8 @@
           <t>50.2</t>
         </is>
       </c>
-      <c r="H2739" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2739" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2740">
@@ -87811,10 +87601,8 @@
           <t>51.4</t>
         </is>
       </c>
-      <c r="H2740" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2740" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2741">
@@ -87845,10 +87633,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2741" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2741" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2742">
@@ -87879,10 +87665,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H2742" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2742" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2743">
@@ -87913,10 +87697,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H2743" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2743" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2744">
@@ -87951,10 +87733,8 @@
           <t>51.2</t>
         </is>
       </c>
-      <c r="H2744" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2744" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2745">
@@ -87989,10 +87769,8 @@
           <t>50.9</t>
         </is>
       </c>
-      <c r="H2745" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2745" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2746">
@@ -88023,10 +87801,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2746" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2746" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2747">
@@ -88057,10 +87833,8 @@
           <t>1%</t>
         </is>
       </c>
-      <c r="H2747" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2747" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2748">
@@ -88087,10 +87861,8 @@
       </c>
       <c r="F2748" t="inlineStr"/>
       <c r="G2748" t="inlineStr"/>
-      <c r="H2748" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2748" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2749">
@@ -88117,10 +87889,8 @@
       </c>
       <c r="F2749" t="inlineStr"/>
       <c r="G2749" t="inlineStr"/>
-      <c r="H2749" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2749" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2750">
@@ -88147,10 +87917,8 @@
       </c>
       <c r="F2750" t="inlineStr"/>
       <c r="G2750" t="inlineStr"/>
-      <c r="H2750" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2750" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2751">
@@ -88177,10 +87945,8 @@
       </c>
       <c r="F2751" t="inlineStr"/>
       <c r="G2751" t="inlineStr"/>
-      <c r="H2751" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2751" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2752">
@@ -88211,10 +87977,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2752" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2752" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2753">
@@ -88245,10 +88009,8 @@
           <t>3.7%</t>
         </is>
       </c>
-      <c r="H2753" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2753" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2754">
@@ -88279,10 +88041,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2754" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2754" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2755">
@@ -88313,10 +88073,8 @@
           <t>-1.4%</t>
         </is>
       </c>
-      <c r="H2755" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2755" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2756">
@@ -88343,10 +88101,8 @@
       </c>
       <c r="F2756" t="inlineStr"/>
       <c r="G2756" t="inlineStr"/>
-      <c r="H2756" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2756" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2757">
@@ -88373,10 +88129,8 @@
       </c>
       <c r="F2757" t="inlineStr"/>
       <c r="G2757" t="inlineStr"/>
-      <c r="H2757" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2757" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2758">
@@ -88403,10 +88157,8 @@
       </c>
       <c r="F2758" t="inlineStr"/>
       <c r="G2758" t="inlineStr"/>
-      <c r="H2758" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2758" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2759">
@@ -88433,10 +88185,8 @@
       </c>
       <c r="F2759" t="inlineStr"/>
       <c r="G2759" t="inlineStr"/>
-      <c r="H2759" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2759" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2760">
@@ -88463,10 +88213,8 @@
       </c>
       <c r="F2760" t="inlineStr"/>
       <c r="G2760" t="inlineStr"/>
-      <c r="H2760" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2760" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2761">
@@ -88497,10 +88245,8 @@
           <t>50.2</t>
         </is>
       </c>
-      <c r="H2761" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2761" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2762">
@@ -88531,10 +88277,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="H2762" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2762" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2763">
@@ -88565,10 +88309,8 @@
           <t>115.0K</t>
         </is>
       </c>
-      <c r="H2763" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2763" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2764">
@@ -88599,10 +88341,8 @@
           <t>C$ -1.3B</t>
         </is>
       </c>
-      <c r="H2764" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2764" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2765">
@@ -88633,10 +88373,8 @@
           <t>C$ 65.8B</t>
         </is>
       </c>
-      <c r="H2765" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2765" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2766">
@@ -88667,10 +88405,8 @@
           <t>C$ 64.5B</t>
         </is>
       </c>
-      <c r="H2766" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2766" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2767">
@@ -88701,10 +88437,8 @@
           <t>$ -103.0B</t>
         </is>
       </c>
-      <c r="H2767" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2767" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2768">
@@ -88735,10 +88469,8 @@
           <t>$ 260B</t>
         </is>
       </c>
-      <c r="H2768" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2768" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2769">
@@ -88769,10 +88501,8 @@
           <t>$ 363.0B</t>
         </is>
       </c>
-      <c r="H2769" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2769" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2770">
@@ -88795,10 +88525,8 @@
       <c r="E2770" t="inlineStr"/>
       <c r="F2770" t="inlineStr"/>
       <c r="G2770" t="inlineStr"/>
-      <c r="H2770" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2770" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2771">
@@ -88829,10 +88557,8 @@
           <t>49.5</t>
         </is>
       </c>
-      <c r="H2771" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2771" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2772">
@@ -88863,10 +88589,8 @@
           <t>49</t>
         </is>
       </c>
-      <c r="H2772" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2772" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2773">
@@ -88901,10 +88625,8 @@
           <t>52.4</t>
         </is>
       </c>
-      <c r="H2773" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2773" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2774">
@@ -88939,10 +88661,8 @@
           <t>52.8</t>
         </is>
       </c>
-      <c r="H2774" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2774" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2775">
@@ -88973,10 +88693,8 @@
           <t>54</t>
         </is>
       </c>
-      <c r="H2775" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2775" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2776">
@@ -89007,10 +88725,8 @@
           <t>58.1</t>
         </is>
       </c>
-      <c r="H2776" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2776" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2777">
@@ -89041,10 +88757,8 @@
           <t>51.3</t>
         </is>
       </c>
-      <c r="H2777" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2777" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2778">
@@ -89075,10 +88789,8 @@
           <t>54.1</t>
         </is>
       </c>
-      <c r="H2778" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2778" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2779">
@@ -89109,10 +88821,8 @@
           <t>64.8</t>
         </is>
       </c>
-      <c r="H2779" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2779" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2780">
@@ -89139,10 +88849,8 @@
       </c>
       <c r="F2780" t="inlineStr"/>
       <c r="G2780" t="inlineStr"/>
-      <c r="H2780" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2780" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2781">
@@ -89169,10 +88877,8 @@
       </c>
       <c r="F2781" t="inlineStr"/>
       <c r="G2781" t="inlineStr"/>
-      <c r="H2781" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2781" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2782">
@@ -89199,10 +88905,8 @@
       </c>
       <c r="F2782" t="inlineStr"/>
       <c r="G2782" t="inlineStr"/>
-      <c r="H2782" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2782" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2783">
@@ -89229,10 +88933,8 @@
       </c>
       <c r="F2783" t="inlineStr"/>
       <c r="G2783" t="inlineStr"/>
-      <c r="H2783" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2783" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2784">
@@ -89259,10 +88961,8 @@
       </c>
       <c r="F2784" t="inlineStr"/>
       <c r="G2784" t="inlineStr"/>
-      <c r="H2784" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2784" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2785">
@@ -89289,10 +88989,8 @@
       </c>
       <c r="F2785" t="inlineStr"/>
       <c r="G2785" t="inlineStr"/>
-      <c r="H2785" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2785" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2786">
@@ -89319,10 +89017,8 @@
       </c>
       <c r="F2786" t="inlineStr"/>
       <c r="G2786" t="inlineStr"/>
-      <c r="H2786" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2786" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2787">
@@ -89349,10 +89045,8 @@
       </c>
       <c r="F2787" t="inlineStr"/>
       <c r="G2787" t="inlineStr"/>
-      <c r="H2787" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2787" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2788">
@@ -89379,10 +89073,8 @@
       </c>
       <c r="F2788" t="inlineStr"/>
       <c r="G2788" t="inlineStr"/>
-      <c r="H2788" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2788" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2789">
@@ -89413,10 +89105,8 @@
           <t>2.40%</t>
         </is>
       </c>
-      <c r="H2789" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2789" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2790">
@@ -89447,10 +89137,8 @@
           <t>6.8</t>
         </is>
       </c>
-      <c r="H2790" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2790" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2791">
@@ -89481,10 +89169,8 @@
           <t>RUB 26.0T</t>
         </is>
       </c>
-      <c r="H2791" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2791" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2792">
@@ -89515,10 +89201,8 @@
           <t>3.8%</t>
         </is>
       </c>
-      <c r="H2792" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2792" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2793">
@@ -89549,10 +89233,8 @@
           <t>7.0%</t>
         </is>
       </c>
-      <c r="H2793" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2793" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2794">
@@ -89583,10 +89265,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H2794" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2794" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2795">
@@ -89613,10 +89293,8 @@
       </c>
       <c r="F2795" t="inlineStr"/>
       <c r="G2795" t="inlineStr"/>
-      <c r="H2795" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2795" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2796">
@@ -89643,10 +89321,8 @@
       </c>
       <c r="F2796" t="inlineStr"/>
       <c r="G2796" t="inlineStr"/>
-      <c r="H2796" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2796" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2797">
@@ -89669,10 +89345,8 @@
       <c r="E2797" t="inlineStr"/>
       <c r="F2797" t="inlineStr"/>
       <c r="G2797" t="inlineStr"/>
-      <c r="H2797" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2797" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2798">
@@ -89703,10 +89377,8 @@
           <t>-15</t>
         </is>
       </c>
-      <c r="H2798" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2798" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2799">
@@ -89737,10 +89409,8 @@
           <t>-25</t>
         </is>
       </c>
-      <c r="H2799" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2799" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2800">
@@ -89771,10 +89441,8 @@
           <t>-13</t>
         </is>
       </c>
-      <c r="H2800" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2800" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2801">
@@ -89805,10 +89473,8 @@
           <t>$ 8.1B</t>
         </is>
       </c>
-      <c r="H2801" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2801" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2802">
@@ -89839,10 +89505,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H2802" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2802" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2803">
@@ -89869,10 +89533,8 @@
       </c>
       <c r="F2803" t="inlineStr"/>
       <c r="G2803" t="inlineStr"/>
-      <c r="H2803" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2803" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2804">
@@ -89899,10 +89561,8 @@
       </c>
       <c r="F2804" t="inlineStr"/>
       <c r="G2804" t="inlineStr"/>
-      <c r="H2804" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2804" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2805">
@@ -89933,10 +89593,8 @@
           <t>A$ 3.2B</t>
         </is>
       </c>
-      <c r="H2805" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2805" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2806">
@@ -89963,10 +89621,8 @@
       </c>
       <c r="F2806" t="inlineStr"/>
       <c r="G2806" t="inlineStr"/>
-      <c r="H2806" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2806" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2807">
@@ -89993,10 +89649,8 @@
       </c>
       <c r="F2807" t="inlineStr"/>
       <c r="G2807" t="inlineStr"/>
-      <c r="H2807" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2807" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2808">
@@ -90023,10 +89677,8 @@
       </c>
       <c r="F2808" t="inlineStr"/>
       <c r="G2808" t="inlineStr"/>
-      <c r="H2808" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2808" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2809">
@@ -90053,10 +89705,8 @@
       </c>
       <c r="F2809" t="inlineStr"/>
       <c r="G2809" t="inlineStr"/>
-      <c r="H2809" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2809" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2810">
@@ -90079,10 +89729,8 @@
       </c>
       <c r="F2810" t="inlineStr"/>
       <c r="G2810" t="inlineStr"/>
-      <c r="H2810" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2810" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2811">
@@ -90127,10 +89775,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2812" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2812" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2813">
@@ -90157,10 +89803,8 @@
       </c>
       <c r="F2813" t="inlineStr"/>
       <c r="G2813" t="inlineStr"/>
-      <c r="H2813" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2813" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2814">
@@ -90187,10 +89831,8 @@
       </c>
       <c r="F2814" t="inlineStr"/>
       <c r="G2814" t="inlineStr"/>
-      <c r="H2814" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2814" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2815">
@@ -90217,10 +89859,8 @@
       </c>
       <c r="F2815" t="inlineStr"/>
       <c r="G2815" t="inlineStr"/>
-      <c r="H2815" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2815" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2816">
@@ -90247,10 +89887,8 @@
       </c>
       <c r="F2816" t="inlineStr"/>
       <c r="G2816" t="inlineStr"/>
-      <c r="H2816" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2816" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2817">
@@ -90281,10 +89919,8 @@
           <t>53.5</t>
         </is>
       </c>
-      <c r="H2817" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2817" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2818">
@@ -90315,10 +89951,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2818" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2818" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2819">
@@ -90349,10 +89983,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H2819" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2819" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2820">
@@ -90375,10 +90007,8 @@
       <c r="E2820" t="inlineStr"/>
       <c r="F2820" t="inlineStr"/>
       <c r="G2820" t="inlineStr"/>
-      <c r="H2820" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2820" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2821">
@@ -90405,10 +90035,8 @@
       </c>
       <c r="F2821" t="inlineStr"/>
       <c r="G2821" t="inlineStr"/>
-      <c r="H2821" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2821" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2822">
@@ -90439,10 +90067,8 @@
           <t>46.5</t>
         </is>
       </c>
-      <c r="H2822" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2822" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2823">
@@ -90477,10 +90103,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H2823" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2823" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2824">
@@ -90503,10 +90127,8 @@
       <c r="E2824" t="inlineStr"/>
       <c r="F2824" t="inlineStr"/>
       <c r="G2824" t="inlineStr"/>
-      <c r="H2824" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2824" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2825">
@@ -90533,10 +90155,8 @@
       </c>
       <c r="F2825" t="inlineStr"/>
       <c r="G2825" t="inlineStr"/>
-      <c r="H2825" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2825" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2826">
@@ -90563,10 +90183,8 @@
       </c>
       <c r="F2826" t="inlineStr"/>
       <c r="G2826" t="inlineStr"/>
-      <c r="H2826" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2826" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2827">
@@ -90593,10 +90211,8 @@
       </c>
       <c r="F2827" t="inlineStr"/>
       <c r="G2827" t="inlineStr"/>
-      <c r="H2827" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2827" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2828">
@@ -90619,10 +90235,8 @@
       <c r="E2828" t="inlineStr"/>
       <c r="F2828" t="inlineStr"/>
       <c r="G2828" t="inlineStr"/>
-      <c r="H2828" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2828" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2829">
@@ -90653,10 +90267,8 @@
           <t>45K</t>
         </is>
       </c>
-      <c r="H2829" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2829" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2830">
@@ -90687,10 +90299,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="H2830" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2830" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2831">
@@ -90721,10 +90331,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2831" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2831" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2832">
@@ -90755,10 +90363,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2832" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2832" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2833">
@@ -90789,10 +90395,8 @@
           <t>1855.0K</t>
         </is>
       </c>
-      <c r="H2833" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2833" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2834">
@@ -90823,10 +90427,8 @@
           <t>215.5K</t>
         </is>
       </c>
-      <c r="H2834" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2834" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2835">
@@ -90857,10 +90459,8 @@
           <t>54.2</t>
         </is>
       </c>
-      <c r="H2835" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2835" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2836">
@@ -90887,10 +90487,8 @@
       </c>
       <c r="F2836" t="inlineStr"/>
       <c r="G2836" t="inlineStr"/>
-      <c r="H2836" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2836" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2837">
@@ -90917,10 +90515,8 @@
       </c>
       <c r="F2837" t="inlineStr"/>
       <c r="G2837" t="inlineStr"/>
-      <c r="H2837" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2837" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2838">
@@ -90947,10 +90543,8 @@
       </c>
       <c r="F2838" t="inlineStr"/>
       <c r="G2838" t="inlineStr"/>
-      <c r="H2838" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2838" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2839">
@@ -90977,10 +90571,8 @@
       </c>
       <c r="F2839" t="inlineStr"/>
       <c r="G2839" t="inlineStr"/>
-      <c r="H2839" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2839" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2840">
@@ -91007,10 +90599,8 @@
       </c>
       <c r="F2840" t="inlineStr"/>
       <c r="G2840" t="inlineStr"/>
-      <c r="H2840" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2840" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2841">
@@ -91037,10 +90627,8 @@
       </c>
       <c r="F2841" t="inlineStr"/>
       <c r="G2841" t="inlineStr"/>
-      <c r="H2841" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2841" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2842">
@@ -91071,10 +90659,8 @@
           <t>9.75%</t>
         </is>
       </c>
-      <c r="H2842" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2842" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2843">
@@ -91097,10 +90683,8 @@
       <c r="E2843" t="inlineStr"/>
       <c r="F2843" t="inlineStr"/>
       <c r="G2843" t="inlineStr"/>
-      <c r="H2843" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2843" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2844">
@@ -91127,10 +90711,8 @@
       </c>
       <c r="F2844" t="inlineStr"/>
       <c r="G2844" t="inlineStr"/>
-      <c r="H2844" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2844" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2845">
@@ -91161,10 +90743,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2845" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2845" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2846">
@@ -91195,10 +90775,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H2846" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2846" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2847">
@@ -91225,10 +90803,8 @@
       </c>
       <c r="F2847" t="inlineStr"/>
       <c r="G2847" t="inlineStr"/>
-      <c r="H2847" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2847" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2848">
@@ -91251,10 +90827,8 @@
       <c r="E2848" t="inlineStr"/>
       <c r="F2848" t="inlineStr"/>
       <c r="G2848" t="inlineStr"/>
-      <c r="H2848" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2848" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2849">
@@ -91281,10 +90855,8 @@
       </c>
       <c r="F2849" t="inlineStr"/>
       <c r="G2849" t="inlineStr"/>
-      <c r="H2849" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2849" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2850">
@@ -91311,10 +90883,8 @@
       </c>
       <c r="F2850" t="inlineStr"/>
       <c r="G2850" t="inlineStr"/>
-      <c r="H2850" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2850" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2851">
@@ -91337,10 +90907,8 @@
       </c>
       <c r="F2851" t="inlineStr"/>
       <c r="G2851" t="inlineStr"/>
-      <c r="H2851" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2851" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2852">
@@ -91363,10 +90931,8 @@
       </c>
       <c r="F2852" t="inlineStr"/>
       <c r="G2852" t="inlineStr"/>
-      <c r="H2852" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2852" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2853">
@@ -91389,10 +90955,8 @@
       </c>
       <c r="F2853" t="inlineStr"/>
       <c r="G2853" t="inlineStr"/>
-      <c r="H2853" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2853" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2854">
@@ -91415,10 +90979,8 @@
       </c>
       <c r="F2854" t="inlineStr"/>
       <c r="G2854" t="inlineStr"/>
-      <c r="H2854" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2854" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2855">
@@ -91441,10 +91003,8 @@
       </c>
       <c r="F2855" t="inlineStr"/>
       <c r="G2855" t="inlineStr"/>
-      <c r="H2855" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2855" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2856">
@@ -91467,10 +91027,8 @@
       </c>
       <c r="F2856" t="inlineStr"/>
       <c r="G2856" t="inlineStr"/>
-      <c r="H2856" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2856" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2857">
@@ -91493,52 +91051,70 @@
       </c>
       <c r="F2857" t="inlineStr"/>
       <c r="G2857" t="inlineStr"/>
-      <c r="H2857" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2857" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2858">
       <c r="A2858" t="inlineStr">
         <is>
-          <t>Friday February 07 2025</t>
-        </is>
-      </c>
-      <c r="B2858" t="inlineStr"/>
-      <c r="C2858" t="inlineStr"/>
+          <t>07:00 AM</t>
+        </is>
+      </c>
+      <c r="B2858" t="inlineStr">
+        <is>
+          <t>MX</t>
+        </is>
+      </c>
+      <c r="C2858" t="inlineStr">
+        <is>
+          <t>Inflation Rate YoYJAN</t>
+        </is>
+      </c>
       <c r="D2858" t="inlineStr"/>
-      <c r="E2858" t="inlineStr"/>
+      <c r="E2858" t="inlineStr">
+        <is>
+          <t>4.21%</t>
+        </is>
+      </c>
       <c r="F2858" t="inlineStr"/>
-      <c r="G2858" t="inlineStr"/>
-      <c r="H2858" t="inlineStr"/>
+      <c r="G2858" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="H2858" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2859">
       <c r="A2859" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2859" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2859" t="inlineStr">
         <is>
-          <t>Coincident Index PrelDEC</t>
+          <t>Core Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2859" t="inlineStr"/>
       <c r="E2859" t="inlineStr">
         <is>
-          <t>115.4</t>
+          <t>0.51%</t>
         </is>
       </c>
       <c r="F2859" t="inlineStr"/>
       <c r="G2859" t="inlineStr">
         <is>
-          <t>115.9</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H2859" t="inlineStr">
@@ -91550,29 +91126,29 @@
     <row r="2860">
       <c r="A2860" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2860" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2860" t="inlineStr">
         <is>
-          <t>Leading Economic Index PrelDEC</t>
+          <t>Core Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2860" t="inlineStr"/>
       <c r="E2860" t="inlineStr">
         <is>
-          <t>107.5</t>
+          <t>3.65%</t>
         </is>
       </c>
       <c r="F2860" t="inlineStr"/>
       <c r="G2860" t="inlineStr">
         <is>
-          <t>108.2</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H2860" t="inlineStr">
@@ -91584,29 +91160,29 @@
     <row r="2861">
       <c r="A2861" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2861" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2861" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Car Production MoMJAN</t>
         </is>
       </c>
       <c r="D2861" t="inlineStr"/>
       <c r="E2861" t="inlineStr">
         <is>
-          <t>$65.46B</t>
+          <t>-19.5%</t>
         </is>
       </c>
       <c r="F2861" t="inlineStr"/>
       <c r="G2861" t="inlineStr">
         <is>
-          <t>$65.0B</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="H2861" t="inlineStr">
@@ -91618,97 +91194,97 @@
     <row r="2862">
       <c r="A2862" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2862" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2862" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>New Car Registrations MoMJAN</t>
         </is>
       </c>
       <c r="D2862" t="inlineStr"/>
       <c r="E2862" t="inlineStr">
         <is>
-          <t>€19.7B</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F2862" t="inlineStr"/>
       <c r="G2862" t="inlineStr">
         <is>
-          <t>€ 22B</t>
+          <t>-1.5%</t>
         </is>
       </c>
       <c r="H2862" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2863">
       <c r="A2863" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2863" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2863" t="inlineStr">
         <is>
-          <t>Exports MoMDEC</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2863" t="inlineStr"/>
       <c r="E2863" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>6.7%</t>
         </is>
       </c>
       <c r="F2863" t="inlineStr"/>
       <c r="G2863" t="inlineStr">
         <is>
-          <t>130%</t>
+          <t>6.8%</t>
         </is>
       </c>
       <c r="H2863" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2864">
       <c r="A2864" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2864" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2864" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>Employment ChangeJAN</t>
         </is>
       </c>
       <c r="D2864" t="inlineStr"/>
       <c r="E2864" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>90.9K</t>
         </is>
       </c>
       <c r="F2864" t="inlineStr"/>
       <c r="G2864" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>5K</t>
         </is>
       </c>
       <c r="H2864" t="inlineStr">
@@ -91720,61 +91296,65 @@
     <row r="2865">
       <c r="A2865" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2865" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2865" t="inlineStr">
         <is>
-          <t>Imports MoMDEC</t>
+          <t>Full Time Employment ChgJAN</t>
         </is>
       </c>
       <c r="D2865" t="inlineStr"/>
       <c r="E2865" t="inlineStr">
         <is>
-          <t>-3.3%</t>
+          <t>57.5K</t>
         </is>
       </c>
       <c r="F2865" t="inlineStr"/>
       <c r="G2865" t="inlineStr">
         <is>
-          <t>108%</t>
+          <t>-3K</t>
         </is>
       </c>
       <c r="H2865" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2866">
       <c r="A2866" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2866" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2866" t="inlineStr">
         <is>
-          <t>Halifax House Price Index MoMJAN</t>
+          <t>Part Time Employment ChgJAN</t>
         </is>
       </c>
       <c r="D2866" t="inlineStr"/>
       <c r="E2866" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>33.5K</t>
         </is>
       </c>
       <c r="F2866" t="inlineStr"/>
-      <c r="G2866" t="inlineStr"/>
+      <c r="G2866" t="inlineStr">
+        <is>
+          <t>8K</t>
+        </is>
+      </c>
       <c r="H2866" t="inlineStr">
         <is>
           <t>2</t>
@@ -91784,27 +91364,31 @@
     <row r="2867">
       <c r="A2867" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2867" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2867" t="inlineStr">
         <is>
-          <t>Halifax House Price Index YoYJAN</t>
+          <t>Participation RateJAN</t>
         </is>
       </c>
       <c r="D2867" t="inlineStr"/>
       <c r="E2867" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>65.1%</t>
         </is>
       </c>
       <c r="F2867" t="inlineStr"/>
-      <c r="G2867" t="inlineStr"/>
+      <c r="G2867" t="inlineStr">
+        <is>
+          <t>65.0%</t>
+        </is>
+      </c>
       <c r="H2867" t="inlineStr">
         <is>
           <t>2</t>
@@ -91814,221 +91398,233 @@
     <row r="2868">
       <c r="A2868" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2868" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2868" t="inlineStr">
         <is>
-          <t>Inflation Report</t>
+          <t>Average Hourly Wages YoYJAN</t>
         </is>
       </c>
       <c r="D2868" t="inlineStr"/>
-      <c r="E2868" t="inlineStr"/>
+      <c r="E2868" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
       <c r="F2868" t="inlineStr"/>
-      <c r="G2868" t="inlineStr"/>
+      <c r="G2868" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
       <c r="H2868" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2869">
       <c r="A2869" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2869" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2869" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Non Farm PayrollsJAN</t>
         </is>
       </c>
       <c r="D2869" t="inlineStr"/>
       <c r="E2869" t="inlineStr">
         <is>
-          <t>€-7.1B</t>
+          <t>256K</t>
         </is>
       </c>
       <c r="F2869" t="inlineStr"/>
       <c r="G2869" t="inlineStr">
         <is>
-          <t>€ -7.2B</t>
+          <t>205K</t>
         </is>
       </c>
       <c r="H2869" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2870">
       <c r="A2870" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2870" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2870" t="inlineStr">
         <is>
-          <t>Current AccountDEC</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2870" t="inlineStr"/>
       <c r="E2870" t="inlineStr">
         <is>
-          <t>€-1.7B</t>
+          <t>4.1%</t>
         </is>
       </c>
       <c r="F2870" t="inlineStr"/>
       <c r="G2870" t="inlineStr">
         <is>
-          <t>€ -2.5B</t>
+          <t>4.1%</t>
         </is>
       </c>
       <c r="H2870" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2871">
       <c r="A2871" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2871" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2871" t="inlineStr">
         <is>
-          <t>ExportsDEC</t>
+          <t>Average Hourly Earnings MoMJAN</t>
         </is>
       </c>
       <c r="D2871" t="inlineStr"/>
       <c r="E2871" t="inlineStr">
         <is>
-          <t>€50.101B</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F2871" t="inlineStr"/>
       <c r="G2871" t="inlineStr">
         <is>
-          <t>€ 49.7B</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2871" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2872">
       <c r="A2872" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2872" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2872" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Average Hourly Earnings YoYJAN</t>
         </is>
       </c>
       <c r="D2872" t="inlineStr"/>
       <c r="E2872" t="inlineStr">
         <is>
-          <t>€275.078B</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="F2872" t="inlineStr"/>
-      <c r="G2872" t="inlineStr"/>
+      <c r="G2872" t="inlineStr">
+        <is>
+          <t>3.9%</t>
+        </is>
+      </c>
       <c r="H2872" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2873">
       <c r="A2873" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2873" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2873" t="inlineStr">
         <is>
-          <t>ImportsDEC</t>
+          <t>Participation RateJAN</t>
         </is>
       </c>
       <c r="D2873" t="inlineStr"/>
       <c r="E2873" t="inlineStr">
         <is>
-          <t>€57.186B</t>
+          <t>62.5%</t>
         </is>
       </c>
       <c r="F2873" t="inlineStr"/>
       <c r="G2873" t="inlineStr">
         <is>
-          <t>€ 56.9B</t>
+          <t>62.5%</t>
         </is>
       </c>
       <c r="H2873" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2874">
       <c r="A2874" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2874" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2874" t="inlineStr">
         <is>
-          <t>Private Non Farm Payrolls QoQ PrelQ4</t>
+          <t>Average Weekly HoursJAN</t>
         </is>
       </c>
       <c r="D2874" t="inlineStr"/>
       <c r="E2874" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>34.3</t>
         </is>
       </c>
       <c r="F2874" t="inlineStr"/>
       <c r="G2874" t="inlineStr">
         <is>
-          <t>20200%</t>
+          <t>34.3</t>
         </is>
       </c>
       <c r="H2874" t="inlineStr">
@@ -92040,29 +91636,29 @@
     <row r="2875">
       <c r="A2875" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2875" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2875" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Government PayrollsJAN</t>
         </is>
       </c>
       <c r="D2875" t="inlineStr"/>
       <c r="E2875" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>33K</t>
         </is>
       </c>
       <c r="F2875" t="inlineStr"/>
       <c r="G2875" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>25K</t>
         </is>
       </c>
       <c r="H2875" t="inlineStr">
@@ -92074,27 +91670,31 @@
     <row r="2876">
       <c r="A2876" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2876" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2876" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Manufacturing PayrollsJAN</t>
         </is>
       </c>
       <c r="D2876" t="inlineStr"/>
       <c r="E2876" t="inlineStr">
         <is>
-          <t>S$506.7B</t>
+          <t>-13K</t>
         </is>
       </c>
       <c r="F2876" t="inlineStr"/>
-      <c r="G2876" t="inlineStr"/>
+      <c r="G2876" t="inlineStr">
+        <is>
+          <t>-5K</t>
+        </is>
+      </c>
       <c r="H2876" t="inlineStr">
         <is>
           <t>3</t>
@@ -92104,27 +91704,31 @@
     <row r="2877">
       <c r="A2877" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2877" t="inlineStr">
         <is>
-          <t>WL</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2877" t="inlineStr">
         <is>
-          <t>FAO Food Price IndexJAN</t>
+          <t>Nonfarm Payrolls PrivateJAN</t>
         </is>
       </c>
       <c r="D2877" t="inlineStr"/>
       <c r="E2877" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>223K</t>
         </is>
       </c>
       <c r="F2877" t="inlineStr"/>
-      <c r="G2877" t="inlineStr"/>
+      <c r="G2877" t="inlineStr">
+        <is>
+          <t>180K</t>
+        </is>
+      </c>
       <c r="H2877" t="inlineStr">
         <is>
           <t>3</t>
@@ -92134,27 +91738,31 @@
     <row r="2878">
       <c r="A2878" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2878" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2878" t="inlineStr">
         <is>
-          <t>BBA Mortgage RateJAN</t>
+          <t>U-6 Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2878" t="inlineStr"/>
       <c r="E2878" t="inlineStr">
         <is>
-          <t>7.50%</t>
+          <t>7.5%</t>
         </is>
       </c>
       <c r="F2878" t="inlineStr"/>
-      <c r="G2878" t="inlineStr"/>
+      <c r="G2878" t="inlineStr">
+        <is>
+          <t>7.5%</t>
+        </is>
+      </c>
       <c r="H2878" t="inlineStr">
         <is>
           <t>3</t>
@@ -92164,23 +91772,31 @@
     <row r="2879">
       <c r="A2879" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:45 AM</t>
         </is>
       </c>
       <c r="B2879" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2879" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/31</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2879" t="inlineStr"/>
-      <c r="E2879" t="inlineStr"/>
+      <c r="E2879" t="inlineStr">
+        <is>
+          <t>$609.1B</t>
+        </is>
+      </c>
       <c r="F2879" t="inlineStr"/>
-      <c r="G2879" t="inlineStr"/>
+      <c r="G2879" t="inlineStr">
+        <is>
+          <t>$607.0B</t>
+        </is>
+      </c>
       <c r="H2879" t="inlineStr">
         <is>
           <t>3</t>
@@ -92190,165 +91806,161 @@
     <row r="2880">
       <c r="A2880" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2880" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2880" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Treasury Cash BalanceJAN</t>
         </is>
       </c>
       <c r="D2880" t="inlineStr"/>
       <c r="E2880" t="inlineStr">
         <is>
-          <t>0.52%</t>
+          <t>TRY-323.9B</t>
         </is>
       </c>
       <c r="F2880" t="inlineStr"/>
-      <c r="G2880" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2880" t="inlineStr"/>
       <c r="H2880" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2881">
       <c r="A2881" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2881" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2881" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Full Year GDP Growth2024</t>
         </is>
       </c>
       <c r="D2881" t="inlineStr"/>
       <c r="E2881" t="inlineStr">
         <is>
-          <t>4.83%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="F2881" t="inlineStr"/>
       <c r="G2881" t="inlineStr">
         <is>
-          <t>4.7%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="H2881" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2882">
       <c r="A2882" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2882" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2882" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Michigan Consumer Sentiment PrelFEB</t>
         </is>
       </c>
       <c r="D2882" t="inlineStr"/>
       <c r="E2882" t="inlineStr">
         <is>
-          <t>0.38%</t>
+          <t>71.1</t>
         </is>
       </c>
       <c r="F2882" t="inlineStr"/>
       <c r="G2882" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>72</t>
         </is>
       </c>
       <c r="H2882" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2883">
       <c r="A2883" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2883" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2883" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Michigan 5 Year Inflation Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2883" t="inlineStr"/>
       <c r="E2883" t="inlineStr">
         <is>
-          <t>4.21%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="F2883" t="inlineStr"/>
       <c r="G2883" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H2883" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2884">
       <c r="A2884" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2884" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2884" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMJAN</t>
+          <t>Michigan Consumer Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2884" t="inlineStr"/>
       <c r="E2884" t="inlineStr">
         <is>
-          <t>0.51%</t>
+          <t>69.3</t>
         </is>
       </c>
       <c r="F2884" t="inlineStr"/>
       <c r="G2884" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>69.5</t>
         </is>
       </c>
       <c r="H2884" t="inlineStr">
@@ -92360,29 +91972,29 @@
     <row r="2885">
       <c r="A2885" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2885" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2885" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJAN</t>
+          <t>Michigan Current Conditions PrelFEB</t>
         </is>
       </c>
       <c r="D2885" t="inlineStr"/>
       <c r="E2885" t="inlineStr">
         <is>
-          <t>3.65%</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F2885" t="inlineStr"/>
       <c r="G2885" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>74.3</t>
         </is>
       </c>
       <c r="H2885" t="inlineStr">
@@ -92394,29 +92006,29 @@
     <row r="2886">
       <c r="A2886" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2886" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2886" t="inlineStr">
         <is>
-          <t>Car Production MoMJAN</t>
+          <t>Michigan Inflation Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2886" t="inlineStr"/>
       <c r="E2886" t="inlineStr">
         <is>
-          <t>-19.5%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="F2886" t="inlineStr"/>
       <c r="G2886" t="inlineStr">
         <is>
-          <t>-5.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H2886" t="inlineStr">
@@ -92428,29 +92040,33 @@
     <row r="2887">
       <c r="A2887" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2887" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2887" t="inlineStr">
         <is>
-          <t>New Car Registrations MoMJAN</t>
+          <t>Wholesale Inventories MoMDEC</t>
         </is>
       </c>
       <c r="D2887" t="inlineStr"/>
       <c r="E2887" t="inlineStr">
         <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="F2887" t="inlineStr"/>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="F2887" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
       <c r="G2887" t="inlineStr">
         <is>
-          <t>-1.5%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H2887" t="inlineStr">
@@ -92462,199 +92078,179 @@
     <row r="2888">
       <c r="A2888" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B2888" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2888" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>Balance of TradeJAN</t>
         </is>
       </c>
       <c r="D2888" t="inlineStr"/>
       <c r="E2888" t="inlineStr">
         <is>
-          <t>6.7%</t>
+          <t>$4.8B</t>
         </is>
       </c>
       <c r="F2888" t="inlineStr"/>
       <c r="G2888" t="inlineStr">
         <is>
-          <t>6.8%</t>
+          <t>$4.1B</t>
         </is>
       </c>
       <c r="H2888" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2889">
       <c r="A2889" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B2889" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2889" t="inlineStr">
         <is>
-          <t>Employment ChangeJAN</t>
+          <t>Baker Hughes Oil Rig CountFEB/07</t>
         </is>
       </c>
       <c r="D2889" t="inlineStr"/>
-      <c r="E2889" t="inlineStr">
-        <is>
-          <t>90.9K</t>
-        </is>
-      </c>
+      <c r="E2889" t="inlineStr"/>
       <c r="F2889" t="inlineStr"/>
-      <c r="G2889" t="inlineStr">
-        <is>
-          <t>5K</t>
-        </is>
-      </c>
+      <c r="G2889" t="inlineStr"/>
       <c r="H2889" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2890">
       <c r="A2890" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B2890" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2890" t="inlineStr">
         <is>
-          <t>Full Time Employment ChgJAN</t>
+          <t>Baker Hughes Total Rigs CountFEB/07</t>
         </is>
       </c>
       <c r="D2890" t="inlineStr"/>
-      <c r="E2890" t="inlineStr">
-        <is>
-          <t>57.5K</t>
-        </is>
-      </c>
+      <c r="E2890" t="inlineStr"/>
       <c r="F2890" t="inlineStr"/>
-      <c r="G2890" t="inlineStr">
-        <is>
-          <t>-3K</t>
-        </is>
-      </c>
+      <c r="G2890" t="inlineStr"/>
       <c r="H2890" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2891">
       <c r="A2891" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B2891" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C2891" t="inlineStr">
         <is>
-          <t>Part Time Employment ChgJAN</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2891" t="inlineStr"/>
       <c r="E2891" t="inlineStr">
         <is>
-          <t>33.5K</t>
+          <t>-1.7%</t>
         </is>
       </c>
       <c r="F2891" t="inlineStr"/>
       <c r="G2891" t="inlineStr">
         <is>
-          <t>8K</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H2891" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2892">
       <c r="A2892" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2892" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2892" t="inlineStr">
         <is>
-          <t>Participation RateJAN</t>
+          <t>Consumer Credit ChangeDEC</t>
         </is>
       </c>
       <c r="D2892" t="inlineStr"/>
       <c r="E2892" t="inlineStr">
         <is>
-          <t>65.1%</t>
+          <t>$-7.49B</t>
         </is>
       </c>
       <c r="F2892" t="inlineStr"/>
       <c r="G2892" t="inlineStr">
         <is>
-          <t>65.0%</t>
+          <t>$ 18B</t>
         </is>
       </c>
       <c r="H2892" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2893">
-      <c r="A2893" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2893" t="inlineStr"/>
       <c r="B2893" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2893" t="inlineStr">
         <is>
-          <t>Average Hourly Wages YoYJAN</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2893" t="inlineStr"/>
       <c r="E2893" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>$3.202T</t>
         </is>
       </c>
       <c r="F2893" t="inlineStr"/>
       <c r="G2893" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>$3.3T</t>
         </is>
       </c>
       <c r="H2893" t="inlineStr">
@@ -92664,79 +92260,59 @@
       </c>
     </row>
     <row r="2894">
-      <c r="A2894" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2894" t="inlineStr"/>
       <c r="B2894" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2894" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsJAN</t>
+          <t>SACCI Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2894" t="inlineStr"/>
-      <c r="E2894" t="inlineStr">
-        <is>
-          <t>256K</t>
-        </is>
-      </c>
+      <c r="E2894" t="inlineStr"/>
       <c r="F2894" t="inlineStr"/>
-      <c r="G2894" t="inlineStr">
-        <is>
-          <t>205K</t>
-        </is>
-      </c>
+      <c r="G2894" t="inlineStr"/>
       <c r="H2894" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2895">
-      <c r="A2895" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2895" t="inlineStr"/>
       <c r="B2895" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2895" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>SACCI Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D2895" t="inlineStr"/>
       <c r="E2895" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>118.1</t>
         </is>
       </c>
       <c r="F2895" t="inlineStr"/>
       <c r="G2895" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>116</t>
         </is>
       </c>
       <c r="H2895" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2896">
-      <c r="A2896" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2896" t="inlineStr"/>
       <c r="B2896" t="inlineStr">
         <is>
           <t>US</t>
@@ -92744,33 +92320,25 @@
       </c>
       <c r="C2896" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings MoMJAN</t>
+          <t>Used Car Prices MoMJAN</t>
         </is>
       </c>
       <c r="D2896" t="inlineStr"/>
       <c r="E2896" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F2896" t="inlineStr"/>
-      <c r="G2896" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2896" t="inlineStr"/>
       <c r="H2896" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2897">
-      <c r="A2897" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2897" t="inlineStr"/>
       <c r="B2897" t="inlineStr">
         <is>
           <t>US</t>
@@ -92778,936 +92346,134 @@
       </c>
       <c r="C2897" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoYJAN</t>
+          <t>Used Car Prices YoYJAN</t>
         </is>
       </c>
       <c r="D2897" t="inlineStr"/>
       <c r="E2897" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2897" t="inlineStr"/>
-      <c r="G2897" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
+      <c r="G2897" t="inlineStr"/>
       <c r="H2897" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2898">
       <c r="A2898" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B2898" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2898" t="inlineStr">
-        <is>
-          <t>Participation RateJAN</t>
-        </is>
-      </c>
+          <t>Saturday February 08 2025</t>
+        </is>
+      </c>
+      <c r="B2898" t="inlineStr"/>
+      <c r="C2898" t="inlineStr"/>
       <c r="D2898" t="inlineStr"/>
-      <c r="E2898" t="inlineStr">
-        <is>
-          <t>62.5%</t>
-        </is>
-      </c>
+      <c r="E2898" t="inlineStr"/>
       <c r="F2898" t="inlineStr"/>
-      <c r="G2898" t="inlineStr">
-        <is>
-          <t>62.5%</t>
-        </is>
-      </c>
-      <c r="H2898" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G2898" t="inlineStr"/>
+      <c r="H2898" t="inlineStr"/>
     </row>
     <row r="2899">
       <c r="A2899" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2899" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2899" t="inlineStr">
         <is>
-          <t>Average Weekly HoursJAN</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2899" t="inlineStr"/>
       <c r="E2899" t="inlineStr">
         <is>
-          <t>34.3</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2899" t="inlineStr"/>
       <c r="G2899" t="inlineStr">
         <is>
-          <t>34.3</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="H2899" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2900">
       <c r="A2900" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2900" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2900" t="inlineStr">
         <is>
-          <t>Government PayrollsJAN</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2900" t="inlineStr"/>
       <c r="E2900" t="inlineStr">
         <is>
-          <t>33K</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="F2900" t="inlineStr"/>
       <c r="G2900" t="inlineStr">
         <is>
-          <t>25K</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H2900" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2901">
       <c r="A2901" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2901" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2901" t="inlineStr">
         <is>
-          <t>Manufacturing PayrollsJAN</t>
+          <t>PPI YoYJAN</t>
         </is>
       </c>
       <c r="D2901" t="inlineStr"/>
       <c r="E2901" t="inlineStr">
         <is>
-          <t>-13K</t>
+          <t>-2.3%</t>
         </is>
       </c>
       <c r="F2901" t="inlineStr"/>
       <c r="G2901" t="inlineStr">
         <is>
-          <t>-5K</t>
+          <t>-2.4%</t>
         </is>
       </c>
       <c r="H2901" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2902">
-      <c r="A2902" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B2902" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2902" t="inlineStr">
-        <is>
-          <t>Nonfarm Payrolls PrivateJAN</t>
-        </is>
-      </c>
-      <c r="D2902" t="inlineStr"/>
-      <c r="E2902" t="inlineStr">
-        <is>
-          <t>223K</t>
-        </is>
-      </c>
-      <c r="F2902" t="inlineStr"/>
-      <c r="G2902" t="inlineStr">
-        <is>
-          <t>180K</t>
-        </is>
-      </c>
-      <c r="H2902" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2903">
-      <c r="A2903" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B2903" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2903" t="inlineStr">
-        <is>
-          <t>U-6 Unemployment RateJAN</t>
-        </is>
-      </c>
-      <c r="D2903" t="inlineStr"/>
-      <c r="E2903" t="inlineStr">
-        <is>
-          <t>7.5%</t>
-        </is>
-      </c>
-      <c r="F2903" t="inlineStr"/>
-      <c r="G2903" t="inlineStr">
-        <is>
-          <t>7.5%</t>
-        </is>
-      </c>
-      <c r="H2903" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2904">
-      <c r="A2904" t="inlineStr">
-        <is>
-          <t>08:45 AM</t>
-        </is>
-      </c>
-      <c r="B2904" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2904" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN</t>
-        </is>
-      </c>
-      <c r="D2904" t="inlineStr"/>
-      <c r="E2904" t="inlineStr">
-        <is>
-          <t>$609.1B</t>
-        </is>
-      </c>
-      <c r="F2904" t="inlineStr"/>
-      <c r="G2904" t="inlineStr">
-        <is>
-          <t>$607.0B</t>
-        </is>
-      </c>
-      <c r="H2904" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2905">
-      <c r="A2905" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2905" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2905" t="inlineStr">
-        <is>
-          <t>Treasury Cash BalanceJAN</t>
-        </is>
-      </c>
-      <c r="D2905" t="inlineStr"/>
-      <c r="E2905" t="inlineStr">
-        <is>
-          <t>TRY-323.9B</t>
-        </is>
-      </c>
-      <c r="F2905" t="inlineStr"/>
-      <c r="G2905" t="inlineStr"/>
-      <c r="H2905" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2906">
-      <c r="A2906" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2906" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2906" t="inlineStr">
-        <is>
-          <t>Full Year GDP Growth2024</t>
-        </is>
-      </c>
-      <c r="D2906" t="inlineStr"/>
-      <c r="E2906" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="F2906" t="inlineStr"/>
-      <c r="G2906" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="H2906" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2907">
-      <c r="A2907" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2907" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2907" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2907" t="inlineStr"/>
-      <c r="E2907" t="inlineStr">
-        <is>
-          <t>71.1</t>
-        </is>
-      </c>
-      <c r="F2907" t="inlineStr"/>
-      <c r="G2907" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="H2907" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2908">
-      <c r="A2908" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2908" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2908" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2908" t="inlineStr"/>
-      <c r="E2908" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="F2908" t="inlineStr"/>
-      <c r="G2908" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="H2908" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2909">
-      <c r="A2909" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2909" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2909" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2909" t="inlineStr"/>
-      <c r="E2909" t="inlineStr">
-        <is>
-          <t>69.3</t>
-        </is>
-      </c>
-      <c r="F2909" t="inlineStr"/>
-      <c r="G2909" t="inlineStr">
-        <is>
-          <t>69.5</t>
-        </is>
-      </c>
-      <c r="H2909" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2910">
-      <c r="A2910" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2910" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2910" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2910" t="inlineStr"/>
-      <c r="E2910" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="F2910" t="inlineStr"/>
-      <c r="G2910" t="inlineStr">
-        <is>
-          <t>74.3</t>
-        </is>
-      </c>
-      <c r="H2910" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2911">
-      <c r="A2911" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2911" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2911" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2911" t="inlineStr"/>
-      <c r="E2911" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F2911" t="inlineStr"/>
-      <c r="G2911" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="H2911" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2912">
-      <c r="A2912" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2912" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2912" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2912" t="inlineStr"/>
-      <c r="E2912" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F2912" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="G2912" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="H2912" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2913">
-      <c r="A2913" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B2913" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2913" t="inlineStr">
-        <is>
-          <t>Balance of TradeJAN</t>
-        </is>
-      </c>
-      <c r="D2913" t="inlineStr"/>
-      <c r="E2913" t="inlineStr">
-        <is>
-          <t>$4.8B</t>
-        </is>
-      </c>
-      <c r="F2913" t="inlineStr"/>
-      <c r="G2913" t="inlineStr">
-        <is>
-          <t>$4.1B</t>
-        </is>
-      </c>
-      <c r="H2913" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2914">
-      <c r="A2914" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B2914" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2914" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountFEB/07</t>
-        </is>
-      </c>
-      <c r="D2914" t="inlineStr"/>
-      <c r="E2914" t="inlineStr"/>
-      <c r="F2914" t="inlineStr"/>
-      <c r="G2914" t="inlineStr"/>
-      <c r="H2914" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2915">
-      <c r="A2915" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B2915" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2915" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountFEB/07</t>
-        </is>
-      </c>
-      <c r="D2915" t="inlineStr"/>
-      <c r="E2915" t="inlineStr"/>
-      <c r="F2915" t="inlineStr"/>
-      <c r="G2915" t="inlineStr"/>
-      <c r="H2915" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2916">
-      <c r="A2916" t="inlineStr">
-        <is>
-          <t>02:00 PM</t>
-        </is>
-      </c>
-      <c r="B2916" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C2916" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2916" t="inlineStr"/>
-      <c r="E2916" t="inlineStr">
-        <is>
-          <t>-1.7%</t>
-        </is>
-      </c>
-      <c r="F2916" t="inlineStr"/>
-      <c r="G2916" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="H2916" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2917">
-      <c r="A2917" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B2917" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2917" t="inlineStr">
-        <is>
-          <t>Consumer Credit ChangeDEC</t>
-        </is>
-      </c>
-      <c r="D2917" t="inlineStr"/>
-      <c r="E2917" t="inlineStr">
-        <is>
-          <t>$-7.49B</t>
-        </is>
-      </c>
-      <c r="F2917" t="inlineStr"/>
-      <c r="G2917" t="inlineStr">
-        <is>
-          <t>$ 18B</t>
-        </is>
-      </c>
-      <c r="H2917" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2918">
-      <c r="A2918" t="inlineStr"/>
-      <c r="B2918" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2918" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN</t>
-        </is>
-      </c>
-      <c r="D2918" t="inlineStr"/>
-      <c r="E2918" t="inlineStr">
-        <is>
-          <t>$3.202T</t>
-        </is>
-      </c>
-      <c r="F2918" t="inlineStr"/>
-      <c r="G2918" t="inlineStr">
-        <is>
-          <t>$3.3T</t>
-        </is>
-      </c>
-      <c r="H2918" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2919">
-      <c r="A2919" t="inlineStr"/>
-      <c r="B2919" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C2919" t="inlineStr">
-        <is>
-          <t>SACCI Business ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D2919" t="inlineStr"/>
-      <c r="E2919" t="inlineStr"/>
-      <c r="F2919" t="inlineStr"/>
-      <c r="G2919" t="inlineStr"/>
-      <c r="H2919" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2920">
-      <c r="A2920" t="inlineStr"/>
-      <c r="B2920" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C2920" t="inlineStr">
-        <is>
-          <t>SACCI Business ConfidenceDEC</t>
-        </is>
-      </c>
-      <c r="D2920" t="inlineStr"/>
-      <c r="E2920" t="inlineStr">
-        <is>
-          <t>118.1</t>
-        </is>
-      </c>
-      <c r="F2920" t="inlineStr"/>
-      <c r="G2920" t="inlineStr">
-        <is>
-          <t>116</t>
-        </is>
-      </c>
-      <c r="H2920" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2921">
-      <c r="A2921" t="inlineStr"/>
-      <c r="B2921" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2921" t="inlineStr">
-        <is>
-          <t>Used Car Prices MoMJAN</t>
-        </is>
-      </c>
-      <c r="D2921" t="inlineStr"/>
-      <c r="E2921" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F2921" t="inlineStr"/>
-      <c r="G2921" t="inlineStr"/>
-      <c r="H2921" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2922">
-      <c r="A2922" t="inlineStr"/>
-      <c r="B2922" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2922" t="inlineStr">
-        <is>
-          <t>Used Car Prices YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2922" t="inlineStr"/>
-      <c r="E2922" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F2922" t="inlineStr"/>
-      <c r="G2922" t="inlineStr"/>
-      <c r="H2922" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2923">
-      <c r="A2923" t="inlineStr">
-        <is>
-          <t>Saturday February 08 2025</t>
-        </is>
-      </c>
-      <c r="B2923" t="inlineStr"/>
-      <c r="C2923" t="inlineStr"/>
-      <c r="D2923" t="inlineStr"/>
-      <c r="E2923" t="inlineStr"/>
-      <c r="F2923" t="inlineStr"/>
-      <c r="G2923" t="inlineStr"/>
-      <c r="H2923" t="inlineStr"/>
-    </row>
-    <row r="2924">
-      <c r="A2924" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2924" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2924" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2924" t="inlineStr"/>
-      <c r="E2924" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F2924" t="inlineStr"/>
-      <c r="G2924" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="H2924" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2925">
-      <c r="A2925" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2925" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2925" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMJAN</t>
-        </is>
-      </c>
-      <c r="D2925" t="inlineStr"/>
-      <c r="E2925" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="F2925" t="inlineStr"/>
-      <c r="G2925" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H2925" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2926">
-      <c r="A2926" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2926" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2926" t="inlineStr">
-        <is>
-          <t>PPI YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2926" t="inlineStr"/>
-      <c r="E2926" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
-      <c r="F2926" t="inlineStr"/>
-      <c r="G2926" t="inlineStr">
-        <is>
-          <t>-2.4%</t>
-        </is>
-      </c>
-      <c r="H2926" t="inlineStr">
         <is>
           <t>2</t>
         </is>
